--- a/Фопи/Зарплата ФОП 2021/Табель ФОП 2020/Табель 11 – 21.xlsx
+++ b/Фопи/Зарплата ФОП 2021/Табель ФОП 2020/Табель 11 – 21.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="80" windowWidth="15120" windowHeight="7760" tabRatio="874" activeTab="6"/>
+    <workbookView xWindow="120" yWindow="80" windowWidth="15120" windowHeight="7760" tabRatio="874" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Угринчук" sheetId="25" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="104">
   <si>
     <t>Посада</t>
   </si>
@@ -951,6 +951,42 @@
     <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -996,48 +1032,21 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1056,13 +1065,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1086,15 +1095,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1107,15 +1107,27 @@
     <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1129,18 +1141,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1475,49 +1475,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="112" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="P1" s="101"/>
-      <c r="Q1" s="101"/>
-      <c r="R1" s="101"/>
-      <c r="S1" s="101"/>
-      <c r="T1" s="101"/>
-      <c r="U1" s="101"/>
-      <c r="V1" s="101"/>
-      <c r="W1" s="101"/>
-      <c r="X1" s="101"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="P1" s="113"/>
+      <c r="Q1" s="113"/>
+      <c r="R1" s="113"/>
+      <c r="S1" s="113"/>
+      <c r="T1" s="113"/>
+      <c r="U1" s="113"/>
+      <c r="V1" s="113"/>
+      <c r="W1" s="113"/>
+      <c r="X1" s="113"/>
     </row>
     <row r="2" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="102" t="s">
+      <c r="A2" s="114" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="102"/>
-      <c r="M2" s="102"/>
-      <c r="N2" s="102"/>
-      <c r="O2" s="102"/>
-      <c r="P2" s="102"/>
-      <c r="Q2" s="102"/>
-      <c r="R2" s="102"/>
-      <c r="S2" s="102"/>
-      <c r="T2" s="102"/>
-      <c r="U2" s="102"/>
-      <c r="V2" s="102"/>
-      <c r="W2" s="102"/>
-      <c r="X2" s="102"/>
+      <c r="B2" s="114"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="114"/>
+      <c r="K2" s="114"/>
+      <c r="L2" s="114"/>
+      <c r="M2" s="114"/>
+      <c r="N2" s="114"/>
+      <c r="O2" s="114"/>
+      <c r="P2" s="114"/>
+      <c r="Q2" s="114"/>
+      <c r="R2" s="114"/>
+      <c r="S2" s="114"/>
+      <c r="T2" s="114"/>
+      <c r="U2" s="114"/>
+      <c r="V2" s="114"/>
+      <c r="W2" s="114"/>
+      <c r="X2" s="114"/>
     </row>
     <row r="3" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="93"/>
@@ -1627,147 +1627,147 @@
       <c r="X6" s="2"/>
     </row>
     <row r="7" spans="1:28" ht="20" x14ac:dyDescent="0.35">
-      <c r="A7" s="103" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="103"/>
-      <c r="I7" s="103"/>
-      <c r="J7" s="103"/>
-      <c r="K7" s="103"/>
-      <c r="L7" s="103"/>
-      <c r="M7" s="103"/>
-      <c r="N7" s="103"/>
-      <c r="O7" s="103"/>
-      <c r="P7" s="103"/>
-      <c r="Q7" s="103"/>
-      <c r="R7" s="103"/>
-      <c r="S7" s="103"/>
-      <c r="T7" s="103"/>
-      <c r="U7" s="103"/>
-      <c r="V7" s="103"/>
-      <c r="W7" s="103"/>
-      <c r="X7" s="103"/>
+      <c r="A7" s="115" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="115"/>
+      <c r="C7" s="115"/>
+      <c r="D7" s="115"/>
+      <c r="E7" s="115"/>
+      <c r="F7" s="115"/>
+      <c r="G7" s="115"/>
+      <c r="H7" s="115"/>
+      <c r="I7" s="115"/>
+      <c r="J7" s="115"/>
+      <c r="K7" s="115"/>
+      <c r="L7" s="115"/>
+      <c r="M7" s="115"/>
+      <c r="N7" s="115"/>
+      <c r="O7" s="115"/>
+      <c r="P7" s="115"/>
+      <c r="Q7" s="115"/>
+      <c r="R7" s="115"/>
+      <c r="S7" s="115"/>
+      <c r="T7" s="115"/>
+      <c r="U7" s="115"/>
+      <c r="V7" s="115"/>
+      <c r="W7" s="115"/>
+      <c r="X7" s="115"/>
     </row>
     <row r="8" spans="1:28" ht="20" x14ac:dyDescent="0.35">
-      <c r="A8" s="104" t="str">
+      <c r="A8" s="116" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ЛИСТОПАД 2021р.</v>
       </c>
-      <c r="B8" s="104"/>
-      <c r="C8" s="104"/>
-      <c r="D8" s="104"/>
-      <c r="E8" s="104"/>
-      <c r="F8" s="104"/>
-      <c r="G8" s="104"/>
-      <c r="H8" s="104"/>
-      <c r="I8" s="104"/>
-      <c r="J8" s="104"/>
-      <c r="K8" s="104"/>
-      <c r="L8" s="104"/>
-      <c r="M8" s="104"/>
-      <c r="N8" s="104"/>
-      <c r="O8" s="104"/>
-      <c r="P8" s="104"/>
-      <c r="Q8" s="104"/>
-      <c r="R8" s="104"/>
-      <c r="S8" s="104"/>
-      <c r="T8" s="104"/>
-      <c r="U8" s="104"/>
-      <c r="V8" s="104"/>
-      <c r="W8" s="104"/>
-      <c r="X8" s="104"/>
+      <c r="B8" s="116"/>
+      <c r="C8" s="116"/>
+      <c r="D8" s="116"/>
+      <c r="E8" s="116"/>
+      <c r="F8" s="116"/>
+      <c r="G8" s="116"/>
+      <c r="H8" s="116"/>
+      <c r="I8" s="116"/>
+      <c r="J8" s="116"/>
+      <c r="K8" s="116"/>
+      <c r="L8" s="116"/>
+      <c r="M8" s="116"/>
+      <c r="N8" s="116"/>
+      <c r="O8" s="116"/>
+      <c r="P8" s="116"/>
+      <c r="Q8" s="116"/>
+      <c r="R8" s="116"/>
+      <c r="S8" s="116"/>
+      <c r="T8" s="116"/>
+      <c r="U8" s="116"/>
+      <c r="V8" s="116"/>
+      <c r="W8" s="116"/>
+      <c r="X8" s="116"/>
     </row>
     <row r="9" spans="1:28" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="105" t="s">
+      <c r="A9" s="117" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="106"/>
-      <c r="C9" s="105" t="s">
+      <c r="B9" s="118"/>
+      <c r="C9" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="105" t="s">
+      <c r="D9" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="107" t="s">
+      <c r="E9" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="108"/>
-      <c r="G9" s="108"/>
-      <c r="H9" s="108"/>
-      <c r="I9" s="108"/>
-      <c r="J9" s="108"/>
-      <c r="K9" s="108"/>
-      <c r="L9" s="108"/>
-      <c r="M9" s="108"/>
-      <c r="N9" s="108"/>
-      <c r="O9" s="108"/>
-      <c r="P9" s="108"/>
-      <c r="Q9" s="108"/>
-      <c r="R9" s="108"/>
-      <c r="S9" s="108"/>
-      <c r="T9" s="109"/>
-      <c r="U9" s="113" t="s">
+      <c r="F9" s="120"/>
+      <c r="G9" s="120"/>
+      <c r="H9" s="120"/>
+      <c r="I9" s="120"/>
+      <c r="J9" s="120"/>
+      <c r="K9" s="120"/>
+      <c r="L9" s="120"/>
+      <c r="M9" s="120"/>
+      <c r="N9" s="120"/>
+      <c r="O9" s="120"/>
+      <c r="P9" s="120"/>
+      <c r="Q9" s="120"/>
+      <c r="R9" s="120"/>
+      <c r="S9" s="120"/>
+      <c r="T9" s="121"/>
+      <c r="U9" s="125" t="s">
         <v>48</v>
       </c>
-      <c r="V9" s="113" t="s">
+      <c r="V9" s="125" t="s">
         <v>49</v>
       </c>
-      <c r="W9" s="113" t="s">
+      <c r="W9" s="125" t="s">
         <v>50</v>
       </c>
-      <c r="X9" s="113" t="s">
+      <c r="X9" s="125" t="s">
         <v>47</v>
       </c>
-      <c r="Y9" s="113" t="s">
+      <c r="Y9" s="125" t="s">
         <v>46</v>
       </c>
-      <c r="Z9" s="99" t="s">
+      <c r="Z9" s="111" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:28" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="105"/>
-      <c r="B10" s="106"/>
-      <c r="C10" s="105"/>
-      <c r="D10" s="105"/>
-      <c r="E10" s="110"/>
-      <c r="F10" s="111"/>
-      <c r="G10" s="111"/>
-      <c r="H10" s="111"/>
-      <c r="I10" s="111"/>
-      <c r="J10" s="111"/>
-      <c r="K10" s="111"/>
-      <c r="L10" s="111"/>
-      <c r="M10" s="111"/>
-      <c r="N10" s="111"/>
-      <c r="O10" s="111"/>
-      <c r="P10" s="111"/>
-      <c r="Q10" s="111"/>
-      <c r="R10" s="111"/>
-      <c r="S10" s="111"/>
-      <c r="T10" s="112"/>
-      <c r="U10" s="113"/>
-      <c r="V10" s="113"/>
-      <c r="W10" s="113"/>
-      <c r="X10" s="113"/>
-      <c r="Y10" s="113"/>
-      <c r="Z10" s="99"/>
+      <c r="A10" s="117"/>
+      <c r="B10" s="118"/>
+      <c r="C10" s="117"/>
+      <c r="D10" s="117"/>
+      <c r="E10" s="122"/>
+      <c r="F10" s="123"/>
+      <c r="G10" s="123"/>
+      <c r="H10" s="123"/>
+      <c r="I10" s="123"/>
+      <c r="J10" s="123"/>
+      <c r="K10" s="123"/>
+      <c r="L10" s="123"/>
+      <c r="M10" s="123"/>
+      <c r="N10" s="123"/>
+      <c r="O10" s="123"/>
+      <c r="P10" s="123"/>
+      <c r="Q10" s="123"/>
+      <c r="R10" s="123"/>
+      <c r="S10" s="123"/>
+      <c r="T10" s="124"/>
+      <c r="U10" s="125"/>
+      <c r="V10" s="125"/>
+      <c r="W10" s="125"/>
+      <c r="X10" s="125"/>
+      <c r="Y10" s="125"/>
+      <c r="Z10" s="111"/>
     </row>
     <row r="11" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="114">
+      <c r="A11" s="108">
         <v>1</v>
       </c>
-      <c r="B11" s="114"/>
-      <c r="C11" s="115" t="s">
+      <c r="B11" s="108"/>
+      <c r="C11" s="109" t="s">
         <v>100</v>
       </c>
-      <c r="D11" s="116" t="s">
+      <c r="D11" s="110" t="s">
         <v>84</v>
       </c>
       <c r="E11" s="25">
@@ -1818,28 +1818,28 @@
       <c r="T11" s="25">
         <v>16</v>
       </c>
-      <c r="U11" s="117" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="117" t="s">
-        <v>8</v>
-      </c>
-      <c r="W11" s="120" t="s">
+      <c r="U11" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11" s="99" t="s">
         <v>8</v>
       </c>
       <c r="X11" s="89"/>
-      <c r="Y11" s="120">
+      <c r="Y11" s="99">
         <v>22</v>
       </c>
-      <c r="Z11" s="123">
+      <c r="Z11" s="102">
         <v>6000</v>
       </c>
     </row>
     <row r="12" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="114"/>
-      <c r="B12" s="114"/>
-      <c r="C12" s="115"/>
-      <c r="D12" s="116"/>
+      <c r="A12" s="108"/>
+      <c r="B12" s="108"/>
+      <c r="C12" s="109"/>
+      <c r="D12" s="110"/>
       <c r="E12" s="26">
         <v>4</v>
       </c>
@@ -1888,22 +1888,22 @@
       <c r="T12" s="26">
         <v>4</v>
       </c>
-      <c r="U12" s="118"/>
-      <c r="V12" s="118"/>
-      <c r="W12" s="121"/>
+      <c r="U12" s="106"/>
+      <c r="V12" s="106"/>
+      <c r="W12" s="100"/>
       <c r="X12" s="90"/>
-      <c r="Y12" s="122"/>
-      <c r="Z12" s="123"/>
+      <c r="Y12" s="101"/>
+      <c r="Z12" s="102"/>
       <c r="AA12" s="2">
         <f>SUM(E12:T12)</f>
         <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="114"/>
-      <c r="B13" s="114"/>
-      <c r="C13" s="115"/>
-      <c r="D13" s="116"/>
+      <c r="A13" s="108"/>
+      <c r="B13" s="108"/>
+      <c r="C13" s="109"/>
+      <c r="D13" s="110"/>
       <c r="E13" s="27">
         <v>17</v>
       </c>
@@ -1952,25 +1952,25 @@
       <c r="T13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U13" s="118"/>
-      <c r="V13" s="118"/>
-      <c r="W13" s="121"/>
+      <c r="U13" s="106"/>
+      <c r="V13" s="106"/>
+      <c r="W13" s="100"/>
       <c r="X13" s="90"/>
-      <c r="Y13" s="120">
+      <c r="Y13" s="99">
         <f>AB13</f>
         <v>88</v>
       </c>
-      <c r="Z13" s="123"/>
+      <c r="Z13" s="102"/>
       <c r="AB13" s="2">
         <f>AA12+AA14</f>
         <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="114"/>
-      <c r="B14" s="114"/>
-      <c r="C14" s="115"/>
-      <c r="D14" s="116"/>
+      <c r="A14" s="108"/>
+      <c r="B14" s="108"/>
+      <c r="C14" s="109"/>
+      <c r="D14" s="110"/>
       <c r="E14" s="26">
         <v>4</v>
       </c>
@@ -2019,12 +2019,12 @@
       <c r="T14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="119"/>
-      <c r="V14" s="119"/>
-      <c r="W14" s="122"/>
+      <c r="U14" s="107"/>
+      <c r="V14" s="107"/>
+      <c r="W14" s="101"/>
       <c r="X14" s="91"/>
-      <c r="Y14" s="122"/>
-      <c r="Z14" s="123"/>
+      <c r="Y14" s="101"/>
+      <c r="Z14" s="102"/>
       <c r="AA14" s="2">
         <f>SUM(E14:T14)</f>
         <v>40</v>
@@ -2109,18 +2109,18 @@
       <c r="X17" s="9"/>
     </row>
     <row r="18" spans="1:24" s="92" customFormat="1" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="B18" s="124" t="s">
+      <c r="B18" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="124"/>
-      <c r="D18" s="125">
+      <c r="C18" s="103"/>
+      <c r="D18" s="104">
         <f>Мельницький!C36</f>
         <v>44531</v>
       </c>
-      <c r="E18" s="125"/>
-      <c r="F18" s="125"/>
-      <c r="G18" s="125"/>
-      <c r="H18" s="125"/>
+      <c r="E18" s="104"/>
+      <c r="F18" s="104"/>
+      <c r="G18" s="104"/>
+      <c r="H18" s="104"/>
       <c r="L18" s="92" t="s">
         <v>99</v>
       </c>
@@ -2162,18 +2162,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="W11:W14"/>
-    <mergeCell ref="Y11:Y12"/>
-    <mergeCell ref="Z11:Z14"/>
-    <mergeCell ref="Y13:Y14"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:H18"/>
-    <mergeCell ref="V11:V14"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="U11:U14"/>
     <mergeCell ref="Z9:Z10"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="P1:X1"/>
@@ -2190,6 +2178,18 @@
     <mergeCell ref="W9:W10"/>
     <mergeCell ref="X9:X10"/>
     <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="U11:U14"/>
+    <mergeCell ref="W11:W14"/>
+    <mergeCell ref="Y11:Y12"/>
+    <mergeCell ref="Z11:Z14"/>
+    <mergeCell ref="Y13:Y14"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:H18"/>
+    <mergeCell ref="V11:V14"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="99" orientation="landscape" r:id="rId1"/>
@@ -2354,63 +2354,63 @@
       <c r="Y5" s="65"/>
     </row>
     <row r="6" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A6" s="103" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="103"/>
-      <c r="C6" s="103"/>
-      <c r="D6" s="103"/>
-      <c r="E6" s="103"/>
-      <c r="F6" s="103"/>
-      <c r="G6" s="103"/>
-      <c r="H6" s="103"/>
-      <c r="I6" s="103"/>
-      <c r="J6" s="103"/>
-      <c r="K6" s="103"/>
-      <c r="L6" s="103"/>
-      <c r="M6" s="103"/>
-      <c r="N6" s="103"/>
-      <c r="O6" s="103"/>
-      <c r="P6" s="103"/>
-      <c r="Q6" s="103"/>
-      <c r="R6" s="103"/>
-      <c r="S6" s="103"/>
-      <c r="T6" s="103"/>
-      <c r="U6" s="103"/>
-      <c r="V6" s="103"/>
-      <c r="W6" s="103"/>
-      <c r="X6" s="103"/>
-      <c r="Y6" s="103"/>
+      <c r="A6" s="115" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="115"/>
+      <c r="C6" s="115"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="115"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="115"/>
+      <c r="J6" s="115"/>
+      <c r="K6" s="115"/>
+      <c r="L6" s="115"/>
+      <c r="M6" s="115"/>
+      <c r="N6" s="115"/>
+      <c r="O6" s="115"/>
+      <c r="P6" s="115"/>
+      <c r="Q6" s="115"/>
+      <c r="R6" s="115"/>
+      <c r="S6" s="115"/>
+      <c r="T6" s="115"/>
+      <c r="U6" s="115"/>
+      <c r="V6" s="115"/>
+      <c r="W6" s="115"/>
+      <c r="X6" s="115"/>
+      <c r="Y6" s="115"/>
     </row>
     <row r="7" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A7" s="103" t="str">
+      <c r="A7" s="115" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ЛИСТОПАД 2021р.</v>
       </c>
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="103"/>
-      <c r="I7" s="103"/>
-      <c r="J7" s="103"/>
-      <c r="K7" s="103"/>
-      <c r="L7" s="103"/>
-      <c r="M7" s="103"/>
-      <c r="N7" s="103"/>
-      <c r="O7" s="103"/>
-      <c r="P7" s="103"/>
-      <c r="Q7" s="103"/>
-      <c r="R7" s="103"/>
-      <c r="S7" s="103"/>
-      <c r="T7" s="103"/>
-      <c r="U7" s="103"/>
-      <c r="V7" s="103"/>
-      <c r="W7" s="103"/>
-      <c r="X7" s="103"/>
-      <c r="Y7" s="103"/>
+      <c r="B7" s="115"/>
+      <c r="C7" s="115"/>
+      <c r="D7" s="115"/>
+      <c r="E7" s="115"/>
+      <c r="F7" s="115"/>
+      <c r="G7" s="115"/>
+      <c r="H7" s="115"/>
+      <c r="I7" s="115"/>
+      <c r="J7" s="115"/>
+      <c r="K7" s="115"/>
+      <c r="L7" s="115"/>
+      <c r="M7" s="115"/>
+      <c r="N7" s="115"/>
+      <c r="O7" s="115"/>
+      <c r="P7" s="115"/>
+      <c r="Q7" s="115"/>
+      <c r="R7" s="115"/>
+      <c r="S7" s="115"/>
+      <c r="T7" s="115"/>
+      <c r="U7" s="115"/>
+      <c r="V7" s="115"/>
+      <c r="W7" s="115"/>
+      <c r="X7" s="115"/>
+      <c r="Y7" s="115"/>
     </row>
     <row r="8" spans="1:26" ht="20" x14ac:dyDescent="0.35">
       <c r="A8" s="63"/>
@@ -2440,94 +2440,94 @@
       <c r="Y8" s="63"/>
     </row>
     <row r="9" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="105" t="s">
+      <c r="A9" s="117" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="106" t="s">
+      <c r="B9" s="118" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="105" t="s">
+      <c r="C9" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="105" t="s">
+      <c r="D9" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="105" t="s">
+      <c r="E9" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="105"/>
-      <c r="G9" s="105"/>
-      <c r="H9" s="105"/>
-      <c r="I9" s="105"/>
-      <c r="J9" s="105"/>
-      <c r="K9" s="105"/>
-      <c r="L9" s="105"/>
-      <c r="M9" s="105"/>
-      <c r="N9" s="105"/>
-      <c r="O9" s="105"/>
-      <c r="P9" s="105"/>
-      <c r="Q9" s="105"/>
-      <c r="R9" s="105"/>
-      <c r="S9" s="105"/>
-      <c r="T9" s="105"/>
-      <c r="U9" s="113" t="s">
+      <c r="F9" s="117"/>
+      <c r="G9" s="117"/>
+      <c r="H9" s="117"/>
+      <c r="I9" s="117"/>
+      <c r="J9" s="117"/>
+      <c r="K9" s="117"/>
+      <c r="L9" s="117"/>
+      <c r="M9" s="117"/>
+      <c r="N9" s="117"/>
+      <c r="O9" s="117"/>
+      <c r="P9" s="117"/>
+      <c r="Q9" s="117"/>
+      <c r="R9" s="117"/>
+      <c r="S9" s="117"/>
+      <c r="T9" s="117"/>
+      <c r="U9" s="125" t="s">
         <v>48</v>
       </c>
-      <c r="V9" s="113" t="s">
+      <c r="V9" s="125" t="s">
         <v>49</v>
       </c>
-      <c r="W9" s="113" t="s">
+      <c r="W9" s="125" t="s">
         <v>50</v>
       </c>
-      <c r="X9" s="113" t="s">
+      <c r="X9" s="125" t="s">
         <v>47</v>
       </c>
-      <c r="Y9" s="113" t="s">
+      <c r="Y9" s="125" t="s">
         <v>46</v>
       </c>
-      <c r="Z9" s="99" t="s">
+      <c r="Z9" s="111" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="105"/>
-      <c r="B10" s="106"/>
-      <c r="C10" s="105"/>
-      <c r="D10" s="105"/>
-      <c r="E10" s="105"/>
-      <c r="F10" s="105"/>
-      <c r="G10" s="105"/>
-      <c r="H10" s="105"/>
-      <c r="I10" s="105"/>
-      <c r="J10" s="105"/>
-      <c r="K10" s="105"/>
-      <c r="L10" s="105"/>
-      <c r="M10" s="105"/>
-      <c r="N10" s="105"/>
-      <c r="O10" s="105"/>
-      <c r="P10" s="105"/>
-      <c r="Q10" s="105"/>
-      <c r="R10" s="105"/>
-      <c r="S10" s="105"/>
-      <c r="T10" s="105"/>
-      <c r="U10" s="113"/>
-      <c r="V10" s="113"/>
-      <c r="W10" s="113"/>
-      <c r="X10" s="113"/>
-      <c r="Y10" s="113"/>
-      <c r="Z10" s="99"/>
+      <c r="A10" s="117"/>
+      <c r="B10" s="118"/>
+      <c r="C10" s="117"/>
+      <c r="D10" s="117"/>
+      <c r="E10" s="117"/>
+      <c r="F10" s="117"/>
+      <c r="G10" s="117"/>
+      <c r="H10" s="117"/>
+      <c r="I10" s="117"/>
+      <c r="J10" s="117"/>
+      <c r="K10" s="117"/>
+      <c r="L10" s="117"/>
+      <c r="M10" s="117"/>
+      <c r="N10" s="117"/>
+      <c r="O10" s="117"/>
+      <c r="P10" s="117"/>
+      <c r="Q10" s="117"/>
+      <c r="R10" s="117"/>
+      <c r="S10" s="117"/>
+      <c r="T10" s="117"/>
+      <c r="U10" s="125"/>
+      <c r="V10" s="125"/>
+      <c r="W10" s="125"/>
+      <c r="X10" s="125"/>
+      <c r="Y10" s="125"/>
+      <c r="Z10" s="111"/>
     </row>
     <row r="11" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="114">
+      <c r="A11" s="108">
         <v>1</v>
       </c>
-      <c r="B11" s="114">
+      <c r="B11" s="108">
         <v>1</v>
       </c>
-      <c r="C11" s="115" t="s">
+      <c r="C11" s="109" t="s">
         <v>78</v>
       </c>
-      <c r="D11" s="116" t="s">
+      <c r="D11" s="110" t="s">
         <v>74</v>
       </c>
       <c r="E11" s="25">
@@ -2578,17 +2578,17 @@
       <c r="T11" s="25">
         <v>16</v>
       </c>
-      <c r="U11" s="117" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="117" t="s">
-        <v>8</v>
-      </c>
-      <c r="W11" s="120" t="s">
+      <c r="U11" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11" s="99" t="s">
         <v>8</v>
       </c>
       <c r="X11" s="147"/>
-      <c r="Y11" s="120" t="s">
+      <c r="Y11" s="99" t="s">
         <v>8</v>
       </c>
       <c r="Z11" s="163">
@@ -2596,10 +2596,10 @@
       </c>
     </row>
     <row r="12" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="114"/>
-      <c r="B12" s="114"/>
-      <c r="C12" s="115"/>
-      <c r="D12" s="116"/>
+      <c r="A12" s="108"/>
+      <c r="B12" s="108"/>
+      <c r="C12" s="109"/>
+      <c r="D12" s="110"/>
       <c r="E12" s="26" t="s">
         <v>88</v>
       </c>
@@ -2648,18 +2648,18 @@
       <c r="T12" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="U12" s="118"/>
-      <c r="V12" s="118"/>
-      <c r="W12" s="121"/>
+      <c r="U12" s="106"/>
+      <c r="V12" s="106"/>
+      <c r="W12" s="100"/>
       <c r="X12" s="148"/>
-      <c r="Y12" s="122"/>
+      <c r="Y12" s="101"/>
       <c r="Z12" s="163"/>
     </row>
     <row r="13" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="114"/>
-      <c r="B13" s="114"/>
-      <c r="C13" s="115"/>
-      <c r="D13" s="116"/>
+      <c r="A13" s="108"/>
+      <c r="B13" s="108"/>
+      <c r="C13" s="109"/>
+      <c r="D13" s="110"/>
       <c r="E13" s="27">
         <v>17</v>
       </c>
@@ -2708,20 +2708,20 @@
       <c r="T13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U13" s="118"/>
-      <c r="V13" s="118"/>
-      <c r="W13" s="121"/>
+      <c r="U13" s="106"/>
+      <c r="V13" s="106"/>
+      <c r="W13" s="100"/>
       <c r="X13" s="148"/>
-      <c r="Y13" s="120" t="s">
+      <c r="Y13" s="99" t="s">
         <v>8</v>
       </c>
       <c r="Z13" s="163"/>
     </row>
     <row r="14" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="114"/>
-      <c r="B14" s="114"/>
-      <c r="C14" s="115"/>
-      <c r="D14" s="116"/>
+      <c r="A14" s="108"/>
+      <c r="B14" s="108"/>
+      <c r="C14" s="109"/>
+      <c r="D14" s="110"/>
       <c r="E14" s="26" t="s">
         <v>88</v>
       </c>
@@ -2770,18 +2770,18 @@
       <c r="T14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="119"/>
-      <c r="V14" s="119"/>
-      <c r="W14" s="122"/>
+      <c r="U14" s="107"/>
+      <c r="V14" s="107"/>
+      <c r="W14" s="101"/>
       <c r="X14" s="149"/>
-      <c r="Y14" s="122"/>
+      <c r="Y14" s="101"/>
       <c r="Z14" s="163"/>
     </row>
     <row r="15" spans="1:26" s="64" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="124" t="s">
+      <c r="B15" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="124"/>
+      <c r="C15" s="103"/>
       <c r="D15" s="66">
         <f>Мельницький!C36</f>
         <v>44531</v>
@@ -2845,18 +2845,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A6:Y6"/>
-    <mergeCell ref="A7:Y7"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:T10"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="Y9:Y10"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="Z9:Z10"/>
     <mergeCell ref="A11:A14"/>
@@ -2870,6 +2858,18 @@
     <mergeCell ref="Y11:Y12"/>
     <mergeCell ref="Z11:Z14"/>
     <mergeCell ref="Y13:Y14"/>
+    <mergeCell ref="A6:Y6"/>
+    <mergeCell ref="A7:Y7"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:T10"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="Y9:Y10"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -3057,147 +3057,147 @@
       <c r="X6" s="19"/>
     </row>
     <row r="7" spans="1:27" ht="20" x14ac:dyDescent="0.35">
-      <c r="A7" s="103" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="103"/>
-      <c r="I7" s="103"/>
-      <c r="J7" s="103"/>
-      <c r="K7" s="103"/>
-      <c r="L7" s="103"/>
-      <c r="M7" s="103"/>
-      <c r="N7" s="103"/>
-      <c r="O7" s="103"/>
-      <c r="P7" s="103"/>
-      <c r="Q7" s="103"/>
-      <c r="R7" s="103"/>
-      <c r="S7" s="103"/>
-      <c r="T7" s="103"/>
-      <c r="U7" s="103"/>
-      <c r="V7" s="103"/>
-      <c r="W7" s="103"/>
-      <c r="X7" s="103"/>
+      <c r="A7" s="115" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="115"/>
+      <c r="C7" s="115"/>
+      <c r="D7" s="115"/>
+      <c r="E7" s="115"/>
+      <c r="F7" s="115"/>
+      <c r="G7" s="115"/>
+      <c r="H7" s="115"/>
+      <c r="I7" s="115"/>
+      <c r="J7" s="115"/>
+      <c r="K7" s="115"/>
+      <c r="L7" s="115"/>
+      <c r="M7" s="115"/>
+      <c r="N7" s="115"/>
+      <c r="O7" s="115"/>
+      <c r="P7" s="115"/>
+      <c r="Q7" s="115"/>
+      <c r="R7" s="115"/>
+      <c r="S7" s="115"/>
+      <c r="T7" s="115"/>
+      <c r="U7" s="115"/>
+      <c r="V7" s="115"/>
+      <c r="W7" s="115"/>
+      <c r="X7" s="115"/>
     </row>
     <row r="8" spans="1:27" ht="20" x14ac:dyDescent="0.35">
-      <c r="A8" s="103" t="str">
+      <c r="A8" s="115" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ЛИСТОПАД 2021р.</v>
       </c>
-      <c r="B8" s="103"/>
-      <c r="C8" s="103"/>
-      <c r="D8" s="103"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="103"/>
-      <c r="G8" s="103"/>
-      <c r="H8" s="103"/>
-      <c r="I8" s="103"/>
-      <c r="J8" s="103"/>
-      <c r="K8" s="103"/>
-      <c r="L8" s="103"/>
-      <c r="M8" s="103"/>
-      <c r="N8" s="103"/>
-      <c r="O8" s="103"/>
-      <c r="P8" s="103"/>
-      <c r="Q8" s="103"/>
-      <c r="R8" s="103"/>
-      <c r="S8" s="103"/>
-      <c r="T8" s="103"/>
-      <c r="U8" s="103"/>
-      <c r="V8" s="103"/>
-      <c r="W8" s="103"/>
-      <c r="X8" s="103"/>
+      <c r="B8" s="115"/>
+      <c r="C8" s="115"/>
+      <c r="D8" s="115"/>
+      <c r="E8" s="115"/>
+      <c r="F8" s="115"/>
+      <c r="G8" s="115"/>
+      <c r="H8" s="115"/>
+      <c r="I8" s="115"/>
+      <c r="J8" s="115"/>
+      <c r="K8" s="115"/>
+      <c r="L8" s="115"/>
+      <c r="M8" s="115"/>
+      <c r="N8" s="115"/>
+      <c r="O8" s="115"/>
+      <c r="P8" s="115"/>
+      <c r="Q8" s="115"/>
+      <c r="R8" s="115"/>
+      <c r="S8" s="115"/>
+      <c r="T8" s="115"/>
+      <c r="U8" s="115"/>
+      <c r="V8" s="115"/>
+      <c r="W8" s="115"/>
+      <c r="X8" s="115"/>
     </row>
     <row r="9" spans="1:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="105" t="s">
+      <c r="A9" s="117" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="106" t="s">
+      <c r="B9" s="118" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="105" t="s">
+      <c r="C9" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="105" t="s">
+      <c r="D9" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="105" t="s">
+      <c r="E9" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="105"/>
-      <c r="G9" s="105"/>
-      <c r="H9" s="105"/>
-      <c r="I9" s="105"/>
-      <c r="J9" s="105"/>
-      <c r="K9" s="105"/>
-      <c r="L9" s="105"/>
-      <c r="M9" s="105"/>
-      <c r="N9" s="105"/>
-      <c r="O9" s="105"/>
-      <c r="P9" s="105"/>
-      <c r="Q9" s="105"/>
-      <c r="R9" s="105"/>
-      <c r="S9" s="105"/>
-      <c r="T9" s="105"/>
-      <c r="U9" s="113" t="s">
+      <c r="F9" s="117"/>
+      <c r="G9" s="117"/>
+      <c r="H9" s="117"/>
+      <c r="I9" s="117"/>
+      <c r="J9" s="117"/>
+      <c r="K9" s="117"/>
+      <c r="L9" s="117"/>
+      <c r="M9" s="117"/>
+      <c r="N9" s="117"/>
+      <c r="O9" s="117"/>
+      <c r="P9" s="117"/>
+      <c r="Q9" s="117"/>
+      <c r="R9" s="117"/>
+      <c r="S9" s="117"/>
+      <c r="T9" s="117"/>
+      <c r="U9" s="125" t="s">
         <v>5</v>
       </c>
-      <c r="V9" s="113" t="s">
+      <c r="V9" s="125" t="s">
         <v>6</v>
       </c>
-      <c r="W9" s="113" t="s">
+      <c r="W9" s="125" t="s">
         <v>14</v>
       </c>
-      <c r="X9" s="113" t="s">
+      <c r="X9" s="125" t="s">
         <v>7</v>
       </c>
-      <c r="Y9" s="99" t="s">
+      <c r="Y9" s="111" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:27" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="105"/>
-      <c r="B10" s="106"/>
-      <c r="C10" s="105"/>
-      <c r="D10" s="105"/>
-      <c r="E10" s="105"/>
-      <c r="F10" s="105"/>
-      <c r="G10" s="105"/>
-      <c r="H10" s="105"/>
-      <c r="I10" s="105"/>
-      <c r="J10" s="105"/>
-      <c r="K10" s="105"/>
-      <c r="L10" s="105"/>
-      <c r="M10" s="105"/>
-      <c r="N10" s="105"/>
-      <c r="O10" s="105"/>
-      <c r="P10" s="105"/>
-      <c r="Q10" s="105"/>
-      <c r="R10" s="105"/>
-      <c r="S10" s="105"/>
-      <c r="T10" s="105"/>
-      <c r="U10" s="113"/>
-      <c r="V10" s="113"/>
-      <c r="W10" s="113"/>
-      <c r="X10" s="113"/>
-      <c r="Y10" s="99"/>
+      <c r="A10" s="117"/>
+      <c r="B10" s="118"/>
+      <c r="C10" s="117"/>
+      <c r="D10" s="117"/>
+      <c r="E10" s="117"/>
+      <c r="F10" s="117"/>
+      <c r="G10" s="117"/>
+      <c r="H10" s="117"/>
+      <c r="I10" s="117"/>
+      <c r="J10" s="117"/>
+      <c r="K10" s="117"/>
+      <c r="L10" s="117"/>
+      <c r="M10" s="117"/>
+      <c r="N10" s="117"/>
+      <c r="O10" s="117"/>
+      <c r="P10" s="117"/>
+      <c r="Q10" s="117"/>
+      <c r="R10" s="117"/>
+      <c r="S10" s="117"/>
+      <c r="T10" s="117"/>
+      <c r="U10" s="125"/>
+      <c r="V10" s="125"/>
+      <c r="W10" s="125"/>
+      <c r="X10" s="125"/>
+      <c r="Y10" s="111"/>
     </row>
     <row r="11" spans="1:27" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="114">
+      <c r="A11" s="108">
         <v>1</v>
       </c>
-      <c r="B11" s="114">
+      <c r="B11" s="108">
         <v>1</v>
       </c>
-      <c r="C11" s="115" t="s">
+      <c r="C11" s="109" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="116" t="s">
+      <c r="D11" s="110" t="s">
         <v>56</v>
       </c>
       <c r="E11" s="25">
@@ -3248,29 +3248,29 @@
       <c r="T11" s="25">
         <v>16</v>
       </c>
-      <c r="U11" s="117" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="117" t="s">
-        <v>8</v>
-      </c>
-      <c r="W11" s="120" t="s">
-        <v>8</v>
-      </c>
-      <c r="X11" s="120">
+      <c r="U11" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11" s="99" t="s">
+        <v>8</v>
+      </c>
+      <c r="X11" s="99">
         <v>21</v>
       </c>
-      <c r="Y11" s="120"/>
+      <c r="Y11" s="99"/>
       <c r="Z11" s="3">
         <f>SUM(E12:T12)</f>
         <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:27" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="114"/>
-      <c r="B12" s="114"/>
-      <c r="C12" s="115"/>
-      <c r="D12" s="116"/>
+      <c r="A12" s="108"/>
+      <c r="B12" s="108"/>
+      <c r="C12" s="109"/>
+      <c r="D12" s="110"/>
       <c r="E12" s="26" t="s">
         <v>13</v>
       </c>
@@ -3319,17 +3319,17 @@
       <c r="T12" s="26">
         <v>2</v>
       </c>
-      <c r="U12" s="118"/>
-      <c r="V12" s="118"/>
-      <c r="W12" s="121"/>
-      <c r="X12" s="121"/>
-      <c r="Y12" s="121"/>
+      <c r="U12" s="106"/>
+      <c r="V12" s="106"/>
+      <c r="W12" s="100"/>
+      <c r="X12" s="100"/>
+      <c r="Y12" s="100"/>
     </row>
     <row r="13" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="114"/>
-      <c r="B13" s="114"/>
-      <c r="C13" s="115"/>
-      <c r="D13" s="116"/>
+      <c r="A13" s="108"/>
+      <c r="B13" s="108"/>
+      <c r="C13" s="109"/>
+      <c r="D13" s="110"/>
       <c r="E13" s="27">
         <v>17</v>
       </c>
@@ -3378,23 +3378,23 @@
       <c r="T13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U13" s="118"/>
-      <c r="V13" s="118"/>
-      <c r="W13" s="121"/>
-      <c r="X13" s="121">
+      <c r="U13" s="106"/>
+      <c r="V13" s="106"/>
+      <c r="W13" s="100"/>
+      <c r="X13" s="100">
         <v>42</v>
       </c>
-      <c r="Y13" s="121"/>
+      <c r="Y13" s="100"/>
       <c r="AA13" s="2">
         <f>Z11+Z14</f>
         <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="114"/>
-      <c r="B14" s="114"/>
-      <c r="C14" s="115"/>
-      <c r="D14" s="116"/>
+      <c r="A14" s="108"/>
+      <c r="B14" s="108"/>
+      <c r="C14" s="109"/>
+      <c r="D14" s="110"/>
       <c r="E14" s="26">
         <v>2</v>
       </c>
@@ -3443,11 +3443,11 @@
       <c r="T14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="119"/>
-      <c r="V14" s="119"/>
-      <c r="W14" s="122"/>
-      <c r="X14" s="122"/>
-      <c r="Y14" s="122"/>
+      <c r="U14" s="107"/>
+      <c r="V14" s="107"/>
+      <c r="W14" s="101"/>
+      <c r="X14" s="101"/>
+      <c r="Y14" s="101"/>
       <c r="Z14" s="3">
         <f>SUM(E14:T14)</f>
         <v>22</v>
@@ -3506,10 +3506,10 @@
       <c r="X16" s="9"/>
     </row>
     <row r="17" spans="2:12" s="36" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="140" t="s">
+      <c r="B17" s="143" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="140"/>
+      <c r="C17" s="143"/>
       <c r="D17" s="37">
         <f>Мельницький!C36</f>
         <v>44531</v>
@@ -3573,6 +3573,20 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="V11:V14"/>
+    <mergeCell ref="W11:W14"/>
+    <mergeCell ref="X11:X12"/>
+    <mergeCell ref="X13:X14"/>
+    <mergeCell ref="Y11:Y14"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="U11:U14"/>
     <mergeCell ref="A7:X7"/>
     <mergeCell ref="A8:X8"/>
     <mergeCell ref="A9:A10"/>
@@ -3582,20 +3596,6 @@
     <mergeCell ref="E9:T10"/>
     <mergeCell ref="U9:U10"/>
     <mergeCell ref="V9:V10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="U11:U14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="V11:V14"/>
-    <mergeCell ref="W11:W14"/>
-    <mergeCell ref="X11:X12"/>
-    <mergeCell ref="X13:X14"/>
-    <mergeCell ref="Y11:Y14"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="99" orientation="landscape" r:id="rId1"/>
@@ -3783,147 +3783,147 @@
       <c r="X6" s="19"/>
     </row>
     <row r="7" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A7" s="103" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="103"/>
-      <c r="I7" s="103"/>
-      <c r="J7" s="103"/>
-      <c r="K7" s="103"/>
-      <c r="L7" s="103"/>
-      <c r="M7" s="103"/>
-      <c r="N7" s="103"/>
-      <c r="O7" s="103"/>
-      <c r="P7" s="103"/>
-      <c r="Q7" s="103"/>
-      <c r="R7" s="103"/>
-      <c r="S7" s="103"/>
-      <c r="T7" s="103"/>
-      <c r="U7" s="103"/>
-      <c r="V7" s="103"/>
-      <c r="W7" s="103"/>
-      <c r="X7" s="103"/>
+      <c r="A7" s="115" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="115"/>
+      <c r="C7" s="115"/>
+      <c r="D7" s="115"/>
+      <c r="E7" s="115"/>
+      <c r="F7" s="115"/>
+      <c r="G7" s="115"/>
+      <c r="H7" s="115"/>
+      <c r="I7" s="115"/>
+      <c r="J7" s="115"/>
+      <c r="K7" s="115"/>
+      <c r="L7" s="115"/>
+      <c r="M7" s="115"/>
+      <c r="N7" s="115"/>
+      <c r="O7" s="115"/>
+      <c r="P7" s="115"/>
+      <c r="Q7" s="115"/>
+      <c r="R7" s="115"/>
+      <c r="S7" s="115"/>
+      <c r="T7" s="115"/>
+      <c r="U7" s="115"/>
+      <c r="V7" s="115"/>
+      <c r="W7" s="115"/>
+      <c r="X7" s="115"/>
     </row>
     <row r="8" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A8" s="103" t="str">
+      <c r="A8" s="115" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ЛИСТОПАД 2021р.</v>
       </c>
-      <c r="B8" s="103"/>
-      <c r="C8" s="103"/>
-      <c r="D8" s="103"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="103"/>
-      <c r="G8" s="103"/>
-      <c r="H8" s="103"/>
-      <c r="I8" s="103"/>
-      <c r="J8" s="103"/>
-      <c r="K8" s="103"/>
-      <c r="L8" s="103"/>
-      <c r="M8" s="103"/>
-      <c r="N8" s="103"/>
-      <c r="O8" s="103"/>
-      <c r="P8" s="103"/>
-      <c r="Q8" s="103"/>
-      <c r="R8" s="103"/>
-      <c r="S8" s="103"/>
-      <c r="T8" s="103"/>
-      <c r="U8" s="103"/>
-      <c r="V8" s="103"/>
-      <c r="W8" s="103"/>
-      <c r="X8" s="103"/>
+      <c r="B8" s="115"/>
+      <c r="C8" s="115"/>
+      <c r="D8" s="115"/>
+      <c r="E8" s="115"/>
+      <c r="F8" s="115"/>
+      <c r="G8" s="115"/>
+      <c r="H8" s="115"/>
+      <c r="I8" s="115"/>
+      <c r="J8" s="115"/>
+      <c r="K8" s="115"/>
+      <c r="L8" s="115"/>
+      <c r="M8" s="115"/>
+      <c r="N8" s="115"/>
+      <c r="O8" s="115"/>
+      <c r="P8" s="115"/>
+      <c r="Q8" s="115"/>
+      <c r="R8" s="115"/>
+      <c r="S8" s="115"/>
+      <c r="T8" s="115"/>
+      <c r="U8" s="115"/>
+      <c r="V8" s="115"/>
+      <c r="W8" s="115"/>
+      <c r="X8" s="115"/>
     </row>
     <row r="9" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="105" t="s">
+      <c r="A9" s="117" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="106" t="s">
+      <c r="B9" s="118" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="105" t="s">
+      <c r="C9" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="105" t="s">
+      <c r="D9" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="105" t="s">
+      <c r="E9" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="105"/>
-      <c r="G9" s="105"/>
-      <c r="H9" s="105"/>
-      <c r="I9" s="105"/>
-      <c r="J9" s="105"/>
-      <c r="K9" s="105"/>
-      <c r="L9" s="105"/>
-      <c r="M9" s="105"/>
-      <c r="N9" s="105"/>
-      <c r="O9" s="105"/>
-      <c r="P9" s="105"/>
-      <c r="Q9" s="105"/>
-      <c r="R9" s="105"/>
-      <c r="S9" s="105"/>
-      <c r="T9" s="105"/>
-      <c r="U9" s="113" t="s">
+      <c r="F9" s="117"/>
+      <c r="G9" s="117"/>
+      <c r="H9" s="117"/>
+      <c r="I9" s="117"/>
+      <c r="J9" s="117"/>
+      <c r="K9" s="117"/>
+      <c r="L9" s="117"/>
+      <c r="M9" s="117"/>
+      <c r="N9" s="117"/>
+      <c r="O9" s="117"/>
+      <c r="P9" s="117"/>
+      <c r="Q9" s="117"/>
+      <c r="R9" s="117"/>
+      <c r="S9" s="117"/>
+      <c r="T9" s="117"/>
+      <c r="U9" s="125" t="s">
         <v>5</v>
       </c>
-      <c r="V9" s="113" t="s">
+      <c r="V9" s="125" t="s">
         <v>6</v>
       </c>
-      <c r="W9" s="113" t="s">
+      <c r="W9" s="125" t="s">
         <v>14</v>
       </c>
-      <c r="X9" s="113" t="s">
+      <c r="X9" s="125" t="s">
         <v>7</v>
       </c>
-      <c r="Y9" s="99" t="s">
+      <c r="Y9" s="111" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="105"/>
-      <c r="B10" s="106"/>
-      <c r="C10" s="105"/>
-      <c r="D10" s="105"/>
-      <c r="E10" s="105"/>
-      <c r="F10" s="105"/>
-      <c r="G10" s="105"/>
-      <c r="H10" s="105"/>
-      <c r="I10" s="105"/>
-      <c r="J10" s="105"/>
-      <c r="K10" s="105"/>
-      <c r="L10" s="105"/>
-      <c r="M10" s="105"/>
-      <c r="N10" s="105"/>
-      <c r="O10" s="105"/>
-      <c r="P10" s="105"/>
-      <c r="Q10" s="105"/>
-      <c r="R10" s="105"/>
-      <c r="S10" s="105"/>
-      <c r="T10" s="105"/>
-      <c r="U10" s="113"/>
-      <c r="V10" s="113"/>
-      <c r="W10" s="113"/>
-      <c r="X10" s="113"/>
-      <c r="Y10" s="99"/>
+      <c r="A10" s="117"/>
+      <c r="B10" s="118"/>
+      <c r="C10" s="117"/>
+      <c r="D10" s="117"/>
+      <c r="E10" s="117"/>
+      <c r="F10" s="117"/>
+      <c r="G10" s="117"/>
+      <c r="H10" s="117"/>
+      <c r="I10" s="117"/>
+      <c r="J10" s="117"/>
+      <c r="K10" s="117"/>
+      <c r="L10" s="117"/>
+      <c r="M10" s="117"/>
+      <c r="N10" s="117"/>
+      <c r="O10" s="117"/>
+      <c r="P10" s="117"/>
+      <c r="Q10" s="117"/>
+      <c r="R10" s="117"/>
+      <c r="S10" s="117"/>
+      <c r="T10" s="117"/>
+      <c r="U10" s="125"/>
+      <c r="V10" s="125"/>
+      <c r="W10" s="125"/>
+      <c r="X10" s="125"/>
+      <c r="Y10" s="111"/>
     </row>
     <row r="11" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="114">
+      <c r="A11" s="108">
         <v>1</v>
       </c>
-      <c r="B11" s="114">
+      <c r="B11" s="108">
         <v>1</v>
       </c>
-      <c r="C11" s="115" t="s">
+      <c r="C11" s="109" t="s">
         <v>62</v>
       </c>
-      <c r="D11" s="116" t="s">
+      <c r="D11" s="110" t="s">
         <v>56</v>
       </c>
       <c r="E11" s="25">
@@ -3974,29 +3974,29 @@
       <c r="T11" s="25">
         <v>16</v>
       </c>
-      <c r="U11" s="117" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="117" t="s">
-        <v>8</v>
-      </c>
-      <c r="W11" s="120" t="s">
-        <v>8</v>
-      </c>
-      <c r="X11" s="120">
+      <c r="U11" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11" s="99" t="s">
+        <v>8</v>
+      </c>
+      <c r="X11" s="99">
         <v>21</v>
       </c>
-      <c r="Y11" s="137"/>
+      <c r="Y11" s="140"/>
       <c r="Z11" s="3">
         <f>SUM(E12:T12)</f>
         <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="114"/>
-      <c r="B12" s="114"/>
-      <c r="C12" s="115"/>
-      <c r="D12" s="116"/>
+      <c r="A12" s="108"/>
+      <c r="B12" s="108"/>
+      <c r="C12" s="109"/>
+      <c r="D12" s="110"/>
       <c r="E12" s="26" t="s">
         <v>13</v>
       </c>
@@ -4045,17 +4045,17 @@
       <c r="T12" s="26">
         <v>2</v>
       </c>
-      <c r="U12" s="118"/>
-      <c r="V12" s="118"/>
-      <c r="W12" s="121"/>
-      <c r="X12" s="122"/>
-      <c r="Y12" s="138"/>
+      <c r="U12" s="106"/>
+      <c r="V12" s="106"/>
+      <c r="W12" s="100"/>
+      <c r="X12" s="101"/>
+      <c r="Y12" s="141"/>
     </row>
     <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="114"/>
-      <c r="B13" s="114"/>
-      <c r="C13" s="115"/>
-      <c r="D13" s="116"/>
+      <c r="A13" s="108"/>
+      <c r="B13" s="108"/>
+      <c r="C13" s="109"/>
+      <c r="D13" s="110"/>
       <c r="E13" s="27">
         <v>17</v>
       </c>
@@ -4104,20 +4104,20 @@
       <c r="T13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U13" s="118"/>
-      <c r="V13" s="118"/>
-      <c r="W13" s="121"/>
-      <c r="X13" s="120">
+      <c r="U13" s="106"/>
+      <c r="V13" s="106"/>
+      <c r="W13" s="100"/>
+      <c r="X13" s="99">
         <f>Z11+Z14</f>
         <v>42</v>
       </c>
-      <c r="Y13" s="138"/>
+      <c r="Y13" s="141"/>
     </row>
     <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="114"/>
-      <c r="B14" s="114"/>
-      <c r="C14" s="115"/>
-      <c r="D14" s="116"/>
+      <c r="A14" s="108"/>
+      <c r="B14" s="108"/>
+      <c r="C14" s="109"/>
+      <c r="D14" s="110"/>
       <c r="E14" s="26">
         <v>2</v>
       </c>
@@ -4166,11 +4166,11 @@
       <c r="T14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="119"/>
-      <c r="V14" s="119"/>
-      <c r="W14" s="122"/>
-      <c r="X14" s="122"/>
-      <c r="Y14" s="139"/>
+      <c r="U14" s="107"/>
+      <c r="V14" s="107"/>
+      <c r="W14" s="101"/>
+      <c r="X14" s="101"/>
+      <c r="Y14" s="142"/>
       <c r="Z14" s="3">
         <f>SUM(E14:T14)</f>
         <v>22</v>
@@ -4229,10 +4229,10 @@
       <c r="X16" s="9"/>
     </row>
     <row r="17" spans="2:12" s="39" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="140" t="s">
+      <c r="B17" s="143" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="140"/>
+      <c r="C17" s="143"/>
       <c r="D17" s="40">
         <f>Мельницький!C36</f>
         <v>44531</v>
@@ -4296,19 +4296,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="Y11:Y14"/>
-    <mergeCell ref="X13:X14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="V11:V14"/>
-    <mergeCell ref="W11:W14"/>
-    <mergeCell ref="X11:X12"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="U11:U14"/>
     <mergeCell ref="A7:X7"/>
     <mergeCell ref="A8:X8"/>
     <mergeCell ref="A9:A10"/>
@@ -4319,6 +4306,19 @@
     <mergeCell ref="U9:U10"/>
     <mergeCell ref="V9:V10"/>
     <mergeCell ref="W9:W10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="U11:U14"/>
+    <mergeCell ref="Y11:Y14"/>
+    <mergeCell ref="X13:X14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="V11:V14"/>
+    <mergeCell ref="W11:W14"/>
+    <mergeCell ref="X11:X12"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="99" orientation="landscape" r:id="rId1"/>
@@ -4347,12 +4347,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="112" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
       <c r="Q1" s="15" t="s">
         <v>40</v>
       </c>
@@ -4496,149 +4496,149 @@
       <c r="X6" s="19"/>
     </row>
     <row r="7" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A7" s="103" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="103"/>
-      <c r="I7" s="103"/>
-      <c r="J7" s="103"/>
-      <c r="K7" s="103"/>
-      <c r="L7" s="103"/>
-      <c r="M7" s="103"/>
-      <c r="N7" s="103"/>
-      <c r="O7" s="103"/>
-      <c r="P7" s="103"/>
-      <c r="Q7" s="103"/>
-      <c r="R7" s="103"/>
-      <c r="S7" s="103"/>
-      <c r="T7" s="103"/>
-      <c r="U7" s="103"/>
-      <c r="V7" s="103"/>
-      <c r="W7" s="103"/>
-      <c r="X7" s="103"/>
-      <c r="Y7" s="103"/>
-      <c r="Z7" s="103"/>
+      <c r="A7" s="115" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="115"/>
+      <c r="C7" s="115"/>
+      <c r="D7" s="115"/>
+      <c r="E7" s="115"/>
+      <c r="F7" s="115"/>
+      <c r="G7" s="115"/>
+      <c r="H7" s="115"/>
+      <c r="I7" s="115"/>
+      <c r="J7" s="115"/>
+      <c r="K7" s="115"/>
+      <c r="L7" s="115"/>
+      <c r="M7" s="115"/>
+      <c r="N7" s="115"/>
+      <c r="O7" s="115"/>
+      <c r="P7" s="115"/>
+      <c r="Q7" s="115"/>
+      <c r="R7" s="115"/>
+      <c r="S7" s="115"/>
+      <c r="T7" s="115"/>
+      <c r="U7" s="115"/>
+      <c r="V7" s="115"/>
+      <c r="W7" s="115"/>
+      <c r="X7" s="115"/>
+      <c r="Y7" s="115"/>
+      <c r="Z7" s="115"/>
     </row>
     <row r="8" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A8" s="104" t="str">
+      <c r="A8" s="116" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ЛИСТОПАД 2021р.</v>
       </c>
-      <c r="B8" s="104"/>
-      <c r="C8" s="104"/>
-      <c r="D8" s="104"/>
-      <c r="E8" s="104"/>
-      <c r="F8" s="104"/>
-      <c r="G8" s="104"/>
-      <c r="H8" s="104"/>
-      <c r="I8" s="104"/>
-      <c r="J8" s="104"/>
-      <c r="K8" s="104"/>
-      <c r="L8" s="104"/>
-      <c r="M8" s="104"/>
-      <c r="N8" s="104"/>
-      <c r="O8" s="104"/>
-      <c r="P8" s="104"/>
-      <c r="Q8" s="104"/>
-      <c r="R8" s="104"/>
-      <c r="S8" s="104"/>
-      <c r="T8" s="104"/>
-      <c r="U8" s="104"/>
-      <c r="V8" s="104"/>
-      <c r="W8" s="104"/>
-      <c r="X8" s="104"/>
-      <c r="Y8" s="104"/>
-      <c r="Z8" s="104"/>
+      <c r="B8" s="116"/>
+      <c r="C8" s="116"/>
+      <c r="D8" s="116"/>
+      <c r="E8" s="116"/>
+      <c r="F8" s="116"/>
+      <c r="G8" s="116"/>
+      <c r="H8" s="116"/>
+      <c r="I8" s="116"/>
+      <c r="J8" s="116"/>
+      <c r="K8" s="116"/>
+      <c r="L8" s="116"/>
+      <c r="M8" s="116"/>
+      <c r="N8" s="116"/>
+      <c r="O8" s="116"/>
+      <c r="P8" s="116"/>
+      <c r="Q8" s="116"/>
+      <c r="R8" s="116"/>
+      <c r="S8" s="116"/>
+      <c r="T8" s="116"/>
+      <c r="U8" s="116"/>
+      <c r="V8" s="116"/>
+      <c r="W8" s="116"/>
+      <c r="X8" s="116"/>
+      <c r="Y8" s="116"/>
+      <c r="Z8" s="116"/>
     </row>
     <row r="9" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="105" t="s">
+      <c r="A9" s="117" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="106" t="s">
+      <c r="B9" s="118" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="105" t="s">
+      <c r="C9" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="105" t="s">
+      <c r="D9" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="105" t="s">
+      <c r="E9" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="105"/>
-      <c r="G9" s="105"/>
-      <c r="H9" s="105"/>
-      <c r="I9" s="105"/>
-      <c r="J9" s="105"/>
-      <c r="K9" s="105"/>
-      <c r="L9" s="105"/>
-      <c r="M9" s="105"/>
-      <c r="N9" s="105"/>
-      <c r="O9" s="105"/>
-      <c r="P9" s="105"/>
-      <c r="Q9" s="105"/>
-      <c r="R9" s="105"/>
-      <c r="S9" s="105"/>
-      <c r="T9" s="105"/>
-      <c r="U9" s="113" t="s">
+      <c r="F9" s="117"/>
+      <c r="G9" s="117"/>
+      <c r="H9" s="117"/>
+      <c r="I9" s="117"/>
+      <c r="J9" s="117"/>
+      <c r="K9" s="117"/>
+      <c r="L9" s="117"/>
+      <c r="M9" s="117"/>
+      <c r="N9" s="117"/>
+      <c r="O9" s="117"/>
+      <c r="P9" s="117"/>
+      <c r="Q9" s="117"/>
+      <c r="R9" s="117"/>
+      <c r="S9" s="117"/>
+      <c r="T9" s="117"/>
+      <c r="U9" s="125" t="s">
         <v>48</v>
       </c>
-      <c r="V9" s="113" t="s">
+      <c r="V9" s="125" t="s">
         <v>49</v>
       </c>
-      <c r="W9" s="113" t="s">
+      <c r="W9" s="125" t="s">
         <v>50</v>
       </c>
-      <c r="X9" s="113" t="s">
+      <c r="X9" s="125" t="s">
         <v>47</v>
       </c>
-      <c r="Y9" s="113" t="s">
+      <c r="Y9" s="125" t="s">
         <v>46</v>
       </c>
-      <c r="Z9" s="99" t="s">
+      <c r="Z9" s="111" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="105"/>
-      <c r="B10" s="106"/>
-      <c r="C10" s="105"/>
-      <c r="D10" s="105"/>
-      <c r="E10" s="105"/>
-      <c r="F10" s="105"/>
-      <c r="G10" s="105"/>
-      <c r="H10" s="105"/>
-      <c r="I10" s="105"/>
-      <c r="J10" s="105"/>
-      <c r="K10" s="105"/>
-      <c r="L10" s="105"/>
-      <c r="M10" s="105"/>
-      <c r="N10" s="105"/>
-      <c r="O10" s="105"/>
-      <c r="P10" s="105"/>
-      <c r="Q10" s="105"/>
-      <c r="R10" s="105"/>
-      <c r="S10" s="105"/>
-      <c r="T10" s="105"/>
-      <c r="U10" s="113"/>
-      <c r="V10" s="113"/>
-      <c r="W10" s="113"/>
-      <c r="X10" s="113"/>
-      <c r="Y10" s="113"/>
-      <c r="Z10" s="99"/>
+      <c r="A10" s="117"/>
+      <c r="B10" s="118"/>
+      <c r="C10" s="117"/>
+      <c r="D10" s="117"/>
+      <c r="E10" s="117"/>
+      <c r="F10" s="117"/>
+      <c r="G10" s="117"/>
+      <c r="H10" s="117"/>
+      <c r="I10" s="117"/>
+      <c r="J10" s="117"/>
+      <c r="K10" s="117"/>
+      <c r="L10" s="117"/>
+      <c r="M10" s="117"/>
+      <c r="N10" s="117"/>
+      <c r="O10" s="117"/>
+      <c r="P10" s="117"/>
+      <c r="Q10" s="117"/>
+      <c r="R10" s="117"/>
+      <c r="S10" s="117"/>
+      <c r="T10" s="117"/>
+      <c r="U10" s="125"/>
+      <c r="V10" s="125"/>
+      <c r="W10" s="125"/>
+      <c r="X10" s="125"/>
+      <c r="Y10" s="125"/>
+      <c r="Z10" s="111"/>
     </row>
     <row r="11" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="114">
+      <c r="A11" s="108">
         <v>1</v>
       </c>
-      <c r="B11" s="114">
+      <c r="B11" s="108">
         <v>2</v>
       </c>
       <c r="C11" s="126" t="s">
@@ -4695,26 +4695,26 @@
       <c r="T11" s="25">
         <v>16</v>
       </c>
-      <c r="U11" s="117" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="117" t="s">
-        <v>8</v>
-      </c>
-      <c r="W11" s="120" t="s">
+      <c r="U11" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11" s="99" t="s">
         <v>8</v>
       </c>
       <c r="X11" s="22"/>
-      <c r="Y11" s="120">
+      <c r="Y11" s="99">
         <v>21</v>
       </c>
-      <c r="Z11" s="123">
+      <c r="Z11" s="102">
         <v>3232</v>
       </c>
     </row>
     <row r="12" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="114"/>
-      <c r="B12" s="114"/>
+      <c r="A12" s="108"/>
+      <c r="B12" s="108"/>
       <c r="C12" s="126"/>
       <c r="D12" s="127"/>
       <c r="E12" s="26" t="s">
@@ -4765,16 +4765,16 @@
       <c r="T12" s="26">
         <v>2</v>
       </c>
-      <c r="U12" s="118"/>
-      <c r="V12" s="118"/>
-      <c r="W12" s="121"/>
+      <c r="U12" s="106"/>
+      <c r="V12" s="106"/>
+      <c r="W12" s="100"/>
       <c r="X12" s="23"/>
-      <c r="Y12" s="122"/>
-      <c r="Z12" s="123"/>
+      <c r="Y12" s="101"/>
+      <c r="Z12" s="102"/>
     </row>
     <row r="13" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="114"/>
-      <c r="B13" s="114"/>
+      <c r="A13" s="108"/>
+      <c r="B13" s="108"/>
       <c r="C13" s="126"/>
       <c r="D13" s="127"/>
       <c r="E13" s="27">
@@ -4825,18 +4825,18 @@
       <c r="T13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U13" s="118"/>
-      <c r="V13" s="118"/>
-      <c r="W13" s="121"/>
+      <c r="U13" s="106"/>
+      <c r="V13" s="106"/>
+      <c r="W13" s="100"/>
       <c r="X13" s="23"/>
-      <c r="Y13" s="120">
+      <c r="Y13" s="99">
         <v>42</v>
       </c>
-      <c r="Z13" s="123"/>
+      <c r="Z13" s="102"/>
     </row>
     <row r="14" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="114"/>
-      <c r="B14" s="114"/>
+      <c r="A14" s="108"/>
+      <c r="B14" s="108"/>
       <c r="C14" s="126"/>
       <c r="D14" s="127"/>
       <c r="E14" s="26">
@@ -4887,18 +4887,18 @@
       <c r="T14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="119"/>
-      <c r="V14" s="119"/>
-      <c r="W14" s="122"/>
+      <c r="U14" s="107"/>
+      <c r="V14" s="107"/>
+      <c r="W14" s="101"/>
       <c r="X14" s="24"/>
-      <c r="Y14" s="122"/>
-      <c r="Z14" s="123"/>
+      <c r="Y14" s="101"/>
+      <c r="Z14" s="102"/>
     </row>
     <row r="16" spans="1:26" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="B16" s="124" t="s">
+      <c r="B16" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="124"/>
+      <c r="C16" s="103"/>
       <c r="D16" s="30">
         <v>42916</v>
       </c>
@@ -4980,6 +4980,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="V11:V14"/>
+    <mergeCell ref="W11:W14"/>
     <mergeCell ref="Y11:Y12"/>
     <mergeCell ref="Z11:Z14"/>
     <mergeCell ref="Y13:Y14"/>
@@ -4996,15 +5005,6 @@
     <mergeCell ref="A11:A14"/>
     <mergeCell ref="Y9:Y10"/>
     <mergeCell ref="Z9:Z10"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="V11:V14"/>
-    <mergeCell ref="W11:W14"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -5017,7 +5017,7 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A2:AA44"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
       <selection activeCell="X33" sqref="X33:X34"/>
     </sheetView>
   </sheetViews>
@@ -5037,11 +5037,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:27" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="112" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
       <c r="Q2" s="15" t="s">
         <v>40</v>
       </c>
@@ -5155,141 +5155,141 @@
       <c r="W6" s="18"/>
     </row>
     <row r="7" spans="1:27" ht="20" x14ac:dyDescent="0.35">
-      <c r="A7" s="103" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="103"/>
-      <c r="I7" s="103"/>
-      <c r="J7" s="103"/>
-      <c r="K7" s="103"/>
-      <c r="L7" s="103"/>
-      <c r="M7" s="103"/>
-      <c r="N7" s="103"/>
-      <c r="O7" s="103"/>
-      <c r="P7" s="103"/>
-      <c r="Q7" s="103"/>
-      <c r="R7" s="103"/>
-      <c r="S7" s="103"/>
-      <c r="T7" s="103"/>
-      <c r="U7" s="103"/>
-      <c r="V7" s="103"/>
-      <c r="W7" s="103"/>
+      <c r="A7" s="115" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="115"/>
+      <c r="C7" s="115"/>
+      <c r="D7" s="115"/>
+      <c r="E7" s="115"/>
+      <c r="F7" s="115"/>
+      <c r="G7" s="115"/>
+      <c r="H7" s="115"/>
+      <c r="I7" s="115"/>
+      <c r="J7" s="115"/>
+      <c r="K7" s="115"/>
+      <c r="L7" s="115"/>
+      <c r="M7" s="115"/>
+      <c r="N7" s="115"/>
+      <c r="O7" s="115"/>
+      <c r="P7" s="115"/>
+      <c r="Q7" s="115"/>
+      <c r="R7" s="115"/>
+      <c r="S7" s="115"/>
+      <c r="T7" s="115"/>
+      <c r="U7" s="115"/>
+      <c r="V7" s="115"/>
+      <c r="W7" s="115"/>
     </row>
     <row r="8" spans="1:27" ht="20" x14ac:dyDescent="0.35">
-      <c r="A8" s="103" t="s">
+      <c r="A8" s="115" t="s">
         <v>103</v>
       </c>
-      <c r="B8" s="103"/>
-      <c r="C8" s="103"/>
-      <c r="D8" s="103"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="103"/>
-      <c r="G8" s="103"/>
-      <c r="H8" s="103"/>
-      <c r="I8" s="103"/>
-      <c r="J8" s="103"/>
-      <c r="K8" s="103"/>
-      <c r="L8" s="103"/>
-      <c r="M8" s="103"/>
-      <c r="N8" s="103"/>
-      <c r="O8" s="103"/>
-      <c r="P8" s="103"/>
-      <c r="Q8" s="103"/>
-      <c r="R8" s="103"/>
-      <c r="S8" s="103"/>
-      <c r="T8" s="103"/>
-      <c r="U8" s="103"/>
-      <c r="V8" s="103"/>
-      <c r="W8" s="103"/>
+      <c r="B8" s="115"/>
+      <c r="C8" s="115"/>
+      <c r="D8" s="115"/>
+      <c r="E8" s="115"/>
+      <c r="F8" s="115"/>
+      <c r="G8" s="115"/>
+      <c r="H8" s="115"/>
+      <c r="I8" s="115"/>
+      <c r="J8" s="115"/>
+      <c r="K8" s="115"/>
+      <c r="L8" s="115"/>
+      <c r="M8" s="115"/>
+      <c r="N8" s="115"/>
+      <c r="O8" s="115"/>
+      <c r="P8" s="115"/>
+      <c r="Q8" s="115"/>
+      <c r="R8" s="115"/>
+      <c r="S8" s="115"/>
+      <c r="T8" s="115"/>
+      <c r="U8" s="115"/>
+      <c r="V8" s="115"/>
+      <c r="W8" s="115"/>
     </row>
     <row r="9" spans="1:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="105" t="s">
+      <c r="A9" s="117" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="105" t="s">
+      <c r="B9" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="105" t="s">
+      <c r="C9" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="105" t="s">
+      <c r="D9" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="105"/>
-      <c r="F9" s="105"/>
-      <c r="G9" s="105"/>
-      <c r="H9" s="105"/>
-      <c r="I9" s="105"/>
-      <c r="J9" s="105"/>
-      <c r="K9" s="105"/>
-      <c r="L9" s="105"/>
-      <c r="M9" s="105"/>
-      <c r="N9" s="105"/>
-      <c r="O9" s="105"/>
-      <c r="P9" s="105"/>
-      <c r="Q9" s="105"/>
-      <c r="R9" s="105"/>
-      <c r="S9" s="105"/>
-      <c r="T9" s="113" t="s">
+      <c r="E9" s="117"/>
+      <c r="F9" s="117"/>
+      <c r="G9" s="117"/>
+      <c r="H9" s="117"/>
+      <c r="I9" s="117"/>
+      <c r="J9" s="117"/>
+      <c r="K9" s="117"/>
+      <c r="L9" s="117"/>
+      <c r="M9" s="117"/>
+      <c r="N9" s="117"/>
+      <c r="O9" s="117"/>
+      <c r="P9" s="117"/>
+      <c r="Q9" s="117"/>
+      <c r="R9" s="117"/>
+      <c r="S9" s="117"/>
+      <c r="T9" s="125" t="s">
         <v>48</v>
       </c>
-      <c r="U9" s="113" t="s">
+      <c r="U9" s="125" t="s">
         <v>49</v>
       </c>
-      <c r="V9" s="113" t="s">
+      <c r="V9" s="125" t="s">
         <v>50</v>
       </c>
-      <c r="W9" s="113" t="s">
+      <c r="W9" s="125" t="s">
         <v>47</v>
       </c>
-      <c r="X9" s="113" t="s">
+      <c r="X9" s="125" t="s">
         <v>46</v>
       </c>
-      <c r="Y9" s="99" t="s">
+      <c r="Y9" s="111" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:27" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="105"/>
-      <c r="B10" s="105"/>
-      <c r="C10" s="105"/>
-      <c r="D10" s="105"/>
-      <c r="E10" s="105"/>
-      <c r="F10" s="105"/>
-      <c r="G10" s="105"/>
-      <c r="H10" s="105"/>
-      <c r="I10" s="105"/>
-      <c r="J10" s="105"/>
-      <c r="K10" s="105"/>
-      <c r="L10" s="105"/>
-      <c r="M10" s="105"/>
-      <c r="N10" s="105"/>
-      <c r="O10" s="105"/>
-      <c r="P10" s="105"/>
-      <c r="Q10" s="105"/>
-      <c r="R10" s="105"/>
-      <c r="S10" s="105"/>
-      <c r="T10" s="113"/>
-      <c r="U10" s="113"/>
-      <c r="V10" s="113"/>
-      <c r="W10" s="113"/>
-      <c r="X10" s="113"/>
-      <c r="Y10" s="99"/>
+      <c r="A10" s="117"/>
+      <c r="B10" s="117"/>
+      <c r="C10" s="117"/>
+      <c r="D10" s="117"/>
+      <c r="E10" s="117"/>
+      <c r="F10" s="117"/>
+      <c r="G10" s="117"/>
+      <c r="H10" s="117"/>
+      <c r="I10" s="117"/>
+      <c r="J10" s="117"/>
+      <c r="K10" s="117"/>
+      <c r="L10" s="117"/>
+      <c r="M10" s="117"/>
+      <c r="N10" s="117"/>
+      <c r="O10" s="117"/>
+      <c r="P10" s="117"/>
+      <c r="Q10" s="117"/>
+      <c r="R10" s="117"/>
+      <c r="S10" s="117"/>
+      <c r="T10" s="125"/>
+      <c r="U10" s="125"/>
+      <c r="V10" s="125"/>
+      <c r="W10" s="125"/>
+      <c r="X10" s="125"/>
+      <c r="Y10" s="111"/>
     </row>
     <row r="11" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="114">
+      <c r="A11" s="108">
         <v>1</v>
       </c>
-      <c r="B11" s="115" t="s">
+      <c r="B11" s="109" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="116" t="s">
+      <c r="C11" s="110" t="s">
         <v>15</v>
       </c>
       <c r="D11" s="25">
@@ -5340,29 +5340,29 @@
       <c r="S11" s="25">
         <v>16</v>
       </c>
-      <c r="T11" s="117" t="s">
-        <v>8</v>
-      </c>
-      <c r="U11" s="117" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="120" t="s">
+      <c r="T11" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="U11" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="99" t="s">
         <v>8</v>
       </c>
       <c r="W11" s="22"/>
-      <c r="X11" s="120">
-        <v>21</v>
-      </c>
-      <c r="Y11" s="123">
+      <c r="X11" s="99">
+        <v>22</v>
+      </c>
+      <c r="Y11" s="102">
         <v>6060</v>
       </c>
     </row>
     <row r="12" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="114"/>
-      <c r="B12" s="115"/>
-      <c r="C12" s="116"/>
-      <c r="D12" s="26" t="s">
-        <v>13</v>
+      <c r="A12" s="108"/>
+      <c r="B12" s="109"/>
+      <c r="C12" s="110"/>
+      <c r="D12" s="26">
+        <v>8</v>
       </c>
       <c r="E12" s="26">
         <v>8</v>
@@ -5376,14 +5376,14 @@
       <c r="H12" s="26">
         <v>8</v>
       </c>
-      <c r="I12" s="26">
-        <v>8</v>
+      <c r="I12" s="26" t="s">
+        <v>13</v>
       </c>
       <c r="J12" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="K12" s="26" t="s">
-        <v>13</v>
+      <c r="K12" s="26">
+        <v>8</v>
       </c>
       <c r="L12" s="26">
         <v>8</v>
@@ -5397,33 +5397,33 @@
       <c r="O12" s="26">
         <v>8</v>
       </c>
-      <c r="P12" s="26">
-        <v>8</v>
+      <c r="P12" s="26" t="s">
+        <v>13</v>
       </c>
       <c r="Q12" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="R12" s="26" t="s">
-        <v>13</v>
+      <c r="R12" s="26">
+        <v>8</v>
       </c>
       <c r="S12" s="26">
         <v>8</v>
       </c>
-      <c r="T12" s="118"/>
-      <c r="U12" s="118"/>
-      <c r="V12" s="121"/>
+      <c r="T12" s="106"/>
+      <c r="U12" s="106"/>
+      <c r="V12" s="100"/>
       <c r="W12" s="23"/>
-      <c r="X12" s="122"/>
-      <c r="Y12" s="123"/>
+      <c r="X12" s="101"/>
+      <c r="Y12" s="102"/>
       <c r="Z12" s="2">
         <f>SUM(D12:S12)</f>
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="114"/>
-      <c r="B13" s="115"/>
-      <c r="C13" s="116"/>
+      <c r="A13" s="108"/>
+      <c r="B13" s="109"/>
+      <c r="C13" s="110"/>
       <c r="D13" s="27">
         <v>17</v>
       </c>
@@ -5472,24 +5472,24 @@
       <c r="S13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T13" s="118"/>
-      <c r="U13" s="118"/>
-      <c r="V13" s="121"/>
+      <c r="T13" s="106"/>
+      <c r="U13" s="106"/>
+      <c r="V13" s="100"/>
       <c r="W13" s="23"/>
-      <c r="X13" s="120">
+      <c r="X13" s="99">
         <f>Z12+Z14</f>
-        <v>168</v>
-      </c>
-      <c r="Y13" s="123"/>
+        <v>176</v>
+      </c>
+      <c r="Y13" s="102"/>
       <c r="AA13" s="2">
         <f>Z14+Z12</f>
-        <v>168</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="114"/>
-      <c r="B14" s="115"/>
-      <c r="C14" s="116"/>
+      <c r="A14" s="108"/>
+      <c r="B14" s="109"/>
+      <c r="C14" s="110"/>
       <c r="D14" s="26">
         <v>8</v>
       </c>
@@ -5499,14 +5499,14 @@
       <c r="F14" s="26">
         <v>8</v>
       </c>
-      <c r="G14" s="26">
-        <v>8</v>
+      <c r="G14" s="26" t="s">
+        <v>13</v>
       </c>
       <c r="H14" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="I14" s="26" t="s">
-        <v>13</v>
+      <c r="I14" s="26">
+        <v>8</v>
       </c>
       <c r="J14" s="26">
         <v>8</v>
@@ -5520,14 +5520,14 @@
       <c r="M14" s="26">
         <v>8</v>
       </c>
-      <c r="N14" s="26">
-        <v>8</v>
+      <c r="N14" s="26" t="s">
+        <v>13</v>
       </c>
       <c r="O14" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="P14" s="26" t="s">
-        <v>13</v>
+      <c r="P14" s="26">
+        <v>8</v>
       </c>
       <c r="Q14" s="26">
         <v>8</v>
@@ -5538,25 +5538,25 @@
       <c r="S14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T14" s="119"/>
-      <c r="U14" s="119"/>
-      <c r="V14" s="122"/>
+      <c r="T14" s="107"/>
+      <c r="U14" s="107"/>
+      <c r="V14" s="101"/>
       <c r="W14" s="24"/>
-      <c r="X14" s="122"/>
-      <c r="Y14" s="123"/>
+      <c r="X14" s="101"/>
+      <c r="Y14" s="102"/>
       <c r="Z14" s="2">
         <f>SUM(D14:S14)</f>
         <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="114">
-        <v>2</v>
-      </c>
-      <c r="B15" s="115" t="s">
+      <c r="A15" s="108">
+        <v>2</v>
+      </c>
+      <c r="B15" s="109" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="116" t="s">
+      <c r="C15" s="110" t="s">
         <v>65</v>
       </c>
       <c r="D15" s="25">
@@ -5607,33 +5607,33 @@
       <c r="S15" s="25">
         <v>16</v>
       </c>
-      <c r="T15" s="117" t="s">
-        <v>8</v>
-      </c>
-      <c r="U15" s="117" t="s">
-        <v>8</v>
-      </c>
-      <c r="V15" s="120" t="s">
+      <c r="T15" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="U15" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="V15" s="99" t="s">
         <v>8</v>
       </c>
       <c r="W15" s="42"/>
-      <c r="X15" s="120">
-        <v>21</v>
-      </c>
-      <c r="Y15" s="123">
+      <c r="X15" s="99">
+        <v>22</v>
+      </c>
+      <c r="Y15" s="102">
         <v>6060</v>
       </c>
       <c r="Z15" s="2">
         <f>SUM(D16:S16)</f>
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="114"/>
-      <c r="B16" s="115"/>
-      <c r="C16" s="116"/>
-      <c r="D16" s="26" t="s">
-        <v>13</v>
+      <c r="A16" s="108"/>
+      <c r="B16" s="109"/>
+      <c r="C16" s="110"/>
+      <c r="D16" s="26">
+        <v>8</v>
       </c>
       <c r="E16" s="26">
         <v>8</v>
@@ -5647,14 +5647,14 @@
       <c r="H16" s="26">
         <v>8</v>
       </c>
-      <c r="I16" s="26">
-        <v>8</v>
+      <c r="I16" s="26" t="s">
+        <v>13</v>
       </c>
       <c r="J16" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="K16" s="26" t="s">
-        <v>13</v>
+      <c r="K16" s="26">
+        <v>8</v>
       </c>
       <c r="L16" s="26">
         <v>8</v>
@@ -5668,36 +5668,36 @@
       <c r="O16" s="26">
         <v>8</v>
       </c>
-      <c r="P16" s="26">
-        <v>8</v>
+      <c r="P16" s="26" t="s">
+        <v>13</v>
       </c>
       <c r="Q16" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="R16" s="26" t="s">
-        <v>13</v>
+      <c r="R16" s="26">
+        <v>8</v>
       </c>
       <c r="S16" s="26">
         <v>8</v>
       </c>
-      <c r="T16" s="118"/>
-      <c r="U16" s="118"/>
-      <c r="V16" s="121"/>
+      <c r="T16" s="106"/>
+      <c r="U16" s="106"/>
+      <c r="V16" s="100"/>
       <c r="W16" s="44"/>
-      <c r="X16" s="122"/>
-      <c r="Y16" s="123"/>
+      <c r="X16" s="101"/>
+      <c r="Y16" s="102"/>
       <c r="Z16" s="2" t="s">
         <v>52</v>
       </c>
       <c r="AA16" s="2">
         <f>Z17+Z15</f>
-        <v>168</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="114"/>
-      <c r="B17" s="115"/>
-      <c r="C17" s="116"/>
+      <c r="A17" s="108"/>
+      <c r="B17" s="109"/>
+      <c r="C17" s="110"/>
       <c r="D17" s="27">
         <v>17</v>
       </c>
@@ -5746,24 +5746,24 @@
       <c r="S17" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T17" s="118"/>
-      <c r="U17" s="118"/>
-      <c r="V17" s="121"/>
+      <c r="T17" s="106"/>
+      <c r="U17" s="106"/>
+      <c r="V17" s="100"/>
       <c r="W17" s="44"/>
-      <c r="X17" s="120">
+      <c r="X17" s="99">
         <f>Z15+Z17</f>
-        <v>168</v>
-      </c>
-      <c r="Y17" s="123"/>
+        <v>176</v>
+      </c>
+      <c r="Y17" s="102"/>
       <c r="Z17" s="2">
         <f>SUM(D18:S18)</f>
         <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="114"/>
-      <c r="B18" s="115"/>
-      <c r="C18" s="116"/>
+      <c r="A18" s="108"/>
+      <c r="B18" s="109"/>
+      <c r="C18" s="110"/>
       <c r="D18" s="26">
         <v>8</v>
       </c>
@@ -5773,14 +5773,14 @@
       <c r="F18" s="26">
         <v>8</v>
       </c>
-      <c r="G18" s="26">
-        <v>8</v>
+      <c r="G18" s="26" t="s">
+        <v>13</v>
       </c>
       <c r="H18" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="I18" s="26" t="s">
-        <v>13</v>
+      <c r="I18" s="26">
+        <v>8</v>
       </c>
       <c r="J18" s="26">
         <v>8</v>
@@ -5794,14 +5794,14 @@
       <c r="M18" s="26">
         <v>8</v>
       </c>
-      <c r="N18" s="26">
-        <v>8</v>
+      <c r="N18" s="26" t="s">
+        <v>13</v>
       </c>
       <c r="O18" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="P18" s="26" t="s">
-        <v>13</v>
+      <c r="P18" s="26">
+        <v>8</v>
       </c>
       <c r="Q18" s="26">
         <v>8</v>
@@ -5812,21 +5812,21 @@
       <c r="S18" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T18" s="119"/>
-      <c r="U18" s="119"/>
-      <c r="V18" s="122"/>
+      <c r="T18" s="107"/>
+      <c r="U18" s="107"/>
+      <c r="V18" s="101"/>
       <c r="W18" s="43"/>
-      <c r="X18" s="122"/>
-      <c r="Y18" s="123"/>
+      <c r="X18" s="101"/>
+      <c r="Y18" s="102"/>
     </row>
     <row r="19" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="114">
+      <c r="A19" s="108">
         <v>3</v>
       </c>
-      <c r="B19" s="115" t="s">
+      <c r="B19" s="109" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="116" t="s">
+      <c r="C19" s="110" t="s">
         <v>32</v>
       </c>
       <c r="D19" s="25">
@@ -5877,29 +5877,29 @@
       <c r="S19" s="25">
         <v>16</v>
       </c>
-      <c r="T19" s="117" t="s">
-        <v>8</v>
-      </c>
-      <c r="U19" s="117" t="s">
-        <v>8</v>
-      </c>
-      <c r="V19" s="120" t="s">
+      <c r="T19" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="U19" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="V19" s="99" t="s">
         <v>8</v>
       </c>
       <c r="W19" s="53"/>
-      <c r="X19" s="120">
-        <v>21</v>
-      </c>
-      <c r="Y19" s="123">
+      <c r="X19" s="99">
+        <v>22</v>
+      </c>
+      <c r="Y19" s="102">
         <v>6300</v>
       </c>
     </row>
     <row r="20" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="114"/>
-      <c r="B20" s="115"/>
-      <c r="C20" s="116"/>
-      <c r="D20" s="26" t="s">
-        <v>13</v>
+      <c r="A20" s="108"/>
+      <c r="B20" s="109"/>
+      <c r="C20" s="110"/>
+      <c r="D20" s="26">
+        <v>8</v>
       </c>
       <c r="E20" s="26">
         <v>8</v>
@@ -5913,14 +5913,14 @@
       <c r="H20" s="26">
         <v>8</v>
       </c>
-      <c r="I20" s="26">
-        <v>8</v>
+      <c r="I20" s="26" t="s">
+        <v>13</v>
       </c>
       <c r="J20" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="K20" s="26" t="s">
-        <v>13</v>
+      <c r="K20" s="26">
+        <v>8</v>
       </c>
       <c r="L20" s="26">
         <v>8</v>
@@ -5934,33 +5934,33 @@
       <c r="O20" s="26">
         <v>8</v>
       </c>
-      <c r="P20" s="26">
-        <v>8</v>
+      <c r="P20" s="26" t="s">
+        <v>13</v>
       </c>
       <c r="Q20" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="R20" s="26" t="s">
-        <v>13</v>
+      <c r="R20" s="26">
+        <v>8</v>
       </c>
       <c r="S20" s="26">
         <v>8</v>
       </c>
-      <c r="T20" s="118"/>
-      <c r="U20" s="118"/>
-      <c r="V20" s="121"/>
+      <c r="T20" s="106"/>
+      <c r="U20" s="106"/>
+      <c r="V20" s="100"/>
       <c r="W20" s="55"/>
-      <c r="X20" s="122"/>
-      <c r="Y20" s="123"/>
+      <c r="X20" s="101"/>
+      <c r="Y20" s="102"/>
       <c r="Z20" s="2">
         <f>SUM(D20:S20)</f>
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="114"/>
-      <c r="B21" s="115"/>
-      <c r="C21" s="116"/>
+      <c r="A21" s="108"/>
+      <c r="B21" s="109"/>
+      <c r="C21" s="110"/>
       <c r="D21" s="27">
         <v>17</v>
       </c>
@@ -6009,24 +6009,24 @@
       <c r="S21" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T21" s="118"/>
-      <c r="U21" s="118"/>
-      <c r="V21" s="121"/>
+      <c r="T21" s="106"/>
+      <c r="U21" s="106"/>
+      <c r="V21" s="100"/>
       <c r="W21" s="55"/>
-      <c r="X21" s="120">
+      <c r="X21" s="99">
         <f>Z20+Z22</f>
-        <v>168</v>
-      </c>
-      <c r="Y21" s="123"/>
+        <v>176</v>
+      </c>
+      <c r="Y21" s="102"/>
       <c r="AA21" s="2">
         <f>Z22+Z20</f>
-        <v>168</v>
+        <v>176</v>
       </c>
     </row>
     <row r="22" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="114"/>
-      <c r="B22" s="115"/>
-      <c r="C22" s="116"/>
+      <c r="A22" s="108"/>
+      <c r="B22" s="109"/>
+      <c r="C22" s="110"/>
       <c r="D22" s="26">
         <v>8</v>
       </c>
@@ -6036,14 +6036,14 @@
       <c r="F22" s="26">
         <v>8</v>
       </c>
-      <c r="G22" s="26">
-        <v>8</v>
+      <c r="G22" s="26" t="s">
+        <v>13</v>
       </c>
       <c r="H22" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="I22" s="26" t="s">
-        <v>13</v>
+      <c r="I22" s="26">
+        <v>8</v>
       </c>
       <c r="J22" s="26">
         <v>8</v>
@@ -6057,14 +6057,14 @@
       <c r="M22" s="26">
         <v>8</v>
       </c>
-      <c r="N22" s="26">
-        <v>8</v>
+      <c r="N22" s="26" t="s">
+        <v>13</v>
       </c>
       <c r="O22" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="P22" s="26" t="s">
-        <v>13</v>
+      <c r="P22" s="26">
+        <v>8</v>
       </c>
       <c r="Q22" s="26">
         <v>8</v>
@@ -6075,25 +6075,25 @@
       <c r="S22" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T22" s="119"/>
-      <c r="U22" s="119"/>
-      <c r="V22" s="122"/>
+      <c r="T22" s="107"/>
+      <c r="U22" s="107"/>
+      <c r="V22" s="101"/>
       <c r="W22" s="54"/>
-      <c r="X22" s="122"/>
-      <c r="Y22" s="123"/>
+      <c r="X22" s="101"/>
+      <c r="Y22" s="102"/>
       <c r="Z22" s="2">
         <f>SUM(D22:S22)</f>
         <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="114">
+      <c r="A23" s="108">
         <v>4</v>
       </c>
-      <c r="B23" s="115" t="s">
+      <c r="B23" s="109" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="116" t="s">
+      <c r="C23" s="110" t="s">
         <v>32</v>
       </c>
       <c r="D23" s="25">
@@ -6144,29 +6144,29 @@
       <c r="S23" s="25">
         <v>16</v>
       </c>
-      <c r="T23" s="117" t="s">
-        <v>8</v>
-      </c>
-      <c r="U23" s="117" t="s">
-        <v>8</v>
-      </c>
-      <c r="V23" s="120" t="s">
+      <c r="T23" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="U23" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="V23" s="99" t="s">
         <v>8</v>
       </c>
       <c r="W23" s="53"/>
-      <c r="X23" s="120">
-        <v>21</v>
-      </c>
-      <c r="Y23" s="123">
+      <c r="X23" s="99">
+        <v>22</v>
+      </c>
+      <c r="Y23" s="102">
         <v>6060</v>
       </c>
     </row>
     <row r="24" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="114"/>
-      <c r="B24" s="115"/>
-      <c r="C24" s="116"/>
-      <c r="D24" s="26" t="s">
-        <v>13</v>
+      <c r="A24" s="108"/>
+      <c r="B24" s="109"/>
+      <c r="C24" s="110"/>
+      <c r="D24" s="26">
+        <v>8</v>
       </c>
       <c r="E24" s="26">
         <v>8</v>
@@ -6180,14 +6180,14 @@
       <c r="H24" s="26">
         <v>8</v>
       </c>
-      <c r="I24" s="26">
-        <v>8</v>
+      <c r="I24" s="26" t="s">
+        <v>13</v>
       </c>
       <c r="J24" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="K24" s="26" t="s">
-        <v>13</v>
+      <c r="K24" s="26">
+        <v>8</v>
       </c>
       <c r="L24" s="26">
         <v>8</v>
@@ -6201,33 +6201,33 @@
       <c r="O24" s="26">
         <v>8</v>
       </c>
-      <c r="P24" s="26">
-        <v>8</v>
+      <c r="P24" s="26" t="s">
+        <v>13</v>
       </c>
       <c r="Q24" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="R24" s="26" t="s">
-        <v>13</v>
+      <c r="R24" s="26">
+        <v>8</v>
       </c>
       <c r="S24" s="26">
         <v>8</v>
       </c>
-      <c r="T24" s="118"/>
-      <c r="U24" s="118"/>
-      <c r="V24" s="121"/>
+      <c r="T24" s="106"/>
+      <c r="U24" s="106"/>
+      <c r="V24" s="100"/>
       <c r="W24" s="55"/>
-      <c r="X24" s="122"/>
-      <c r="Y24" s="123"/>
+      <c r="X24" s="101"/>
+      <c r="Y24" s="102"/>
       <c r="Z24" s="2">
         <f>SUM(D24:S24)</f>
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="114"/>
-      <c r="B25" s="115"/>
-      <c r="C25" s="116"/>
+      <c r="A25" s="108"/>
+      <c r="B25" s="109"/>
+      <c r="C25" s="110"/>
       <c r="D25" s="27">
         <v>17</v>
       </c>
@@ -6276,24 +6276,24 @@
       <c r="S25" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T25" s="118"/>
-      <c r="U25" s="118"/>
-      <c r="V25" s="121"/>
+      <c r="T25" s="106"/>
+      <c r="U25" s="106"/>
+      <c r="V25" s="100"/>
       <c r="W25" s="55"/>
-      <c r="X25" s="120">
+      <c r="X25" s="99">
         <f>Z24+Z26</f>
-        <v>168</v>
-      </c>
-      <c r="Y25" s="123"/>
+        <v>176</v>
+      </c>
+      <c r="Y25" s="102"/>
       <c r="AA25" s="2">
         <f>Z26+Z24</f>
-        <v>168</v>
+        <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="114"/>
-      <c r="B26" s="115"/>
-      <c r="C26" s="116"/>
+      <c r="A26" s="108"/>
+      <c r="B26" s="109"/>
+      <c r="C26" s="110"/>
       <c r="D26" s="26">
         <v>8</v>
       </c>
@@ -6303,14 +6303,14 @@
       <c r="F26" s="26">
         <v>8</v>
       </c>
-      <c r="G26" s="26">
-        <v>8</v>
+      <c r="G26" s="26" t="s">
+        <v>13</v>
       </c>
       <c r="H26" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="I26" s="26" t="s">
-        <v>13</v>
+      <c r="I26" s="26">
+        <v>8</v>
       </c>
       <c r="J26" s="26">
         <v>8</v>
@@ -6324,14 +6324,14 @@
       <c r="M26" s="26">
         <v>8</v>
       </c>
-      <c r="N26" s="26">
-        <v>8</v>
+      <c r="N26" s="26" t="s">
+        <v>13</v>
       </c>
       <c r="O26" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="P26" s="26" t="s">
-        <v>13</v>
+      <c r="P26" s="26">
+        <v>8</v>
       </c>
       <c r="Q26" s="26">
         <v>8</v>
@@ -6342,19 +6342,19 @@
       <c r="S26" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T26" s="119"/>
-      <c r="U26" s="119"/>
-      <c r="V26" s="122"/>
+      <c r="T26" s="107"/>
+      <c r="U26" s="107"/>
+      <c r="V26" s="101"/>
       <c r="W26" s="54"/>
-      <c r="X26" s="122"/>
-      <c r="Y26" s="123"/>
+      <c r="X26" s="101"/>
+      <c r="Y26" s="102"/>
       <c r="Z26" s="2">
         <f>SUM(D26:S26)</f>
         <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="114">
+      <c r="A27" s="108">
         <v>5</v>
       </c>
       <c r="B27" s="126" t="s">
@@ -6411,20 +6411,20 @@
       <c r="S27" s="25">
         <v>16</v>
       </c>
-      <c r="T27" s="117" t="s">
-        <v>8</v>
-      </c>
-      <c r="U27" s="117" t="s">
-        <v>8</v>
-      </c>
-      <c r="V27" s="120" t="s">
+      <c r="T27" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="U27" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="V27" s="99" t="s">
         <v>8</v>
       </c>
       <c r="W27" s="53"/>
-      <c r="X27" s="120">
-        <v>21</v>
-      </c>
-      <c r="Y27" s="123">
+      <c r="X27" s="99">
+        <v>22</v>
+      </c>
+      <c r="Y27" s="102">
         <v>6060</v>
       </c>
       <c r="Z27" s="2" t="s">
@@ -6432,11 +6432,11 @@
       </c>
     </row>
     <row r="28" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="114"/>
+      <c r="A28" s="108"/>
       <c r="B28" s="126"/>
       <c r="C28" s="127"/>
-      <c r="D28" s="26" t="s">
-        <v>13</v>
+      <c r="D28" s="26">
+        <v>8</v>
       </c>
       <c r="E28" s="26">
         <v>8</v>
@@ -6450,14 +6450,14 @@
       <c r="H28" s="26">
         <v>8</v>
       </c>
-      <c r="I28" s="26">
-        <v>8</v>
+      <c r="I28" s="26" t="s">
+        <v>13</v>
       </c>
       <c r="J28" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="K28" s="26" t="s">
-        <v>13</v>
+      <c r="K28" s="26">
+        <v>8</v>
       </c>
       <c r="L28" s="26">
         <v>8</v>
@@ -6471,27 +6471,27 @@
       <c r="O28" s="26">
         <v>8</v>
       </c>
-      <c r="P28" s="26">
-        <v>8</v>
+      <c r="P28" s="26" t="s">
+        <v>13</v>
       </c>
       <c r="Q28" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="R28" s="26" t="s">
-        <v>13</v>
+      <c r="R28" s="26">
+        <v>8</v>
       </c>
       <c r="S28" s="26">
         <v>8</v>
       </c>
-      <c r="T28" s="118"/>
-      <c r="U28" s="118"/>
-      <c r="V28" s="121"/>
+      <c r="T28" s="106"/>
+      <c r="U28" s="106"/>
+      <c r="V28" s="100"/>
       <c r="W28" s="55"/>
-      <c r="X28" s="122"/>
-      <c r="Y28" s="123"/>
+      <c r="X28" s="101"/>
+      <c r="Y28" s="102"/>
     </row>
     <row r="29" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="114"/>
+      <c r="A29" s="108"/>
       <c r="B29" s="126"/>
       <c r="C29" s="127"/>
       <c r="D29" s="27">
@@ -6542,17 +6542,17 @@
       <c r="S29" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T29" s="118"/>
-      <c r="U29" s="118"/>
-      <c r="V29" s="121"/>
+      <c r="T29" s="106"/>
+      <c r="U29" s="106"/>
+      <c r="V29" s="100"/>
       <c r="W29" s="55"/>
-      <c r="X29" s="120">
+      <c r="X29" s="99">
         <v>32</v>
       </c>
-      <c r="Y29" s="123"/>
+      <c r="Y29" s="102"/>
     </row>
     <row r="30" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="114"/>
+      <c r="A30" s="108"/>
       <c r="B30" s="126"/>
       <c r="C30" s="127"/>
       <c r="D30" s="26">
@@ -6564,14 +6564,14 @@
       <c r="F30" s="26">
         <v>8</v>
       </c>
-      <c r="G30" s="26">
-        <v>8</v>
+      <c r="G30" s="26" t="s">
+        <v>13</v>
       </c>
       <c r="H30" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="I30" s="26" t="s">
-        <v>13</v>
+      <c r="I30" s="26">
+        <v>8</v>
       </c>
       <c r="J30" s="26">
         <v>8</v>
@@ -6585,14 +6585,14 @@
       <c r="M30" s="26">
         <v>8</v>
       </c>
-      <c r="N30" s="26">
-        <v>8</v>
+      <c r="N30" s="26" t="s">
+        <v>13</v>
       </c>
       <c r="O30" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="P30" s="26" t="s">
-        <v>13</v>
+      <c r="P30" s="26">
+        <v>8</v>
       </c>
       <c r="Q30" s="26">
         <v>8</v>
@@ -6603,21 +6603,21 @@
       <c r="S30" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T30" s="119"/>
-      <c r="U30" s="119"/>
-      <c r="V30" s="122"/>
+      <c r="T30" s="107"/>
+      <c r="U30" s="107"/>
+      <c r="V30" s="101"/>
       <c r="W30" s="54"/>
-      <c r="X30" s="122"/>
-      <c r="Y30" s="123"/>
+      <c r="X30" s="101"/>
+      <c r="Y30" s="102"/>
     </row>
     <row r="31" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="114">
+      <c r="A31" s="108">
         <v>6</v>
       </c>
-      <c r="B31" s="115" t="s">
+      <c r="B31" s="109" t="s">
         <v>64</v>
       </c>
-      <c r="C31" s="116" t="s">
+      <c r="C31" s="110" t="s">
         <v>32</v>
       </c>
       <c r="D31" s="25">
@@ -6668,29 +6668,29 @@
       <c r="S31" s="25">
         <v>16</v>
       </c>
-      <c r="T31" s="117" t="s">
-        <v>8</v>
-      </c>
-      <c r="U31" s="117" t="s">
-        <v>8</v>
-      </c>
-      <c r="V31" s="120" t="s">
+      <c r="T31" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="U31" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="V31" s="99" t="s">
         <v>8</v>
       </c>
       <c r="W31" s="45"/>
-      <c r="X31" s="120">
-        <v>21</v>
-      </c>
-      <c r="Y31" s="123">
+      <c r="X31" s="99">
+        <v>22</v>
+      </c>
+      <c r="Y31" s="102">
         <v>6060</v>
       </c>
     </row>
     <row r="32" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="114"/>
-      <c r="B32" s="115"/>
-      <c r="C32" s="116"/>
-      <c r="D32" s="26" t="s">
-        <v>13</v>
+      <c r="A32" s="108"/>
+      <c r="B32" s="109"/>
+      <c r="C32" s="110"/>
+      <c r="D32" s="26">
+        <v>8</v>
       </c>
       <c r="E32" s="26">
         <v>8</v>
@@ -6704,14 +6704,14 @@
       <c r="H32" s="26">
         <v>8</v>
       </c>
-      <c r="I32" s="26">
-        <v>8</v>
+      <c r="I32" s="26" t="s">
+        <v>13</v>
       </c>
       <c r="J32" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="K32" s="26" t="s">
-        <v>13</v>
+      <c r="K32" s="26">
+        <v>8</v>
       </c>
       <c r="L32" s="26">
         <v>8</v>
@@ -6725,37 +6725,37 @@
       <c r="O32" s="26">
         <v>8</v>
       </c>
-      <c r="P32" s="26">
-        <v>8</v>
+      <c r="P32" s="26" t="s">
+        <v>13</v>
       </c>
       <c r="Q32" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="R32" s="26" t="s">
-        <v>13</v>
+      <c r="R32" s="26">
+        <v>8</v>
       </c>
       <c r="S32" s="26">
         <v>8</v>
       </c>
-      <c r="T32" s="118"/>
-      <c r="U32" s="118"/>
-      <c r="V32" s="121"/>
+      <c r="T32" s="106"/>
+      <c r="U32" s="106"/>
+      <c r="V32" s="100"/>
       <c r="W32" s="47"/>
-      <c r="X32" s="122"/>
-      <c r="Y32" s="123"/>
+      <c r="X32" s="101"/>
+      <c r="Y32" s="102"/>
       <c r="Z32" s="2">
         <f>SUM(D32:S32)</f>
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="AA32" s="2">
         <f>Z32+Z34</f>
-        <v>168</v>
+        <v>176</v>
       </c>
     </row>
     <row r="33" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="114"/>
-      <c r="B33" s="115"/>
-      <c r="C33" s="116"/>
+      <c r="A33" s="108"/>
+      <c r="B33" s="109"/>
+      <c r="C33" s="110"/>
       <c r="D33" s="27">
         <v>17</v>
       </c>
@@ -6804,20 +6804,20 @@
       <c r="S33" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T33" s="118"/>
-      <c r="U33" s="118"/>
-      <c r="V33" s="121"/>
+      <c r="T33" s="106"/>
+      <c r="U33" s="106"/>
+      <c r="V33" s="100"/>
       <c r="W33" s="47"/>
-      <c r="X33" s="120">
+      <c r="X33" s="99">
         <f>Z32+Z34</f>
-        <v>168</v>
-      </c>
-      <c r="Y33" s="123"/>
+        <v>176</v>
+      </c>
+      <c r="Y33" s="102"/>
     </row>
     <row r="34" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="114"/>
-      <c r="B34" s="115"/>
-      <c r="C34" s="116"/>
+      <c r="A34" s="108"/>
+      <c r="B34" s="109"/>
+      <c r="C34" s="110"/>
       <c r="D34" s="26">
         <v>8</v>
       </c>
@@ -6827,14 +6827,14 @@
       <c r="F34" s="26">
         <v>8</v>
       </c>
-      <c r="G34" s="26">
-        <v>8</v>
+      <c r="G34" s="26" t="s">
+        <v>13</v>
       </c>
       <c r="H34" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="I34" s="26" t="s">
-        <v>13</v>
+      <c r="I34" s="26">
+        <v>8</v>
       </c>
       <c r="J34" s="26">
         <v>8</v>
@@ -6848,14 +6848,14 @@
       <c r="M34" s="26">
         <v>8</v>
       </c>
-      <c r="N34" s="26">
-        <v>8</v>
+      <c r="N34" s="26" t="s">
+        <v>13</v>
       </c>
       <c r="O34" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="P34" s="26" t="s">
-        <v>13</v>
+      <c r="P34" s="26">
+        <v>8</v>
       </c>
       <c r="Q34" s="26">
         <v>8</v>
@@ -6866,12 +6866,12 @@
       <c r="S34" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T34" s="119"/>
-      <c r="U34" s="119"/>
-      <c r="V34" s="122"/>
+      <c r="T34" s="107"/>
+      <c r="U34" s="107"/>
+      <c r="V34" s="101"/>
       <c r="W34" s="46"/>
-      <c r="X34" s="122"/>
-      <c r="Y34" s="123"/>
+      <c r="X34" s="101"/>
+      <c r="Y34" s="102"/>
       <c r="Z34" s="2">
         <f>SUM(D34:S34)</f>
         <v>80</v>
@@ -6882,7 +6882,7 @@
       <c r="C35" s="33"/>
       <c r="X35" s="74">
         <f>X33+X29+X25+X21+X17+X13</f>
-        <v>872</v>
+        <v>912</v>
       </c>
       <c r="Y35" s="34">
         <f>Y11+Y15+Y19+Y23+Y27+Y31</f>
@@ -6890,10 +6890,10 @@
       </c>
     </row>
     <row r="36" spans="1:26" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A36" s="124" t="s">
+      <c r="A36" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="124"/>
+      <c r="B36" s="103"/>
       <c r="C36" s="33">
         <v>44531</v>
       </c>
@@ -6959,15 +6959,49 @@
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="U19:U22"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="V15:V18"/>
-    <mergeCell ref="V19:V22"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="T15:T18"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="T11:T14"/>
+    <mergeCell ref="U31:U34"/>
+    <mergeCell ref="V31:V34"/>
+    <mergeCell ref="X31:X32"/>
+    <mergeCell ref="Y31:Y34"/>
+    <mergeCell ref="X33:X34"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="T31:T34"/>
+    <mergeCell ref="Y23:Y26"/>
+    <mergeCell ref="X25:X26"/>
+    <mergeCell ref="Y27:Y30"/>
+    <mergeCell ref="X29:X30"/>
+    <mergeCell ref="X27:X28"/>
+    <mergeCell ref="X23:X24"/>
+    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="X11:X12"/>
+    <mergeCell ref="Y11:Y14"/>
+    <mergeCell ref="X13:X14"/>
+    <mergeCell ref="X19:X20"/>
+    <mergeCell ref="Y19:Y22"/>
+    <mergeCell ref="X21:X22"/>
+    <mergeCell ref="X15:X16"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="Y15:Y18"/>
+    <mergeCell ref="X17:X18"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="V27:V30"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="T27:T30"/>
+    <mergeCell ref="U27:U30"/>
+    <mergeCell ref="V23:V26"/>
+    <mergeCell ref="U23:U26"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="T23:T26"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="T19:T22"/>
     <mergeCell ref="A15:A18"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A7:W7"/>
@@ -6984,49 +7018,15 @@
     <mergeCell ref="V11:V14"/>
     <mergeCell ref="U11:U14"/>
     <mergeCell ref="U15:U18"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="V27:V30"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="T27:T30"/>
-    <mergeCell ref="U27:U30"/>
-    <mergeCell ref="V23:V26"/>
-    <mergeCell ref="U23:U26"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="T23:T26"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="T19:T22"/>
-    <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="X11:X12"/>
-    <mergeCell ref="Y11:Y14"/>
-    <mergeCell ref="X13:X14"/>
-    <mergeCell ref="X19:X20"/>
-    <mergeCell ref="Y19:Y22"/>
-    <mergeCell ref="X21:X22"/>
-    <mergeCell ref="X15:X16"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="Y15:Y18"/>
-    <mergeCell ref="X17:X18"/>
-    <mergeCell ref="Y23:Y26"/>
-    <mergeCell ref="X25:X26"/>
-    <mergeCell ref="Y27:Y30"/>
-    <mergeCell ref="X29:X30"/>
-    <mergeCell ref="X27:X28"/>
-    <mergeCell ref="X23:X24"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="C31:C34"/>
-    <mergeCell ref="T31:T34"/>
-    <mergeCell ref="U31:U34"/>
-    <mergeCell ref="V31:V34"/>
-    <mergeCell ref="X31:X32"/>
-    <mergeCell ref="Y31:Y34"/>
-    <mergeCell ref="X33:X34"/>
+    <mergeCell ref="U19:U22"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="V15:V18"/>
+    <mergeCell ref="V19:V22"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="T15:T18"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="T11:T14"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -7041,7 +7041,7 @@
   <dimension ref="A1:Z28"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15:T18"/>
+      <selection activeCell="T14" sqref="E11:T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
@@ -7194,63 +7194,63 @@
       <c r="Y5" s="77"/>
     </row>
     <row r="6" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A6" s="103" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="103"/>
-      <c r="C6" s="103"/>
-      <c r="D6" s="103"/>
-      <c r="E6" s="103"/>
-      <c r="F6" s="103"/>
-      <c r="G6" s="103"/>
-      <c r="H6" s="103"/>
-      <c r="I6" s="103"/>
-      <c r="J6" s="103"/>
-      <c r="K6" s="103"/>
-      <c r="L6" s="103"/>
-      <c r="M6" s="103"/>
-      <c r="N6" s="103"/>
-      <c r="O6" s="103"/>
-      <c r="P6" s="103"/>
-      <c r="Q6" s="103"/>
-      <c r="R6" s="103"/>
-      <c r="S6" s="103"/>
-      <c r="T6" s="103"/>
-      <c r="U6" s="103"/>
-      <c r="V6" s="103"/>
-      <c r="W6" s="103"/>
-      <c r="X6" s="103"/>
-      <c r="Y6" s="103"/>
+      <c r="A6" s="115" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="115"/>
+      <c r="C6" s="115"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="115"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="115"/>
+      <c r="J6" s="115"/>
+      <c r="K6" s="115"/>
+      <c r="L6" s="115"/>
+      <c r="M6" s="115"/>
+      <c r="N6" s="115"/>
+      <c r="O6" s="115"/>
+      <c r="P6" s="115"/>
+      <c r="Q6" s="115"/>
+      <c r="R6" s="115"/>
+      <c r="S6" s="115"/>
+      <c r="T6" s="115"/>
+      <c r="U6" s="115"/>
+      <c r="V6" s="115"/>
+      <c r="W6" s="115"/>
+      <c r="X6" s="115"/>
+      <c r="Y6" s="115"/>
     </row>
     <row r="7" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A7" s="103" t="str">
+      <c r="A7" s="115" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ЛИСТОПАД 2021р.</v>
       </c>
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="103"/>
-      <c r="I7" s="103"/>
-      <c r="J7" s="103"/>
-      <c r="K7" s="103"/>
-      <c r="L7" s="103"/>
-      <c r="M7" s="103"/>
-      <c r="N7" s="103"/>
-      <c r="O7" s="103"/>
-      <c r="P7" s="103"/>
-      <c r="Q7" s="103"/>
-      <c r="R7" s="103"/>
-      <c r="S7" s="103"/>
-      <c r="T7" s="103"/>
-      <c r="U7" s="103"/>
-      <c r="V7" s="103"/>
-      <c r="W7" s="103"/>
-      <c r="X7" s="103"/>
-      <c r="Y7" s="103"/>
+      <c r="B7" s="115"/>
+      <c r="C7" s="115"/>
+      <c r="D7" s="115"/>
+      <c r="E7" s="115"/>
+      <c r="F7" s="115"/>
+      <c r="G7" s="115"/>
+      <c r="H7" s="115"/>
+      <c r="I7" s="115"/>
+      <c r="J7" s="115"/>
+      <c r="K7" s="115"/>
+      <c r="L7" s="115"/>
+      <c r="M7" s="115"/>
+      <c r="N7" s="115"/>
+      <c r="O7" s="115"/>
+      <c r="P7" s="115"/>
+      <c r="Q7" s="115"/>
+      <c r="R7" s="115"/>
+      <c r="S7" s="115"/>
+      <c r="T7" s="115"/>
+      <c r="U7" s="115"/>
+      <c r="V7" s="115"/>
+      <c r="W7" s="115"/>
+      <c r="X7" s="115"/>
+      <c r="Y7" s="115"/>
     </row>
     <row r="8" spans="1:26" ht="20" x14ac:dyDescent="0.35">
       <c r="A8" s="76"/>
@@ -7280,90 +7280,90 @@
       <c r="Y8" s="76"/>
     </row>
     <row r="9" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="105" t="s">
+      <c r="A9" s="117" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="117"/>
-      <c r="C9" s="105" t="s">
+      <c r="B9" s="105"/>
+      <c r="C9" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="105" t="s">
+      <c r="D9" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="105" t="s">
+      <c r="E9" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="105"/>
-      <c r="G9" s="105"/>
-      <c r="H9" s="105"/>
-      <c r="I9" s="105"/>
-      <c r="J9" s="105"/>
-      <c r="K9" s="105"/>
-      <c r="L9" s="105"/>
-      <c r="M9" s="105"/>
-      <c r="N9" s="105"/>
-      <c r="O9" s="105"/>
-      <c r="P9" s="105"/>
-      <c r="Q9" s="105"/>
-      <c r="R9" s="105"/>
-      <c r="S9" s="105"/>
-      <c r="T9" s="105"/>
-      <c r="U9" s="113" t="s">
+      <c r="F9" s="117"/>
+      <c r="G9" s="117"/>
+      <c r="H9" s="117"/>
+      <c r="I9" s="117"/>
+      <c r="J9" s="117"/>
+      <c r="K9" s="117"/>
+      <c r="L9" s="117"/>
+      <c r="M9" s="117"/>
+      <c r="N9" s="117"/>
+      <c r="O9" s="117"/>
+      <c r="P9" s="117"/>
+      <c r="Q9" s="117"/>
+      <c r="R9" s="117"/>
+      <c r="S9" s="117"/>
+      <c r="T9" s="117"/>
+      <c r="U9" s="125" t="s">
         <v>48</v>
       </c>
-      <c r="V9" s="113" t="s">
+      <c r="V9" s="125" t="s">
         <v>49</v>
       </c>
-      <c r="W9" s="113" t="s">
+      <c r="W9" s="125" t="s">
         <v>50</v>
       </c>
-      <c r="X9" s="113" t="s">
+      <c r="X9" s="125" t="s">
         <v>47</v>
       </c>
-      <c r="Y9" s="113" t="s">
+      <c r="Y9" s="125" t="s">
         <v>46</v>
       </c>
-      <c r="Z9" s="99" t="s">
+      <c r="Z9" s="111" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="105"/>
-      <c r="B10" s="119"/>
-      <c r="C10" s="105"/>
-      <c r="D10" s="105"/>
-      <c r="E10" s="105"/>
-      <c r="F10" s="105"/>
-      <c r="G10" s="105"/>
-      <c r="H10" s="105"/>
-      <c r="I10" s="105"/>
-      <c r="J10" s="105"/>
-      <c r="K10" s="105"/>
-      <c r="L10" s="105"/>
-      <c r="M10" s="105"/>
-      <c r="N10" s="105"/>
-      <c r="O10" s="105"/>
-      <c r="P10" s="105"/>
-      <c r="Q10" s="105"/>
-      <c r="R10" s="105"/>
-      <c r="S10" s="105"/>
-      <c r="T10" s="105"/>
-      <c r="U10" s="113"/>
-      <c r="V10" s="113"/>
-      <c r="W10" s="113"/>
-      <c r="X10" s="113"/>
-      <c r="Y10" s="113"/>
-      <c r="Z10" s="99"/>
+      <c r="A10" s="117"/>
+      <c r="B10" s="107"/>
+      <c r="C10" s="117"/>
+      <c r="D10" s="117"/>
+      <c r="E10" s="117"/>
+      <c r="F10" s="117"/>
+      <c r="G10" s="117"/>
+      <c r="H10" s="117"/>
+      <c r="I10" s="117"/>
+      <c r="J10" s="117"/>
+      <c r="K10" s="117"/>
+      <c r="L10" s="117"/>
+      <c r="M10" s="117"/>
+      <c r="N10" s="117"/>
+      <c r="O10" s="117"/>
+      <c r="P10" s="117"/>
+      <c r="Q10" s="117"/>
+      <c r="R10" s="117"/>
+      <c r="S10" s="117"/>
+      <c r="T10" s="117"/>
+      <c r="U10" s="125"/>
+      <c r="V10" s="125"/>
+      <c r="W10" s="125"/>
+      <c r="X10" s="125"/>
+      <c r="Y10" s="125"/>
+      <c r="Z10" s="111"/>
     </row>
     <row r="11" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="128">
+      <c r="A11" s="131">
         <v>1</v>
       </c>
-      <c r="B11" s="117"/>
-      <c r="C11" s="117" t="s">
+      <c r="B11" s="105"/>
+      <c r="C11" s="105" t="s">
         <v>90</v>
       </c>
-      <c r="D11" s="116" t="s">
+      <c r="D11" s="110" t="s">
         <v>37</v>
       </c>
       <c r="E11" s="25">
@@ -7414,22 +7414,22 @@
       <c r="T11" s="25">
         <v>16</v>
       </c>
-      <c r="U11" s="131"/>
-      <c r="V11" s="131"/>
-      <c r="W11" s="131"/>
-      <c r="X11" s="131"/>
-      <c r="Y11" s="120">
+      <c r="U11" s="134"/>
+      <c r="V11" s="134"/>
+      <c r="W11" s="134"/>
+      <c r="X11" s="134"/>
+      <c r="Y11" s="99">
         <v>22</v>
       </c>
-      <c r="Z11" s="134">
+      <c r="Z11" s="128">
         <v>6060</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="129"/>
-      <c r="B12" s="118"/>
-      <c r="C12" s="118"/>
-      <c r="D12" s="116"/>
+      <c r="A12" s="132"/>
+      <c r="B12" s="106"/>
+      <c r="C12" s="106"/>
+      <c r="D12" s="110"/>
       <c r="E12" s="26">
         <v>8</v>
       </c>
@@ -7478,18 +7478,18 @@
       <c r="T12" s="26">
         <v>8</v>
       </c>
-      <c r="U12" s="132"/>
-      <c r="V12" s="132"/>
-      <c r="W12" s="132"/>
-      <c r="X12" s="132"/>
-      <c r="Y12" s="122"/>
-      <c r="Z12" s="135"/>
+      <c r="U12" s="135"/>
+      <c r="V12" s="135"/>
+      <c r="W12" s="135"/>
+      <c r="X12" s="135"/>
+      <c r="Y12" s="101"/>
+      <c r="Z12" s="129"/>
     </row>
     <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="129"/>
-      <c r="B13" s="118"/>
-      <c r="C13" s="118"/>
-      <c r="D13" s="116"/>
+      <c r="A13" s="132"/>
+      <c r="B13" s="106"/>
+      <c r="C13" s="106"/>
+      <c r="D13" s="110"/>
       <c r="E13" s="27">
         <v>17</v>
       </c>
@@ -7538,20 +7538,20 @@
       <c r="T13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U13" s="132"/>
-      <c r="V13" s="132"/>
-      <c r="W13" s="132"/>
-      <c r="X13" s="132"/>
-      <c r="Y13" s="120">
+      <c r="U13" s="135"/>
+      <c r="V13" s="135"/>
+      <c r="W13" s="135"/>
+      <c r="X13" s="135"/>
+      <c r="Y13" s="99">
         <v>176</v>
       </c>
-      <c r="Z13" s="135"/>
+      <c r="Z13" s="129"/>
     </row>
     <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="130"/>
-      <c r="B14" s="119"/>
-      <c r="C14" s="119"/>
-      <c r="D14" s="116"/>
+      <c r="A14" s="133"/>
+      <c r="B14" s="107"/>
+      <c r="C14" s="107"/>
+      <c r="D14" s="110"/>
       <c r="E14" s="26">
         <v>8</v>
       </c>
@@ -7600,22 +7600,22 @@
       <c r="T14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="133"/>
-      <c r="V14" s="133"/>
-      <c r="W14" s="133"/>
-      <c r="X14" s="133"/>
-      <c r="Y14" s="122"/>
-      <c r="Z14" s="136"/>
+      <c r="U14" s="136"/>
+      <c r="V14" s="136"/>
+      <c r="W14" s="136"/>
+      <c r="X14" s="136"/>
+      <c r="Y14" s="101"/>
+      <c r="Z14" s="130"/>
     </row>
     <row r="15" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="128">
-        <v>2</v>
-      </c>
-      <c r="B15" s="117"/>
-      <c r="C15" s="117" t="s">
+      <c r="A15" s="131">
+        <v>2</v>
+      </c>
+      <c r="B15" s="105"/>
+      <c r="C15" s="105" t="s">
         <v>102</v>
       </c>
-      <c r="D15" s="116" t="s">
+      <c r="D15" s="110" t="s">
         <v>37</v>
       </c>
       <c r="E15" s="25">
@@ -7666,22 +7666,22 @@
       <c r="T15" s="25">
         <v>16</v>
       </c>
-      <c r="U15" s="131"/>
-      <c r="V15" s="131"/>
-      <c r="W15" s="131"/>
-      <c r="X15" s="131"/>
-      <c r="Y15" s="120">
+      <c r="U15" s="134"/>
+      <c r="V15" s="134"/>
+      <c r="W15" s="134"/>
+      <c r="X15" s="134"/>
+      <c r="Y15" s="99">
         <v>22</v>
       </c>
-      <c r="Z15" s="134">
+      <c r="Z15" s="128">
         <v>6060</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="129"/>
-      <c r="B16" s="118"/>
-      <c r="C16" s="118"/>
-      <c r="D16" s="116"/>
+      <c r="A16" s="132"/>
+      <c r="B16" s="106"/>
+      <c r="C16" s="106"/>
+      <c r="D16" s="110"/>
       <c r="E16" s="26">
         <v>4</v>
       </c>
@@ -7730,18 +7730,18 @@
       <c r="T16" s="26">
         <v>4</v>
       </c>
-      <c r="U16" s="132"/>
-      <c r="V16" s="132"/>
-      <c r="W16" s="132"/>
-      <c r="X16" s="132"/>
-      <c r="Y16" s="122"/>
-      <c r="Z16" s="135"/>
+      <c r="U16" s="135"/>
+      <c r="V16" s="135"/>
+      <c r="W16" s="135"/>
+      <c r="X16" s="135"/>
+      <c r="Y16" s="101"/>
+      <c r="Z16" s="129"/>
     </row>
     <row r="17" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="129"/>
-      <c r="B17" s="118"/>
-      <c r="C17" s="118"/>
-      <c r="D17" s="116"/>
+      <c r="A17" s="132"/>
+      <c r="B17" s="106"/>
+      <c r="C17" s="106"/>
+      <c r="D17" s="110"/>
       <c r="E17" s="27">
         <v>17</v>
       </c>
@@ -7790,20 +7790,20 @@
       <c r="T17" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U17" s="132"/>
-      <c r="V17" s="132"/>
-      <c r="W17" s="132"/>
-      <c r="X17" s="132"/>
-      <c r="Y17" s="120">
+      <c r="U17" s="135"/>
+      <c r="V17" s="135"/>
+      <c r="W17" s="135"/>
+      <c r="X17" s="135"/>
+      <c r="Y17" s="99">
         <v>88</v>
       </c>
-      <c r="Z17" s="135"/>
+      <c r="Z17" s="129"/>
     </row>
     <row r="18" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="130"/>
-      <c r="B18" s="119"/>
-      <c r="C18" s="119"/>
-      <c r="D18" s="116"/>
+      <c r="A18" s="133"/>
+      <c r="B18" s="107"/>
+      <c r="C18" s="107"/>
+      <c r="D18" s="110"/>
       <c r="E18" s="26">
         <v>4</v>
       </c>
@@ -7852,12 +7852,12 @@
       <c r="T18" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U18" s="133"/>
-      <c r="V18" s="133"/>
-      <c r="W18" s="133"/>
-      <c r="X18" s="133"/>
-      <c r="Y18" s="122"/>
-      <c r="Z18" s="136"/>
+      <c r="U18" s="136"/>
+      <c r="V18" s="136"/>
+      <c r="W18" s="136"/>
+      <c r="X18" s="136"/>
+      <c r="Y18" s="101"/>
+      <c r="Z18" s="130"/>
     </row>
     <row r="19" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="6"/>
@@ -7888,10 +7888,10 @@
       <c r="Z19" s="88"/>
     </row>
     <row r="20" spans="1:26" s="97" customFormat="1" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="B20" s="124" t="s">
+      <c r="B20" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="124"/>
+      <c r="C20" s="103"/>
       <c r="D20" s="98">
         <f>Мельницький!C36</f>
         <v>44531</v>
@@ -7955,13 +7955,19 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="Z15:Z18"/>
-    <mergeCell ref="Y17:Y18"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="D15:D18"/>
-    <mergeCell ref="U15:U18"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="U11:U14"/>
+    <mergeCell ref="A6:Y6"/>
+    <mergeCell ref="A7:Y7"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:T10"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B14"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="Z9:Z10"/>
     <mergeCell ref="X9:X10"/>
@@ -7978,19 +7984,13 @@
     <mergeCell ref="W15:W18"/>
     <mergeCell ref="X15:X18"/>
     <mergeCell ref="Y15:Y16"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="U11:U14"/>
-    <mergeCell ref="A6:Y6"/>
-    <mergeCell ref="A7:Y7"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:T10"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="Z15:Z18"/>
+    <mergeCell ref="Y17:Y18"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="D15:D18"/>
+    <mergeCell ref="U15:U18"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -8019,12 +8019,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="112" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
       <c r="R1" s="15" t="s">
         <v>40</v>
       </c>
@@ -8169,147 +8169,147 @@
       <c r="X6" s="17"/>
     </row>
     <row r="7" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A7" s="103" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="103"/>
-      <c r="I7" s="103"/>
-      <c r="J7" s="103"/>
-      <c r="K7" s="103"/>
-      <c r="L7" s="103"/>
-      <c r="M7" s="103"/>
-      <c r="N7" s="103"/>
-      <c r="O7" s="103"/>
-      <c r="P7" s="103"/>
-      <c r="Q7" s="103"/>
-      <c r="R7" s="103"/>
-      <c r="S7" s="103"/>
-      <c r="T7" s="103"/>
-      <c r="U7" s="103"/>
-      <c r="V7" s="103"/>
-      <c r="W7" s="103"/>
-      <c r="X7" s="103"/>
+      <c r="A7" s="115" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="115"/>
+      <c r="C7" s="115"/>
+      <c r="D7" s="115"/>
+      <c r="E7" s="115"/>
+      <c r="F7" s="115"/>
+      <c r="G7" s="115"/>
+      <c r="H7" s="115"/>
+      <c r="I7" s="115"/>
+      <c r="J7" s="115"/>
+      <c r="K7" s="115"/>
+      <c r="L7" s="115"/>
+      <c r="M7" s="115"/>
+      <c r="N7" s="115"/>
+      <c r="O7" s="115"/>
+      <c r="P7" s="115"/>
+      <c r="Q7" s="115"/>
+      <c r="R7" s="115"/>
+      <c r="S7" s="115"/>
+      <c r="T7" s="115"/>
+      <c r="U7" s="115"/>
+      <c r="V7" s="115"/>
+      <c r="W7" s="115"/>
+      <c r="X7" s="115"/>
     </row>
     <row r="8" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A8" s="103" t="str">
+      <c r="A8" s="115" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ЛИСТОПАД 2021р.</v>
       </c>
-      <c r="B8" s="103"/>
-      <c r="C8" s="103"/>
-      <c r="D8" s="103"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="103"/>
-      <c r="G8" s="103"/>
-      <c r="H8" s="103"/>
-      <c r="I8" s="103"/>
-      <c r="J8" s="103"/>
-      <c r="K8" s="103"/>
-      <c r="L8" s="103"/>
-      <c r="M8" s="103"/>
-      <c r="N8" s="103"/>
-      <c r="O8" s="103"/>
-      <c r="P8" s="103"/>
-      <c r="Q8" s="103"/>
-      <c r="R8" s="103"/>
-      <c r="S8" s="103"/>
-      <c r="T8" s="103"/>
-      <c r="U8" s="103"/>
-      <c r="V8" s="103"/>
-      <c r="W8" s="103"/>
-      <c r="X8" s="103"/>
+      <c r="B8" s="115"/>
+      <c r="C8" s="115"/>
+      <c r="D8" s="115"/>
+      <c r="E8" s="115"/>
+      <c r="F8" s="115"/>
+      <c r="G8" s="115"/>
+      <c r="H8" s="115"/>
+      <c r="I8" s="115"/>
+      <c r="J8" s="115"/>
+      <c r="K8" s="115"/>
+      <c r="L8" s="115"/>
+      <c r="M8" s="115"/>
+      <c r="N8" s="115"/>
+      <c r="O8" s="115"/>
+      <c r="P8" s="115"/>
+      <c r="Q8" s="115"/>
+      <c r="R8" s="115"/>
+      <c r="S8" s="115"/>
+      <c r="T8" s="115"/>
+      <c r="U8" s="115"/>
+      <c r="V8" s="115"/>
+      <c r="W8" s="115"/>
+      <c r="X8" s="115"/>
     </row>
     <row r="9" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="105" t="s">
+      <c r="A9" s="117" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="106" t="s">
+      <c r="B9" s="118" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="105" t="s">
+      <c r="C9" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="105" t="s">
+      <c r="D9" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="105" t="s">
+      <c r="E9" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="105"/>
-      <c r="G9" s="105"/>
-      <c r="H9" s="105"/>
-      <c r="I9" s="105"/>
-      <c r="J9" s="105"/>
-      <c r="K9" s="105"/>
-      <c r="L9" s="105"/>
-      <c r="M9" s="105"/>
-      <c r="N9" s="105"/>
-      <c r="O9" s="105"/>
-      <c r="P9" s="105"/>
-      <c r="Q9" s="105"/>
-      <c r="R9" s="105"/>
-      <c r="S9" s="105"/>
-      <c r="T9" s="105"/>
-      <c r="U9" s="113" t="s">
+      <c r="F9" s="117"/>
+      <c r="G9" s="117"/>
+      <c r="H9" s="117"/>
+      <c r="I9" s="117"/>
+      <c r="J9" s="117"/>
+      <c r="K9" s="117"/>
+      <c r="L9" s="117"/>
+      <c r="M9" s="117"/>
+      <c r="N9" s="117"/>
+      <c r="O9" s="117"/>
+      <c r="P9" s="117"/>
+      <c r="Q9" s="117"/>
+      <c r="R9" s="117"/>
+      <c r="S9" s="117"/>
+      <c r="T9" s="117"/>
+      <c r="U9" s="125" t="s">
         <v>5</v>
       </c>
-      <c r="V9" s="113" t="s">
+      <c r="V9" s="125" t="s">
         <v>6</v>
       </c>
-      <c r="W9" s="113" t="s">
+      <c r="W9" s="125" t="s">
         <v>14</v>
       </c>
-      <c r="X9" s="113" t="s">
+      <c r="X9" s="125" t="s">
         <v>7</v>
       </c>
-      <c r="Y9" s="99" t="s">
+      <c r="Y9" s="111" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="105"/>
-      <c r="B10" s="106"/>
-      <c r="C10" s="105"/>
-      <c r="D10" s="105"/>
-      <c r="E10" s="105"/>
-      <c r="F10" s="105"/>
-      <c r="G10" s="105"/>
-      <c r="H10" s="105"/>
-      <c r="I10" s="105"/>
-      <c r="J10" s="105"/>
-      <c r="K10" s="105"/>
-      <c r="L10" s="105"/>
-      <c r="M10" s="105"/>
-      <c r="N10" s="105"/>
-      <c r="O10" s="105"/>
-      <c r="P10" s="105"/>
-      <c r="Q10" s="105"/>
-      <c r="R10" s="105"/>
-      <c r="S10" s="105"/>
-      <c r="T10" s="105"/>
-      <c r="U10" s="113"/>
-      <c r="V10" s="113"/>
-      <c r="W10" s="113"/>
-      <c r="X10" s="113"/>
-      <c r="Y10" s="99"/>
+      <c r="A10" s="117"/>
+      <c r="B10" s="118"/>
+      <c r="C10" s="117"/>
+      <c r="D10" s="117"/>
+      <c r="E10" s="117"/>
+      <c r="F10" s="117"/>
+      <c r="G10" s="117"/>
+      <c r="H10" s="117"/>
+      <c r="I10" s="117"/>
+      <c r="J10" s="117"/>
+      <c r="K10" s="117"/>
+      <c r="L10" s="117"/>
+      <c r="M10" s="117"/>
+      <c r="N10" s="117"/>
+      <c r="O10" s="117"/>
+      <c r="P10" s="117"/>
+      <c r="Q10" s="117"/>
+      <c r="R10" s="117"/>
+      <c r="S10" s="117"/>
+      <c r="T10" s="117"/>
+      <c r="U10" s="125"/>
+      <c r="V10" s="125"/>
+      <c r="W10" s="125"/>
+      <c r="X10" s="125"/>
+      <c r="Y10" s="111"/>
     </row>
     <row r="11" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="114">
+      <c r="A11" s="108">
         <v>1</v>
       </c>
-      <c r="B11" s="128">
+      <c r="B11" s="131">
         <v>1</v>
       </c>
-      <c r="C11" s="141" t="s">
+      <c r="C11" s="144" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="144" t="s">
+      <c r="D11" s="137" t="s">
         <v>74</v>
       </c>
       <c r="E11" s="25">
@@ -8360,19 +8360,19 @@
       <c r="T11" s="25">
         <v>16</v>
       </c>
-      <c r="U11" s="117" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="117" t="s">
-        <v>8</v>
-      </c>
-      <c r="W11" s="120" t="s">
-        <v>8</v>
-      </c>
-      <c r="X11" s="120">
+      <c r="U11" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11" s="99" t="s">
+        <v>8</v>
+      </c>
+      <c r="X11" s="99">
         <v>22</v>
       </c>
-      <c r="Y11" s="137">
+      <c r="Y11" s="140">
         <v>6060</v>
       </c>
       <c r="Z11" s="3">
@@ -8381,10 +8381,10 @@
       </c>
     </row>
     <row r="12" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="114"/>
-      <c r="B12" s="129"/>
-      <c r="C12" s="142"/>
-      <c r="D12" s="145"/>
+      <c r="A12" s="108"/>
+      <c r="B12" s="132"/>
+      <c r="C12" s="145"/>
+      <c r="D12" s="138"/>
       <c r="E12" s="26">
         <v>8</v>
       </c>
@@ -8433,17 +8433,17 @@
       <c r="T12" s="26">
         <v>8</v>
       </c>
-      <c r="U12" s="118"/>
-      <c r="V12" s="118"/>
-      <c r="W12" s="121"/>
-      <c r="X12" s="122"/>
-      <c r="Y12" s="138"/>
+      <c r="U12" s="106"/>
+      <c r="V12" s="106"/>
+      <c r="W12" s="100"/>
+      <c r="X12" s="101"/>
+      <c r="Y12" s="141"/>
     </row>
     <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="114"/>
-      <c r="B13" s="129"/>
-      <c r="C13" s="142"/>
-      <c r="D13" s="145"/>
+      <c r="A13" s="108"/>
+      <c r="B13" s="132"/>
+      <c r="C13" s="145"/>
+      <c r="D13" s="138"/>
       <c r="E13" s="27">
         <v>17</v>
       </c>
@@ -8492,20 +8492,20 @@
       <c r="T13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U13" s="118"/>
-      <c r="V13" s="118"/>
-      <c r="W13" s="121"/>
-      <c r="X13" s="120">
+      <c r="U13" s="106"/>
+      <c r="V13" s="106"/>
+      <c r="W13" s="100"/>
+      <c r="X13" s="99">
         <f>Z11+Z14</f>
         <v>176</v>
       </c>
-      <c r="Y13" s="138"/>
+      <c r="Y13" s="141"/>
     </row>
     <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="114"/>
-      <c r="B14" s="130"/>
-      <c r="C14" s="143"/>
-      <c r="D14" s="146"/>
+      <c r="A14" s="108"/>
+      <c r="B14" s="133"/>
+      <c r="C14" s="146"/>
+      <c r="D14" s="139"/>
       <c r="E14" s="26">
         <v>8</v>
       </c>
@@ -8554,11 +8554,11 @@
       <c r="T14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="119"/>
-      <c r="V14" s="119"/>
-      <c r="W14" s="122"/>
-      <c r="X14" s="122"/>
-      <c r="Y14" s="139"/>
+      <c r="U14" s="107"/>
+      <c r="V14" s="107"/>
+      <c r="W14" s="101"/>
+      <c r="X14" s="101"/>
+      <c r="Y14" s="142"/>
       <c r="Z14" s="3">
         <f>SUM(E14:T14)</f>
         <v>80</v>
@@ -8592,10 +8592,10 @@
     </row>
     <row r="16" spans="1:26" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="14"/>
-      <c r="B16" s="140" t="s">
+      <c r="B16" s="143" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="140"/>
+      <c r="C16" s="143"/>
       <c r="D16" s="5">
         <f>Мельницький!C36</f>
         <v>44531</v>
@@ -8674,12 +8674,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="V11:V14"/>
-    <mergeCell ref="W11:W14"/>
-    <mergeCell ref="U11:U14"/>
+    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="Y11:Y14"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="X11:X12"/>
+    <mergeCell ref="X13:X14"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A7:X7"/>
     <mergeCell ref="A8:X8"/>
@@ -8690,14 +8692,12 @@
     <mergeCell ref="W9:W10"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="A9:A10"/>
-    <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="Y11:Y14"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="X11:X12"/>
-    <mergeCell ref="X13:X14"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="V11:V14"/>
+    <mergeCell ref="W11:W14"/>
+    <mergeCell ref="U11:U14"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -8728,11 +8728,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="112" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
       <c r="N1" s="15" t="s">
         <v>40</v>
       </c>
@@ -8876,145 +8876,145 @@
       <c r="X6" s="81"/>
     </row>
     <row r="7" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A7" s="103" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="103"/>
-      <c r="I7" s="103"/>
-      <c r="J7" s="103"/>
-      <c r="K7" s="103"/>
-      <c r="L7" s="103"/>
-      <c r="M7" s="103"/>
-      <c r="N7" s="103"/>
-      <c r="O7" s="103"/>
-      <c r="P7" s="103"/>
-      <c r="Q7" s="103"/>
-      <c r="R7" s="103"/>
-      <c r="S7" s="103"/>
-      <c r="T7" s="103"/>
-      <c r="U7" s="103"/>
-      <c r="V7" s="103"/>
-      <c r="W7" s="103"/>
+      <c r="A7" s="115" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="115"/>
+      <c r="C7" s="115"/>
+      <c r="D7" s="115"/>
+      <c r="E7" s="115"/>
+      <c r="F7" s="115"/>
+      <c r="G7" s="115"/>
+      <c r="H7" s="115"/>
+      <c r="I7" s="115"/>
+      <c r="J7" s="115"/>
+      <c r="K7" s="115"/>
+      <c r="L7" s="115"/>
+      <c r="M7" s="115"/>
+      <c r="N7" s="115"/>
+      <c r="O7" s="115"/>
+      <c r="P7" s="115"/>
+      <c r="Q7" s="115"/>
+      <c r="R7" s="115"/>
+      <c r="S7" s="115"/>
+      <c r="T7" s="115"/>
+      <c r="U7" s="115"/>
+      <c r="V7" s="115"/>
+      <c r="W7" s="115"/>
       <c r="X7" s="79"/>
     </row>
     <row r="8" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A8" s="104" t="str">
+      <c r="A8" s="116" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ЛИСТОПАД 2021р.</v>
       </c>
-      <c r="B8" s="104"/>
-      <c r="C8" s="104"/>
-      <c r="D8" s="104"/>
-      <c r="E8" s="104"/>
-      <c r="F8" s="104"/>
-      <c r="G8" s="104"/>
-      <c r="H8" s="104"/>
-      <c r="I8" s="104"/>
-      <c r="J8" s="104"/>
-      <c r="K8" s="104"/>
-      <c r="L8" s="104"/>
-      <c r="M8" s="104"/>
-      <c r="N8" s="104"/>
-      <c r="O8" s="104"/>
-      <c r="P8" s="104"/>
-      <c r="Q8" s="104"/>
-      <c r="R8" s="104"/>
-      <c r="S8" s="104"/>
-      <c r="T8" s="104"/>
-      <c r="U8" s="104"/>
-      <c r="V8" s="104"/>
-      <c r="W8" s="104"/>
-      <c r="X8" s="104"/>
-      <c r="Y8" s="104"/>
+      <c r="B8" s="116"/>
+      <c r="C8" s="116"/>
+      <c r="D8" s="116"/>
+      <c r="E8" s="116"/>
+      <c r="F8" s="116"/>
+      <c r="G8" s="116"/>
+      <c r="H8" s="116"/>
+      <c r="I8" s="116"/>
+      <c r="J8" s="116"/>
+      <c r="K8" s="116"/>
+      <c r="L8" s="116"/>
+      <c r="M8" s="116"/>
+      <c r="N8" s="116"/>
+      <c r="O8" s="116"/>
+      <c r="P8" s="116"/>
+      <c r="Q8" s="116"/>
+      <c r="R8" s="116"/>
+      <c r="S8" s="116"/>
+      <c r="T8" s="116"/>
+      <c r="U8" s="116"/>
+      <c r="V8" s="116"/>
+      <c r="W8" s="116"/>
+      <c r="X8" s="116"/>
+      <c r="Y8" s="116"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A9" s="105" t="s">
+      <c r="A9" s="117" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="105" t="s">
+      <c r="B9" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="105" t="s">
+      <c r="C9" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="105" t="s">
+      <c r="D9" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="105"/>
-      <c r="F9" s="105"/>
-      <c r="G9" s="105"/>
-      <c r="H9" s="105"/>
-      <c r="I9" s="105"/>
-      <c r="J9" s="105"/>
-      <c r="K9" s="105"/>
-      <c r="L9" s="105"/>
-      <c r="M9" s="105"/>
-      <c r="N9" s="105"/>
-      <c r="O9" s="105"/>
-      <c r="P9" s="105"/>
-      <c r="Q9" s="105"/>
-      <c r="R9" s="105"/>
-      <c r="S9" s="105"/>
-      <c r="T9" s="113" t="s">
+      <c r="E9" s="117"/>
+      <c r="F9" s="117"/>
+      <c r="G9" s="117"/>
+      <c r="H9" s="117"/>
+      <c r="I9" s="117"/>
+      <c r="J9" s="117"/>
+      <c r="K9" s="117"/>
+      <c r="L9" s="117"/>
+      <c r="M9" s="117"/>
+      <c r="N9" s="117"/>
+      <c r="O9" s="117"/>
+      <c r="P9" s="117"/>
+      <c r="Q9" s="117"/>
+      <c r="R9" s="117"/>
+      <c r="S9" s="117"/>
+      <c r="T9" s="125" t="s">
         <v>48</v>
       </c>
-      <c r="U9" s="113" t="s">
+      <c r="U9" s="125" t="s">
         <v>49</v>
       </c>
-      <c r="V9" s="113" t="s">
+      <c r="V9" s="125" t="s">
         <v>50</v>
       </c>
-      <c r="W9" s="113" t="s">
+      <c r="W9" s="125" t="s">
         <v>47</v>
       </c>
-      <c r="X9" s="113" t="s">
+      <c r="X9" s="125" t="s">
         <v>46</v>
       </c>
-      <c r="Y9" s="99" t="s">
+      <c r="Y9" s="111" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="105"/>
-      <c r="B10" s="105"/>
-      <c r="C10" s="105"/>
-      <c r="D10" s="105"/>
-      <c r="E10" s="105"/>
-      <c r="F10" s="105"/>
-      <c r="G10" s="105"/>
-      <c r="H10" s="105"/>
-      <c r="I10" s="105"/>
-      <c r="J10" s="105"/>
-      <c r="K10" s="105"/>
-      <c r="L10" s="105"/>
-      <c r="M10" s="105"/>
-      <c r="N10" s="105"/>
-      <c r="O10" s="105"/>
-      <c r="P10" s="105"/>
-      <c r="Q10" s="105"/>
-      <c r="R10" s="105"/>
-      <c r="S10" s="105"/>
-      <c r="T10" s="113"/>
-      <c r="U10" s="113"/>
-      <c r="V10" s="113"/>
-      <c r="W10" s="113"/>
-      <c r="X10" s="113"/>
-      <c r="Y10" s="99"/>
+      <c r="A10" s="117"/>
+      <c r="B10" s="117"/>
+      <c r="C10" s="117"/>
+      <c r="D10" s="117"/>
+      <c r="E10" s="117"/>
+      <c r="F10" s="117"/>
+      <c r="G10" s="117"/>
+      <c r="H10" s="117"/>
+      <c r="I10" s="117"/>
+      <c r="J10" s="117"/>
+      <c r="K10" s="117"/>
+      <c r="L10" s="117"/>
+      <c r="M10" s="117"/>
+      <c r="N10" s="117"/>
+      <c r="O10" s="117"/>
+      <c r="P10" s="117"/>
+      <c r="Q10" s="117"/>
+      <c r="R10" s="117"/>
+      <c r="S10" s="117"/>
+      <c r="T10" s="125"/>
+      <c r="U10" s="125"/>
+      <c r="V10" s="125"/>
+      <c r="W10" s="125"/>
+      <c r="X10" s="125"/>
+      <c r="Y10" s="111"/>
     </row>
     <row r="11" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="114">
+      <c r="A11" s="108">
         <v>1</v>
       </c>
-      <c r="B11" s="115" t="s">
+      <c r="B11" s="109" t="s">
         <v>93</v>
       </c>
-      <c r="C11" s="116" t="s">
+      <c r="C11" s="110" t="s">
         <v>94</v>
       </c>
       <c r="D11" s="25">
@@ -9065,27 +9065,27 @@
       <c r="S11" s="25">
         <v>16</v>
       </c>
-      <c r="T11" s="117" t="s">
-        <v>8</v>
-      </c>
-      <c r="U11" s="117" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="120" t="s">
+      <c r="T11" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="U11" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="99" t="s">
         <v>8</v>
       </c>
       <c r="W11" s="147"/>
-      <c r="X11" s="120">
+      <c r="X11" s="99">
         <v>22</v>
       </c>
-      <c r="Y11" s="123">
+      <c r="Y11" s="102">
         <v>6000</v>
       </c>
     </row>
     <row r="12" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="114"/>
-      <c r="B12" s="115"/>
-      <c r="C12" s="116"/>
+      <c r="A12" s="108"/>
+      <c r="B12" s="109"/>
+      <c r="C12" s="110"/>
       <c r="D12" s="26">
         <v>2</v>
       </c>
@@ -9134,21 +9134,21 @@
       <c r="S12" s="26">
         <v>2</v>
       </c>
-      <c r="T12" s="118"/>
-      <c r="U12" s="118"/>
-      <c r="V12" s="121"/>
+      <c r="T12" s="106"/>
+      <c r="U12" s="106"/>
+      <c r="V12" s="100"/>
       <c r="W12" s="148"/>
-      <c r="X12" s="122"/>
-      <c r="Y12" s="123"/>
+      <c r="X12" s="101"/>
+      <c r="Y12" s="102"/>
       <c r="Z12" s="3">
         <f>SUM(D12:S12)</f>
         <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A13" s="114"/>
-      <c r="B13" s="115"/>
-      <c r="C13" s="116"/>
+      <c r="A13" s="108"/>
+      <c r="B13" s="109"/>
+      <c r="C13" s="110"/>
       <c r="D13" s="27">
         <v>17</v>
       </c>
@@ -9197,20 +9197,20 @@
       <c r="S13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T13" s="118"/>
-      <c r="U13" s="118"/>
-      <c r="V13" s="121"/>
+      <c r="T13" s="106"/>
+      <c r="U13" s="106"/>
+      <c r="V13" s="100"/>
       <c r="W13" s="148"/>
-      <c r="X13" s="120">
+      <c r="X13" s="99">
         <f>Z12+Z14</f>
         <v>44</v>
       </c>
-      <c r="Y13" s="123"/>
+      <c r="Y13" s="102"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A14" s="114"/>
-      <c r="B14" s="115"/>
-      <c r="C14" s="116"/>
+      <c r="A14" s="108"/>
+      <c r="B14" s="109"/>
+      <c r="C14" s="110"/>
       <c r="D14" s="26">
         <v>2</v>
       </c>
@@ -9259,25 +9259,25 @@
       <c r="S14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T14" s="119"/>
-      <c r="U14" s="119"/>
-      <c r="V14" s="122"/>
+      <c r="T14" s="107"/>
+      <c r="U14" s="107"/>
+      <c r="V14" s="101"/>
       <c r="W14" s="149"/>
-      <c r="X14" s="122"/>
-      <c r="Y14" s="123"/>
+      <c r="X14" s="101"/>
+      <c r="Y14" s="102"/>
       <c r="Z14" s="2">
         <f>SUM(D14:S14)</f>
         <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="114">
-        <v>2</v>
-      </c>
-      <c r="B15" s="115" t="s">
+      <c r="A15" s="108">
+        <v>2</v>
+      </c>
+      <c r="B15" s="109" t="s">
         <v>95</v>
       </c>
-      <c r="C15" s="116" t="s">
+      <c r="C15" s="110" t="s">
         <v>96</v>
       </c>
       <c r="D15" s="25">
@@ -9328,27 +9328,27 @@
       <c r="S15" s="25">
         <v>16</v>
       </c>
-      <c r="T15" s="117" t="s">
-        <v>8</v>
-      </c>
-      <c r="U15" s="117" t="s">
-        <v>8</v>
-      </c>
-      <c r="V15" s="120" t="s">
+      <c r="T15" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="U15" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="V15" s="99" t="s">
         <v>8</v>
       </c>
       <c r="W15" s="147"/>
-      <c r="X15" s="120">
+      <c r="X15" s="99">
         <v>22</v>
       </c>
-      <c r="Y15" s="123">
+      <c r="Y15" s="102">
         <v>6000</v>
       </c>
     </row>
     <row r="16" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="114"/>
-      <c r="B16" s="115"/>
-      <c r="C16" s="116"/>
+      <c r="A16" s="108"/>
+      <c r="B16" s="109"/>
+      <c r="C16" s="110"/>
       <c r="D16" s="26">
         <v>8</v>
       </c>
@@ -9397,21 +9397,21 @@
       <c r="S16" s="26">
         <v>8</v>
       </c>
-      <c r="T16" s="118"/>
-      <c r="U16" s="118"/>
-      <c r="V16" s="121"/>
+      <c r="T16" s="106"/>
+      <c r="U16" s="106"/>
+      <c r="V16" s="100"/>
       <c r="W16" s="148"/>
-      <c r="X16" s="122"/>
-      <c r="Y16" s="123"/>
+      <c r="X16" s="101"/>
+      <c r="Y16" s="102"/>
       <c r="Z16" s="3">
         <f>SUM(D16:S16)</f>
         <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A17" s="114"/>
-      <c r="B17" s="115"/>
-      <c r="C17" s="116"/>
+      <c r="A17" s="108"/>
+      <c r="B17" s="109"/>
+      <c r="C17" s="110"/>
       <c r="D17" s="27">
         <v>17</v>
       </c>
@@ -9460,20 +9460,20 @@
       <c r="S17" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T17" s="118"/>
-      <c r="U17" s="118"/>
-      <c r="V17" s="121"/>
+      <c r="T17" s="106"/>
+      <c r="U17" s="106"/>
+      <c r="V17" s="100"/>
       <c r="W17" s="148"/>
-      <c r="X17" s="120">
+      <c r="X17" s="99">
         <f>Z16+Z18</f>
         <v>176</v>
       </c>
-      <c r="Y17" s="123"/>
+      <c r="Y17" s="102"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A18" s="114"/>
-      <c r="B18" s="115"/>
-      <c r="C18" s="116"/>
+      <c r="A18" s="108"/>
+      <c r="B18" s="109"/>
+      <c r="C18" s="110"/>
       <c r="D18" s="26">
         <v>8</v>
       </c>
@@ -9522,12 +9522,12 @@
       <c r="S18" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T18" s="119"/>
-      <c r="U18" s="119"/>
-      <c r="V18" s="122"/>
+      <c r="T18" s="107"/>
+      <c r="U18" s="107"/>
+      <c r="V18" s="101"/>
       <c r="W18" s="149"/>
-      <c r="X18" s="122"/>
-      <c r="Y18" s="123"/>
+      <c r="X18" s="101"/>
+      <c r="Y18" s="102"/>
       <c r="Z18" s="2">
         <f>SUM(D18:S18)</f>
         <v>80</v>
@@ -9637,26 +9637,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="T15:T18"/>
-    <mergeCell ref="U15:U18"/>
-    <mergeCell ref="V15:V18"/>
-    <mergeCell ref="W15:W18"/>
-    <mergeCell ref="X15:X16"/>
-    <mergeCell ref="Y15:Y18"/>
-    <mergeCell ref="X17:X18"/>
-    <mergeCell ref="V11:V14"/>
-    <mergeCell ref="W11:W14"/>
-    <mergeCell ref="X11:X12"/>
-    <mergeCell ref="Y11:Y14"/>
-    <mergeCell ref="X13:X14"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="T11:T14"/>
-    <mergeCell ref="U11:U14"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A7:W7"/>
     <mergeCell ref="A8:Y8"/>
@@ -9670,6 +9650,26 @@
     <mergeCell ref="W9:W10"/>
     <mergeCell ref="X9:X10"/>
     <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="T11:T14"/>
+    <mergeCell ref="U11:U14"/>
+    <mergeCell ref="V11:V14"/>
+    <mergeCell ref="W11:W14"/>
+    <mergeCell ref="X11:X12"/>
+    <mergeCell ref="Y11:Y14"/>
+    <mergeCell ref="X13:X14"/>
+    <mergeCell ref="V15:V18"/>
+    <mergeCell ref="W15:W18"/>
+    <mergeCell ref="X15:X16"/>
+    <mergeCell ref="Y15:Y18"/>
+    <mergeCell ref="X17:X18"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="T15:T18"/>
+    <mergeCell ref="U15:U18"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -9697,49 +9697,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="112" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="P1" s="101"/>
-      <c r="Q1" s="101"/>
-      <c r="R1" s="101"/>
-      <c r="S1" s="101"/>
-      <c r="T1" s="101"/>
-      <c r="U1" s="101"/>
-      <c r="V1" s="101"/>
-      <c r="W1" s="101"/>
-      <c r="X1" s="101"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="P1" s="113"/>
+      <c r="Q1" s="113"/>
+      <c r="R1" s="113"/>
+      <c r="S1" s="113"/>
+      <c r="T1" s="113"/>
+      <c r="U1" s="113"/>
+      <c r="V1" s="113"/>
+      <c r="W1" s="113"/>
+      <c r="X1" s="113"/>
     </row>
     <row r="2" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="102" t="s">
+      <c r="A2" s="114" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="102"/>
-      <c r="M2" s="102"/>
-      <c r="N2" s="102"/>
-      <c r="O2" s="102"/>
-      <c r="P2" s="102"/>
-      <c r="Q2" s="102"/>
-      <c r="R2" s="102"/>
-      <c r="S2" s="102"/>
-      <c r="T2" s="102"/>
-      <c r="U2" s="102"/>
-      <c r="V2" s="102"/>
-      <c r="W2" s="102"/>
-      <c r="X2" s="102"/>
+      <c r="B2" s="114"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="114"/>
+      <c r="K2" s="114"/>
+      <c r="L2" s="114"/>
+      <c r="M2" s="114"/>
+      <c r="N2" s="114"/>
+      <c r="O2" s="114"/>
+      <c r="P2" s="114"/>
+      <c r="Q2" s="114"/>
+      <c r="R2" s="114"/>
+      <c r="S2" s="114"/>
+      <c r="T2" s="114"/>
+      <c r="U2" s="114"/>
+      <c r="V2" s="114"/>
+      <c r="W2" s="114"/>
+      <c r="X2" s="114"/>
     </row>
     <row r="3" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="19"/>
@@ -9849,147 +9849,147 @@
       <c r="X6" s="2"/>
     </row>
     <row r="7" spans="1:28" ht="20" x14ac:dyDescent="0.35">
-      <c r="A7" s="103" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="103"/>
-      <c r="I7" s="103"/>
-      <c r="J7" s="103"/>
-      <c r="K7" s="103"/>
-      <c r="L7" s="103"/>
-      <c r="M7" s="103"/>
-      <c r="N7" s="103"/>
-      <c r="O7" s="103"/>
-      <c r="P7" s="103"/>
-      <c r="Q7" s="103"/>
-      <c r="R7" s="103"/>
-      <c r="S7" s="103"/>
-      <c r="T7" s="103"/>
-      <c r="U7" s="103"/>
-      <c r="V7" s="103"/>
-      <c r="W7" s="103"/>
-      <c r="X7" s="103"/>
+      <c r="A7" s="115" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="115"/>
+      <c r="C7" s="115"/>
+      <c r="D7" s="115"/>
+      <c r="E7" s="115"/>
+      <c r="F7" s="115"/>
+      <c r="G7" s="115"/>
+      <c r="H7" s="115"/>
+      <c r="I7" s="115"/>
+      <c r="J7" s="115"/>
+      <c r="K7" s="115"/>
+      <c r="L7" s="115"/>
+      <c r="M7" s="115"/>
+      <c r="N7" s="115"/>
+      <c r="O7" s="115"/>
+      <c r="P7" s="115"/>
+      <c r="Q7" s="115"/>
+      <c r="R7" s="115"/>
+      <c r="S7" s="115"/>
+      <c r="T7" s="115"/>
+      <c r="U7" s="115"/>
+      <c r="V7" s="115"/>
+      <c r="W7" s="115"/>
+      <c r="X7" s="115"/>
     </row>
     <row r="8" spans="1:28" ht="20" x14ac:dyDescent="0.35">
-      <c r="A8" s="104" t="str">
+      <c r="A8" s="116" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ЛИСТОПАД 2021р.</v>
       </c>
-      <c r="B8" s="104"/>
-      <c r="C8" s="104"/>
-      <c r="D8" s="104"/>
-      <c r="E8" s="104"/>
-      <c r="F8" s="104"/>
-      <c r="G8" s="104"/>
-      <c r="H8" s="104"/>
-      <c r="I8" s="104"/>
-      <c r="J8" s="104"/>
-      <c r="K8" s="104"/>
-      <c r="L8" s="104"/>
-      <c r="M8" s="104"/>
-      <c r="N8" s="104"/>
-      <c r="O8" s="104"/>
-      <c r="P8" s="104"/>
-      <c r="Q8" s="104"/>
-      <c r="R8" s="104"/>
-      <c r="S8" s="104"/>
-      <c r="T8" s="104"/>
-      <c r="U8" s="104"/>
-      <c r="V8" s="104"/>
-      <c r="W8" s="104"/>
-      <c r="X8" s="104"/>
+      <c r="B8" s="116"/>
+      <c r="C8" s="116"/>
+      <c r="D8" s="116"/>
+      <c r="E8" s="116"/>
+      <c r="F8" s="116"/>
+      <c r="G8" s="116"/>
+      <c r="H8" s="116"/>
+      <c r="I8" s="116"/>
+      <c r="J8" s="116"/>
+      <c r="K8" s="116"/>
+      <c r="L8" s="116"/>
+      <c r="M8" s="116"/>
+      <c r="N8" s="116"/>
+      <c r="O8" s="116"/>
+      <c r="P8" s="116"/>
+      <c r="Q8" s="116"/>
+      <c r="R8" s="116"/>
+      <c r="S8" s="116"/>
+      <c r="T8" s="116"/>
+      <c r="U8" s="116"/>
+      <c r="V8" s="116"/>
+      <c r="W8" s="116"/>
+      <c r="X8" s="116"/>
     </row>
     <row r="9" spans="1:28" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="105" t="s">
+      <c r="A9" s="117" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="106"/>
-      <c r="C9" s="105" t="s">
+      <c r="B9" s="118"/>
+      <c r="C9" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="105" t="s">
+      <c r="D9" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="107" t="s">
+      <c r="E9" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="108"/>
-      <c r="G9" s="108"/>
-      <c r="H9" s="108"/>
-      <c r="I9" s="108"/>
-      <c r="J9" s="108"/>
-      <c r="K9" s="108"/>
-      <c r="L9" s="108"/>
-      <c r="M9" s="108"/>
-      <c r="N9" s="108"/>
-      <c r="O9" s="108"/>
-      <c r="P9" s="108"/>
-      <c r="Q9" s="108"/>
-      <c r="R9" s="108"/>
-      <c r="S9" s="108"/>
-      <c r="T9" s="109"/>
-      <c r="U9" s="113" t="s">
+      <c r="F9" s="120"/>
+      <c r="G9" s="120"/>
+      <c r="H9" s="120"/>
+      <c r="I9" s="120"/>
+      <c r="J9" s="120"/>
+      <c r="K9" s="120"/>
+      <c r="L9" s="120"/>
+      <c r="M9" s="120"/>
+      <c r="N9" s="120"/>
+      <c r="O9" s="120"/>
+      <c r="P9" s="120"/>
+      <c r="Q9" s="120"/>
+      <c r="R9" s="120"/>
+      <c r="S9" s="120"/>
+      <c r="T9" s="121"/>
+      <c r="U9" s="125" t="s">
         <v>48</v>
       </c>
-      <c r="V9" s="113" t="s">
+      <c r="V9" s="125" t="s">
         <v>49</v>
       </c>
-      <c r="W9" s="113" t="s">
+      <c r="W9" s="125" t="s">
         <v>50</v>
       </c>
-      <c r="X9" s="113" t="s">
+      <c r="X9" s="125" t="s">
         <v>47</v>
       </c>
-      <c r="Y9" s="113" t="s">
+      <c r="Y9" s="125" t="s">
         <v>46</v>
       </c>
-      <c r="Z9" s="99" t="s">
+      <c r="Z9" s="111" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:28" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="105"/>
-      <c r="B10" s="106"/>
-      <c r="C10" s="105"/>
-      <c r="D10" s="105"/>
-      <c r="E10" s="110"/>
-      <c r="F10" s="111"/>
-      <c r="G10" s="111"/>
-      <c r="H10" s="111"/>
-      <c r="I10" s="111"/>
-      <c r="J10" s="111"/>
-      <c r="K10" s="111"/>
-      <c r="L10" s="111"/>
-      <c r="M10" s="111"/>
-      <c r="N10" s="111"/>
-      <c r="O10" s="111"/>
-      <c r="P10" s="111"/>
-      <c r="Q10" s="111"/>
-      <c r="R10" s="111"/>
-      <c r="S10" s="111"/>
-      <c r="T10" s="112"/>
-      <c r="U10" s="113"/>
-      <c r="V10" s="113"/>
-      <c r="W10" s="113"/>
-      <c r="X10" s="113"/>
-      <c r="Y10" s="113"/>
-      <c r="Z10" s="99"/>
+      <c r="A10" s="117"/>
+      <c r="B10" s="118"/>
+      <c r="C10" s="117"/>
+      <c r="D10" s="117"/>
+      <c r="E10" s="122"/>
+      <c r="F10" s="123"/>
+      <c r="G10" s="123"/>
+      <c r="H10" s="123"/>
+      <c r="I10" s="123"/>
+      <c r="J10" s="123"/>
+      <c r="K10" s="123"/>
+      <c r="L10" s="123"/>
+      <c r="M10" s="123"/>
+      <c r="N10" s="123"/>
+      <c r="O10" s="123"/>
+      <c r="P10" s="123"/>
+      <c r="Q10" s="123"/>
+      <c r="R10" s="123"/>
+      <c r="S10" s="123"/>
+      <c r="T10" s="124"/>
+      <c r="U10" s="125"/>
+      <c r="V10" s="125"/>
+      <c r="W10" s="125"/>
+      <c r="X10" s="125"/>
+      <c r="Y10" s="125"/>
+      <c r="Z10" s="111"/>
     </row>
     <row r="11" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="114">
+      <c r="A11" s="108">
         <v>1</v>
       </c>
-      <c r="B11" s="114"/>
-      <c r="C11" s="115" t="s">
+      <c r="B11" s="108"/>
+      <c r="C11" s="109" t="s">
         <v>59</v>
       </c>
-      <c r="D11" s="116" t="s">
+      <c r="D11" s="110" t="s">
         <v>56</v>
       </c>
       <c r="E11" s="25">
@@ -10040,20 +10040,20 @@
       <c r="T11" s="25">
         <v>16</v>
       </c>
-      <c r="U11" s="117" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="117" t="s">
-        <v>8</v>
-      </c>
-      <c r="W11" s="120" t="s">
+      <c r="U11" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11" s="99" t="s">
         <v>8</v>
       </c>
       <c r="X11" s="48"/>
-      <c r="Y11" s="120">
+      <c r="Y11" s="99">
         <v>22</v>
       </c>
-      <c r="Z11" s="123">
+      <c r="Z11" s="102">
         <v>6060</v>
       </c>
       <c r="AA11" s="2">
@@ -10062,10 +10062,10 @@
       </c>
     </row>
     <row r="12" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="114"/>
-      <c r="B12" s="114"/>
-      <c r="C12" s="115"/>
-      <c r="D12" s="116"/>
+      <c r="A12" s="108"/>
+      <c r="B12" s="108"/>
+      <c r="C12" s="109"/>
+      <c r="D12" s="110"/>
       <c r="E12" s="26">
         <v>2</v>
       </c>
@@ -10114,18 +10114,18 @@
       <c r="T12" s="26">
         <v>2</v>
       </c>
-      <c r="U12" s="118"/>
-      <c r="V12" s="118"/>
-      <c r="W12" s="121"/>
+      <c r="U12" s="106"/>
+      <c r="V12" s="106"/>
+      <c r="W12" s="100"/>
       <c r="X12" s="50"/>
-      <c r="Y12" s="122"/>
-      <c r="Z12" s="123"/>
+      <c r="Y12" s="101"/>
+      <c r="Z12" s="102"/>
     </row>
     <row r="13" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="114"/>
-      <c r="B13" s="114"/>
-      <c r="C13" s="115"/>
-      <c r="D13" s="116"/>
+      <c r="A13" s="108"/>
+      <c r="B13" s="108"/>
+      <c r="C13" s="109"/>
+      <c r="D13" s="110"/>
       <c r="E13" s="27">
         <v>17</v>
       </c>
@@ -10174,24 +10174,24 @@
       <c r="T13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U13" s="118"/>
-      <c r="V13" s="118"/>
-      <c r="W13" s="121"/>
+      <c r="U13" s="106"/>
+      <c r="V13" s="106"/>
+      <c r="W13" s="100"/>
       <c r="X13" s="50"/>
-      <c r="Y13" s="120">
+      <c r="Y13" s="99">
         <v>44</v>
       </c>
-      <c r="Z13" s="123"/>
+      <c r="Z13" s="102"/>
       <c r="AB13" s="2">
         <f>AA11+AA14</f>
         <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="114"/>
-      <c r="B14" s="114"/>
-      <c r="C14" s="115"/>
-      <c r="D14" s="116"/>
+      <c r="A14" s="108"/>
+      <c r="B14" s="108"/>
+      <c r="C14" s="109"/>
+      <c r="D14" s="110"/>
       <c r="E14" s="26">
         <v>2</v>
       </c>
@@ -10240,12 +10240,12 @@
       <c r="T14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="119"/>
-      <c r="V14" s="119"/>
-      <c r="W14" s="122"/>
+      <c r="U14" s="107"/>
+      <c r="V14" s="107"/>
+      <c r="W14" s="101"/>
       <c r="X14" s="49"/>
-      <c r="Y14" s="122"/>
-      <c r="Z14" s="123"/>
+      <c r="Y14" s="101"/>
+      <c r="Z14" s="102"/>
       <c r="AA14" s="2">
         <f>SUM(E14:T14)</f>
         <v>20</v>
@@ -10330,10 +10330,10 @@
       <c r="X17" s="9"/>
     </row>
     <row r="18" spans="1:24" s="39" customFormat="1" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="B18" s="124" t="s">
+      <c r="B18" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="124"/>
+      <c r="C18" s="103"/>
       <c r="D18" s="150">
         <f>Мельницький!C36</f>
         <v>44531</v>
@@ -10348,14 +10348,11 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="Z9:Z10"/>
-    <mergeCell ref="Y11:Y12"/>
-    <mergeCell ref="Z11:Z14"/>
-    <mergeCell ref="Y13:Y14"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:H18"/>
-    <mergeCell ref="V11:V14"/>
-    <mergeCell ref="W11:W14"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="U11:U14"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="P1:X1"/>
     <mergeCell ref="A2:X2"/>
@@ -10371,11 +10368,14 @@
     <mergeCell ref="U9:U10"/>
     <mergeCell ref="V9:V10"/>
     <mergeCell ref="W9:W10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="U11:U14"/>
+    <mergeCell ref="Z9:Z10"/>
+    <mergeCell ref="Y11:Y12"/>
+    <mergeCell ref="Z11:Z14"/>
+    <mergeCell ref="Y13:Y14"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:H18"/>
+    <mergeCell ref="V11:V14"/>
+    <mergeCell ref="W11:W14"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="99" orientation="landscape" r:id="rId1"/>
@@ -10388,7 +10388,7 @@
   <sheetPr codeName="Лист2"/>
   <dimension ref="A1:AD46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="X27" sqref="X27:X28"/>
     </sheetView>
   </sheetViews>
@@ -10409,11 +10409,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="112" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
       <c r="Q1" s="15" t="s">
         <v>40</v>
       </c>
@@ -10503,142 +10503,142 @@
       <c r="W4" s="95"/>
     </row>
     <row r="5" spans="1:28" ht="20" x14ac:dyDescent="0.35">
-      <c r="A5" s="103" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="103"/>
-      <c r="C5" s="103"/>
-      <c r="D5" s="103"/>
-      <c r="E5" s="103"/>
-      <c r="F5" s="103"/>
-      <c r="G5" s="103"/>
-      <c r="H5" s="103"/>
-      <c r="I5" s="103"/>
-      <c r="J5" s="103"/>
-      <c r="K5" s="103"/>
-      <c r="L5" s="103"/>
-      <c r="M5" s="103"/>
-      <c r="N5" s="103"/>
-      <c r="O5" s="103"/>
-      <c r="P5" s="103"/>
-      <c r="Q5" s="103"/>
-      <c r="R5" s="103"/>
-      <c r="S5" s="103"/>
-      <c r="T5" s="103"/>
-      <c r="U5" s="103"/>
-      <c r="V5" s="103"/>
-      <c r="W5" s="103"/>
+      <c r="A5" s="115" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="115"/>
+      <c r="C5" s="115"/>
+      <c r="D5" s="115"/>
+      <c r="E5" s="115"/>
+      <c r="F5" s="115"/>
+      <c r="G5" s="115"/>
+      <c r="H5" s="115"/>
+      <c r="I5" s="115"/>
+      <c r="J5" s="115"/>
+      <c r="K5" s="115"/>
+      <c r="L5" s="115"/>
+      <c r="M5" s="115"/>
+      <c r="N5" s="115"/>
+      <c r="O5" s="115"/>
+      <c r="P5" s="115"/>
+      <c r="Q5" s="115"/>
+      <c r="R5" s="115"/>
+      <c r="S5" s="115"/>
+      <c r="T5" s="115"/>
+      <c r="U5" s="115"/>
+      <c r="V5" s="115"/>
+      <c r="W5" s="115"/>
     </row>
     <row r="6" spans="1:28" ht="20" x14ac:dyDescent="0.35">
-      <c r="A6" s="103" t="str">
+      <c r="A6" s="115" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ЛИСТОПАД 2021р.</v>
       </c>
-      <c r="B6" s="103"/>
-      <c r="C6" s="103"/>
-      <c r="D6" s="103"/>
-      <c r="E6" s="103"/>
-      <c r="F6" s="103"/>
-      <c r="G6" s="103"/>
-      <c r="H6" s="103"/>
-      <c r="I6" s="103"/>
-      <c r="J6" s="103"/>
-      <c r="K6" s="103"/>
-      <c r="L6" s="103"/>
-      <c r="M6" s="103"/>
-      <c r="N6" s="103"/>
-      <c r="O6" s="103"/>
-      <c r="P6" s="103"/>
-      <c r="Q6" s="103"/>
-      <c r="R6" s="103"/>
-      <c r="S6" s="103"/>
-      <c r="T6" s="103"/>
-      <c r="U6" s="103"/>
-      <c r="V6" s="103"/>
-      <c r="W6" s="103"/>
+      <c r="B6" s="115"/>
+      <c r="C6" s="115"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="115"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="115"/>
+      <c r="J6" s="115"/>
+      <c r="K6" s="115"/>
+      <c r="L6" s="115"/>
+      <c r="M6" s="115"/>
+      <c r="N6" s="115"/>
+      <c r="O6" s="115"/>
+      <c r="P6" s="115"/>
+      <c r="Q6" s="115"/>
+      <c r="R6" s="115"/>
+      <c r="S6" s="115"/>
+      <c r="T6" s="115"/>
+      <c r="U6" s="115"/>
+      <c r="V6" s="115"/>
+      <c r="W6" s="115"/>
     </row>
     <row r="7" spans="1:28" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="105" t="s">
+      <c r="A7" s="117" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="105" t="s">
+      <c r="B7" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="105" t="s">
+      <c r="C7" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="107" t="s">
+      <c r="D7" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="108"/>
-      <c r="F7" s="108"/>
-      <c r="G7" s="108"/>
-      <c r="H7" s="108"/>
-      <c r="I7" s="108"/>
-      <c r="J7" s="108"/>
-      <c r="K7" s="108"/>
-      <c r="L7" s="108"/>
-      <c r="M7" s="108"/>
-      <c r="N7" s="108"/>
-      <c r="O7" s="108"/>
-      <c r="P7" s="108"/>
-      <c r="Q7" s="108"/>
-      <c r="R7" s="108"/>
-      <c r="S7" s="109"/>
-      <c r="T7" s="113" t="s">
+      <c r="E7" s="120"/>
+      <c r="F7" s="120"/>
+      <c r="G7" s="120"/>
+      <c r="H7" s="120"/>
+      <c r="I7" s="120"/>
+      <c r="J7" s="120"/>
+      <c r="K7" s="120"/>
+      <c r="L7" s="120"/>
+      <c r="M7" s="120"/>
+      <c r="N7" s="120"/>
+      <c r="O7" s="120"/>
+      <c r="P7" s="120"/>
+      <c r="Q7" s="120"/>
+      <c r="R7" s="120"/>
+      <c r="S7" s="121"/>
+      <c r="T7" s="125" t="s">
         <v>48</v>
       </c>
-      <c r="U7" s="113" t="s">
+      <c r="U7" s="125" t="s">
         <v>49</v>
       </c>
-      <c r="V7" s="113" t="s">
+      <c r="V7" s="125" t="s">
         <v>50</v>
       </c>
-      <c r="W7" s="113" t="s">
+      <c r="W7" s="125" t="s">
         <v>77</v>
       </c>
-      <c r="X7" s="113" t="s">
+      <c r="X7" s="125" t="s">
         <v>46</v>
       </c>
-      <c r="Y7" s="99" t="s">
+      <c r="Y7" s="111" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:28" ht="42" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="105"/>
-      <c r="B8" s="105"/>
-      <c r="C8" s="105"/>
-      <c r="D8" s="110"/>
-      <c r="E8" s="111"/>
-      <c r="F8" s="111"/>
-      <c r="G8" s="111"/>
-      <c r="H8" s="111"/>
-      <c r="I8" s="111"/>
-      <c r="J8" s="111"/>
-      <c r="K8" s="111"/>
-      <c r="L8" s="111"/>
-      <c r="M8" s="111"/>
-      <c r="N8" s="111"/>
-      <c r="O8" s="111"/>
-      <c r="P8" s="111"/>
-      <c r="Q8" s="111"/>
-      <c r="R8" s="111"/>
-      <c r="S8" s="112"/>
-      <c r="T8" s="113"/>
-      <c r="U8" s="113"/>
-      <c r="V8" s="113"/>
-      <c r="W8" s="113"/>
-      <c r="X8" s="113"/>
-      <c r="Y8" s="99"/>
+      <c r="A8" s="117"/>
+      <c r="B8" s="117"/>
+      <c r="C8" s="117"/>
+      <c r="D8" s="122"/>
+      <c r="E8" s="123"/>
+      <c r="F8" s="123"/>
+      <c r="G8" s="123"/>
+      <c r="H8" s="123"/>
+      <c r="I8" s="123"/>
+      <c r="J8" s="123"/>
+      <c r="K8" s="123"/>
+      <c r="L8" s="123"/>
+      <c r="M8" s="123"/>
+      <c r="N8" s="123"/>
+      <c r="O8" s="123"/>
+      <c r="P8" s="123"/>
+      <c r="Q8" s="123"/>
+      <c r="R8" s="123"/>
+      <c r="S8" s="124"/>
+      <c r="T8" s="125"/>
+      <c r="U8" s="125"/>
+      <c r="V8" s="125"/>
+      <c r="W8" s="125"/>
+      <c r="X8" s="125"/>
+      <c r="Y8" s="111"/>
     </row>
     <row r="9" spans="1:28" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="114">
+      <c r="A9" s="108">
         <v>1</v>
       </c>
-      <c r="B9" s="115" t="s">
+      <c r="B9" s="109" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="144" t="s">
+      <c r="C9" s="137" t="s">
         <v>26</v>
       </c>
       <c r="D9" s="25">
@@ -10689,29 +10689,29 @@
       <c r="S9" s="25">
         <v>16</v>
       </c>
-      <c r="T9" s="117" t="s">
-        <v>8</v>
-      </c>
-      <c r="U9" s="117" t="s">
-        <v>8</v>
-      </c>
-      <c r="V9" s="120" t="s">
-        <v>8</v>
-      </c>
-      <c r="W9" s="120" t="s">
-        <v>8</v>
-      </c>
-      <c r="X9" s="120">
+      <c r="T9" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="U9" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="V9" s="99" t="s">
+        <v>8</v>
+      </c>
+      <c r="W9" s="99" t="s">
+        <v>8</v>
+      </c>
+      <c r="X9" s="99">
         <v>22</v>
       </c>
-      <c r="Y9" s="123">
+      <c r="Y9" s="102">
         <v>6300</v>
       </c>
     </row>
     <row r="10" spans="1:28" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="114"/>
-      <c r="B10" s="115"/>
-      <c r="C10" s="145"/>
+      <c r="A10" s="108"/>
+      <c r="B10" s="109"/>
+      <c r="C10" s="138"/>
       <c r="D10" s="26">
         <v>8</v>
       </c>
@@ -10760,21 +10760,21 @@
       <c r="S10" s="26">
         <v>8</v>
       </c>
-      <c r="T10" s="118"/>
-      <c r="U10" s="118"/>
-      <c r="V10" s="121"/>
-      <c r="W10" s="121"/>
-      <c r="X10" s="122"/>
-      <c r="Y10" s="123"/>
+      <c r="T10" s="106"/>
+      <c r="U10" s="106"/>
+      <c r="V10" s="100"/>
+      <c r="W10" s="100"/>
+      <c r="X10" s="101"/>
+      <c r="Y10" s="102"/>
       <c r="Z10" s="3">
         <f>SUM(D10:S10)</f>
         <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="114"/>
-      <c r="B11" s="115"/>
-      <c r="C11" s="145"/>
+      <c r="A11" s="108"/>
+      <c r="B11" s="109"/>
+      <c r="C11" s="138"/>
       <c r="D11" s="27">
         <v>17</v>
       </c>
@@ -10823,20 +10823,20 @@
       <c r="S11" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T11" s="118"/>
-      <c r="U11" s="118"/>
-      <c r="V11" s="121"/>
-      <c r="W11" s="121"/>
-      <c r="X11" s="120">
+      <c r="T11" s="106"/>
+      <c r="U11" s="106"/>
+      <c r="V11" s="100"/>
+      <c r="W11" s="100"/>
+      <c r="X11" s="99">
         <f>Z10+Z12</f>
         <v>176</v>
       </c>
-      <c r="Y11" s="123"/>
+      <c r="Y11" s="102"/>
     </row>
     <row r="12" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="114"/>
-      <c r="B12" s="115"/>
-      <c r="C12" s="146"/>
+      <c r="A12" s="108"/>
+      <c r="B12" s="109"/>
+      <c r="C12" s="139"/>
       <c r="D12" s="26">
         <v>8</v>
       </c>
@@ -10885,25 +10885,25 @@
       <c r="S12" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T12" s="119"/>
-      <c r="U12" s="119"/>
-      <c r="V12" s="122"/>
-      <c r="W12" s="122"/>
-      <c r="X12" s="122"/>
-      <c r="Y12" s="123"/>
+      <c r="T12" s="107"/>
+      <c r="U12" s="107"/>
+      <c r="V12" s="101"/>
+      <c r="W12" s="101"/>
+      <c r="X12" s="101"/>
+      <c r="Y12" s="102"/>
       <c r="Z12" s="2">
         <f>SUM(D12:S12)</f>
         <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="114">
-        <v>2</v>
-      </c>
-      <c r="B13" s="115" t="s">
+      <c r="A13" s="108">
+        <v>2</v>
+      </c>
+      <c r="B13" s="109" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="116" t="str">
+      <c r="C13" s="110" t="str">
         <f>C9</f>
         <v>лікар-стоматолог</v>
       </c>
@@ -10955,22 +10955,22 @@
       <c r="S13" s="25">
         <v>16</v>
       </c>
-      <c r="T13" s="117" t="s">
-        <v>8</v>
-      </c>
-      <c r="U13" s="117" t="s">
-        <v>8</v>
-      </c>
-      <c r="V13" s="120" t="s">
-        <v>8</v>
-      </c>
-      <c r="W13" s="120" t="s">
-        <v>8</v>
-      </c>
-      <c r="X13" s="120">
+      <c r="T13" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="U13" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="V13" s="99" t="s">
+        <v>8</v>
+      </c>
+      <c r="W13" s="99" t="s">
+        <v>8</v>
+      </c>
+      <c r="X13" s="99">
         <v>22</v>
       </c>
-      <c r="Y13" s="123">
+      <c r="Y13" s="102">
         <v>6300</v>
       </c>
       <c r="Z13" s="2" t="s">
@@ -10982,9 +10982,9 @@
       </c>
     </row>
     <row r="14" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="114"/>
-      <c r="B14" s="115"/>
-      <c r="C14" s="116"/>
+      <c r="A14" s="108"/>
+      <c r="B14" s="109"/>
+      <c r="C14" s="110"/>
       <c r="D14" s="26">
         <v>8</v>
       </c>
@@ -11033,12 +11033,12 @@
       <c r="S14" s="26">
         <v>8</v>
       </c>
-      <c r="T14" s="118"/>
-      <c r="U14" s="118"/>
-      <c r="V14" s="121"/>
-      <c r="W14" s="121"/>
-      <c r="X14" s="122"/>
-      <c r="Y14" s="123"/>
+      <c r="T14" s="106"/>
+      <c r="U14" s="106"/>
+      <c r="V14" s="100"/>
+      <c r="W14" s="100"/>
+      <c r="X14" s="101"/>
+      <c r="Y14" s="102"/>
       <c r="Z14" s="2">
         <f>SUM(D14:S14)</f>
         <v>96</v>
@@ -11049,9 +11049,9 @@
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="114"/>
-      <c r="B15" s="115"/>
-      <c r="C15" s="116"/>
+      <c r="A15" s="108"/>
+      <c r="B15" s="109"/>
+      <c r="C15" s="110"/>
       <c r="D15" s="27">
         <v>17</v>
       </c>
@@ -11100,20 +11100,20 @@
       <c r="S15" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T15" s="118"/>
-      <c r="U15" s="118"/>
-      <c r="V15" s="121"/>
-      <c r="W15" s="121"/>
-      <c r="X15" s="120">
+      <c r="T15" s="106"/>
+      <c r="U15" s="106"/>
+      <c r="V15" s="100"/>
+      <c r="W15" s="100"/>
+      <c r="X15" s="99">
         <f>Z14+Z16</f>
         <v>176</v>
       </c>
-      <c r="Y15" s="123"/>
+      <c r="Y15" s="102"/>
     </row>
     <row r="16" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="114"/>
-      <c r="B16" s="115"/>
-      <c r="C16" s="116"/>
+      <c r="A16" s="108"/>
+      <c r="B16" s="109"/>
+      <c r="C16" s="110"/>
       <c r="D16" s="26">
         <v>8</v>
       </c>
@@ -11162,12 +11162,12 @@
       <c r="S16" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T16" s="119"/>
-      <c r="U16" s="119"/>
-      <c r="V16" s="122"/>
-      <c r="W16" s="122"/>
-      <c r="X16" s="122"/>
-      <c r="Y16" s="123"/>
+      <c r="T16" s="107"/>
+      <c r="U16" s="107"/>
+      <c r="V16" s="101"/>
+      <c r="W16" s="101"/>
+      <c r="X16" s="101"/>
+      <c r="Y16" s="102"/>
       <c r="Z16" s="2">
         <f>SUM(D16:S16)</f>
         <v>80</v>
@@ -11178,13 +11178,13 @@
       </c>
     </row>
     <row r="17" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="157">
+      <c r="A17" s="161">
         <v>3</v>
       </c>
-      <c r="B17" s="158" t="s">
+      <c r="B17" s="162" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="159" t="s">
+      <c r="C17" s="154" t="s">
         <v>73</v>
       </c>
       <c r="D17" s="25">
@@ -11235,29 +11235,29 @@
       <c r="S17" s="25">
         <v>16</v>
       </c>
-      <c r="T17" s="117" t="s">
-        <v>8</v>
-      </c>
-      <c r="U17" s="154" t="s">
-        <v>8</v>
-      </c>
-      <c r="V17" s="151" t="s">
-        <v>8</v>
-      </c>
-      <c r="W17" s="151" t="s">
-        <v>8</v>
-      </c>
-      <c r="X17" s="151">
+      <c r="T17" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="U17" s="158" t="s">
+        <v>8</v>
+      </c>
+      <c r="V17" s="155" t="s">
+        <v>8</v>
+      </c>
+      <c r="W17" s="155" t="s">
+        <v>8</v>
+      </c>
+      <c r="X17" s="155">
         <v>22</v>
       </c>
-      <c r="Y17" s="123">
+      <c r="Y17" s="102">
         <v>6060</v>
       </c>
     </row>
     <row r="18" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="157"/>
-      <c r="B18" s="158"/>
-      <c r="C18" s="159"/>
+      <c r="A18" s="161"/>
+      <c r="B18" s="162"/>
+      <c r="C18" s="154"/>
       <c r="D18" s="26">
         <v>8</v>
       </c>
@@ -11306,21 +11306,21 @@
       <c r="S18" s="26">
         <v>8</v>
       </c>
-      <c r="T18" s="118"/>
-      <c r="U18" s="155"/>
-      <c r="V18" s="152"/>
-      <c r="W18" s="152"/>
-      <c r="X18" s="153"/>
-      <c r="Y18" s="123"/>
+      <c r="T18" s="106"/>
+      <c r="U18" s="159"/>
+      <c r="V18" s="157"/>
+      <c r="W18" s="157"/>
+      <c r="X18" s="156"/>
+      <c r="Y18" s="102"/>
       <c r="Z18" s="2">
         <f>SUM(D18:S18)</f>
         <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="157"/>
-      <c r="B19" s="158"/>
-      <c r="C19" s="159"/>
+      <c r="A19" s="161"/>
+      <c r="B19" s="162"/>
+      <c r="C19" s="154"/>
       <c r="D19" s="27">
         <v>17</v>
       </c>
@@ -11369,20 +11369,20 @@
       <c r="S19" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T19" s="118"/>
-      <c r="U19" s="155"/>
-      <c r="V19" s="152"/>
-      <c r="W19" s="152"/>
-      <c r="X19" s="120">
+      <c r="T19" s="106"/>
+      <c r="U19" s="159"/>
+      <c r="V19" s="157"/>
+      <c r="W19" s="157"/>
+      <c r="X19" s="99">
         <f>Z18+Z20</f>
         <v>176</v>
       </c>
-      <c r="Y19" s="123"/>
+      <c r="Y19" s="102"/>
     </row>
     <row r="20" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="157"/>
-      <c r="B20" s="158"/>
-      <c r="C20" s="159"/>
+      <c r="A20" s="161"/>
+      <c r="B20" s="162"/>
+      <c r="C20" s="154"/>
       <c r="D20" s="26">
         <v>8</v>
       </c>
@@ -11431,25 +11431,25 @@
       <c r="S20" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T20" s="119"/>
-      <c r="U20" s="156"/>
-      <c r="V20" s="153"/>
-      <c r="W20" s="153"/>
-      <c r="X20" s="122"/>
-      <c r="Y20" s="123"/>
+      <c r="T20" s="107"/>
+      <c r="U20" s="160"/>
+      <c r="V20" s="156"/>
+      <c r="W20" s="156"/>
+      <c r="X20" s="101"/>
+      <c r="Y20" s="102"/>
       <c r="Z20" s="2">
         <f>SUM(D20:S20)</f>
         <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="128">
+      <c r="A21" s="131">
         <v>4</v>
       </c>
-      <c r="B21" s="160" t="s">
+      <c r="B21" s="151" t="s">
         <v>87</v>
       </c>
-      <c r="C21" s="159" t="s">
+      <c r="C21" s="154" t="s">
         <v>26</v>
       </c>
       <c r="D21" s="25">
@@ -11500,29 +11500,29 @@
       <c r="S21" s="25">
         <v>16</v>
       </c>
-      <c r="T21" s="117" t="s">
-        <v>8</v>
-      </c>
-      <c r="U21" s="117" t="s">
-        <v>8</v>
-      </c>
-      <c r="V21" s="120" t="s">
-        <v>8</v>
-      </c>
-      <c r="W21" s="120" t="s">
-        <v>8</v>
-      </c>
-      <c r="X21" s="120">
+      <c r="T21" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="U21" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="V21" s="99" t="s">
+        <v>8</v>
+      </c>
+      <c r="W21" s="99" t="s">
+        <v>8</v>
+      </c>
+      <c r="X21" s="99">
         <v>22</v>
       </c>
-      <c r="Y21" s="123">
+      <c r="Y21" s="102">
         <v>6060</v>
       </c>
     </row>
     <row r="22" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="129"/>
-      <c r="B22" s="161"/>
-      <c r="C22" s="159"/>
+      <c r="A22" s="132"/>
+      <c r="B22" s="152"/>
+      <c r="C22" s="154"/>
       <c r="D22" s="26">
         <v>8</v>
       </c>
@@ -11571,21 +11571,21 @@
       <c r="S22" s="26">
         <v>8</v>
       </c>
-      <c r="T22" s="118"/>
-      <c r="U22" s="118"/>
-      <c r="V22" s="121"/>
-      <c r="W22" s="121"/>
-      <c r="X22" s="121"/>
-      <c r="Y22" s="123"/>
+      <c r="T22" s="106"/>
+      <c r="U22" s="106"/>
+      <c r="V22" s="100"/>
+      <c r="W22" s="100"/>
+      <c r="X22" s="100"/>
+      <c r="Y22" s="102"/>
       <c r="Z22" s="2">
         <f>SUM(D22:S22)</f>
         <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="129"/>
-      <c r="B23" s="161"/>
-      <c r="C23" s="159"/>
+      <c r="A23" s="132"/>
+      <c r="B23" s="152"/>
+      <c r="C23" s="154"/>
       <c r="D23" s="27">
         <v>17</v>
       </c>
@@ -11634,20 +11634,20 @@
       <c r="S23" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T23" s="118"/>
-      <c r="U23" s="118"/>
-      <c r="V23" s="121"/>
-      <c r="W23" s="121"/>
-      <c r="X23" s="120">
+      <c r="T23" s="106"/>
+      <c r="U23" s="106"/>
+      <c r="V23" s="100"/>
+      <c r="W23" s="100"/>
+      <c r="X23" s="99">
         <f>Z22+Z24</f>
         <v>176</v>
       </c>
-      <c r="Y23" s="123"/>
+      <c r="Y23" s="102"/>
     </row>
     <row r="24" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="130"/>
-      <c r="B24" s="162"/>
-      <c r="C24" s="159"/>
+      <c r="A24" s="133"/>
+      <c r="B24" s="153"/>
+      <c r="C24" s="154"/>
       <c r="D24" s="26">
         <v>8</v>
       </c>
@@ -11696,25 +11696,25 @@
       <c r="S24" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T24" s="119"/>
-      <c r="U24" s="119"/>
-      <c r="V24" s="122"/>
-      <c r="W24" s="122"/>
-      <c r="X24" s="122"/>
-      <c r="Y24" s="123"/>
+      <c r="T24" s="107"/>
+      <c r="U24" s="107"/>
+      <c r="V24" s="101"/>
+      <c r="W24" s="101"/>
+      <c r="X24" s="101"/>
+      <c r="Y24" s="102"/>
       <c r="Z24" s="2">
         <f>SUM(D24:S24)</f>
         <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="128">
+      <c r="A25" s="131">
         <v>4</v>
       </c>
-      <c r="B25" s="160" t="s">
+      <c r="B25" s="151" t="s">
         <v>101</v>
       </c>
-      <c r="C25" s="159" t="s">
+      <c r="C25" s="154" t="s">
         <v>26</v>
       </c>
       <c r="D25" s="25">
@@ -11765,29 +11765,29 @@
       <c r="S25" s="25">
         <v>16</v>
       </c>
-      <c r="T25" s="117" t="s">
-        <v>8</v>
-      </c>
-      <c r="U25" s="117" t="s">
-        <v>8</v>
-      </c>
-      <c r="V25" s="120" t="s">
-        <v>8</v>
-      </c>
-      <c r="W25" s="120" t="s">
-        <v>8</v>
-      </c>
-      <c r="X25" s="120">
+      <c r="T25" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="U25" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="V25" s="99" t="s">
+        <v>8</v>
+      </c>
+      <c r="W25" s="99" t="s">
+        <v>8</v>
+      </c>
+      <c r="X25" s="99">
         <v>22</v>
       </c>
-      <c r="Y25" s="123">
+      <c r="Y25" s="102">
         <v>6060</v>
       </c>
     </row>
     <row r="26" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="129"/>
-      <c r="B26" s="161"/>
-      <c r="C26" s="159"/>
+      <c r="A26" s="132"/>
+      <c r="B26" s="152"/>
+      <c r="C26" s="154"/>
       <c r="D26" s="26">
         <v>8</v>
       </c>
@@ -11836,21 +11836,21 @@
       <c r="S26" s="26">
         <v>8</v>
       </c>
-      <c r="T26" s="118"/>
-      <c r="U26" s="118"/>
-      <c r="V26" s="121"/>
-      <c r="W26" s="121"/>
-      <c r="X26" s="121"/>
-      <c r="Y26" s="123"/>
+      <c r="T26" s="106"/>
+      <c r="U26" s="106"/>
+      <c r="V26" s="100"/>
+      <c r="W26" s="100"/>
+      <c r="X26" s="100"/>
+      <c r="Y26" s="102"/>
       <c r="Z26" s="2">
         <f>SUM(D26:S26)</f>
         <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="129"/>
-      <c r="B27" s="161"/>
-      <c r="C27" s="159"/>
+      <c r="A27" s="132"/>
+      <c r="B27" s="152"/>
+      <c r="C27" s="154"/>
       <c r="D27" s="27">
         <v>17</v>
       </c>
@@ -11899,20 +11899,20 @@
       <c r="S27" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T27" s="118"/>
-      <c r="U27" s="118"/>
-      <c r="V27" s="121"/>
-      <c r="W27" s="121"/>
-      <c r="X27" s="120">
+      <c r="T27" s="106"/>
+      <c r="U27" s="106"/>
+      <c r="V27" s="100"/>
+      <c r="W27" s="100"/>
+      <c r="X27" s="99">
         <f>Z26+Z28</f>
         <v>176</v>
       </c>
-      <c r="Y27" s="123"/>
+      <c r="Y27" s="102"/>
     </row>
     <row r="28" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="130"/>
-      <c r="B28" s="162"/>
-      <c r="C28" s="159"/>
+      <c r="A28" s="133"/>
+      <c r="B28" s="153"/>
+      <c r="C28" s="154"/>
       <c r="D28" s="26">
         <v>8</v>
       </c>
@@ -11961,12 +11961,12 @@
       <c r="S28" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T28" s="119"/>
-      <c r="U28" s="119"/>
-      <c r="V28" s="122"/>
-      <c r="W28" s="122"/>
-      <c r="X28" s="122"/>
-      <c r="Y28" s="123"/>
+      <c r="T28" s="107"/>
+      <c r="U28" s="107"/>
+      <c r="V28" s="101"/>
+      <c r="W28" s="101"/>
+      <c r="X28" s="101"/>
+      <c r="Y28" s="102"/>
       <c r="Z28" s="2">
         <f>SUM(D28:S28)</f>
         <v>80</v>
@@ -12006,10 +12006,10 @@
       </c>
     </row>
     <row r="30" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="124" t="s">
+      <c r="A30" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="124"/>
+      <c r="B30" s="103"/>
       <c r="C30" s="96">
         <f>Мельницький!C36</f>
         <v>44531</v>
@@ -12170,54 +12170,6 @@
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="V25:V28"/>
-    <mergeCell ref="W25:W28"/>
-    <mergeCell ref="X25:X26"/>
-    <mergeCell ref="Y25:Y28"/>
-    <mergeCell ref="X27:X28"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="C25:C28"/>
-    <mergeCell ref="T25:T28"/>
-    <mergeCell ref="U25:U28"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="C13:C16"/>
-    <mergeCell ref="T13:T16"/>
-    <mergeCell ref="C9:C12"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="T9:T12"/>
-    <mergeCell ref="T21:T24"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="C21:C24"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A5:W5"/>
-    <mergeCell ref="A6:W6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:S8"/>
-    <mergeCell ref="T7:T8"/>
-    <mergeCell ref="U7:U8"/>
-    <mergeCell ref="V7:V8"/>
-    <mergeCell ref="W7:W8"/>
-    <mergeCell ref="X21:X22"/>
-    <mergeCell ref="Y21:Y24"/>
-    <mergeCell ref="V21:V24"/>
-    <mergeCell ref="U21:U24"/>
-    <mergeCell ref="X23:X24"/>
-    <mergeCell ref="X7:X8"/>
-    <mergeCell ref="Y7:Y8"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="Y9:Y12"/>
-    <mergeCell ref="X11:X12"/>
-    <mergeCell ref="X13:X14"/>
-    <mergeCell ref="Y13:Y16"/>
-    <mergeCell ref="X15:X16"/>
-    <mergeCell ref="X17:X18"/>
-    <mergeCell ref="Y17:Y20"/>
-    <mergeCell ref="X19:X20"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="W9:W12"/>
     <mergeCell ref="W17:W20"/>
@@ -12234,6 +12186,54 @@
     <mergeCell ref="V13:V16"/>
     <mergeCell ref="V17:V20"/>
     <mergeCell ref="A9:A12"/>
+    <mergeCell ref="X13:X14"/>
+    <mergeCell ref="Y13:Y16"/>
+    <mergeCell ref="X15:X16"/>
+    <mergeCell ref="X17:X18"/>
+    <mergeCell ref="Y17:Y20"/>
+    <mergeCell ref="X19:X20"/>
+    <mergeCell ref="X7:X8"/>
+    <mergeCell ref="Y7:Y8"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="Y9:Y12"/>
+    <mergeCell ref="X11:X12"/>
+    <mergeCell ref="X21:X22"/>
+    <mergeCell ref="Y21:Y24"/>
+    <mergeCell ref="V21:V24"/>
+    <mergeCell ref="U21:U24"/>
+    <mergeCell ref="X23:X24"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A5:W5"/>
+    <mergeCell ref="A6:W6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:S8"/>
+    <mergeCell ref="T7:T8"/>
+    <mergeCell ref="U7:U8"/>
+    <mergeCell ref="V7:V8"/>
+    <mergeCell ref="W7:W8"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="T9:T12"/>
+    <mergeCell ref="T21:T24"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="T13:T16"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="C25:C28"/>
+    <mergeCell ref="T25:T28"/>
+    <mergeCell ref="U25:U28"/>
+    <mergeCell ref="V25:V28"/>
+    <mergeCell ref="W25:W28"/>
+    <mergeCell ref="X25:X26"/>
+    <mergeCell ref="Y25:Y28"/>
+    <mergeCell ref="X27:X28"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -12267,11 +12267,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="112" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
       <c r="Q1" s="15" t="s">
         <v>40</v>
       </c>
@@ -12385,141 +12385,141 @@
       <c r="W5" s="70"/>
     </row>
     <row r="6" spans="1:25" ht="20" x14ac:dyDescent="0.35">
-      <c r="A6" s="103" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="103"/>
-      <c r="C6" s="103"/>
-      <c r="D6" s="103"/>
-      <c r="E6" s="103"/>
-      <c r="F6" s="103"/>
-      <c r="G6" s="103"/>
-      <c r="H6" s="103"/>
-      <c r="I6" s="103"/>
-      <c r="J6" s="103"/>
-      <c r="K6" s="103"/>
-      <c r="L6" s="103"/>
-      <c r="M6" s="103"/>
-      <c r="N6" s="103"/>
-      <c r="O6" s="103"/>
-      <c r="P6" s="103"/>
-      <c r="Q6" s="103"/>
-      <c r="R6" s="103"/>
-      <c r="S6" s="103"/>
-      <c r="T6" s="103"/>
-      <c r="U6" s="103"/>
-      <c r="V6" s="103"/>
-      <c r="W6" s="103"/>
+      <c r="A6" s="115" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="115"/>
+      <c r="C6" s="115"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="115"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="115"/>
+      <c r="J6" s="115"/>
+      <c r="K6" s="115"/>
+      <c r="L6" s="115"/>
+      <c r="M6" s="115"/>
+      <c r="N6" s="115"/>
+      <c r="O6" s="115"/>
+      <c r="P6" s="115"/>
+      <c r="Q6" s="115"/>
+      <c r="R6" s="115"/>
+      <c r="S6" s="115"/>
+      <c r="T6" s="115"/>
+      <c r="U6" s="115"/>
+      <c r="V6" s="115"/>
+      <c r="W6" s="115"/>
     </row>
     <row r="7" spans="1:25" ht="20" x14ac:dyDescent="0.35">
-      <c r="A7" s="103" t="s">
+      <c r="A7" s="115" t="s">
         <v>89</v>
       </c>
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="103"/>
-      <c r="I7" s="103"/>
-      <c r="J7" s="103"/>
-      <c r="K7" s="103"/>
-      <c r="L7" s="103"/>
-      <c r="M7" s="103"/>
-      <c r="N7" s="103"/>
-      <c r="O7" s="103"/>
-      <c r="P7" s="103"/>
-      <c r="Q7" s="103"/>
-      <c r="R7" s="103"/>
-      <c r="S7" s="103"/>
-      <c r="T7" s="103"/>
-      <c r="U7" s="103"/>
-      <c r="V7" s="103"/>
-      <c r="W7" s="103"/>
+      <c r="B7" s="115"/>
+      <c r="C7" s="115"/>
+      <c r="D7" s="115"/>
+      <c r="E7" s="115"/>
+      <c r="F7" s="115"/>
+      <c r="G7" s="115"/>
+      <c r="H7" s="115"/>
+      <c r="I7" s="115"/>
+      <c r="J7" s="115"/>
+      <c r="K7" s="115"/>
+      <c r="L7" s="115"/>
+      <c r="M7" s="115"/>
+      <c r="N7" s="115"/>
+      <c r="O7" s="115"/>
+      <c r="P7" s="115"/>
+      <c r="Q7" s="115"/>
+      <c r="R7" s="115"/>
+      <c r="S7" s="115"/>
+      <c r="T7" s="115"/>
+      <c r="U7" s="115"/>
+      <c r="V7" s="115"/>
+      <c r="W7" s="115"/>
     </row>
     <row r="8" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="105" t="s">
+      <c r="A8" s="117" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="105" t="s">
+      <c r="B8" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="105" t="s">
+      <c r="C8" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="105" t="s">
+      <c r="D8" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="105"/>
-      <c r="F8" s="105"/>
-      <c r="G8" s="105"/>
-      <c r="H8" s="105"/>
-      <c r="I8" s="105"/>
-      <c r="J8" s="105"/>
-      <c r="K8" s="105"/>
-      <c r="L8" s="105"/>
-      <c r="M8" s="105"/>
-      <c r="N8" s="105"/>
-      <c r="O8" s="105"/>
-      <c r="P8" s="105"/>
-      <c r="Q8" s="105"/>
-      <c r="R8" s="105"/>
-      <c r="S8" s="105"/>
-      <c r="T8" s="113" t="s">
+      <c r="E8" s="117"/>
+      <c r="F8" s="117"/>
+      <c r="G8" s="117"/>
+      <c r="H8" s="117"/>
+      <c r="I8" s="117"/>
+      <c r="J8" s="117"/>
+      <c r="K8" s="117"/>
+      <c r="L8" s="117"/>
+      <c r="M8" s="117"/>
+      <c r="N8" s="117"/>
+      <c r="O8" s="117"/>
+      <c r="P8" s="117"/>
+      <c r="Q8" s="117"/>
+      <c r="R8" s="117"/>
+      <c r="S8" s="117"/>
+      <c r="T8" s="125" t="s">
         <v>48</v>
       </c>
-      <c r="U8" s="113" t="s">
+      <c r="U8" s="125" t="s">
         <v>49</v>
       </c>
-      <c r="V8" s="113" t="s">
+      <c r="V8" s="125" t="s">
         <v>50</v>
       </c>
-      <c r="W8" s="113" t="s">
+      <c r="W8" s="125" t="s">
         <v>47</v>
       </c>
-      <c r="X8" s="113" t="s">
+      <c r="X8" s="125" t="s">
         <v>46</v>
       </c>
-      <c r="Y8" s="99" t="s">
+      <c r="Y8" s="111" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="105"/>
-      <c r="B9" s="105"/>
-      <c r="C9" s="105"/>
-      <c r="D9" s="105"/>
-      <c r="E9" s="105"/>
-      <c r="F9" s="105"/>
-      <c r="G9" s="105"/>
-      <c r="H9" s="105"/>
-      <c r="I9" s="105"/>
-      <c r="J9" s="105"/>
-      <c r="K9" s="105"/>
-      <c r="L9" s="105"/>
-      <c r="M9" s="105"/>
-      <c r="N9" s="105"/>
-      <c r="O9" s="105"/>
-      <c r="P9" s="105"/>
-      <c r="Q9" s="105"/>
-      <c r="R9" s="105"/>
-      <c r="S9" s="105"/>
-      <c r="T9" s="113"/>
-      <c r="U9" s="113"/>
-      <c r="V9" s="113"/>
-      <c r="W9" s="113"/>
-      <c r="X9" s="113"/>
-      <c r="Y9" s="99"/>
+      <c r="A9" s="117"/>
+      <c r="B9" s="117"/>
+      <c r="C9" s="117"/>
+      <c r="D9" s="117"/>
+      <c r="E9" s="117"/>
+      <c r="F9" s="117"/>
+      <c r="G9" s="117"/>
+      <c r="H9" s="117"/>
+      <c r="I9" s="117"/>
+      <c r="J9" s="117"/>
+      <c r="K9" s="117"/>
+      <c r="L9" s="117"/>
+      <c r="M9" s="117"/>
+      <c r="N9" s="117"/>
+      <c r="O9" s="117"/>
+      <c r="P9" s="117"/>
+      <c r="Q9" s="117"/>
+      <c r="R9" s="117"/>
+      <c r="S9" s="117"/>
+      <c r="T9" s="125"/>
+      <c r="U9" s="125"/>
+      <c r="V9" s="125"/>
+      <c r="W9" s="125"/>
+      <c r="X9" s="125"/>
+      <c r="Y9" s="111"/>
     </row>
     <row r="10" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="114">
+      <c r="A10" s="108">
         <v>1</v>
       </c>
-      <c r="B10" s="115" t="s">
+      <c r="B10" s="109" t="s">
         <v>85</v>
       </c>
-      <c r="C10" s="116" t="s">
+      <c r="C10" s="110" t="s">
         <v>84</v>
       </c>
       <c r="D10" s="25">
@@ -12570,29 +12570,29 @@
       <c r="S10" s="25">
         <v>16</v>
       </c>
-      <c r="T10" s="117" t="s">
-        <v>8</v>
-      </c>
-      <c r="U10" s="117" t="s">
-        <v>8</v>
-      </c>
-      <c r="V10" s="120" t="s">
-        <v>8</v>
-      </c>
-      <c r="W10" s="120" t="s">
-        <v>8</v>
-      </c>
-      <c r="X10" s="120" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y10" s="123">
+      <c r="T10" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="U10" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="V10" s="99" t="s">
+        <v>8</v>
+      </c>
+      <c r="W10" s="99" t="s">
+        <v>8</v>
+      </c>
+      <c r="X10" s="99" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y10" s="102">
         <v>4770</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="114"/>
-      <c r="B11" s="115"/>
-      <c r="C11" s="116"/>
+      <c r="A11" s="108"/>
+      <c r="B11" s="109"/>
+      <c r="C11" s="110"/>
       <c r="D11" s="26" t="s">
         <v>88</v>
       </c>
@@ -12641,17 +12641,17 @@
       <c r="S11" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="T11" s="118"/>
-      <c r="U11" s="118"/>
-      <c r="V11" s="121"/>
-      <c r="W11" s="121"/>
-      <c r="X11" s="122"/>
-      <c r="Y11" s="123"/>
+      <c r="T11" s="106"/>
+      <c r="U11" s="106"/>
+      <c r="V11" s="100"/>
+      <c r="W11" s="100"/>
+      <c r="X11" s="101"/>
+      <c r="Y11" s="102"/>
     </row>
     <row r="12" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="114"/>
-      <c r="B12" s="115"/>
-      <c r="C12" s="116"/>
+      <c r="A12" s="108"/>
+      <c r="B12" s="109"/>
+      <c r="C12" s="110"/>
       <c r="D12" s="27">
         <v>17</v>
       </c>
@@ -12700,19 +12700,19 @@
       <c r="S12" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T12" s="118"/>
-      <c r="U12" s="118"/>
-      <c r="V12" s="121"/>
-      <c r="W12" s="121"/>
-      <c r="X12" s="120" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y12" s="123"/>
+      <c r="T12" s="106"/>
+      <c r="U12" s="106"/>
+      <c r="V12" s="100"/>
+      <c r="W12" s="100"/>
+      <c r="X12" s="99" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y12" s="102"/>
     </row>
     <row r="13" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="114"/>
-      <c r="B13" s="115"/>
-      <c r="C13" s="116"/>
+      <c r="A13" s="108"/>
+      <c r="B13" s="109"/>
+      <c r="C13" s="110"/>
       <c r="D13" s="26" t="s">
         <v>88</v>
       </c>
@@ -12761,12 +12761,12 @@
       <c r="S13" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T13" s="119"/>
-      <c r="U13" s="119"/>
-      <c r="V13" s="122"/>
-      <c r="W13" s="122"/>
-      <c r="X13" s="122"/>
-      <c r="Y13" s="123"/>
+      <c r="T13" s="107"/>
+      <c r="U13" s="107"/>
+      <c r="V13" s="101"/>
+      <c r="W13" s="101"/>
+      <c r="X13" s="101"/>
+      <c r="Y13" s="102"/>
     </row>
     <row r="14" spans="1:25" s="69" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="68"/>
@@ -12781,10 +12781,10 @@
       </c>
     </row>
     <row r="15" spans="1:25" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="124" t="s">
+      <c r="A15" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="124"/>
+      <c r="B15" s="103"/>
       <c r="C15" s="71">
         <f>Мельницький!C36</f>
         <v>44531</v>
@@ -12851,6 +12851,16 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="W10:W13"/>
+    <mergeCell ref="X12:X13"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="T10:T13"/>
+    <mergeCell ref="U10:U13"/>
+    <mergeCell ref="V10:V13"/>
+    <mergeCell ref="X10:X11"/>
     <mergeCell ref="Y10:Y13"/>
     <mergeCell ref="X8:X9"/>
     <mergeCell ref="Y8:Y9"/>
@@ -12865,16 +12875,6 @@
     <mergeCell ref="U8:U9"/>
     <mergeCell ref="V8:V9"/>
     <mergeCell ref="W8:W9"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="W10:W13"/>
-    <mergeCell ref="X12:X13"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="T10:T13"/>
-    <mergeCell ref="U10:U13"/>
-    <mergeCell ref="V10:V13"/>
-    <mergeCell ref="X10:X11"/>
   </mergeCells>
   <pageMargins left="0.31496062992125984" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -13039,63 +13039,63 @@
       <c r="Y5" s="60"/>
     </row>
     <row r="6" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A6" s="103" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="103"/>
-      <c r="C6" s="103"/>
-      <c r="D6" s="103"/>
-      <c r="E6" s="103"/>
-      <c r="F6" s="103"/>
-      <c r="G6" s="103"/>
-      <c r="H6" s="103"/>
-      <c r="I6" s="103"/>
-      <c r="J6" s="103"/>
-      <c r="K6" s="103"/>
-      <c r="L6" s="103"/>
-      <c r="M6" s="103"/>
-      <c r="N6" s="103"/>
-      <c r="O6" s="103"/>
-      <c r="P6" s="103"/>
-      <c r="Q6" s="103"/>
-      <c r="R6" s="103"/>
-      <c r="S6" s="103"/>
-      <c r="T6" s="103"/>
-      <c r="U6" s="103"/>
-      <c r="V6" s="103"/>
-      <c r="W6" s="103"/>
-      <c r="X6" s="103"/>
-      <c r="Y6" s="103"/>
+      <c r="A6" s="115" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="115"/>
+      <c r="C6" s="115"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="115"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="115"/>
+      <c r="J6" s="115"/>
+      <c r="K6" s="115"/>
+      <c r="L6" s="115"/>
+      <c r="M6" s="115"/>
+      <c r="N6" s="115"/>
+      <c r="O6" s="115"/>
+      <c r="P6" s="115"/>
+      <c r="Q6" s="115"/>
+      <c r="R6" s="115"/>
+      <c r="S6" s="115"/>
+      <c r="T6" s="115"/>
+      <c r="U6" s="115"/>
+      <c r="V6" s="115"/>
+      <c r="W6" s="115"/>
+      <c r="X6" s="115"/>
+      <c r="Y6" s="115"/>
     </row>
     <row r="7" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A7" s="103" t="str">
+      <c r="A7" s="115" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ЛИСТОПАД 2021р.</v>
       </c>
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="103"/>
-      <c r="I7" s="103"/>
-      <c r="J7" s="103"/>
-      <c r="K7" s="103"/>
-      <c r="L7" s="103"/>
-      <c r="M7" s="103"/>
-      <c r="N7" s="103"/>
-      <c r="O7" s="103"/>
-      <c r="P7" s="103"/>
-      <c r="Q7" s="103"/>
-      <c r="R7" s="103"/>
-      <c r="S7" s="103"/>
-      <c r="T7" s="103"/>
-      <c r="U7" s="103"/>
-      <c r="V7" s="103"/>
-      <c r="W7" s="103"/>
-      <c r="X7" s="103"/>
-      <c r="Y7" s="103"/>
+      <c r="B7" s="115"/>
+      <c r="C7" s="115"/>
+      <c r="D7" s="115"/>
+      <c r="E7" s="115"/>
+      <c r="F7" s="115"/>
+      <c r="G7" s="115"/>
+      <c r="H7" s="115"/>
+      <c r="I7" s="115"/>
+      <c r="J7" s="115"/>
+      <c r="K7" s="115"/>
+      <c r="L7" s="115"/>
+      <c r="M7" s="115"/>
+      <c r="N7" s="115"/>
+      <c r="O7" s="115"/>
+      <c r="P7" s="115"/>
+      <c r="Q7" s="115"/>
+      <c r="R7" s="115"/>
+      <c r="S7" s="115"/>
+      <c r="T7" s="115"/>
+      <c r="U7" s="115"/>
+      <c r="V7" s="115"/>
+      <c r="W7" s="115"/>
+      <c r="X7" s="115"/>
+      <c r="Y7" s="115"/>
     </row>
     <row r="8" spans="1:26" ht="20" x14ac:dyDescent="0.35">
       <c r="A8" s="61"/>
@@ -13125,94 +13125,94 @@
       <c r="Y8" s="61"/>
     </row>
     <row r="9" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="105" t="s">
+      <c r="A9" s="117" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="106" t="s">
+      <c r="B9" s="118" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="105" t="s">
+      <c r="C9" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="105" t="s">
+      <c r="D9" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="105" t="s">
+      <c r="E9" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="105"/>
-      <c r="G9" s="105"/>
-      <c r="H9" s="105"/>
-      <c r="I9" s="105"/>
-      <c r="J9" s="105"/>
-      <c r="K9" s="105"/>
-      <c r="L9" s="105"/>
-      <c r="M9" s="105"/>
-      <c r="N9" s="105"/>
-      <c r="O9" s="105"/>
-      <c r="P9" s="105"/>
-      <c r="Q9" s="105"/>
-      <c r="R9" s="105"/>
-      <c r="S9" s="105"/>
-      <c r="T9" s="105"/>
-      <c r="U9" s="113" t="s">
+      <c r="F9" s="117"/>
+      <c r="G9" s="117"/>
+      <c r="H9" s="117"/>
+      <c r="I9" s="117"/>
+      <c r="J9" s="117"/>
+      <c r="K9" s="117"/>
+      <c r="L9" s="117"/>
+      <c r="M9" s="117"/>
+      <c r="N9" s="117"/>
+      <c r="O9" s="117"/>
+      <c r="P9" s="117"/>
+      <c r="Q9" s="117"/>
+      <c r="R9" s="117"/>
+      <c r="S9" s="117"/>
+      <c r="T9" s="117"/>
+      <c r="U9" s="125" t="s">
         <v>48</v>
       </c>
-      <c r="V9" s="113" t="s">
+      <c r="V9" s="125" t="s">
         <v>49</v>
       </c>
-      <c r="W9" s="113" t="s">
+      <c r="W9" s="125" t="s">
         <v>50</v>
       </c>
-      <c r="X9" s="113" t="s">
+      <c r="X9" s="125" t="s">
         <v>47</v>
       </c>
-      <c r="Y9" s="113" t="s">
+      <c r="Y9" s="125" t="s">
         <v>46</v>
       </c>
-      <c r="Z9" s="99" t="s">
+      <c r="Z9" s="111" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="105"/>
-      <c r="B10" s="106"/>
-      <c r="C10" s="105"/>
-      <c r="D10" s="105"/>
-      <c r="E10" s="105"/>
-      <c r="F10" s="105"/>
-      <c r="G10" s="105"/>
-      <c r="H10" s="105"/>
-      <c r="I10" s="105"/>
-      <c r="J10" s="105"/>
-      <c r="K10" s="105"/>
-      <c r="L10" s="105"/>
-      <c r="M10" s="105"/>
-      <c r="N10" s="105"/>
-      <c r="O10" s="105"/>
-      <c r="P10" s="105"/>
-      <c r="Q10" s="105"/>
-      <c r="R10" s="105"/>
-      <c r="S10" s="105"/>
-      <c r="T10" s="105"/>
-      <c r="U10" s="113"/>
-      <c r="V10" s="113"/>
-      <c r="W10" s="113"/>
-      <c r="X10" s="113"/>
-      <c r="Y10" s="113"/>
-      <c r="Z10" s="99"/>
+      <c r="A10" s="117"/>
+      <c r="B10" s="118"/>
+      <c r="C10" s="117"/>
+      <c r="D10" s="117"/>
+      <c r="E10" s="117"/>
+      <c r="F10" s="117"/>
+      <c r="G10" s="117"/>
+      <c r="H10" s="117"/>
+      <c r="I10" s="117"/>
+      <c r="J10" s="117"/>
+      <c r="K10" s="117"/>
+      <c r="L10" s="117"/>
+      <c r="M10" s="117"/>
+      <c r="N10" s="117"/>
+      <c r="O10" s="117"/>
+      <c r="P10" s="117"/>
+      <c r="Q10" s="117"/>
+      <c r="R10" s="117"/>
+      <c r="S10" s="117"/>
+      <c r="T10" s="117"/>
+      <c r="U10" s="125"/>
+      <c r="V10" s="125"/>
+      <c r="W10" s="125"/>
+      <c r="X10" s="125"/>
+      <c r="Y10" s="125"/>
+      <c r="Z10" s="111"/>
     </row>
     <row r="11" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="114">
+      <c r="A11" s="108">
         <v>1</v>
       </c>
-      <c r="B11" s="114">
+      <c r="B11" s="108">
         <v>1</v>
       </c>
-      <c r="C11" s="115" t="s">
+      <c r="C11" s="109" t="s">
         <v>80</v>
       </c>
-      <c r="D11" s="116" t="s">
+      <c r="D11" s="110" t="s">
         <v>16</v>
       </c>
       <c r="E11" s="25">
@@ -13263,17 +13263,17 @@
       <c r="T11" s="25">
         <v>16</v>
       </c>
-      <c r="U11" s="117" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="117" t="s">
-        <v>8</v>
-      </c>
-      <c r="W11" s="120" t="s">
+      <c r="U11" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11" s="99" t="s">
         <v>8</v>
       </c>
       <c r="X11" s="147"/>
-      <c r="Y11" s="120">
+      <c r="Y11" s="99">
         <v>20</v>
       </c>
       <c r="Z11" s="163">
@@ -13281,10 +13281,10 @@
       </c>
     </row>
     <row r="12" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="114"/>
-      <c r="B12" s="114"/>
-      <c r="C12" s="115"/>
-      <c r="D12" s="116"/>
+      <c r="A12" s="108"/>
+      <c r="B12" s="108"/>
+      <c r="C12" s="109"/>
+      <c r="D12" s="110"/>
       <c r="E12" s="26" t="s">
         <v>88</v>
       </c>
@@ -13333,18 +13333,18 @@
       <c r="T12" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="U12" s="118"/>
-      <c r="V12" s="118"/>
-      <c r="W12" s="121"/>
+      <c r="U12" s="106"/>
+      <c r="V12" s="106"/>
+      <c r="W12" s="100"/>
       <c r="X12" s="148"/>
-      <c r="Y12" s="122"/>
+      <c r="Y12" s="101"/>
       <c r="Z12" s="163"/>
     </row>
     <row r="13" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="114"/>
-      <c r="B13" s="114"/>
-      <c r="C13" s="115"/>
-      <c r="D13" s="116"/>
+      <c r="A13" s="108"/>
+      <c r="B13" s="108"/>
+      <c r="C13" s="109"/>
+      <c r="D13" s="110"/>
       <c r="E13" s="27">
         <v>17</v>
       </c>
@@ -13393,20 +13393,20 @@
       <c r="T13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U13" s="118"/>
-      <c r="V13" s="118"/>
-      <c r="W13" s="121"/>
+      <c r="U13" s="106"/>
+      <c r="V13" s="106"/>
+      <c r="W13" s="100"/>
       <c r="X13" s="148"/>
-      <c r="Y13" s="120">
+      <c r="Y13" s="99">
         <v>160</v>
       </c>
       <c r="Z13" s="163"/>
     </row>
     <row r="14" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="114"/>
-      <c r="B14" s="114"/>
-      <c r="C14" s="115"/>
-      <c r="D14" s="116"/>
+      <c r="A14" s="108"/>
+      <c r="B14" s="108"/>
+      <c r="C14" s="109"/>
+      <c r="D14" s="110"/>
       <c r="E14" s="26" t="s">
         <v>88</v>
       </c>
@@ -13455,18 +13455,18 @@
       <c r="T14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="119"/>
-      <c r="V14" s="119"/>
-      <c r="W14" s="122"/>
+      <c r="U14" s="107"/>
+      <c r="V14" s="107"/>
+      <c r="W14" s="101"/>
       <c r="X14" s="149"/>
-      <c r="Y14" s="122"/>
+      <c r="Y14" s="101"/>
       <c r="Z14" s="163"/>
     </row>
     <row r="15" spans="1:26" s="59" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="124" t="s">
+      <c r="B15" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="124"/>
+      <c r="C15" s="103"/>
       <c r="D15" s="58">
         <f>Мельницький!C36</f>
         <v>44531</v>
@@ -13530,6 +13530,18 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A6:Y6"/>
+    <mergeCell ref="A7:Y7"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:T10"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="Y9:Y10"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="Z9:Z10"/>
     <mergeCell ref="A11:A14"/>
@@ -13543,18 +13555,6 @@
     <mergeCell ref="Y11:Y12"/>
     <mergeCell ref="Z11:Z14"/>
     <mergeCell ref="Y13:Y14"/>
-    <mergeCell ref="A6:Y6"/>
-    <mergeCell ref="A7:Y7"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:T10"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="Y9:Y10"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>

--- a/Фопи/Зарплата ФОП 2021/Табель ФОП 2020/Табель 11 – 21.xlsx
+++ b/Фопи/Зарплата ФОП 2021/Табель ФОП 2020/Табель 11 – 21.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="80" windowWidth="15120" windowHeight="7760" tabRatio="874" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="80" windowWidth="15120" windowHeight="7760" tabRatio="874"/>
   </bookViews>
   <sheets>
     <sheet name="Угринчук" sheetId="25" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="105">
   <si>
     <t>Посада</t>
   </si>
@@ -344,12 +344,15 @@
   <si>
     <t>обліку робочого часу працівників за ЛИСТОПАД 2021р.</t>
   </si>
+  <si>
+    <t>О</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -518,6 +521,20 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -659,7 +676,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="164">
+  <cellXfs count="167">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -951,6 +968,78 @@
     <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -969,75 +1058,30 @@
     <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
     <xf numFmtId="2" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1047,23 +1091,26 @@
     <xf numFmtId="2" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1074,27 +1121,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1107,6 +1133,33 @@
     <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1114,33 +1167,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1457,8 +1483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB26"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11:T14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
@@ -1475,49 +1501,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="P1" s="113"/>
-      <c r="Q1" s="113"/>
-      <c r="R1" s="113"/>
-      <c r="S1" s="113"/>
-      <c r="T1" s="113"/>
-      <c r="U1" s="113"/>
-      <c r="V1" s="113"/>
-      <c r="W1" s="113"/>
-      <c r="X1" s="113"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="P1" s="104"/>
+      <c r="Q1" s="104"/>
+      <c r="R1" s="104"/>
+      <c r="S1" s="104"/>
+      <c r="T1" s="104"/>
+      <c r="U1" s="104"/>
+      <c r="V1" s="104"/>
+      <c r="W1" s="104"/>
+      <c r="X1" s="104"/>
     </row>
     <row r="2" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="114" t="s">
+      <c r="A2" s="105" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="114"/>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="114"/>
-      <c r="H2" s="114"/>
-      <c r="I2" s="114"/>
-      <c r="J2" s="114"/>
-      <c r="K2" s="114"/>
-      <c r="L2" s="114"/>
-      <c r="M2" s="114"/>
-      <c r="N2" s="114"/>
-      <c r="O2" s="114"/>
-      <c r="P2" s="114"/>
-      <c r="Q2" s="114"/>
-      <c r="R2" s="114"/>
-      <c r="S2" s="114"/>
-      <c r="T2" s="114"/>
-      <c r="U2" s="114"/>
-      <c r="V2" s="114"/>
-      <c r="W2" s="114"/>
-      <c r="X2" s="114"/>
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="105"/>
+      <c r="J2" s="105"/>
+      <c r="K2" s="105"/>
+      <c r="L2" s="105"/>
+      <c r="M2" s="105"/>
+      <c r="N2" s="105"/>
+      <c r="O2" s="105"/>
+      <c r="P2" s="105"/>
+      <c r="Q2" s="105"/>
+      <c r="R2" s="105"/>
+      <c r="S2" s="105"/>
+      <c r="T2" s="105"/>
+      <c r="U2" s="105"/>
+      <c r="V2" s="105"/>
+      <c r="W2" s="105"/>
+      <c r="X2" s="105"/>
     </row>
     <row r="3" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="93"/>
@@ -1627,147 +1653,147 @@
       <c r="X6" s="2"/>
     </row>
     <row r="7" spans="1:28" ht="20" x14ac:dyDescent="0.35">
-      <c r="A7" s="115" t="s">
+      <c r="A7" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="115"/>
-      <c r="C7" s="115"/>
-      <c r="D7" s="115"/>
-      <c r="E7" s="115"/>
-      <c r="F7" s="115"/>
-      <c r="G7" s="115"/>
-      <c r="H7" s="115"/>
-      <c r="I7" s="115"/>
-      <c r="J7" s="115"/>
-      <c r="K7" s="115"/>
-      <c r="L7" s="115"/>
-      <c r="M7" s="115"/>
-      <c r="N7" s="115"/>
-      <c r="O7" s="115"/>
-      <c r="P7" s="115"/>
-      <c r="Q7" s="115"/>
-      <c r="R7" s="115"/>
-      <c r="S7" s="115"/>
-      <c r="T7" s="115"/>
-      <c r="U7" s="115"/>
-      <c r="V7" s="115"/>
-      <c r="W7" s="115"/>
-      <c r="X7" s="115"/>
+      <c r="B7" s="106"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="106"/>
+      <c r="E7" s="106"/>
+      <c r="F7" s="106"/>
+      <c r="G7" s="106"/>
+      <c r="H7" s="106"/>
+      <c r="I7" s="106"/>
+      <c r="J7" s="106"/>
+      <c r="K7" s="106"/>
+      <c r="L7" s="106"/>
+      <c r="M7" s="106"/>
+      <c r="N7" s="106"/>
+      <c r="O7" s="106"/>
+      <c r="P7" s="106"/>
+      <c r="Q7" s="106"/>
+      <c r="R7" s="106"/>
+      <c r="S7" s="106"/>
+      <c r="T7" s="106"/>
+      <c r="U7" s="106"/>
+      <c r="V7" s="106"/>
+      <c r="W7" s="106"/>
+      <c r="X7" s="106"/>
     </row>
     <row r="8" spans="1:28" ht="20" x14ac:dyDescent="0.35">
-      <c r="A8" s="116" t="str">
+      <c r="A8" s="107" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ЛИСТОПАД 2021р.</v>
       </c>
-      <c r="B8" s="116"/>
-      <c r="C8" s="116"/>
-      <c r="D8" s="116"/>
-      <c r="E8" s="116"/>
-      <c r="F8" s="116"/>
-      <c r="G8" s="116"/>
-      <c r="H8" s="116"/>
-      <c r="I8" s="116"/>
-      <c r="J8" s="116"/>
-      <c r="K8" s="116"/>
-      <c r="L8" s="116"/>
-      <c r="M8" s="116"/>
-      <c r="N8" s="116"/>
-      <c r="O8" s="116"/>
-      <c r="P8" s="116"/>
-      <c r="Q8" s="116"/>
-      <c r="R8" s="116"/>
-      <c r="S8" s="116"/>
-      <c r="T8" s="116"/>
-      <c r="U8" s="116"/>
-      <c r="V8" s="116"/>
-      <c r="W8" s="116"/>
-      <c r="X8" s="116"/>
+      <c r="B8" s="107"/>
+      <c r="C8" s="107"/>
+      <c r="D8" s="107"/>
+      <c r="E8" s="107"/>
+      <c r="F8" s="107"/>
+      <c r="G8" s="107"/>
+      <c r="H8" s="107"/>
+      <c r="I8" s="107"/>
+      <c r="J8" s="107"/>
+      <c r="K8" s="107"/>
+      <c r="L8" s="107"/>
+      <c r="M8" s="107"/>
+      <c r="N8" s="107"/>
+      <c r="O8" s="107"/>
+      <c r="P8" s="107"/>
+      <c r="Q8" s="107"/>
+      <c r="R8" s="107"/>
+      <c r="S8" s="107"/>
+      <c r="T8" s="107"/>
+      <c r="U8" s="107"/>
+      <c r="V8" s="107"/>
+      <c r="W8" s="107"/>
+      <c r="X8" s="107"/>
     </row>
     <row r="9" spans="1:28" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="117" t="s">
+      <c r="A9" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="118"/>
-      <c r="C9" s="117" t="s">
+      <c r="B9" s="109"/>
+      <c r="C9" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="117" t="s">
+      <c r="D9" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="119" t="s">
+      <c r="E9" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="120"/>
-      <c r="G9" s="120"/>
-      <c r="H9" s="120"/>
-      <c r="I9" s="120"/>
-      <c r="J9" s="120"/>
-      <c r="K9" s="120"/>
-      <c r="L9" s="120"/>
-      <c r="M9" s="120"/>
-      <c r="N9" s="120"/>
-      <c r="O9" s="120"/>
-      <c r="P9" s="120"/>
-      <c r="Q9" s="120"/>
-      <c r="R9" s="120"/>
-      <c r="S9" s="120"/>
-      <c r="T9" s="121"/>
-      <c r="U9" s="125" t="s">
+      <c r="F9" s="111"/>
+      <c r="G9" s="111"/>
+      <c r="H9" s="111"/>
+      <c r="I9" s="111"/>
+      <c r="J9" s="111"/>
+      <c r="K9" s="111"/>
+      <c r="L9" s="111"/>
+      <c r="M9" s="111"/>
+      <c r="N9" s="111"/>
+      <c r="O9" s="111"/>
+      <c r="P9" s="111"/>
+      <c r="Q9" s="111"/>
+      <c r="R9" s="111"/>
+      <c r="S9" s="111"/>
+      <c r="T9" s="112"/>
+      <c r="U9" s="116" t="s">
         <v>48</v>
       </c>
-      <c r="V9" s="125" t="s">
+      <c r="V9" s="116" t="s">
         <v>49</v>
       </c>
-      <c r="W9" s="125" t="s">
+      <c r="W9" s="116" t="s">
         <v>50</v>
       </c>
-      <c r="X9" s="125" t="s">
+      <c r="X9" s="116" t="s">
         <v>47</v>
       </c>
-      <c r="Y9" s="125" t="s">
+      <c r="Y9" s="116" t="s">
         <v>46</v>
       </c>
-      <c r="Z9" s="111" t="s">
+      <c r="Z9" s="102" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:28" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="117"/>
-      <c r="B10" s="118"/>
-      <c r="C10" s="117"/>
-      <c r="D10" s="117"/>
-      <c r="E10" s="122"/>
-      <c r="F10" s="123"/>
-      <c r="G10" s="123"/>
-      <c r="H10" s="123"/>
-      <c r="I10" s="123"/>
-      <c r="J10" s="123"/>
-      <c r="K10" s="123"/>
-      <c r="L10" s="123"/>
-      <c r="M10" s="123"/>
-      <c r="N10" s="123"/>
-      <c r="O10" s="123"/>
-      <c r="P10" s="123"/>
-      <c r="Q10" s="123"/>
-      <c r="R10" s="123"/>
-      <c r="S10" s="123"/>
-      <c r="T10" s="124"/>
-      <c r="U10" s="125"/>
-      <c r="V10" s="125"/>
-      <c r="W10" s="125"/>
-      <c r="X10" s="125"/>
-      <c r="Y10" s="125"/>
-      <c r="Z10" s="111"/>
+      <c r="A10" s="108"/>
+      <c r="B10" s="109"/>
+      <c r="C10" s="108"/>
+      <c r="D10" s="108"/>
+      <c r="E10" s="113"/>
+      <c r="F10" s="114"/>
+      <c r="G10" s="114"/>
+      <c r="H10" s="114"/>
+      <c r="I10" s="114"/>
+      <c r="J10" s="114"/>
+      <c r="K10" s="114"/>
+      <c r="L10" s="114"/>
+      <c r="M10" s="114"/>
+      <c r="N10" s="114"/>
+      <c r="O10" s="114"/>
+      <c r="P10" s="114"/>
+      <c r="Q10" s="114"/>
+      <c r="R10" s="114"/>
+      <c r="S10" s="114"/>
+      <c r="T10" s="115"/>
+      <c r="U10" s="116"/>
+      <c r="V10" s="116"/>
+      <c r="W10" s="116"/>
+      <c r="X10" s="116"/>
+      <c r="Y10" s="116"/>
+      <c r="Z10" s="102"/>
     </row>
     <row r="11" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="108">
+      <c r="A11" s="117">
         <v>1</v>
       </c>
-      <c r="B11" s="108"/>
-      <c r="C11" s="109" t="s">
+      <c r="B11" s="117"/>
+      <c r="C11" s="118" t="s">
         <v>100</v>
       </c>
-      <c r="D11" s="110" t="s">
+      <c r="D11" s="119" t="s">
         <v>84</v>
       </c>
       <c r="E11" s="25">
@@ -1818,28 +1844,28 @@
       <c r="T11" s="25">
         <v>16</v>
       </c>
-      <c r="U11" s="105" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="105" t="s">
-        <v>8</v>
-      </c>
-      <c r="W11" s="99" t="s">
+      <c r="U11" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11" s="123" t="s">
         <v>8</v>
       </c>
       <c r="X11" s="89"/>
-      <c r="Y11" s="99">
+      <c r="Y11" s="123">
         <v>22</v>
       </c>
-      <c r="Z11" s="102">
+      <c r="Z11" s="126">
         <v>6000</v>
       </c>
     </row>
     <row r="12" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="108"/>
-      <c r="B12" s="108"/>
-      <c r="C12" s="109"/>
-      <c r="D12" s="110"/>
+      <c r="A12" s="117"/>
+      <c r="B12" s="117"/>
+      <c r="C12" s="118"/>
+      <c r="D12" s="119"/>
       <c r="E12" s="26">
         <v>4</v>
       </c>
@@ -1888,22 +1914,22 @@
       <c r="T12" s="26">
         <v>4</v>
       </c>
-      <c r="U12" s="106"/>
-      <c r="V12" s="106"/>
-      <c r="W12" s="100"/>
+      <c r="U12" s="121"/>
+      <c r="V12" s="121"/>
+      <c r="W12" s="124"/>
       <c r="X12" s="90"/>
-      <c r="Y12" s="101"/>
-      <c r="Z12" s="102"/>
+      <c r="Y12" s="125"/>
+      <c r="Z12" s="126"/>
       <c r="AA12" s="2">
         <f>SUM(E12:T12)</f>
         <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="108"/>
-      <c r="B13" s="108"/>
-      <c r="C13" s="109"/>
-      <c r="D13" s="110"/>
+      <c r="A13" s="117"/>
+      <c r="B13" s="117"/>
+      <c r="C13" s="118"/>
+      <c r="D13" s="119"/>
       <c r="E13" s="27">
         <v>17</v>
       </c>
@@ -1952,25 +1978,25 @@
       <c r="T13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U13" s="106"/>
-      <c r="V13" s="106"/>
-      <c r="W13" s="100"/>
+      <c r="U13" s="121"/>
+      <c r="V13" s="121"/>
+      <c r="W13" s="124"/>
       <c r="X13" s="90"/>
-      <c r="Y13" s="99">
+      <c r="Y13" s="123">
         <f>AB13</f>
         <v>88</v>
       </c>
-      <c r="Z13" s="102"/>
+      <c r="Z13" s="126"/>
       <c r="AB13" s="2">
         <f>AA12+AA14</f>
         <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="108"/>
-      <c r="B14" s="108"/>
-      <c r="C14" s="109"/>
-      <c r="D14" s="110"/>
+      <c r="A14" s="117"/>
+      <c r="B14" s="117"/>
+      <c r="C14" s="118"/>
+      <c r="D14" s="119"/>
       <c r="E14" s="26">
         <v>4</v>
       </c>
@@ -2019,12 +2045,12 @@
       <c r="T14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="107"/>
-      <c r="V14" s="107"/>
-      <c r="W14" s="101"/>
+      <c r="U14" s="122"/>
+      <c r="V14" s="122"/>
+      <c r="W14" s="125"/>
       <c r="X14" s="91"/>
-      <c r="Y14" s="101"/>
-      <c r="Z14" s="102"/>
+      <c r="Y14" s="125"/>
+      <c r="Z14" s="126"/>
       <c r="AA14" s="2">
         <f>SUM(E14:T14)</f>
         <v>40</v>
@@ -2109,18 +2135,18 @@
       <c r="X17" s="9"/>
     </row>
     <row r="18" spans="1:24" s="92" customFormat="1" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="B18" s="103" t="s">
+      <c r="B18" s="127" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="103"/>
-      <c r="D18" s="104">
+      <c r="C18" s="127"/>
+      <c r="D18" s="128">
         <f>Мельницький!C36</f>
         <v>44531</v>
       </c>
-      <c r="E18" s="104"/>
-      <c r="F18" s="104"/>
-      <c r="G18" s="104"/>
-      <c r="H18" s="104"/>
+      <c r="E18" s="128"/>
+      <c r="F18" s="128"/>
+      <c r="G18" s="128"/>
+      <c r="H18" s="128"/>
       <c r="L18" s="92" t="s">
         <v>99</v>
       </c>
@@ -2162,6 +2188,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="W11:W14"/>
+    <mergeCell ref="Y11:Y12"/>
+    <mergeCell ref="Z11:Z14"/>
+    <mergeCell ref="Y13:Y14"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:H18"/>
+    <mergeCell ref="V11:V14"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="U11:U14"/>
     <mergeCell ref="Z9:Z10"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="P1:X1"/>
@@ -2178,18 +2216,6 @@
     <mergeCell ref="W9:W10"/>
     <mergeCell ref="X9:X10"/>
     <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="U11:U14"/>
-    <mergeCell ref="W11:W14"/>
-    <mergeCell ref="Y11:Y12"/>
-    <mergeCell ref="Z11:Z14"/>
-    <mergeCell ref="Y13:Y14"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:H18"/>
-    <mergeCell ref="V11:V14"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="99" orientation="landscape" r:id="rId1"/>
@@ -2354,63 +2380,63 @@
       <c r="Y5" s="65"/>
     </row>
     <row r="6" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A6" s="115" t="s">
+      <c r="A6" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="115"/>
-      <c r="C6" s="115"/>
-      <c r="D6" s="115"/>
-      <c r="E6" s="115"/>
-      <c r="F6" s="115"/>
-      <c r="G6" s="115"/>
-      <c r="H6" s="115"/>
-      <c r="I6" s="115"/>
-      <c r="J6" s="115"/>
-      <c r="K6" s="115"/>
-      <c r="L6" s="115"/>
-      <c r="M6" s="115"/>
-      <c r="N6" s="115"/>
-      <c r="O6" s="115"/>
-      <c r="P6" s="115"/>
-      <c r="Q6" s="115"/>
-      <c r="R6" s="115"/>
-      <c r="S6" s="115"/>
-      <c r="T6" s="115"/>
-      <c r="U6" s="115"/>
-      <c r="V6" s="115"/>
-      <c r="W6" s="115"/>
-      <c r="X6" s="115"/>
-      <c r="Y6" s="115"/>
+      <c r="B6" s="106"/>
+      <c r="C6" s="106"/>
+      <c r="D6" s="106"/>
+      <c r="E6" s="106"/>
+      <c r="F6" s="106"/>
+      <c r="G6" s="106"/>
+      <c r="H6" s="106"/>
+      <c r="I6" s="106"/>
+      <c r="J6" s="106"/>
+      <c r="K6" s="106"/>
+      <c r="L6" s="106"/>
+      <c r="M6" s="106"/>
+      <c r="N6" s="106"/>
+      <c r="O6" s="106"/>
+      <c r="P6" s="106"/>
+      <c r="Q6" s="106"/>
+      <c r="R6" s="106"/>
+      <c r="S6" s="106"/>
+      <c r="T6" s="106"/>
+      <c r="U6" s="106"/>
+      <c r="V6" s="106"/>
+      <c r="W6" s="106"/>
+      <c r="X6" s="106"/>
+      <c r="Y6" s="106"/>
     </row>
     <row r="7" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A7" s="115" t="str">
+      <c r="A7" s="106" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ЛИСТОПАД 2021р.</v>
       </c>
-      <c r="B7" s="115"/>
-      <c r="C7" s="115"/>
-      <c r="D7" s="115"/>
-      <c r="E7" s="115"/>
-      <c r="F7" s="115"/>
-      <c r="G7" s="115"/>
-      <c r="H7" s="115"/>
-      <c r="I7" s="115"/>
-      <c r="J7" s="115"/>
-      <c r="K7" s="115"/>
-      <c r="L7" s="115"/>
-      <c r="M7" s="115"/>
-      <c r="N7" s="115"/>
-      <c r="O7" s="115"/>
-      <c r="P7" s="115"/>
-      <c r="Q7" s="115"/>
-      <c r="R7" s="115"/>
-      <c r="S7" s="115"/>
-      <c r="T7" s="115"/>
-      <c r="U7" s="115"/>
-      <c r="V7" s="115"/>
-      <c r="W7" s="115"/>
-      <c r="X7" s="115"/>
-      <c r="Y7" s="115"/>
+      <c r="B7" s="106"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="106"/>
+      <c r="E7" s="106"/>
+      <c r="F7" s="106"/>
+      <c r="G7" s="106"/>
+      <c r="H7" s="106"/>
+      <c r="I7" s="106"/>
+      <c r="J7" s="106"/>
+      <c r="K7" s="106"/>
+      <c r="L7" s="106"/>
+      <c r="M7" s="106"/>
+      <c r="N7" s="106"/>
+      <c r="O7" s="106"/>
+      <c r="P7" s="106"/>
+      <c r="Q7" s="106"/>
+      <c r="R7" s="106"/>
+      <c r="S7" s="106"/>
+      <c r="T7" s="106"/>
+      <c r="U7" s="106"/>
+      <c r="V7" s="106"/>
+      <c r="W7" s="106"/>
+      <c r="X7" s="106"/>
+      <c r="Y7" s="106"/>
     </row>
     <row r="8" spans="1:26" ht="20" x14ac:dyDescent="0.35">
       <c r="A8" s="63"/>
@@ -2440,94 +2466,94 @@
       <c r="Y8" s="63"/>
     </row>
     <row r="9" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="117" t="s">
+      <c r="A9" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="118" t="s">
+      <c r="B9" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="117" t="s">
+      <c r="C9" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="117" t="s">
+      <c r="D9" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="117" t="s">
+      <c r="E9" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="117"/>
-      <c r="G9" s="117"/>
-      <c r="H9" s="117"/>
-      <c r="I9" s="117"/>
-      <c r="J9" s="117"/>
-      <c r="K9" s="117"/>
-      <c r="L9" s="117"/>
-      <c r="M9" s="117"/>
-      <c r="N9" s="117"/>
-      <c r="O9" s="117"/>
-      <c r="P9" s="117"/>
-      <c r="Q9" s="117"/>
-      <c r="R9" s="117"/>
-      <c r="S9" s="117"/>
-      <c r="T9" s="117"/>
-      <c r="U9" s="125" t="s">
+      <c r="F9" s="108"/>
+      <c r="G9" s="108"/>
+      <c r="H9" s="108"/>
+      <c r="I9" s="108"/>
+      <c r="J9" s="108"/>
+      <c r="K9" s="108"/>
+      <c r="L9" s="108"/>
+      <c r="M9" s="108"/>
+      <c r="N9" s="108"/>
+      <c r="O9" s="108"/>
+      <c r="P9" s="108"/>
+      <c r="Q9" s="108"/>
+      <c r="R9" s="108"/>
+      <c r="S9" s="108"/>
+      <c r="T9" s="108"/>
+      <c r="U9" s="116" t="s">
         <v>48</v>
       </c>
-      <c r="V9" s="125" t="s">
+      <c r="V9" s="116" t="s">
         <v>49</v>
       </c>
-      <c r="W9" s="125" t="s">
+      <c r="W9" s="116" t="s">
         <v>50</v>
       </c>
-      <c r="X9" s="125" t="s">
+      <c r="X9" s="116" t="s">
         <v>47</v>
       </c>
-      <c r="Y9" s="125" t="s">
+      <c r="Y9" s="116" t="s">
         <v>46</v>
       </c>
-      <c r="Z9" s="111" t="s">
+      <c r="Z9" s="102" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="117"/>
-      <c r="B10" s="118"/>
-      <c r="C10" s="117"/>
-      <c r="D10" s="117"/>
-      <c r="E10" s="117"/>
-      <c r="F10" s="117"/>
-      <c r="G10" s="117"/>
-      <c r="H10" s="117"/>
-      <c r="I10" s="117"/>
-      <c r="J10" s="117"/>
-      <c r="K10" s="117"/>
-      <c r="L10" s="117"/>
-      <c r="M10" s="117"/>
-      <c r="N10" s="117"/>
-      <c r="O10" s="117"/>
-      <c r="P10" s="117"/>
-      <c r="Q10" s="117"/>
-      <c r="R10" s="117"/>
-      <c r="S10" s="117"/>
-      <c r="T10" s="117"/>
-      <c r="U10" s="125"/>
-      <c r="V10" s="125"/>
-      <c r="W10" s="125"/>
-      <c r="X10" s="125"/>
-      <c r="Y10" s="125"/>
-      <c r="Z10" s="111"/>
+      <c r="A10" s="108"/>
+      <c r="B10" s="109"/>
+      <c r="C10" s="108"/>
+      <c r="D10" s="108"/>
+      <c r="E10" s="108"/>
+      <c r="F10" s="108"/>
+      <c r="G10" s="108"/>
+      <c r="H10" s="108"/>
+      <c r="I10" s="108"/>
+      <c r="J10" s="108"/>
+      <c r="K10" s="108"/>
+      <c r="L10" s="108"/>
+      <c r="M10" s="108"/>
+      <c r="N10" s="108"/>
+      <c r="O10" s="108"/>
+      <c r="P10" s="108"/>
+      <c r="Q10" s="108"/>
+      <c r="R10" s="108"/>
+      <c r="S10" s="108"/>
+      <c r="T10" s="108"/>
+      <c r="U10" s="116"/>
+      <c r="V10" s="116"/>
+      <c r="W10" s="116"/>
+      <c r="X10" s="116"/>
+      <c r="Y10" s="116"/>
+      <c r="Z10" s="102"/>
     </row>
     <row r="11" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="108">
+      <c r="A11" s="117">
         <v>1</v>
       </c>
-      <c r="B11" s="108">
+      <c r="B11" s="117">
         <v>1</v>
       </c>
-      <c r="C11" s="109" t="s">
+      <c r="C11" s="118" t="s">
         <v>78</v>
       </c>
-      <c r="D11" s="110" t="s">
+      <c r="D11" s="119" t="s">
         <v>74</v>
       </c>
       <c r="E11" s="25">
@@ -2578,28 +2604,28 @@
       <c r="T11" s="25">
         <v>16</v>
       </c>
-      <c r="U11" s="105" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="105" t="s">
-        <v>8</v>
-      </c>
-      <c r="W11" s="99" t="s">
-        <v>8</v>
-      </c>
-      <c r="X11" s="147"/>
-      <c r="Y11" s="99" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z11" s="163">
+      <c r="U11" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11" s="123" t="s">
+        <v>8</v>
+      </c>
+      <c r="X11" s="150"/>
+      <c r="Y11" s="123" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z11" s="166">
         <v>4770</v>
       </c>
     </row>
     <row r="12" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="108"/>
-      <c r="B12" s="108"/>
-      <c r="C12" s="109"/>
-      <c r="D12" s="110"/>
+      <c r="A12" s="117"/>
+      <c r="B12" s="117"/>
+      <c r="C12" s="118"/>
+      <c r="D12" s="119"/>
       <c r="E12" s="26" t="s">
         <v>88</v>
       </c>
@@ -2648,18 +2674,18 @@
       <c r="T12" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="U12" s="106"/>
-      <c r="V12" s="106"/>
-      <c r="W12" s="100"/>
-      <c r="X12" s="148"/>
-      <c r="Y12" s="101"/>
-      <c r="Z12" s="163"/>
+      <c r="U12" s="121"/>
+      <c r="V12" s="121"/>
+      <c r="W12" s="124"/>
+      <c r="X12" s="151"/>
+      <c r="Y12" s="125"/>
+      <c r="Z12" s="166"/>
     </row>
     <row r="13" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="108"/>
-      <c r="B13" s="108"/>
-      <c r="C13" s="109"/>
-      <c r="D13" s="110"/>
+      <c r="A13" s="117"/>
+      <c r="B13" s="117"/>
+      <c r="C13" s="118"/>
+      <c r="D13" s="119"/>
       <c r="E13" s="27">
         <v>17</v>
       </c>
@@ -2708,20 +2734,20 @@
       <c r="T13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U13" s="106"/>
-      <c r="V13" s="106"/>
-      <c r="W13" s="100"/>
-      <c r="X13" s="148"/>
-      <c r="Y13" s="99" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z13" s="163"/>
+      <c r="U13" s="121"/>
+      <c r="V13" s="121"/>
+      <c r="W13" s="124"/>
+      <c r="X13" s="151"/>
+      <c r="Y13" s="123" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z13" s="166"/>
     </row>
     <row r="14" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="108"/>
-      <c r="B14" s="108"/>
-      <c r="C14" s="109"/>
-      <c r="D14" s="110"/>
+      <c r="A14" s="117"/>
+      <c r="B14" s="117"/>
+      <c r="C14" s="118"/>
+      <c r="D14" s="119"/>
       <c r="E14" s="26" t="s">
         <v>88</v>
       </c>
@@ -2770,18 +2796,18 @@
       <c r="T14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="107"/>
-      <c r="V14" s="107"/>
-      <c r="W14" s="101"/>
-      <c r="X14" s="149"/>
-      <c r="Y14" s="101"/>
-      <c r="Z14" s="163"/>
+      <c r="U14" s="122"/>
+      <c r="V14" s="122"/>
+      <c r="W14" s="125"/>
+      <c r="X14" s="152"/>
+      <c r="Y14" s="125"/>
+      <c r="Z14" s="166"/>
     </row>
     <row r="15" spans="1:26" s="64" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="103" t="s">
+      <c r="B15" s="127" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="103"/>
+      <c r="C15" s="127"/>
       <c r="D15" s="66">
         <f>Мельницький!C36</f>
         <v>44531</v>
@@ -2845,6 +2871,18 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A6:Y6"/>
+    <mergeCell ref="A7:Y7"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:T10"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="Y9:Y10"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="Z9:Z10"/>
     <mergeCell ref="A11:A14"/>
@@ -2858,18 +2896,6 @@
     <mergeCell ref="Y11:Y12"/>
     <mergeCell ref="Z11:Z14"/>
     <mergeCell ref="Y13:Y14"/>
-    <mergeCell ref="A6:Y6"/>
-    <mergeCell ref="A7:Y7"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:T10"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="Y9:Y10"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -3057,147 +3083,147 @@
       <c r="X6" s="19"/>
     </row>
     <row r="7" spans="1:27" ht="20" x14ac:dyDescent="0.35">
-      <c r="A7" s="115" t="s">
+      <c r="A7" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="115"/>
-      <c r="C7" s="115"/>
-      <c r="D7" s="115"/>
-      <c r="E7" s="115"/>
-      <c r="F7" s="115"/>
-      <c r="G7" s="115"/>
-      <c r="H7" s="115"/>
-      <c r="I7" s="115"/>
-      <c r="J7" s="115"/>
-      <c r="K7" s="115"/>
-      <c r="L7" s="115"/>
-      <c r="M7" s="115"/>
-      <c r="N7" s="115"/>
-      <c r="O7" s="115"/>
-      <c r="P7" s="115"/>
-      <c r="Q7" s="115"/>
-      <c r="R7" s="115"/>
-      <c r="S7" s="115"/>
-      <c r="T7" s="115"/>
-      <c r="U7" s="115"/>
-      <c r="V7" s="115"/>
-      <c r="W7" s="115"/>
-      <c r="X7" s="115"/>
+      <c r="B7" s="106"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="106"/>
+      <c r="E7" s="106"/>
+      <c r="F7" s="106"/>
+      <c r="G7" s="106"/>
+      <c r="H7" s="106"/>
+      <c r="I7" s="106"/>
+      <c r="J7" s="106"/>
+      <c r="K7" s="106"/>
+      <c r="L7" s="106"/>
+      <c r="M7" s="106"/>
+      <c r="N7" s="106"/>
+      <c r="O7" s="106"/>
+      <c r="P7" s="106"/>
+      <c r="Q7" s="106"/>
+      <c r="R7" s="106"/>
+      <c r="S7" s="106"/>
+      <c r="T7" s="106"/>
+      <c r="U7" s="106"/>
+      <c r="V7" s="106"/>
+      <c r="W7" s="106"/>
+      <c r="X7" s="106"/>
     </row>
     <row r="8" spans="1:27" ht="20" x14ac:dyDescent="0.35">
-      <c r="A8" s="115" t="str">
+      <c r="A8" s="106" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ЛИСТОПАД 2021р.</v>
       </c>
-      <c r="B8" s="115"/>
-      <c r="C8" s="115"/>
-      <c r="D8" s="115"/>
-      <c r="E8" s="115"/>
-      <c r="F8" s="115"/>
-      <c r="G8" s="115"/>
-      <c r="H8" s="115"/>
-      <c r="I8" s="115"/>
-      <c r="J8" s="115"/>
-      <c r="K8" s="115"/>
-      <c r="L8" s="115"/>
-      <c r="M8" s="115"/>
-      <c r="N8" s="115"/>
-      <c r="O8" s="115"/>
-      <c r="P8" s="115"/>
-      <c r="Q8" s="115"/>
-      <c r="R8" s="115"/>
-      <c r="S8" s="115"/>
-      <c r="T8" s="115"/>
-      <c r="U8" s="115"/>
-      <c r="V8" s="115"/>
-      <c r="W8" s="115"/>
-      <c r="X8" s="115"/>
+      <c r="B8" s="106"/>
+      <c r="C8" s="106"/>
+      <c r="D8" s="106"/>
+      <c r="E8" s="106"/>
+      <c r="F8" s="106"/>
+      <c r="G8" s="106"/>
+      <c r="H8" s="106"/>
+      <c r="I8" s="106"/>
+      <c r="J8" s="106"/>
+      <c r="K8" s="106"/>
+      <c r="L8" s="106"/>
+      <c r="M8" s="106"/>
+      <c r="N8" s="106"/>
+      <c r="O8" s="106"/>
+      <c r="P8" s="106"/>
+      <c r="Q8" s="106"/>
+      <c r="R8" s="106"/>
+      <c r="S8" s="106"/>
+      <c r="T8" s="106"/>
+      <c r="U8" s="106"/>
+      <c r="V8" s="106"/>
+      <c r="W8" s="106"/>
+      <c r="X8" s="106"/>
     </row>
     <row r="9" spans="1:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="117" t="s">
+      <c r="A9" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="118" t="s">
+      <c r="B9" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="117" t="s">
+      <c r="C9" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="117" t="s">
+      <c r="D9" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="117" t="s">
+      <c r="E9" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="117"/>
-      <c r="G9" s="117"/>
-      <c r="H9" s="117"/>
-      <c r="I9" s="117"/>
-      <c r="J9" s="117"/>
-      <c r="K9" s="117"/>
-      <c r="L9" s="117"/>
-      <c r="M9" s="117"/>
-      <c r="N9" s="117"/>
-      <c r="O9" s="117"/>
-      <c r="P9" s="117"/>
-      <c r="Q9" s="117"/>
-      <c r="R9" s="117"/>
-      <c r="S9" s="117"/>
-      <c r="T9" s="117"/>
-      <c r="U9" s="125" t="s">
+      <c r="F9" s="108"/>
+      <c r="G9" s="108"/>
+      <c r="H9" s="108"/>
+      <c r="I9" s="108"/>
+      <c r="J9" s="108"/>
+      <c r="K9" s="108"/>
+      <c r="L9" s="108"/>
+      <c r="M9" s="108"/>
+      <c r="N9" s="108"/>
+      <c r="O9" s="108"/>
+      <c r="P9" s="108"/>
+      <c r="Q9" s="108"/>
+      <c r="R9" s="108"/>
+      <c r="S9" s="108"/>
+      <c r="T9" s="108"/>
+      <c r="U9" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="V9" s="125" t="s">
+      <c r="V9" s="116" t="s">
         <v>6</v>
       </c>
-      <c r="W9" s="125" t="s">
+      <c r="W9" s="116" t="s">
         <v>14</v>
       </c>
-      <c r="X9" s="125" t="s">
+      <c r="X9" s="116" t="s">
         <v>7</v>
       </c>
-      <c r="Y9" s="111" t="s">
+      <c r="Y9" s="102" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:27" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="117"/>
-      <c r="B10" s="118"/>
-      <c r="C10" s="117"/>
-      <c r="D10" s="117"/>
-      <c r="E10" s="117"/>
-      <c r="F10" s="117"/>
-      <c r="G10" s="117"/>
-      <c r="H10" s="117"/>
-      <c r="I10" s="117"/>
-      <c r="J10" s="117"/>
-      <c r="K10" s="117"/>
-      <c r="L10" s="117"/>
-      <c r="M10" s="117"/>
-      <c r="N10" s="117"/>
-      <c r="O10" s="117"/>
-      <c r="P10" s="117"/>
-      <c r="Q10" s="117"/>
-      <c r="R10" s="117"/>
-      <c r="S10" s="117"/>
-      <c r="T10" s="117"/>
-      <c r="U10" s="125"/>
-      <c r="V10" s="125"/>
-      <c r="W10" s="125"/>
-      <c r="X10" s="125"/>
-      <c r="Y10" s="111"/>
+      <c r="A10" s="108"/>
+      <c r="B10" s="109"/>
+      <c r="C10" s="108"/>
+      <c r="D10" s="108"/>
+      <c r="E10" s="108"/>
+      <c r="F10" s="108"/>
+      <c r="G10" s="108"/>
+      <c r="H10" s="108"/>
+      <c r="I10" s="108"/>
+      <c r="J10" s="108"/>
+      <c r="K10" s="108"/>
+      <c r="L10" s="108"/>
+      <c r="M10" s="108"/>
+      <c r="N10" s="108"/>
+      <c r="O10" s="108"/>
+      <c r="P10" s="108"/>
+      <c r="Q10" s="108"/>
+      <c r="R10" s="108"/>
+      <c r="S10" s="108"/>
+      <c r="T10" s="108"/>
+      <c r="U10" s="116"/>
+      <c r="V10" s="116"/>
+      <c r="W10" s="116"/>
+      <c r="X10" s="116"/>
+      <c r="Y10" s="102"/>
     </row>
     <row r="11" spans="1:27" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="108">
+      <c r="A11" s="117">
         <v>1</v>
       </c>
-      <c r="B11" s="108">
+      <c r="B11" s="117">
         <v>1</v>
       </c>
-      <c r="C11" s="109" t="s">
+      <c r="C11" s="118" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="110" t="s">
+      <c r="D11" s="119" t="s">
         <v>56</v>
       </c>
       <c r="E11" s="25">
@@ -3248,29 +3274,29 @@
       <c r="T11" s="25">
         <v>16</v>
       </c>
-      <c r="U11" s="105" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="105" t="s">
-        <v>8</v>
-      </c>
-      <c r="W11" s="99" t="s">
-        <v>8</v>
-      </c>
-      <c r="X11" s="99">
+      <c r="U11" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11" s="123" t="s">
+        <v>8</v>
+      </c>
+      <c r="X11" s="123">
         <v>21</v>
       </c>
-      <c r="Y11" s="99"/>
+      <c r="Y11" s="123"/>
       <c r="Z11" s="3">
         <f>SUM(E12:T12)</f>
         <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:27" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="108"/>
-      <c r="B12" s="108"/>
-      <c r="C12" s="109"/>
-      <c r="D12" s="110"/>
+      <c r="A12" s="117"/>
+      <c r="B12" s="117"/>
+      <c r="C12" s="118"/>
+      <c r="D12" s="119"/>
       <c r="E12" s="26" t="s">
         <v>13</v>
       </c>
@@ -3319,17 +3345,17 @@
       <c r="T12" s="26">
         <v>2</v>
       </c>
-      <c r="U12" s="106"/>
-      <c r="V12" s="106"/>
-      <c r="W12" s="100"/>
-      <c r="X12" s="100"/>
-      <c r="Y12" s="100"/>
+      <c r="U12" s="121"/>
+      <c r="V12" s="121"/>
+      <c r="W12" s="124"/>
+      <c r="X12" s="124"/>
+      <c r="Y12" s="124"/>
     </row>
     <row r="13" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="108"/>
-      <c r="B13" s="108"/>
-      <c r="C13" s="109"/>
-      <c r="D13" s="110"/>
+      <c r="A13" s="117"/>
+      <c r="B13" s="117"/>
+      <c r="C13" s="118"/>
+      <c r="D13" s="119"/>
       <c r="E13" s="27">
         <v>17</v>
       </c>
@@ -3378,23 +3404,23 @@
       <c r="T13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U13" s="106"/>
-      <c r="V13" s="106"/>
-      <c r="W13" s="100"/>
-      <c r="X13" s="100">
+      <c r="U13" s="121"/>
+      <c r="V13" s="121"/>
+      <c r="W13" s="124"/>
+      <c r="X13" s="124">
         <v>42</v>
       </c>
-      <c r="Y13" s="100"/>
+      <c r="Y13" s="124"/>
       <c r="AA13" s="2">
         <f>Z11+Z14</f>
         <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="108"/>
-      <c r="B14" s="108"/>
-      <c r="C14" s="109"/>
-      <c r="D14" s="110"/>
+      <c r="A14" s="117"/>
+      <c r="B14" s="117"/>
+      <c r="C14" s="118"/>
+      <c r="D14" s="119"/>
       <c r="E14" s="26">
         <v>2</v>
       </c>
@@ -3443,11 +3469,11 @@
       <c r="T14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="107"/>
-      <c r="V14" s="107"/>
-      <c r="W14" s="101"/>
-      <c r="X14" s="101"/>
-      <c r="Y14" s="101"/>
+      <c r="U14" s="122"/>
+      <c r="V14" s="122"/>
+      <c r="W14" s="125"/>
+      <c r="X14" s="125"/>
+      <c r="Y14" s="125"/>
       <c r="Z14" s="3">
         <f>SUM(E14:T14)</f>
         <v>22</v>
@@ -3573,6 +3599,20 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A7:X7"/>
+    <mergeCell ref="A8:X8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:T10"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="U11:U14"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="W9:W10"/>
     <mergeCell ref="X9:X10"/>
@@ -3582,20 +3622,6 @@
     <mergeCell ref="X11:X12"/>
     <mergeCell ref="X13:X14"/>
     <mergeCell ref="Y11:Y14"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="U11:U14"/>
-    <mergeCell ref="A7:X7"/>
-    <mergeCell ref="A8:X8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:T10"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="V9:V10"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="99" orientation="landscape" r:id="rId1"/>
@@ -3783,147 +3809,147 @@
       <c r="X6" s="19"/>
     </row>
     <row r="7" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A7" s="115" t="s">
+      <c r="A7" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="115"/>
-      <c r="C7" s="115"/>
-      <c r="D7" s="115"/>
-      <c r="E7" s="115"/>
-      <c r="F7" s="115"/>
-      <c r="G7" s="115"/>
-      <c r="H7" s="115"/>
-      <c r="I7" s="115"/>
-      <c r="J7" s="115"/>
-      <c r="K7" s="115"/>
-      <c r="L7" s="115"/>
-      <c r="M7" s="115"/>
-      <c r="N7" s="115"/>
-      <c r="O7" s="115"/>
-      <c r="P7" s="115"/>
-      <c r="Q7" s="115"/>
-      <c r="R7" s="115"/>
-      <c r="S7" s="115"/>
-      <c r="T7" s="115"/>
-      <c r="U7" s="115"/>
-      <c r="V7" s="115"/>
-      <c r="W7" s="115"/>
-      <c r="X7" s="115"/>
+      <c r="B7" s="106"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="106"/>
+      <c r="E7" s="106"/>
+      <c r="F7" s="106"/>
+      <c r="G7" s="106"/>
+      <c r="H7" s="106"/>
+      <c r="I7" s="106"/>
+      <c r="J7" s="106"/>
+      <c r="K7" s="106"/>
+      <c r="L7" s="106"/>
+      <c r="M7" s="106"/>
+      <c r="N7" s="106"/>
+      <c r="O7" s="106"/>
+      <c r="P7" s="106"/>
+      <c r="Q7" s="106"/>
+      <c r="R7" s="106"/>
+      <c r="S7" s="106"/>
+      <c r="T7" s="106"/>
+      <c r="U7" s="106"/>
+      <c r="V7" s="106"/>
+      <c r="W7" s="106"/>
+      <c r="X7" s="106"/>
     </row>
     <row r="8" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A8" s="115" t="str">
+      <c r="A8" s="106" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ЛИСТОПАД 2021р.</v>
       </c>
-      <c r="B8" s="115"/>
-      <c r="C8" s="115"/>
-      <c r="D8" s="115"/>
-      <c r="E8" s="115"/>
-      <c r="F8" s="115"/>
-      <c r="G8" s="115"/>
-      <c r="H8" s="115"/>
-      <c r="I8" s="115"/>
-      <c r="J8" s="115"/>
-      <c r="K8" s="115"/>
-      <c r="L8" s="115"/>
-      <c r="M8" s="115"/>
-      <c r="N8" s="115"/>
-      <c r="O8" s="115"/>
-      <c r="P8" s="115"/>
-      <c r="Q8" s="115"/>
-      <c r="R8" s="115"/>
-      <c r="S8" s="115"/>
-      <c r="T8" s="115"/>
-      <c r="U8" s="115"/>
-      <c r="V8" s="115"/>
-      <c r="W8" s="115"/>
-      <c r="X8" s="115"/>
+      <c r="B8" s="106"/>
+      <c r="C8" s="106"/>
+      <c r="D8" s="106"/>
+      <c r="E8" s="106"/>
+      <c r="F8" s="106"/>
+      <c r="G8" s="106"/>
+      <c r="H8" s="106"/>
+      <c r="I8" s="106"/>
+      <c r="J8" s="106"/>
+      <c r="K8" s="106"/>
+      <c r="L8" s="106"/>
+      <c r="M8" s="106"/>
+      <c r="N8" s="106"/>
+      <c r="O8" s="106"/>
+      <c r="P8" s="106"/>
+      <c r="Q8" s="106"/>
+      <c r="R8" s="106"/>
+      <c r="S8" s="106"/>
+      <c r="T8" s="106"/>
+      <c r="U8" s="106"/>
+      <c r="V8" s="106"/>
+      <c r="W8" s="106"/>
+      <c r="X8" s="106"/>
     </row>
     <row r="9" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="117" t="s">
+      <c r="A9" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="118" t="s">
+      <c r="B9" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="117" t="s">
+      <c r="C9" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="117" t="s">
+      <c r="D9" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="117" t="s">
+      <c r="E9" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="117"/>
-      <c r="G9" s="117"/>
-      <c r="H9" s="117"/>
-      <c r="I9" s="117"/>
-      <c r="J9" s="117"/>
-      <c r="K9" s="117"/>
-      <c r="L9" s="117"/>
-      <c r="M9" s="117"/>
-      <c r="N9" s="117"/>
-      <c r="O9" s="117"/>
-      <c r="P9" s="117"/>
-      <c r="Q9" s="117"/>
-      <c r="R9" s="117"/>
-      <c r="S9" s="117"/>
-      <c r="T9" s="117"/>
-      <c r="U9" s="125" t="s">
+      <c r="F9" s="108"/>
+      <c r="G9" s="108"/>
+      <c r="H9" s="108"/>
+      <c r="I9" s="108"/>
+      <c r="J9" s="108"/>
+      <c r="K9" s="108"/>
+      <c r="L9" s="108"/>
+      <c r="M9" s="108"/>
+      <c r="N9" s="108"/>
+      <c r="O9" s="108"/>
+      <c r="P9" s="108"/>
+      <c r="Q9" s="108"/>
+      <c r="R9" s="108"/>
+      <c r="S9" s="108"/>
+      <c r="T9" s="108"/>
+      <c r="U9" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="V9" s="125" t="s">
+      <c r="V9" s="116" t="s">
         <v>6</v>
       </c>
-      <c r="W9" s="125" t="s">
+      <c r="W9" s="116" t="s">
         <v>14</v>
       </c>
-      <c r="X9" s="125" t="s">
+      <c r="X9" s="116" t="s">
         <v>7</v>
       </c>
-      <c r="Y9" s="111" t="s">
+      <c r="Y9" s="102" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="117"/>
-      <c r="B10" s="118"/>
-      <c r="C10" s="117"/>
-      <c r="D10" s="117"/>
-      <c r="E10" s="117"/>
-      <c r="F10" s="117"/>
-      <c r="G10" s="117"/>
-      <c r="H10" s="117"/>
-      <c r="I10" s="117"/>
-      <c r="J10" s="117"/>
-      <c r="K10" s="117"/>
-      <c r="L10" s="117"/>
-      <c r="M10" s="117"/>
-      <c r="N10" s="117"/>
-      <c r="O10" s="117"/>
-      <c r="P10" s="117"/>
-      <c r="Q10" s="117"/>
-      <c r="R10" s="117"/>
-      <c r="S10" s="117"/>
-      <c r="T10" s="117"/>
-      <c r="U10" s="125"/>
-      <c r="V10" s="125"/>
-      <c r="W10" s="125"/>
-      <c r="X10" s="125"/>
-      <c r="Y10" s="111"/>
+      <c r="A10" s="108"/>
+      <c r="B10" s="109"/>
+      <c r="C10" s="108"/>
+      <c r="D10" s="108"/>
+      <c r="E10" s="108"/>
+      <c r="F10" s="108"/>
+      <c r="G10" s="108"/>
+      <c r="H10" s="108"/>
+      <c r="I10" s="108"/>
+      <c r="J10" s="108"/>
+      <c r="K10" s="108"/>
+      <c r="L10" s="108"/>
+      <c r="M10" s="108"/>
+      <c r="N10" s="108"/>
+      <c r="O10" s="108"/>
+      <c r="P10" s="108"/>
+      <c r="Q10" s="108"/>
+      <c r="R10" s="108"/>
+      <c r="S10" s="108"/>
+      <c r="T10" s="108"/>
+      <c r="U10" s="116"/>
+      <c r="V10" s="116"/>
+      <c r="W10" s="116"/>
+      <c r="X10" s="116"/>
+      <c r="Y10" s="102"/>
     </row>
     <row r="11" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="108">
+      <c r="A11" s="117">
         <v>1</v>
       </c>
-      <c r="B11" s="108">
+      <c r="B11" s="117">
         <v>1</v>
       </c>
-      <c r="C11" s="109" t="s">
+      <c r="C11" s="118" t="s">
         <v>62</v>
       </c>
-      <c r="D11" s="110" t="s">
+      <c r="D11" s="119" t="s">
         <v>56</v>
       </c>
       <c r="E11" s="25">
@@ -3974,16 +4000,16 @@
       <c r="T11" s="25">
         <v>16</v>
       </c>
-      <c r="U11" s="105" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="105" t="s">
-        <v>8</v>
-      </c>
-      <c r="W11" s="99" t="s">
-        <v>8</v>
-      </c>
-      <c r="X11" s="99">
+      <c r="U11" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11" s="123" t="s">
+        <v>8</v>
+      </c>
+      <c r="X11" s="123">
         <v>21</v>
       </c>
       <c r="Y11" s="140"/>
@@ -3993,10 +4019,10 @@
       </c>
     </row>
     <row r="12" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="108"/>
-      <c r="B12" s="108"/>
-      <c r="C12" s="109"/>
-      <c r="D12" s="110"/>
+      <c r="A12" s="117"/>
+      <c r="B12" s="117"/>
+      <c r="C12" s="118"/>
+      <c r="D12" s="119"/>
       <c r="E12" s="26" t="s">
         <v>13</v>
       </c>
@@ -4045,17 +4071,17 @@
       <c r="T12" s="26">
         <v>2</v>
       </c>
-      <c r="U12" s="106"/>
-      <c r="V12" s="106"/>
-      <c r="W12" s="100"/>
-      <c r="X12" s="101"/>
+      <c r="U12" s="121"/>
+      <c r="V12" s="121"/>
+      <c r="W12" s="124"/>
+      <c r="X12" s="125"/>
       <c r="Y12" s="141"/>
     </row>
     <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="108"/>
-      <c r="B13" s="108"/>
-      <c r="C13" s="109"/>
-      <c r="D13" s="110"/>
+      <c r="A13" s="117"/>
+      <c r="B13" s="117"/>
+      <c r="C13" s="118"/>
+      <c r="D13" s="119"/>
       <c r="E13" s="27">
         <v>17</v>
       </c>
@@ -4104,20 +4130,20 @@
       <c r="T13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U13" s="106"/>
-      <c r="V13" s="106"/>
-      <c r="W13" s="100"/>
-      <c r="X13" s="99">
+      <c r="U13" s="121"/>
+      <c r="V13" s="121"/>
+      <c r="W13" s="124"/>
+      <c r="X13" s="123">
         <f>Z11+Z14</f>
         <v>42</v>
       </c>
       <c r="Y13" s="141"/>
     </row>
     <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="108"/>
-      <c r="B14" s="108"/>
-      <c r="C14" s="109"/>
-      <c r="D14" s="110"/>
+      <c r="A14" s="117"/>
+      <c r="B14" s="117"/>
+      <c r="C14" s="118"/>
+      <c r="D14" s="119"/>
       <c r="E14" s="26">
         <v>2</v>
       </c>
@@ -4166,10 +4192,10 @@
       <c r="T14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="107"/>
-      <c r="V14" s="107"/>
-      <c r="W14" s="101"/>
-      <c r="X14" s="101"/>
+      <c r="U14" s="122"/>
+      <c r="V14" s="122"/>
+      <c r="W14" s="125"/>
+      <c r="X14" s="125"/>
       <c r="Y14" s="142"/>
       <c r="Z14" s="3">
         <f>SUM(E14:T14)</f>
@@ -4296,6 +4322,19 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="Y11:Y14"/>
+    <mergeCell ref="X13:X14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="V11:V14"/>
+    <mergeCell ref="W11:W14"/>
+    <mergeCell ref="X11:X12"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="U11:U14"/>
     <mergeCell ref="A7:X7"/>
     <mergeCell ref="A8:X8"/>
     <mergeCell ref="A9:A10"/>
@@ -4306,19 +4345,6 @@
     <mergeCell ref="U9:U10"/>
     <mergeCell ref="V9:V10"/>
     <mergeCell ref="W9:W10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="U11:U14"/>
-    <mergeCell ref="Y11:Y14"/>
-    <mergeCell ref="X13:X14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="V11:V14"/>
-    <mergeCell ref="W11:W14"/>
-    <mergeCell ref="X11:X12"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="99" orientation="landscape" r:id="rId1"/>
@@ -4347,12 +4373,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
       <c r="Q1" s="15" t="s">
         <v>40</v>
       </c>
@@ -4496,155 +4522,155 @@
       <c r="X6" s="19"/>
     </row>
     <row r="7" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A7" s="115" t="s">
+      <c r="A7" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="115"/>
-      <c r="C7" s="115"/>
-      <c r="D7" s="115"/>
-      <c r="E7" s="115"/>
-      <c r="F7" s="115"/>
-      <c r="G7" s="115"/>
-      <c r="H7" s="115"/>
-      <c r="I7" s="115"/>
-      <c r="J7" s="115"/>
-      <c r="K7" s="115"/>
-      <c r="L7" s="115"/>
-      <c r="M7" s="115"/>
-      <c r="N7" s="115"/>
-      <c r="O7" s="115"/>
-      <c r="P7" s="115"/>
-      <c r="Q7" s="115"/>
-      <c r="R7" s="115"/>
-      <c r="S7" s="115"/>
-      <c r="T7" s="115"/>
-      <c r="U7" s="115"/>
-      <c r="V7" s="115"/>
-      <c r="W7" s="115"/>
-      <c r="X7" s="115"/>
-      <c r="Y7" s="115"/>
-      <c r="Z7" s="115"/>
+      <c r="B7" s="106"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="106"/>
+      <c r="E7" s="106"/>
+      <c r="F7" s="106"/>
+      <c r="G7" s="106"/>
+      <c r="H7" s="106"/>
+      <c r="I7" s="106"/>
+      <c r="J7" s="106"/>
+      <c r="K7" s="106"/>
+      <c r="L7" s="106"/>
+      <c r="M7" s="106"/>
+      <c r="N7" s="106"/>
+      <c r="O7" s="106"/>
+      <c r="P7" s="106"/>
+      <c r="Q7" s="106"/>
+      <c r="R7" s="106"/>
+      <c r="S7" s="106"/>
+      <c r="T7" s="106"/>
+      <c r="U7" s="106"/>
+      <c r="V7" s="106"/>
+      <c r="W7" s="106"/>
+      <c r="X7" s="106"/>
+      <c r="Y7" s="106"/>
+      <c r="Z7" s="106"/>
     </row>
     <row r="8" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A8" s="116" t="str">
+      <c r="A8" s="107" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ЛИСТОПАД 2021р.</v>
       </c>
-      <c r="B8" s="116"/>
-      <c r="C8" s="116"/>
-      <c r="D8" s="116"/>
-      <c r="E8" s="116"/>
-      <c r="F8" s="116"/>
-      <c r="G8" s="116"/>
-      <c r="H8" s="116"/>
-      <c r="I8" s="116"/>
-      <c r="J8" s="116"/>
-      <c r="K8" s="116"/>
-      <c r="L8" s="116"/>
-      <c r="M8" s="116"/>
-      <c r="N8" s="116"/>
-      <c r="O8" s="116"/>
-      <c r="P8" s="116"/>
-      <c r="Q8" s="116"/>
-      <c r="R8" s="116"/>
-      <c r="S8" s="116"/>
-      <c r="T8" s="116"/>
-      <c r="U8" s="116"/>
-      <c r="V8" s="116"/>
-      <c r="W8" s="116"/>
-      <c r="X8" s="116"/>
-      <c r="Y8" s="116"/>
-      <c r="Z8" s="116"/>
+      <c r="B8" s="107"/>
+      <c r="C8" s="107"/>
+      <c r="D8" s="107"/>
+      <c r="E8" s="107"/>
+      <c r="F8" s="107"/>
+      <c r="G8" s="107"/>
+      <c r="H8" s="107"/>
+      <c r="I8" s="107"/>
+      <c r="J8" s="107"/>
+      <c r="K8" s="107"/>
+      <c r="L8" s="107"/>
+      <c r="M8" s="107"/>
+      <c r="N8" s="107"/>
+      <c r="O8" s="107"/>
+      <c r="P8" s="107"/>
+      <c r="Q8" s="107"/>
+      <c r="R8" s="107"/>
+      <c r="S8" s="107"/>
+      <c r="T8" s="107"/>
+      <c r="U8" s="107"/>
+      <c r="V8" s="107"/>
+      <c r="W8" s="107"/>
+      <c r="X8" s="107"/>
+      <c r="Y8" s="107"/>
+      <c r="Z8" s="107"/>
     </row>
     <row r="9" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="117" t="s">
+      <c r="A9" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="118" t="s">
+      <c r="B9" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="117" t="s">
+      <c r="C9" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="117" t="s">
+      <c r="D9" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="117" t="s">
+      <c r="E9" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="117"/>
-      <c r="G9" s="117"/>
-      <c r="H9" s="117"/>
-      <c r="I9" s="117"/>
-      <c r="J9" s="117"/>
-      <c r="K9" s="117"/>
-      <c r="L9" s="117"/>
-      <c r="M9" s="117"/>
-      <c r="N9" s="117"/>
-      <c r="O9" s="117"/>
-      <c r="P9" s="117"/>
-      <c r="Q9" s="117"/>
-      <c r="R9" s="117"/>
-      <c r="S9" s="117"/>
-      <c r="T9" s="117"/>
-      <c r="U9" s="125" t="s">
+      <c r="F9" s="108"/>
+      <c r="G9" s="108"/>
+      <c r="H9" s="108"/>
+      <c r="I9" s="108"/>
+      <c r="J9" s="108"/>
+      <c r="K9" s="108"/>
+      <c r="L9" s="108"/>
+      <c r="M9" s="108"/>
+      <c r="N9" s="108"/>
+      <c r="O9" s="108"/>
+      <c r="P9" s="108"/>
+      <c r="Q9" s="108"/>
+      <c r="R9" s="108"/>
+      <c r="S9" s="108"/>
+      <c r="T9" s="108"/>
+      <c r="U9" s="116" t="s">
         <v>48</v>
       </c>
-      <c r="V9" s="125" t="s">
+      <c r="V9" s="116" t="s">
         <v>49</v>
       </c>
-      <c r="W9" s="125" t="s">
+      <c r="W9" s="116" t="s">
         <v>50</v>
       </c>
-      <c r="X9" s="125" t="s">
+      <c r="X9" s="116" t="s">
         <v>47</v>
       </c>
-      <c r="Y9" s="125" t="s">
+      <c r="Y9" s="116" t="s">
         <v>46</v>
       </c>
-      <c r="Z9" s="111" t="s">
+      <c r="Z9" s="102" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="117"/>
-      <c r="B10" s="118"/>
-      <c r="C10" s="117"/>
-      <c r="D10" s="117"/>
-      <c r="E10" s="117"/>
-      <c r="F10" s="117"/>
-      <c r="G10" s="117"/>
-      <c r="H10" s="117"/>
-      <c r="I10" s="117"/>
-      <c r="J10" s="117"/>
-      <c r="K10" s="117"/>
-      <c r="L10" s="117"/>
-      <c r="M10" s="117"/>
-      <c r="N10" s="117"/>
-      <c r="O10" s="117"/>
-      <c r="P10" s="117"/>
-      <c r="Q10" s="117"/>
-      <c r="R10" s="117"/>
-      <c r="S10" s="117"/>
-      <c r="T10" s="117"/>
-      <c r="U10" s="125"/>
-      <c r="V10" s="125"/>
-      <c r="W10" s="125"/>
-      <c r="X10" s="125"/>
-      <c r="Y10" s="125"/>
-      <c r="Z10" s="111"/>
+      <c r="A10" s="108"/>
+      <c r="B10" s="109"/>
+      <c r="C10" s="108"/>
+      <c r="D10" s="108"/>
+      <c r="E10" s="108"/>
+      <c r="F10" s="108"/>
+      <c r="G10" s="108"/>
+      <c r="H10" s="108"/>
+      <c r="I10" s="108"/>
+      <c r="J10" s="108"/>
+      <c r="K10" s="108"/>
+      <c r="L10" s="108"/>
+      <c r="M10" s="108"/>
+      <c r="N10" s="108"/>
+      <c r="O10" s="108"/>
+      <c r="P10" s="108"/>
+      <c r="Q10" s="108"/>
+      <c r="R10" s="108"/>
+      <c r="S10" s="108"/>
+      <c r="T10" s="108"/>
+      <c r="U10" s="116"/>
+      <c r="V10" s="116"/>
+      <c r="W10" s="116"/>
+      <c r="X10" s="116"/>
+      <c r="Y10" s="116"/>
+      <c r="Z10" s="102"/>
     </row>
     <row r="11" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="108">
+      <c r="A11" s="117">
         <v>1</v>
       </c>
-      <c r="B11" s="108">
+      <c r="B11" s="117">
         <v>2</v>
       </c>
-      <c r="C11" s="126" t="s">
+      <c r="C11" s="129" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="127" t="s">
+      <c r="D11" s="130" t="s">
         <v>38</v>
       </c>
       <c r="E11" s="25">
@@ -4695,28 +4721,28 @@
       <c r="T11" s="25">
         <v>16</v>
       </c>
-      <c r="U11" s="105" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="105" t="s">
-        <v>8</v>
-      </c>
-      <c r="W11" s="99" t="s">
+      <c r="U11" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11" s="123" t="s">
         <v>8</v>
       </c>
       <c r="X11" s="22"/>
-      <c r="Y11" s="99">
+      <c r="Y11" s="123">
         <v>21</v>
       </c>
-      <c r="Z11" s="102">
+      <c r="Z11" s="126">
         <v>3232</v>
       </c>
     </row>
     <row r="12" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="108"/>
-      <c r="B12" s="108"/>
-      <c r="C12" s="126"/>
-      <c r="D12" s="127"/>
+      <c r="A12" s="117"/>
+      <c r="B12" s="117"/>
+      <c r="C12" s="129"/>
+      <c r="D12" s="130"/>
       <c r="E12" s="26" t="s">
         <v>13</v>
       </c>
@@ -4765,18 +4791,18 @@
       <c r="T12" s="26">
         <v>2</v>
       </c>
-      <c r="U12" s="106"/>
-      <c r="V12" s="106"/>
-      <c r="W12" s="100"/>
+      <c r="U12" s="121"/>
+      <c r="V12" s="121"/>
+      <c r="W12" s="124"/>
       <c r="X12" s="23"/>
-      <c r="Y12" s="101"/>
-      <c r="Z12" s="102"/>
+      <c r="Y12" s="125"/>
+      <c r="Z12" s="126"/>
     </row>
     <row r="13" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="108"/>
-      <c r="B13" s="108"/>
-      <c r="C13" s="126"/>
-      <c r="D13" s="127"/>
+      <c r="A13" s="117"/>
+      <c r="B13" s="117"/>
+      <c r="C13" s="129"/>
+      <c r="D13" s="130"/>
       <c r="E13" s="27">
         <v>17</v>
       </c>
@@ -4825,20 +4851,20 @@
       <c r="T13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U13" s="106"/>
-      <c r="V13" s="106"/>
-      <c r="W13" s="100"/>
+      <c r="U13" s="121"/>
+      <c r="V13" s="121"/>
+      <c r="W13" s="124"/>
       <c r="X13" s="23"/>
-      <c r="Y13" s="99">
+      <c r="Y13" s="123">
         <v>42</v>
       </c>
-      <c r="Z13" s="102"/>
+      <c r="Z13" s="126"/>
     </row>
     <row r="14" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="108"/>
-      <c r="B14" s="108"/>
-      <c r="C14" s="126"/>
-      <c r="D14" s="127"/>
+      <c r="A14" s="117"/>
+      <c r="B14" s="117"/>
+      <c r="C14" s="129"/>
+      <c r="D14" s="130"/>
       <c r="E14" s="26">
         <v>2</v>
       </c>
@@ -4887,18 +4913,18 @@
       <c r="T14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="107"/>
-      <c r="V14" s="107"/>
-      <c r="W14" s="101"/>
+      <c r="U14" s="122"/>
+      <c r="V14" s="122"/>
+      <c r="W14" s="125"/>
       <c r="X14" s="24"/>
-      <c r="Y14" s="101"/>
-      <c r="Z14" s="102"/>
+      <c r="Y14" s="125"/>
+      <c r="Z14" s="126"/>
     </row>
     <row r="16" spans="1:26" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="B16" s="103" t="s">
+      <c r="B16" s="127" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="103"/>
+      <c r="C16" s="127"/>
       <c r="D16" s="30">
         <v>42916</v>
       </c>
@@ -4980,15 +5006,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="V11:V14"/>
-    <mergeCell ref="W11:W14"/>
     <mergeCell ref="Y11:Y12"/>
     <mergeCell ref="Z11:Z14"/>
     <mergeCell ref="Y13:Y14"/>
@@ -5005,6 +5022,15 @@
     <mergeCell ref="A11:A14"/>
     <mergeCell ref="Y9:Y10"/>
     <mergeCell ref="Z9:Z10"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="V11:V14"/>
+    <mergeCell ref="W11:W14"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -5017,7 +5043,7 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A2:AA44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
       <selection activeCell="X33" sqref="X33:X34"/>
     </sheetView>
   </sheetViews>
@@ -5037,11 +5063,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:27" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="112" t="s">
+      <c r="A2" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="112"/>
-      <c r="C2" s="112"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
       <c r="Q2" s="15" t="s">
         <v>40</v>
       </c>
@@ -5155,141 +5181,141 @@
       <c r="W6" s="18"/>
     </row>
     <row r="7" spans="1:27" ht="20" x14ac:dyDescent="0.35">
-      <c r="A7" s="115" t="s">
+      <c r="A7" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="115"/>
-      <c r="C7" s="115"/>
-      <c r="D7" s="115"/>
-      <c r="E7" s="115"/>
-      <c r="F7" s="115"/>
-      <c r="G7" s="115"/>
-      <c r="H7" s="115"/>
-      <c r="I7" s="115"/>
-      <c r="J7" s="115"/>
-      <c r="K7" s="115"/>
-      <c r="L7" s="115"/>
-      <c r="M7" s="115"/>
-      <c r="N7" s="115"/>
-      <c r="O7" s="115"/>
-      <c r="P7" s="115"/>
-      <c r="Q7" s="115"/>
-      <c r="R7" s="115"/>
-      <c r="S7" s="115"/>
-      <c r="T7" s="115"/>
-      <c r="U7" s="115"/>
-      <c r="V7" s="115"/>
-      <c r="W7" s="115"/>
+      <c r="B7" s="106"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="106"/>
+      <c r="E7" s="106"/>
+      <c r="F7" s="106"/>
+      <c r="G7" s="106"/>
+      <c r="H7" s="106"/>
+      <c r="I7" s="106"/>
+      <c r="J7" s="106"/>
+      <c r="K7" s="106"/>
+      <c r="L7" s="106"/>
+      <c r="M7" s="106"/>
+      <c r="N7" s="106"/>
+      <c r="O7" s="106"/>
+      <c r="P7" s="106"/>
+      <c r="Q7" s="106"/>
+      <c r="R7" s="106"/>
+      <c r="S7" s="106"/>
+      <c r="T7" s="106"/>
+      <c r="U7" s="106"/>
+      <c r="V7" s="106"/>
+      <c r="W7" s="106"/>
     </row>
     <row r="8" spans="1:27" ht="20" x14ac:dyDescent="0.35">
-      <c r="A8" s="115" t="s">
+      <c r="A8" s="106" t="s">
         <v>103</v>
       </c>
-      <c r="B8" s="115"/>
-      <c r="C8" s="115"/>
-      <c r="D8" s="115"/>
-      <c r="E8" s="115"/>
-      <c r="F8" s="115"/>
-      <c r="G8" s="115"/>
-      <c r="H8" s="115"/>
-      <c r="I8" s="115"/>
-      <c r="J8" s="115"/>
-      <c r="K8" s="115"/>
-      <c r="L8" s="115"/>
-      <c r="M8" s="115"/>
-      <c r="N8" s="115"/>
-      <c r="O8" s="115"/>
-      <c r="P8" s="115"/>
-      <c r="Q8" s="115"/>
-      <c r="R8" s="115"/>
-      <c r="S8" s="115"/>
-      <c r="T8" s="115"/>
-      <c r="U8" s="115"/>
-      <c r="V8" s="115"/>
-      <c r="W8" s="115"/>
+      <c r="B8" s="106"/>
+      <c r="C8" s="106"/>
+      <c r="D8" s="106"/>
+      <c r="E8" s="106"/>
+      <c r="F8" s="106"/>
+      <c r="G8" s="106"/>
+      <c r="H8" s="106"/>
+      <c r="I8" s="106"/>
+      <c r="J8" s="106"/>
+      <c r="K8" s="106"/>
+      <c r="L8" s="106"/>
+      <c r="M8" s="106"/>
+      <c r="N8" s="106"/>
+      <c r="O8" s="106"/>
+      <c r="P8" s="106"/>
+      <c r="Q8" s="106"/>
+      <c r="R8" s="106"/>
+      <c r="S8" s="106"/>
+      <c r="T8" s="106"/>
+      <c r="U8" s="106"/>
+      <c r="V8" s="106"/>
+      <c r="W8" s="106"/>
     </row>
     <row r="9" spans="1:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="117" t="s">
+      <c r="A9" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="117" t="s">
+      <c r="B9" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="117" t="s">
+      <c r="C9" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="117" t="s">
+      <c r="D9" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="117"/>
-      <c r="F9" s="117"/>
-      <c r="G9" s="117"/>
-      <c r="H9" s="117"/>
-      <c r="I9" s="117"/>
-      <c r="J9" s="117"/>
-      <c r="K9" s="117"/>
-      <c r="L9" s="117"/>
-      <c r="M9" s="117"/>
-      <c r="N9" s="117"/>
-      <c r="O9" s="117"/>
-      <c r="P9" s="117"/>
-      <c r="Q9" s="117"/>
-      <c r="R9" s="117"/>
-      <c r="S9" s="117"/>
-      <c r="T9" s="125" t="s">
+      <c r="E9" s="108"/>
+      <c r="F9" s="108"/>
+      <c r="G9" s="108"/>
+      <c r="H9" s="108"/>
+      <c r="I9" s="108"/>
+      <c r="J9" s="108"/>
+      <c r="K9" s="108"/>
+      <c r="L9" s="108"/>
+      <c r="M9" s="108"/>
+      <c r="N9" s="108"/>
+      <c r="O9" s="108"/>
+      <c r="P9" s="108"/>
+      <c r="Q9" s="108"/>
+      <c r="R9" s="108"/>
+      <c r="S9" s="108"/>
+      <c r="T9" s="116" t="s">
         <v>48</v>
       </c>
-      <c r="U9" s="125" t="s">
+      <c r="U9" s="116" t="s">
         <v>49</v>
       </c>
-      <c r="V9" s="125" t="s">
+      <c r="V9" s="116" t="s">
         <v>50</v>
       </c>
-      <c r="W9" s="125" t="s">
+      <c r="W9" s="116" t="s">
         <v>47</v>
       </c>
-      <c r="X9" s="125" t="s">
+      <c r="X9" s="116" t="s">
         <v>46</v>
       </c>
-      <c r="Y9" s="111" t="s">
+      <c r="Y9" s="102" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:27" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="117"/>
-      <c r="B10" s="117"/>
-      <c r="C10" s="117"/>
-      <c r="D10" s="117"/>
-      <c r="E10" s="117"/>
-      <c r="F10" s="117"/>
-      <c r="G10" s="117"/>
-      <c r="H10" s="117"/>
-      <c r="I10" s="117"/>
-      <c r="J10" s="117"/>
-      <c r="K10" s="117"/>
-      <c r="L10" s="117"/>
-      <c r="M10" s="117"/>
-      <c r="N10" s="117"/>
-      <c r="O10" s="117"/>
-      <c r="P10" s="117"/>
-      <c r="Q10" s="117"/>
-      <c r="R10" s="117"/>
-      <c r="S10" s="117"/>
-      <c r="T10" s="125"/>
-      <c r="U10" s="125"/>
-      <c r="V10" s="125"/>
-      <c r="W10" s="125"/>
-      <c r="X10" s="125"/>
-      <c r="Y10" s="111"/>
+      <c r="A10" s="108"/>
+      <c r="B10" s="108"/>
+      <c r="C10" s="108"/>
+      <c r="D10" s="108"/>
+      <c r="E10" s="108"/>
+      <c r="F10" s="108"/>
+      <c r="G10" s="108"/>
+      <c r="H10" s="108"/>
+      <c r="I10" s="108"/>
+      <c r="J10" s="108"/>
+      <c r="K10" s="108"/>
+      <c r="L10" s="108"/>
+      <c r="M10" s="108"/>
+      <c r="N10" s="108"/>
+      <c r="O10" s="108"/>
+      <c r="P10" s="108"/>
+      <c r="Q10" s="108"/>
+      <c r="R10" s="108"/>
+      <c r="S10" s="108"/>
+      <c r="T10" s="116"/>
+      <c r="U10" s="116"/>
+      <c r="V10" s="116"/>
+      <c r="W10" s="116"/>
+      <c r="X10" s="116"/>
+      <c r="Y10" s="102"/>
     </row>
     <row r="11" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="108">
+      <c r="A11" s="117">
         <v>1</v>
       </c>
-      <c r="B11" s="109" t="s">
+      <c r="B11" s="118" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="110" t="s">
+      <c r="C11" s="119" t="s">
         <v>15</v>
       </c>
       <c r="D11" s="25">
@@ -5340,27 +5366,27 @@
       <c r="S11" s="25">
         <v>16</v>
       </c>
-      <c r="T11" s="105" t="s">
-        <v>8</v>
-      </c>
-      <c r="U11" s="105" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="99" t="s">
+      <c r="T11" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="U11" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="123" t="s">
         <v>8</v>
       </c>
       <c r="W11" s="22"/>
-      <c r="X11" s="99">
+      <c r="X11" s="123">
         <v>22</v>
       </c>
-      <c r="Y11" s="102">
+      <c r="Y11" s="126">
         <v>6060</v>
       </c>
     </row>
     <row r="12" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="108"/>
-      <c r="B12" s="109"/>
-      <c r="C12" s="110"/>
+      <c r="A12" s="117"/>
+      <c r="B12" s="118"/>
+      <c r="C12" s="119"/>
       <c r="D12" s="26">
         <v>8</v>
       </c>
@@ -5409,21 +5435,21 @@
       <c r="S12" s="26">
         <v>8</v>
       </c>
-      <c r="T12" s="106"/>
-      <c r="U12" s="106"/>
-      <c r="V12" s="100"/>
+      <c r="T12" s="121"/>
+      <c r="U12" s="121"/>
+      <c r="V12" s="124"/>
       <c r="W12" s="23"/>
-      <c r="X12" s="101"/>
-      <c r="Y12" s="102"/>
+      <c r="X12" s="125"/>
+      <c r="Y12" s="126"/>
       <c r="Z12" s="2">
         <f>SUM(D12:S12)</f>
         <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="108"/>
-      <c r="B13" s="109"/>
-      <c r="C13" s="110"/>
+      <c r="A13" s="117"/>
+      <c r="B13" s="118"/>
+      <c r="C13" s="119"/>
       <c r="D13" s="27">
         <v>17</v>
       </c>
@@ -5472,24 +5498,24 @@
       <c r="S13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T13" s="106"/>
-      <c r="U13" s="106"/>
-      <c r="V13" s="100"/>
+      <c r="T13" s="121"/>
+      <c r="U13" s="121"/>
+      <c r="V13" s="124"/>
       <c r="W13" s="23"/>
-      <c r="X13" s="99">
+      <c r="X13" s="123">
         <f>Z12+Z14</f>
         <v>176</v>
       </c>
-      <c r="Y13" s="102"/>
+      <c r="Y13" s="126"/>
       <c r="AA13" s="2">
         <f>Z14+Z12</f>
         <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="108"/>
-      <c r="B14" s="109"/>
-      <c r="C14" s="110"/>
+      <c r="A14" s="117"/>
+      <c r="B14" s="118"/>
+      <c r="C14" s="119"/>
       <c r="D14" s="26">
         <v>8</v>
       </c>
@@ -5538,25 +5564,25 @@
       <c r="S14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T14" s="107"/>
-      <c r="U14" s="107"/>
-      <c r="V14" s="101"/>
+      <c r="T14" s="122"/>
+      <c r="U14" s="122"/>
+      <c r="V14" s="125"/>
       <c r="W14" s="24"/>
-      <c r="X14" s="101"/>
-      <c r="Y14" s="102"/>
+      <c r="X14" s="125"/>
+      <c r="Y14" s="126"/>
       <c r="Z14" s="2">
         <f>SUM(D14:S14)</f>
         <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="108">
+      <c r="A15" s="117">
         <v>2</v>
       </c>
-      <c r="B15" s="109" t="s">
+      <c r="B15" s="118" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="110" t="s">
+      <c r="C15" s="119" t="s">
         <v>65</v>
       </c>
       <c r="D15" s="25">
@@ -5607,20 +5633,20 @@
       <c r="S15" s="25">
         <v>16</v>
       </c>
-      <c r="T15" s="105" t="s">
-        <v>8</v>
-      </c>
-      <c r="U15" s="105" t="s">
-        <v>8</v>
-      </c>
-      <c r="V15" s="99" t="s">
+      <c r="T15" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="U15" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="V15" s="123" t="s">
         <v>8</v>
       </c>
       <c r="W15" s="42"/>
-      <c r="X15" s="99">
+      <c r="X15" s="123">
         <v>22</v>
       </c>
-      <c r="Y15" s="102">
+      <c r="Y15" s="126">
         <v>6060</v>
       </c>
       <c r="Z15" s="2">
@@ -5629,9 +5655,9 @@
       </c>
     </row>
     <row r="16" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="108"/>
-      <c r="B16" s="109"/>
-      <c r="C16" s="110"/>
+      <c r="A16" s="117"/>
+      <c r="B16" s="118"/>
+      <c r="C16" s="119"/>
       <c r="D16" s="26">
         <v>8</v>
       </c>
@@ -5680,12 +5706,12 @@
       <c r="S16" s="26">
         <v>8</v>
       </c>
-      <c r="T16" s="106"/>
-      <c r="U16" s="106"/>
-      <c r="V16" s="100"/>
+      <c r="T16" s="121"/>
+      <c r="U16" s="121"/>
+      <c r="V16" s="124"/>
       <c r="W16" s="44"/>
-      <c r="X16" s="101"/>
-      <c r="Y16" s="102"/>
+      <c r="X16" s="125"/>
+      <c r="Y16" s="126"/>
       <c r="Z16" s="2" t="s">
         <v>52</v>
       </c>
@@ -5695,9 +5721,9 @@
       </c>
     </row>
     <row r="17" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="108"/>
-      <c r="B17" s="109"/>
-      <c r="C17" s="110"/>
+      <c r="A17" s="117"/>
+      <c r="B17" s="118"/>
+      <c r="C17" s="119"/>
       <c r="D17" s="27">
         <v>17</v>
       </c>
@@ -5746,24 +5772,24 @@
       <c r="S17" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T17" s="106"/>
-      <c r="U17" s="106"/>
-      <c r="V17" s="100"/>
+      <c r="T17" s="121"/>
+      <c r="U17" s="121"/>
+      <c r="V17" s="124"/>
       <c r="W17" s="44"/>
-      <c r="X17" s="99">
+      <c r="X17" s="123">
         <f>Z15+Z17</f>
         <v>176</v>
       </c>
-      <c r="Y17" s="102"/>
+      <c r="Y17" s="126"/>
       <c r="Z17" s="2">
         <f>SUM(D18:S18)</f>
         <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="108"/>
-      <c r="B18" s="109"/>
-      <c r="C18" s="110"/>
+      <c r="A18" s="117"/>
+      <c r="B18" s="118"/>
+      <c r="C18" s="119"/>
       <c r="D18" s="26">
         <v>8</v>
       </c>
@@ -5812,21 +5838,21 @@
       <c r="S18" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T18" s="107"/>
-      <c r="U18" s="107"/>
-      <c r="V18" s="101"/>
+      <c r="T18" s="122"/>
+      <c r="U18" s="122"/>
+      <c r="V18" s="125"/>
       <c r="W18" s="43"/>
-      <c r="X18" s="101"/>
-      <c r="Y18" s="102"/>
+      <c r="X18" s="125"/>
+      <c r="Y18" s="126"/>
     </row>
     <row r="19" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="108">
+      <c r="A19" s="117">
         <v>3</v>
       </c>
-      <c r="B19" s="109" t="s">
+      <c r="B19" s="118" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="110" t="s">
+      <c r="C19" s="119" t="s">
         <v>32</v>
       </c>
       <c r="D19" s="25">
@@ -5877,27 +5903,27 @@
       <c r="S19" s="25">
         <v>16</v>
       </c>
-      <c r="T19" s="105" t="s">
-        <v>8</v>
-      </c>
-      <c r="U19" s="105" t="s">
-        <v>8</v>
-      </c>
-      <c r="V19" s="99" t="s">
+      <c r="T19" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="U19" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="V19" s="123" t="s">
         <v>8</v>
       </c>
       <c r="W19" s="53"/>
-      <c r="X19" s="99">
+      <c r="X19" s="123">
         <v>22</v>
       </c>
-      <c r="Y19" s="102">
+      <c r="Y19" s="126">
         <v>6300</v>
       </c>
     </row>
     <row r="20" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="108"/>
-      <c r="B20" s="109"/>
-      <c r="C20" s="110"/>
+      <c r="A20" s="117"/>
+      <c r="B20" s="118"/>
+      <c r="C20" s="119"/>
       <c r="D20" s="26">
         <v>8</v>
       </c>
@@ -5946,21 +5972,21 @@
       <c r="S20" s="26">
         <v>8</v>
       </c>
-      <c r="T20" s="106"/>
-      <c r="U20" s="106"/>
-      <c r="V20" s="100"/>
+      <c r="T20" s="121"/>
+      <c r="U20" s="121"/>
+      <c r="V20" s="124"/>
       <c r="W20" s="55"/>
-      <c r="X20" s="101"/>
-      <c r="Y20" s="102"/>
+      <c r="X20" s="125"/>
+      <c r="Y20" s="126"/>
       <c r="Z20" s="2">
         <f>SUM(D20:S20)</f>
         <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="108"/>
-      <c r="B21" s="109"/>
-      <c r="C21" s="110"/>
+      <c r="A21" s="117"/>
+      <c r="B21" s="118"/>
+      <c r="C21" s="119"/>
       <c r="D21" s="27">
         <v>17</v>
       </c>
@@ -6009,24 +6035,24 @@
       <c r="S21" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T21" s="106"/>
-      <c r="U21" s="106"/>
-      <c r="V21" s="100"/>
+      <c r="T21" s="121"/>
+      <c r="U21" s="121"/>
+      <c r="V21" s="124"/>
       <c r="W21" s="55"/>
-      <c r="X21" s="99">
+      <c r="X21" s="123">
         <f>Z20+Z22</f>
         <v>176</v>
       </c>
-      <c r="Y21" s="102"/>
+      <c r="Y21" s="126"/>
       <c r="AA21" s="2">
         <f>Z22+Z20</f>
         <v>176</v>
       </c>
     </row>
     <row r="22" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="108"/>
-      <c r="B22" s="109"/>
-      <c r="C22" s="110"/>
+      <c r="A22" s="117"/>
+      <c r="B22" s="118"/>
+      <c r="C22" s="119"/>
       <c r="D22" s="26">
         <v>8</v>
       </c>
@@ -6075,25 +6101,25 @@
       <c r="S22" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T22" s="107"/>
-      <c r="U22" s="107"/>
-      <c r="V22" s="101"/>
+      <c r="T22" s="122"/>
+      <c r="U22" s="122"/>
+      <c r="V22" s="125"/>
       <c r="W22" s="54"/>
-      <c r="X22" s="101"/>
-      <c r="Y22" s="102"/>
+      <c r="X22" s="125"/>
+      <c r="Y22" s="126"/>
       <c r="Z22" s="2">
         <f>SUM(D22:S22)</f>
         <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="108">
+      <c r="A23" s="117">
         <v>4</v>
       </c>
-      <c r="B23" s="109" t="s">
+      <c r="B23" s="118" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="110" t="s">
+      <c r="C23" s="119" t="s">
         <v>32</v>
       </c>
       <c r="D23" s="25">
@@ -6144,27 +6170,27 @@
       <c r="S23" s="25">
         <v>16</v>
       </c>
-      <c r="T23" s="105" t="s">
-        <v>8</v>
-      </c>
-      <c r="U23" s="105" t="s">
-        <v>8</v>
-      </c>
-      <c r="V23" s="99" t="s">
+      <c r="T23" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="U23" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="V23" s="123" t="s">
         <v>8</v>
       </c>
       <c r="W23" s="53"/>
-      <c r="X23" s="99">
+      <c r="X23" s="123">
         <v>22</v>
       </c>
-      <c r="Y23" s="102">
+      <c r="Y23" s="126">
         <v>6060</v>
       </c>
     </row>
     <row r="24" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="108"/>
-      <c r="B24" s="109"/>
-      <c r="C24" s="110"/>
+      <c r="A24" s="117"/>
+      <c r="B24" s="118"/>
+      <c r="C24" s="119"/>
       <c r="D24" s="26">
         <v>8</v>
       </c>
@@ -6213,21 +6239,21 @@
       <c r="S24" s="26">
         <v>8</v>
       </c>
-      <c r="T24" s="106"/>
-      <c r="U24" s="106"/>
-      <c r="V24" s="100"/>
+      <c r="T24" s="121"/>
+      <c r="U24" s="121"/>
+      <c r="V24" s="124"/>
       <c r="W24" s="55"/>
-      <c r="X24" s="101"/>
-      <c r="Y24" s="102"/>
+      <c r="X24" s="125"/>
+      <c r="Y24" s="126"/>
       <c r="Z24" s="2">
         <f>SUM(D24:S24)</f>
         <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="108"/>
-      <c r="B25" s="109"/>
-      <c r="C25" s="110"/>
+      <c r="A25" s="117"/>
+      <c r="B25" s="118"/>
+      <c r="C25" s="119"/>
       <c r="D25" s="27">
         <v>17</v>
       </c>
@@ -6276,24 +6302,24 @@
       <c r="S25" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T25" s="106"/>
-      <c r="U25" s="106"/>
-      <c r="V25" s="100"/>
+      <c r="T25" s="121"/>
+      <c r="U25" s="121"/>
+      <c r="V25" s="124"/>
       <c r="W25" s="55"/>
-      <c r="X25" s="99">
+      <c r="X25" s="123">
         <f>Z24+Z26</f>
         <v>176</v>
       </c>
-      <c r="Y25" s="102"/>
+      <c r="Y25" s="126"/>
       <c r="AA25" s="2">
         <f>Z26+Z24</f>
         <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="108"/>
-      <c r="B26" s="109"/>
-      <c r="C26" s="110"/>
+      <c r="A26" s="117"/>
+      <c r="B26" s="118"/>
+      <c r="C26" s="119"/>
       <c r="D26" s="26">
         <v>8</v>
       </c>
@@ -6342,25 +6368,25 @@
       <c r="S26" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T26" s="107"/>
-      <c r="U26" s="107"/>
-      <c r="V26" s="101"/>
+      <c r="T26" s="122"/>
+      <c r="U26" s="122"/>
+      <c r="V26" s="125"/>
       <c r="W26" s="54"/>
-      <c r="X26" s="101"/>
-      <c r="Y26" s="102"/>
+      <c r="X26" s="125"/>
+      <c r="Y26" s="126"/>
       <c r="Z26" s="2">
         <f>SUM(D26:S26)</f>
         <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="108">
+      <c r="A27" s="117">
         <v>5</v>
       </c>
-      <c r="B27" s="126" t="s">
+      <c r="B27" s="129" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="127" t="s">
+      <c r="C27" s="130" t="s">
         <v>16</v>
       </c>
       <c r="D27" s="25">
@@ -6411,20 +6437,20 @@
       <c r="S27" s="25">
         <v>16</v>
       </c>
-      <c r="T27" s="105" t="s">
-        <v>8</v>
-      </c>
-      <c r="U27" s="105" t="s">
-        <v>8</v>
-      </c>
-      <c r="V27" s="99" t="s">
+      <c r="T27" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="U27" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="V27" s="123" t="s">
         <v>8</v>
       </c>
       <c r="W27" s="53"/>
-      <c r="X27" s="99">
+      <c r="X27" s="123">
         <v>22</v>
       </c>
-      <c r="Y27" s="102">
+      <c r="Y27" s="126">
         <v>6060</v>
       </c>
       <c r="Z27" s="2" t="s">
@@ -6432,9 +6458,9 @@
       </c>
     </row>
     <row r="28" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="108"/>
-      <c r="B28" s="126"/>
-      <c r="C28" s="127"/>
+      <c r="A28" s="117"/>
+      <c r="B28" s="129"/>
+      <c r="C28" s="130"/>
       <c r="D28" s="26">
         <v>8</v>
       </c>
@@ -6483,17 +6509,17 @@
       <c r="S28" s="26">
         <v>8</v>
       </c>
-      <c r="T28" s="106"/>
-      <c r="U28" s="106"/>
-      <c r="V28" s="100"/>
+      <c r="T28" s="121"/>
+      <c r="U28" s="121"/>
+      <c r="V28" s="124"/>
       <c r="W28" s="55"/>
-      <c r="X28" s="101"/>
-      <c r="Y28" s="102"/>
+      <c r="X28" s="125"/>
+      <c r="Y28" s="126"/>
     </row>
     <row r="29" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="108"/>
-      <c r="B29" s="126"/>
-      <c r="C29" s="127"/>
+      <c r="A29" s="117"/>
+      <c r="B29" s="129"/>
+      <c r="C29" s="130"/>
       <c r="D29" s="27">
         <v>17</v>
       </c>
@@ -6542,19 +6568,19 @@
       <c r="S29" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T29" s="106"/>
-      <c r="U29" s="106"/>
-      <c r="V29" s="100"/>
+      <c r="T29" s="121"/>
+      <c r="U29" s="121"/>
+      <c r="V29" s="124"/>
       <c r="W29" s="55"/>
-      <c r="X29" s="99">
+      <c r="X29" s="123">
         <v>32</v>
       </c>
-      <c r="Y29" s="102"/>
+      <c r="Y29" s="126"/>
     </row>
     <row r="30" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="108"/>
-      <c r="B30" s="126"/>
-      <c r="C30" s="127"/>
+      <c r="A30" s="117"/>
+      <c r="B30" s="129"/>
+      <c r="C30" s="130"/>
       <c r="D30" s="26">
         <v>8</v>
       </c>
@@ -6603,21 +6629,21 @@
       <c r="S30" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T30" s="107"/>
-      <c r="U30" s="107"/>
-      <c r="V30" s="101"/>
+      <c r="T30" s="122"/>
+      <c r="U30" s="122"/>
+      <c r="V30" s="125"/>
       <c r="W30" s="54"/>
-      <c r="X30" s="101"/>
-      <c r="Y30" s="102"/>
+      <c r="X30" s="125"/>
+      <c r="Y30" s="126"/>
     </row>
     <row r="31" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="108">
+      <c r="A31" s="117">
         <v>6</v>
       </c>
-      <c r="B31" s="109" t="s">
+      <c r="B31" s="118" t="s">
         <v>64</v>
       </c>
-      <c r="C31" s="110" t="s">
+      <c r="C31" s="119" t="s">
         <v>32</v>
       </c>
       <c r="D31" s="25">
@@ -6668,27 +6694,27 @@
       <c r="S31" s="25">
         <v>16</v>
       </c>
-      <c r="T31" s="105" t="s">
-        <v>8</v>
-      </c>
-      <c r="U31" s="105" t="s">
-        <v>8</v>
-      </c>
-      <c r="V31" s="99" t="s">
+      <c r="T31" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="U31" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="V31" s="123" t="s">
         <v>8</v>
       </c>
       <c r="W31" s="45"/>
-      <c r="X31" s="99">
+      <c r="X31" s="123">
         <v>22</v>
       </c>
-      <c r="Y31" s="102">
+      <c r="Y31" s="126">
         <v>6060</v>
       </c>
     </row>
     <row r="32" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="108"/>
-      <c r="B32" s="109"/>
-      <c r="C32" s="110"/>
+      <c r="A32" s="117"/>
+      <c r="B32" s="118"/>
+      <c r="C32" s="119"/>
       <c r="D32" s="26">
         <v>8</v>
       </c>
@@ -6737,12 +6763,12 @@
       <c r="S32" s="26">
         <v>8</v>
       </c>
-      <c r="T32" s="106"/>
-      <c r="U32" s="106"/>
-      <c r="V32" s="100"/>
+      <c r="T32" s="121"/>
+      <c r="U32" s="121"/>
+      <c r="V32" s="124"/>
       <c r="W32" s="47"/>
-      <c r="X32" s="101"/>
-      <c r="Y32" s="102"/>
+      <c r="X32" s="125"/>
+      <c r="Y32" s="126"/>
       <c r="Z32" s="2">
         <f>SUM(D32:S32)</f>
         <v>96</v>
@@ -6753,9 +6779,9 @@
       </c>
     </row>
     <row r="33" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="108"/>
-      <c r="B33" s="109"/>
-      <c r="C33" s="110"/>
+      <c r="A33" s="117"/>
+      <c r="B33" s="118"/>
+      <c r="C33" s="119"/>
       <c r="D33" s="27">
         <v>17</v>
       </c>
@@ -6804,20 +6830,20 @@
       <c r="S33" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T33" s="106"/>
-      <c r="U33" s="106"/>
-      <c r="V33" s="100"/>
+      <c r="T33" s="121"/>
+      <c r="U33" s="121"/>
+      <c r="V33" s="124"/>
       <c r="W33" s="47"/>
-      <c r="X33" s="99">
+      <c r="X33" s="123">
         <f>Z32+Z34</f>
         <v>176</v>
       </c>
-      <c r="Y33" s="102"/>
+      <c r="Y33" s="126"/>
     </row>
     <row r="34" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="108"/>
-      <c r="B34" s="109"/>
-      <c r="C34" s="110"/>
+      <c r="A34" s="117"/>
+      <c r="B34" s="118"/>
+      <c r="C34" s="119"/>
       <c r="D34" s="26">
         <v>8</v>
       </c>
@@ -6866,12 +6892,12 @@
       <c r="S34" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T34" s="107"/>
-      <c r="U34" s="107"/>
-      <c r="V34" s="101"/>
+      <c r="T34" s="122"/>
+      <c r="U34" s="122"/>
+      <c r="V34" s="125"/>
       <c r="W34" s="46"/>
-      <c r="X34" s="101"/>
-      <c r="Y34" s="102"/>
+      <c r="X34" s="125"/>
+      <c r="Y34" s="126"/>
       <c r="Z34" s="2">
         <f>SUM(D34:S34)</f>
         <v>80</v>
@@ -6890,10 +6916,10 @@
       </c>
     </row>
     <row r="36" spans="1:26" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A36" s="103" t="s">
+      <c r="A36" s="127" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="103"/>
+      <c r="B36" s="127"/>
       <c r="C36" s="33">
         <v>44531</v>
       </c>
@@ -6959,33 +6985,31 @@
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="U31:U34"/>
-    <mergeCell ref="V31:V34"/>
-    <mergeCell ref="X31:X32"/>
-    <mergeCell ref="Y31:Y34"/>
-    <mergeCell ref="X33:X34"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="C31:C34"/>
-    <mergeCell ref="T31:T34"/>
-    <mergeCell ref="Y23:Y26"/>
-    <mergeCell ref="X25:X26"/>
-    <mergeCell ref="Y27:Y30"/>
-    <mergeCell ref="X29:X30"/>
-    <mergeCell ref="X27:X28"/>
-    <mergeCell ref="X23:X24"/>
-    <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="X11:X12"/>
-    <mergeCell ref="Y11:Y14"/>
-    <mergeCell ref="X13:X14"/>
-    <mergeCell ref="X19:X20"/>
-    <mergeCell ref="Y19:Y22"/>
-    <mergeCell ref="X21:X22"/>
-    <mergeCell ref="X15:X16"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="Y15:Y18"/>
-    <mergeCell ref="X17:X18"/>
+    <mergeCell ref="U19:U22"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="V15:V18"/>
+    <mergeCell ref="V19:V22"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="T15:T18"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="T11:T14"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A7:W7"/>
+    <mergeCell ref="A8:W8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="D9:S10"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="V11:V14"/>
+    <mergeCell ref="U11:U14"/>
+    <mergeCell ref="U15:U18"/>
     <mergeCell ref="A19:A22"/>
     <mergeCell ref="V27:V30"/>
     <mergeCell ref="A27:A30"/>
@@ -7002,31 +7026,33 @@
     <mergeCell ref="B19:B22"/>
     <mergeCell ref="C19:C22"/>
     <mergeCell ref="T19:T22"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A7:W7"/>
-    <mergeCell ref="A8:W8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="T9:T10"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="D9:S10"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="V11:V14"/>
-    <mergeCell ref="U11:U14"/>
-    <mergeCell ref="U15:U18"/>
-    <mergeCell ref="U19:U22"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="V15:V18"/>
-    <mergeCell ref="V19:V22"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="T15:T18"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="T11:T14"/>
+    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="X11:X12"/>
+    <mergeCell ref="Y11:Y14"/>
+    <mergeCell ref="X13:X14"/>
+    <mergeCell ref="X19:X20"/>
+    <mergeCell ref="Y19:Y22"/>
+    <mergeCell ref="X21:X22"/>
+    <mergeCell ref="X15:X16"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="Y15:Y18"/>
+    <mergeCell ref="X17:X18"/>
+    <mergeCell ref="Y23:Y26"/>
+    <mergeCell ref="X25:X26"/>
+    <mergeCell ref="Y27:Y30"/>
+    <mergeCell ref="X29:X30"/>
+    <mergeCell ref="X27:X28"/>
+    <mergeCell ref="X23:X24"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="T31:T34"/>
+    <mergeCell ref="U31:U34"/>
+    <mergeCell ref="V31:V34"/>
+    <mergeCell ref="X31:X32"/>
+    <mergeCell ref="Y31:Y34"/>
+    <mergeCell ref="X33:X34"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -7194,63 +7220,63 @@
       <c r="Y5" s="77"/>
     </row>
     <row r="6" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A6" s="115" t="s">
+      <c r="A6" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="115"/>
-      <c r="C6" s="115"/>
-      <c r="D6" s="115"/>
-      <c r="E6" s="115"/>
-      <c r="F6" s="115"/>
-      <c r="G6" s="115"/>
-      <c r="H6" s="115"/>
-      <c r="I6" s="115"/>
-      <c r="J6" s="115"/>
-      <c r="K6" s="115"/>
-      <c r="L6" s="115"/>
-      <c r="M6" s="115"/>
-      <c r="N6" s="115"/>
-      <c r="O6" s="115"/>
-      <c r="P6" s="115"/>
-      <c r="Q6" s="115"/>
-      <c r="R6" s="115"/>
-      <c r="S6" s="115"/>
-      <c r="T6" s="115"/>
-      <c r="U6" s="115"/>
-      <c r="V6" s="115"/>
-      <c r="W6" s="115"/>
-      <c r="X6" s="115"/>
-      <c r="Y6" s="115"/>
+      <c r="B6" s="106"/>
+      <c r="C6" s="106"/>
+      <c r="D6" s="106"/>
+      <c r="E6" s="106"/>
+      <c r="F6" s="106"/>
+      <c r="G6" s="106"/>
+      <c r="H6" s="106"/>
+      <c r="I6" s="106"/>
+      <c r="J6" s="106"/>
+      <c r="K6" s="106"/>
+      <c r="L6" s="106"/>
+      <c r="M6" s="106"/>
+      <c r="N6" s="106"/>
+      <c r="O6" s="106"/>
+      <c r="P6" s="106"/>
+      <c r="Q6" s="106"/>
+      <c r="R6" s="106"/>
+      <c r="S6" s="106"/>
+      <c r="T6" s="106"/>
+      <c r="U6" s="106"/>
+      <c r="V6" s="106"/>
+      <c r="W6" s="106"/>
+      <c r="X6" s="106"/>
+      <c r="Y6" s="106"/>
     </row>
     <row r="7" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A7" s="115" t="str">
+      <c r="A7" s="106" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ЛИСТОПАД 2021р.</v>
       </c>
-      <c r="B7" s="115"/>
-      <c r="C7" s="115"/>
-      <c r="D7" s="115"/>
-      <c r="E7" s="115"/>
-      <c r="F7" s="115"/>
-      <c r="G7" s="115"/>
-      <c r="H7" s="115"/>
-      <c r="I7" s="115"/>
-      <c r="J7" s="115"/>
-      <c r="K7" s="115"/>
-      <c r="L7" s="115"/>
-      <c r="M7" s="115"/>
-      <c r="N7" s="115"/>
-      <c r="O7" s="115"/>
-      <c r="P7" s="115"/>
-      <c r="Q7" s="115"/>
-      <c r="R7" s="115"/>
-      <c r="S7" s="115"/>
-      <c r="T7" s="115"/>
-      <c r="U7" s="115"/>
-      <c r="V7" s="115"/>
-      <c r="W7" s="115"/>
-      <c r="X7" s="115"/>
-      <c r="Y7" s="115"/>
+      <c r="B7" s="106"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="106"/>
+      <c r="E7" s="106"/>
+      <c r="F7" s="106"/>
+      <c r="G7" s="106"/>
+      <c r="H7" s="106"/>
+      <c r="I7" s="106"/>
+      <c r="J7" s="106"/>
+      <c r="K7" s="106"/>
+      <c r="L7" s="106"/>
+      <c r="M7" s="106"/>
+      <c r="N7" s="106"/>
+      <c r="O7" s="106"/>
+      <c r="P7" s="106"/>
+      <c r="Q7" s="106"/>
+      <c r="R7" s="106"/>
+      <c r="S7" s="106"/>
+      <c r="T7" s="106"/>
+      <c r="U7" s="106"/>
+      <c r="V7" s="106"/>
+      <c r="W7" s="106"/>
+      <c r="X7" s="106"/>
+      <c r="Y7" s="106"/>
     </row>
     <row r="8" spans="1:26" ht="20" x14ac:dyDescent="0.35">
       <c r="A8" s="76"/>
@@ -7280,90 +7306,90 @@
       <c r="Y8" s="76"/>
     </row>
     <row r="9" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="117" t="s">
+      <c r="A9" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="105"/>
-      <c r="C9" s="117" t="s">
+      <c r="B9" s="120"/>
+      <c r="C9" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="117" t="s">
+      <c r="D9" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="117" t="s">
+      <c r="E9" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="117"/>
-      <c r="G9" s="117"/>
-      <c r="H9" s="117"/>
-      <c r="I9" s="117"/>
-      <c r="J9" s="117"/>
-      <c r="K9" s="117"/>
-      <c r="L9" s="117"/>
-      <c r="M9" s="117"/>
-      <c r="N9" s="117"/>
-      <c r="O9" s="117"/>
-      <c r="P9" s="117"/>
-      <c r="Q9" s="117"/>
-      <c r="R9" s="117"/>
-      <c r="S9" s="117"/>
-      <c r="T9" s="117"/>
-      <c r="U9" s="125" t="s">
+      <c r="F9" s="108"/>
+      <c r="G9" s="108"/>
+      <c r="H9" s="108"/>
+      <c r="I9" s="108"/>
+      <c r="J9" s="108"/>
+      <c r="K9" s="108"/>
+      <c r="L9" s="108"/>
+      <c r="M9" s="108"/>
+      <c r="N9" s="108"/>
+      <c r="O9" s="108"/>
+      <c r="P9" s="108"/>
+      <c r="Q9" s="108"/>
+      <c r="R9" s="108"/>
+      <c r="S9" s="108"/>
+      <c r="T9" s="108"/>
+      <c r="U9" s="116" t="s">
         <v>48</v>
       </c>
-      <c r="V9" s="125" t="s">
+      <c r="V9" s="116" t="s">
         <v>49</v>
       </c>
-      <c r="W9" s="125" t="s">
+      <c r="W9" s="116" t="s">
         <v>50</v>
       </c>
-      <c r="X9" s="125" t="s">
+      <c r="X9" s="116" t="s">
         <v>47</v>
       </c>
-      <c r="Y9" s="125" t="s">
+      <c r="Y9" s="116" t="s">
         <v>46</v>
       </c>
-      <c r="Z9" s="111" t="s">
+      <c r="Z9" s="102" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="117"/>
-      <c r="B10" s="107"/>
-      <c r="C10" s="117"/>
-      <c r="D10" s="117"/>
-      <c r="E10" s="117"/>
-      <c r="F10" s="117"/>
-      <c r="G10" s="117"/>
-      <c r="H10" s="117"/>
-      <c r="I10" s="117"/>
-      <c r="J10" s="117"/>
-      <c r="K10" s="117"/>
-      <c r="L10" s="117"/>
-      <c r="M10" s="117"/>
-      <c r="N10" s="117"/>
-      <c r="O10" s="117"/>
-      <c r="P10" s="117"/>
-      <c r="Q10" s="117"/>
-      <c r="R10" s="117"/>
-      <c r="S10" s="117"/>
-      <c r="T10" s="117"/>
-      <c r="U10" s="125"/>
-      <c r="V10" s="125"/>
-      <c r="W10" s="125"/>
-      <c r="X10" s="125"/>
-      <c r="Y10" s="125"/>
-      <c r="Z10" s="111"/>
+      <c r="A10" s="108"/>
+      <c r="B10" s="122"/>
+      <c r="C10" s="108"/>
+      <c r="D10" s="108"/>
+      <c r="E10" s="108"/>
+      <c r="F10" s="108"/>
+      <c r="G10" s="108"/>
+      <c r="H10" s="108"/>
+      <c r="I10" s="108"/>
+      <c r="J10" s="108"/>
+      <c r="K10" s="108"/>
+      <c r="L10" s="108"/>
+      <c r="M10" s="108"/>
+      <c r="N10" s="108"/>
+      <c r="O10" s="108"/>
+      <c r="P10" s="108"/>
+      <c r="Q10" s="108"/>
+      <c r="R10" s="108"/>
+      <c r="S10" s="108"/>
+      <c r="T10" s="108"/>
+      <c r="U10" s="116"/>
+      <c r="V10" s="116"/>
+      <c r="W10" s="116"/>
+      <c r="X10" s="116"/>
+      <c r="Y10" s="116"/>
+      <c r="Z10" s="102"/>
     </row>
     <row r="11" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="131">
         <v>1</v>
       </c>
-      <c r="B11" s="105"/>
-      <c r="C11" s="105" t="s">
+      <c r="B11" s="120"/>
+      <c r="C11" s="120" t="s">
         <v>90</v>
       </c>
-      <c r="D11" s="110" t="s">
+      <c r="D11" s="119" t="s">
         <v>37</v>
       </c>
       <c r="E11" s="25">
@@ -7418,18 +7444,18 @@
       <c r="V11" s="134"/>
       <c r="W11" s="134"/>
       <c r="X11" s="134"/>
-      <c r="Y11" s="99">
+      <c r="Y11" s="123">
         <v>22</v>
       </c>
-      <c r="Z11" s="128">
+      <c r="Z11" s="137">
         <v>6060</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="132"/>
-      <c r="B12" s="106"/>
-      <c r="C12" s="106"/>
-      <c r="D12" s="110"/>
+      <c r="B12" s="121"/>
+      <c r="C12" s="121"/>
+      <c r="D12" s="119"/>
       <c r="E12" s="26">
         <v>8</v>
       </c>
@@ -7482,14 +7508,14 @@
       <c r="V12" s="135"/>
       <c r="W12" s="135"/>
       <c r="X12" s="135"/>
-      <c r="Y12" s="101"/>
-      <c r="Z12" s="129"/>
+      <c r="Y12" s="125"/>
+      <c r="Z12" s="138"/>
     </row>
     <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="132"/>
-      <c r="B13" s="106"/>
-      <c r="C13" s="106"/>
-      <c r="D13" s="110"/>
+      <c r="B13" s="121"/>
+      <c r="C13" s="121"/>
+      <c r="D13" s="119"/>
       <c r="E13" s="27">
         <v>17</v>
       </c>
@@ -7542,16 +7568,16 @@
       <c r="V13" s="135"/>
       <c r="W13" s="135"/>
       <c r="X13" s="135"/>
-      <c r="Y13" s="99">
+      <c r="Y13" s="123">
         <v>176</v>
       </c>
-      <c r="Z13" s="129"/>
+      <c r="Z13" s="138"/>
     </row>
     <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="133"/>
-      <c r="B14" s="107"/>
-      <c r="C14" s="107"/>
-      <c r="D14" s="110"/>
+      <c r="B14" s="122"/>
+      <c r="C14" s="122"/>
+      <c r="D14" s="119"/>
       <c r="E14" s="26">
         <v>8</v>
       </c>
@@ -7604,18 +7630,18 @@
       <c r="V14" s="136"/>
       <c r="W14" s="136"/>
       <c r="X14" s="136"/>
-      <c r="Y14" s="101"/>
-      <c r="Z14" s="130"/>
+      <c r="Y14" s="125"/>
+      <c r="Z14" s="139"/>
     </row>
     <row r="15" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="131">
         <v>2</v>
       </c>
-      <c r="B15" s="105"/>
-      <c r="C15" s="105" t="s">
+      <c r="B15" s="120"/>
+      <c r="C15" s="120" t="s">
         <v>102</v>
       </c>
-      <c r="D15" s="110" t="s">
+      <c r="D15" s="119" t="s">
         <v>37</v>
       </c>
       <c r="E15" s="25">
@@ -7670,18 +7696,18 @@
       <c r="V15" s="134"/>
       <c r="W15" s="134"/>
       <c r="X15" s="134"/>
-      <c r="Y15" s="99">
+      <c r="Y15" s="123">
         <v>22</v>
       </c>
-      <c r="Z15" s="128">
+      <c r="Z15" s="137">
         <v>6060</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="132"/>
-      <c r="B16" s="106"/>
-      <c r="C16" s="106"/>
-      <c r="D16" s="110"/>
+      <c r="B16" s="121"/>
+      <c r="C16" s="121"/>
+      <c r="D16" s="119"/>
       <c r="E16" s="26">
         <v>4</v>
       </c>
@@ -7734,14 +7760,14 @@
       <c r="V16" s="135"/>
       <c r="W16" s="135"/>
       <c r="X16" s="135"/>
-      <c r="Y16" s="101"/>
-      <c r="Z16" s="129"/>
+      <c r="Y16" s="125"/>
+      <c r="Z16" s="138"/>
     </row>
     <row r="17" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="132"/>
-      <c r="B17" s="106"/>
-      <c r="C17" s="106"/>
-      <c r="D17" s="110"/>
+      <c r="B17" s="121"/>
+      <c r="C17" s="121"/>
+      <c r="D17" s="119"/>
       <c r="E17" s="27">
         <v>17</v>
       </c>
@@ -7794,16 +7820,16 @@
       <c r="V17" s="135"/>
       <c r="W17" s="135"/>
       <c r="X17" s="135"/>
-      <c r="Y17" s="99">
+      <c r="Y17" s="123">
         <v>88</v>
       </c>
-      <c r="Z17" s="129"/>
+      <c r="Z17" s="138"/>
     </row>
     <row r="18" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="133"/>
-      <c r="B18" s="107"/>
-      <c r="C18" s="107"/>
-      <c r="D18" s="110"/>
+      <c r="B18" s="122"/>
+      <c r="C18" s="122"/>
+      <c r="D18" s="119"/>
       <c r="E18" s="26">
         <v>4</v>
       </c>
@@ -7856,8 +7882,8 @@
       <c r="V18" s="136"/>
       <c r="W18" s="136"/>
       <c r="X18" s="136"/>
-      <c r="Y18" s="101"/>
-      <c r="Z18" s="130"/>
+      <c r="Y18" s="125"/>
+      <c r="Z18" s="139"/>
     </row>
     <row r="19" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="6"/>
@@ -7888,10 +7914,10 @@
       <c r="Z19" s="88"/>
     </row>
     <row r="20" spans="1:26" s="97" customFormat="1" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="B20" s="103" t="s">
+      <c r="B20" s="127" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="103"/>
+      <c r="C20" s="127"/>
       <c r="D20" s="98">
         <f>Мельницький!C36</f>
         <v>44531</v>
@@ -7955,19 +7981,13 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="U11:U14"/>
-    <mergeCell ref="A6:Y6"/>
-    <mergeCell ref="A7:Y7"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:T10"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="Z15:Z18"/>
+    <mergeCell ref="Y17:Y18"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="D15:D18"/>
+    <mergeCell ref="U15:U18"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="Z9:Z10"/>
     <mergeCell ref="X9:X10"/>
@@ -7984,13 +8004,19 @@
     <mergeCell ref="W15:W18"/>
     <mergeCell ref="X15:X18"/>
     <mergeCell ref="Y15:Y16"/>
-    <mergeCell ref="Z15:Z18"/>
-    <mergeCell ref="Y17:Y18"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="D15:D18"/>
-    <mergeCell ref="U15:U18"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="U11:U14"/>
+    <mergeCell ref="A6:Y6"/>
+    <mergeCell ref="A7:Y7"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:T10"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B14"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -8019,12 +8045,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
       <c r="R1" s="15" t="s">
         <v>40</v>
       </c>
@@ -8169,138 +8195,138 @@
       <c r="X6" s="17"/>
     </row>
     <row r="7" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A7" s="115" t="s">
+      <c r="A7" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="115"/>
-      <c r="C7" s="115"/>
-      <c r="D7" s="115"/>
-      <c r="E7" s="115"/>
-      <c r="F7" s="115"/>
-      <c r="G7" s="115"/>
-      <c r="H7" s="115"/>
-      <c r="I7" s="115"/>
-      <c r="J7" s="115"/>
-      <c r="K7" s="115"/>
-      <c r="L7" s="115"/>
-      <c r="M7" s="115"/>
-      <c r="N7" s="115"/>
-      <c r="O7" s="115"/>
-      <c r="P7" s="115"/>
-      <c r="Q7" s="115"/>
-      <c r="R7" s="115"/>
-      <c r="S7" s="115"/>
-      <c r="T7" s="115"/>
-      <c r="U7" s="115"/>
-      <c r="V7" s="115"/>
-      <c r="W7" s="115"/>
-      <c r="X7" s="115"/>
+      <c r="B7" s="106"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="106"/>
+      <c r="E7" s="106"/>
+      <c r="F7" s="106"/>
+      <c r="G7" s="106"/>
+      <c r="H7" s="106"/>
+      <c r="I7" s="106"/>
+      <c r="J7" s="106"/>
+      <c r="K7" s="106"/>
+      <c r="L7" s="106"/>
+      <c r="M7" s="106"/>
+      <c r="N7" s="106"/>
+      <c r="O7" s="106"/>
+      <c r="P7" s="106"/>
+      <c r="Q7" s="106"/>
+      <c r="R7" s="106"/>
+      <c r="S7" s="106"/>
+      <c r="T7" s="106"/>
+      <c r="U7" s="106"/>
+      <c r="V7" s="106"/>
+      <c r="W7" s="106"/>
+      <c r="X7" s="106"/>
     </row>
     <row r="8" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A8" s="115" t="str">
+      <c r="A8" s="106" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ЛИСТОПАД 2021р.</v>
       </c>
-      <c r="B8" s="115"/>
-      <c r="C8" s="115"/>
-      <c r="D8" s="115"/>
-      <c r="E8" s="115"/>
-      <c r="F8" s="115"/>
-      <c r="G8" s="115"/>
-      <c r="H8" s="115"/>
-      <c r="I8" s="115"/>
-      <c r="J8" s="115"/>
-      <c r="K8" s="115"/>
-      <c r="L8" s="115"/>
-      <c r="M8" s="115"/>
-      <c r="N8" s="115"/>
-      <c r="O8" s="115"/>
-      <c r="P8" s="115"/>
-      <c r="Q8" s="115"/>
-      <c r="R8" s="115"/>
-      <c r="S8" s="115"/>
-      <c r="T8" s="115"/>
-      <c r="U8" s="115"/>
-      <c r="V8" s="115"/>
-      <c r="W8" s="115"/>
-      <c r="X8" s="115"/>
+      <c r="B8" s="106"/>
+      <c r="C8" s="106"/>
+      <c r="D8" s="106"/>
+      <c r="E8" s="106"/>
+      <c r="F8" s="106"/>
+      <c r="G8" s="106"/>
+      <c r="H8" s="106"/>
+      <c r="I8" s="106"/>
+      <c r="J8" s="106"/>
+      <c r="K8" s="106"/>
+      <c r="L8" s="106"/>
+      <c r="M8" s="106"/>
+      <c r="N8" s="106"/>
+      <c r="O8" s="106"/>
+      <c r="P8" s="106"/>
+      <c r="Q8" s="106"/>
+      <c r="R8" s="106"/>
+      <c r="S8" s="106"/>
+      <c r="T8" s="106"/>
+      <c r="U8" s="106"/>
+      <c r="V8" s="106"/>
+      <c r="W8" s="106"/>
+      <c r="X8" s="106"/>
     </row>
     <row r="9" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="117" t="s">
+      <c r="A9" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="118" t="s">
+      <c r="B9" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="117" t="s">
+      <c r="C9" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="117" t="s">
+      <c r="D9" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="117" t="s">
+      <c r="E9" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="117"/>
-      <c r="G9" s="117"/>
-      <c r="H9" s="117"/>
-      <c r="I9" s="117"/>
-      <c r="J9" s="117"/>
-      <c r="K9" s="117"/>
-      <c r="L9" s="117"/>
-      <c r="M9" s="117"/>
-      <c r="N9" s="117"/>
-      <c r="O9" s="117"/>
-      <c r="P9" s="117"/>
-      <c r="Q9" s="117"/>
-      <c r="R9" s="117"/>
-      <c r="S9" s="117"/>
-      <c r="T9" s="117"/>
-      <c r="U9" s="125" t="s">
+      <c r="F9" s="108"/>
+      <c r="G9" s="108"/>
+      <c r="H9" s="108"/>
+      <c r="I9" s="108"/>
+      <c r="J9" s="108"/>
+      <c r="K9" s="108"/>
+      <c r="L9" s="108"/>
+      <c r="M9" s="108"/>
+      <c r="N9" s="108"/>
+      <c r="O9" s="108"/>
+      <c r="P9" s="108"/>
+      <c r="Q9" s="108"/>
+      <c r="R9" s="108"/>
+      <c r="S9" s="108"/>
+      <c r="T9" s="108"/>
+      <c r="U9" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="V9" s="125" t="s">
+      <c r="V9" s="116" t="s">
         <v>6</v>
       </c>
-      <c r="W9" s="125" t="s">
+      <c r="W9" s="116" t="s">
         <v>14</v>
       </c>
-      <c r="X9" s="125" t="s">
+      <c r="X9" s="116" t="s">
         <v>7</v>
       </c>
-      <c r="Y9" s="111" t="s">
+      <c r="Y9" s="102" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="117"/>
-      <c r="B10" s="118"/>
-      <c r="C10" s="117"/>
-      <c r="D10" s="117"/>
-      <c r="E10" s="117"/>
-      <c r="F10" s="117"/>
-      <c r="G10" s="117"/>
-      <c r="H10" s="117"/>
-      <c r="I10" s="117"/>
-      <c r="J10" s="117"/>
-      <c r="K10" s="117"/>
-      <c r="L10" s="117"/>
-      <c r="M10" s="117"/>
-      <c r="N10" s="117"/>
-      <c r="O10" s="117"/>
-      <c r="P10" s="117"/>
-      <c r="Q10" s="117"/>
-      <c r="R10" s="117"/>
-      <c r="S10" s="117"/>
-      <c r="T10" s="117"/>
-      <c r="U10" s="125"/>
-      <c r="V10" s="125"/>
-      <c r="W10" s="125"/>
-      <c r="X10" s="125"/>
-      <c r="Y10" s="111"/>
+      <c r="A10" s="108"/>
+      <c r="B10" s="109"/>
+      <c r="C10" s="108"/>
+      <c r="D10" s="108"/>
+      <c r="E10" s="108"/>
+      <c r="F10" s="108"/>
+      <c r="G10" s="108"/>
+      <c r="H10" s="108"/>
+      <c r="I10" s="108"/>
+      <c r="J10" s="108"/>
+      <c r="K10" s="108"/>
+      <c r="L10" s="108"/>
+      <c r="M10" s="108"/>
+      <c r="N10" s="108"/>
+      <c r="O10" s="108"/>
+      <c r="P10" s="108"/>
+      <c r="Q10" s="108"/>
+      <c r="R10" s="108"/>
+      <c r="S10" s="108"/>
+      <c r="T10" s="108"/>
+      <c r="U10" s="116"/>
+      <c r="V10" s="116"/>
+      <c r="W10" s="116"/>
+      <c r="X10" s="116"/>
+      <c r="Y10" s="102"/>
     </row>
     <row r="11" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="108">
+      <c r="A11" s="117">
         <v>1</v>
       </c>
       <c r="B11" s="131">
@@ -8309,7 +8335,7 @@
       <c r="C11" s="144" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="137" t="s">
+      <c r="D11" s="147" t="s">
         <v>74</v>
       </c>
       <c r="E11" s="25">
@@ -8360,16 +8386,16 @@
       <c r="T11" s="25">
         <v>16</v>
       </c>
-      <c r="U11" s="105" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="105" t="s">
-        <v>8</v>
-      </c>
-      <c r="W11" s="99" t="s">
-        <v>8</v>
-      </c>
-      <c r="X11" s="99">
+      <c r="U11" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11" s="123" t="s">
+        <v>8</v>
+      </c>
+      <c r="X11" s="123">
         <v>22</v>
       </c>
       <c r="Y11" s="140">
@@ -8381,10 +8407,10 @@
       </c>
     </row>
     <row r="12" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="108"/>
+      <c r="A12" s="117"/>
       <c r="B12" s="132"/>
       <c r="C12" s="145"/>
-      <c r="D12" s="138"/>
+      <c r="D12" s="148"/>
       <c r="E12" s="26">
         <v>8</v>
       </c>
@@ -8433,17 +8459,17 @@
       <c r="T12" s="26">
         <v>8</v>
       </c>
-      <c r="U12" s="106"/>
-      <c r="V12" s="106"/>
-      <c r="W12" s="100"/>
-      <c r="X12" s="101"/>
+      <c r="U12" s="121"/>
+      <c r="V12" s="121"/>
+      <c r="W12" s="124"/>
+      <c r="X12" s="125"/>
       <c r="Y12" s="141"/>
     </row>
     <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="108"/>
+      <c r="A13" s="117"/>
       <c r="B13" s="132"/>
       <c r="C13" s="145"/>
-      <c r="D13" s="138"/>
+      <c r="D13" s="148"/>
       <c r="E13" s="27">
         <v>17</v>
       </c>
@@ -8492,20 +8518,20 @@
       <c r="T13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U13" s="106"/>
-      <c r="V13" s="106"/>
-      <c r="W13" s="100"/>
-      <c r="X13" s="99">
+      <c r="U13" s="121"/>
+      <c r="V13" s="121"/>
+      <c r="W13" s="124"/>
+      <c r="X13" s="123">
         <f>Z11+Z14</f>
         <v>176</v>
       </c>
       <c r="Y13" s="141"/>
     </row>
     <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="108"/>
+      <c r="A14" s="117"/>
       <c r="B14" s="133"/>
       <c r="C14" s="146"/>
-      <c r="D14" s="139"/>
+      <c r="D14" s="149"/>
       <c r="E14" s="26">
         <v>8</v>
       </c>
@@ -8554,10 +8580,10 @@
       <c r="T14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="107"/>
-      <c r="V14" s="107"/>
-      <c r="W14" s="101"/>
-      <c r="X14" s="101"/>
+      <c r="U14" s="122"/>
+      <c r="V14" s="122"/>
+      <c r="W14" s="125"/>
+      <c r="X14" s="125"/>
       <c r="Y14" s="142"/>
       <c r="Z14" s="3">
         <f>SUM(E14:T14)</f>
@@ -8674,14 +8700,12 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="Y11:Y14"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="X11:X12"/>
-    <mergeCell ref="X13:X14"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="V11:V14"/>
+    <mergeCell ref="W11:W14"/>
+    <mergeCell ref="U11:U14"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A7:X7"/>
     <mergeCell ref="A8:X8"/>
@@ -8692,12 +8716,14 @@
     <mergeCell ref="W9:W10"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="V11:V14"/>
-    <mergeCell ref="W11:W14"/>
-    <mergeCell ref="U11:U14"/>
+    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="Y11:Y14"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="X11:X12"/>
+    <mergeCell ref="X13:X14"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -8711,7 +8737,7 @@
   <dimension ref="A1:Z27"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11:S14"/>
+      <selection activeCell="X13" sqref="X13:X14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
@@ -8724,19 +8750,21 @@
     <col min="23" max="23" width="3.81640625" style="2" customWidth="1"/>
     <col min="24" max="24" width="5.453125" style="2" customWidth="1"/>
     <col min="25" max="25" width="13.36328125" style="2" customWidth="1"/>
-    <col min="26" max="16384" width="9.08984375" style="2"/>
+    <col min="26" max="26" width="9.08984375" style="100"/>
+    <col min="27" max="16384" width="9.08984375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
       <c r="N1" s="15" t="s">
         <v>40</v>
       </c>
       <c r="O1" s="16"/>
+      <c r="Z1" s="99"/>
     </row>
     <row r="2" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="81" t="s">
@@ -8766,6 +8794,7 @@
       <c r="V2" s="81"/>
       <c r="W2" s="81"/>
       <c r="X2" s="81"/>
+      <c r="Z2" s="99"/>
     </row>
     <row r="3" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="81" t="s">
@@ -8795,6 +8824,7 @@
       <c r="V3" s="81"/>
       <c r="W3" s="81"/>
       <c r="X3" s="81"/>
+      <c r="Z3" s="99"/>
     </row>
     <row r="4" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="81"/>
@@ -8822,6 +8852,7 @@
       <c r="V4" s="81"/>
       <c r="W4" s="81"/>
       <c r="X4" s="81"/>
+      <c r="Z4" s="99"/>
     </row>
     <row r="5" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="81"/>
@@ -8848,6 +8879,7 @@
       <c r="V5" s="81"/>
       <c r="W5" s="81"/>
       <c r="X5" s="81"/>
+      <c r="Z5" s="99"/>
     </row>
     <row r="6" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="81"/>
@@ -8874,147 +8906,148 @@
       <c r="V6" s="81"/>
       <c r="W6" s="81"/>
       <c r="X6" s="81"/>
+      <c r="Z6" s="99"/>
     </row>
     <row r="7" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A7" s="115" t="s">
+      <c r="A7" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="115"/>
-      <c r="C7" s="115"/>
-      <c r="D7" s="115"/>
-      <c r="E7" s="115"/>
-      <c r="F7" s="115"/>
-      <c r="G7" s="115"/>
-      <c r="H7" s="115"/>
-      <c r="I7" s="115"/>
-      <c r="J7" s="115"/>
-      <c r="K7" s="115"/>
-      <c r="L7" s="115"/>
-      <c r="M7" s="115"/>
-      <c r="N7" s="115"/>
-      <c r="O7" s="115"/>
-      <c r="P7" s="115"/>
-      <c r="Q7" s="115"/>
-      <c r="R7" s="115"/>
-      <c r="S7" s="115"/>
-      <c r="T7" s="115"/>
-      <c r="U7" s="115"/>
-      <c r="V7" s="115"/>
-      <c r="W7" s="115"/>
+      <c r="B7" s="106"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="106"/>
+      <c r="E7" s="106"/>
+      <c r="F7" s="106"/>
+      <c r="G7" s="106"/>
+      <c r="H7" s="106"/>
+      <c r="I7" s="106"/>
+      <c r="J7" s="106"/>
+      <c r="K7" s="106"/>
+      <c r="L7" s="106"/>
+      <c r="M7" s="106"/>
+      <c r="N7" s="106"/>
+      <c r="O7" s="106"/>
+      <c r="P7" s="106"/>
+      <c r="Q7" s="106"/>
+      <c r="R7" s="106"/>
+      <c r="S7" s="106"/>
+      <c r="T7" s="106"/>
+      <c r="U7" s="106"/>
+      <c r="V7" s="106"/>
+      <c r="W7" s="106"/>
       <c r="X7" s="79"/>
     </row>
     <row r="8" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A8" s="116" t="str">
+      <c r="A8" s="107" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ЛИСТОПАД 2021р.</v>
       </c>
-      <c r="B8" s="116"/>
-      <c r="C8" s="116"/>
-      <c r="D8" s="116"/>
-      <c r="E8" s="116"/>
-      <c r="F8" s="116"/>
-      <c r="G8" s="116"/>
-      <c r="H8" s="116"/>
-      <c r="I8" s="116"/>
-      <c r="J8" s="116"/>
-      <c r="K8" s="116"/>
-      <c r="L8" s="116"/>
-      <c r="M8" s="116"/>
-      <c r="N8" s="116"/>
-      <c r="O8" s="116"/>
-      <c r="P8" s="116"/>
-      <c r="Q8" s="116"/>
-      <c r="R8" s="116"/>
-      <c r="S8" s="116"/>
-      <c r="T8" s="116"/>
-      <c r="U8" s="116"/>
-      <c r="V8" s="116"/>
-      <c r="W8" s="116"/>
-      <c r="X8" s="116"/>
-      <c r="Y8" s="116"/>
+      <c r="B8" s="107"/>
+      <c r="C8" s="107"/>
+      <c r="D8" s="107"/>
+      <c r="E8" s="107"/>
+      <c r="F8" s="107"/>
+      <c r="G8" s="107"/>
+      <c r="H8" s="107"/>
+      <c r="I8" s="107"/>
+      <c r="J8" s="107"/>
+      <c r="K8" s="107"/>
+      <c r="L8" s="107"/>
+      <c r="M8" s="107"/>
+      <c r="N8" s="107"/>
+      <c r="O8" s="107"/>
+      <c r="P8" s="107"/>
+      <c r="Q8" s="107"/>
+      <c r="R8" s="107"/>
+      <c r="S8" s="107"/>
+      <c r="T8" s="107"/>
+      <c r="U8" s="107"/>
+      <c r="V8" s="107"/>
+      <c r="W8" s="107"/>
+      <c r="X8" s="107"/>
+      <c r="Y8" s="107"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A9" s="117" t="s">
+      <c r="A9" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="117" t="s">
+      <c r="B9" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="117" t="s">
+      <c r="C9" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="117" t="s">
+      <c r="D9" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="117"/>
-      <c r="F9" s="117"/>
-      <c r="G9" s="117"/>
-      <c r="H9" s="117"/>
-      <c r="I9" s="117"/>
-      <c r="J9" s="117"/>
-      <c r="K9" s="117"/>
-      <c r="L9" s="117"/>
-      <c r="M9" s="117"/>
-      <c r="N9" s="117"/>
-      <c r="O9" s="117"/>
-      <c r="P9" s="117"/>
-      <c r="Q9" s="117"/>
-      <c r="R9" s="117"/>
-      <c r="S9" s="117"/>
-      <c r="T9" s="125" t="s">
+      <c r="E9" s="108"/>
+      <c r="F9" s="108"/>
+      <c r="G9" s="108"/>
+      <c r="H9" s="108"/>
+      <c r="I9" s="108"/>
+      <c r="J9" s="108"/>
+      <c r="K9" s="108"/>
+      <c r="L9" s="108"/>
+      <c r="M9" s="108"/>
+      <c r="N9" s="108"/>
+      <c r="O9" s="108"/>
+      <c r="P9" s="108"/>
+      <c r="Q9" s="108"/>
+      <c r="R9" s="108"/>
+      <c r="S9" s="108"/>
+      <c r="T9" s="116" t="s">
         <v>48</v>
       </c>
-      <c r="U9" s="125" t="s">
+      <c r="U9" s="116" t="s">
         <v>49</v>
       </c>
-      <c r="V9" s="125" t="s">
+      <c r="V9" s="116" t="s">
         <v>50</v>
       </c>
-      <c r="W9" s="125" t="s">
+      <c r="W9" s="116" t="s">
         <v>47</v>
       </c>
-      <c r="X9" s="125" t="s">
+      <c r="X9" s="116" t="s">
         <v>46</v>
       </c>
-      <c r="Y9" s="111" t="s">
+      <c r="Y9" s="102" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="117"/>
-      <c r="B10" s="117"/>
-      <c r="C10" s="117"/>
-      <c r="D10" s="117"/>
-      <c r="E10" s="117"/>
-      <c r="F10" s="117"/>
-      <c r="G10" s="117"/>
-      <c r="H10" s="117"/>
-      <c r="I10" s="117"/>
-      <c r="J10" s="117"/>
-      <c r="K10" s="117"/>
-      <c r="L10" s="117"/>
-      <c r="M10" s="117"/>
-      <c r="N10" s="117"/>
-      <c r="O10" s="117"/>
-      <c r="P10" s="117"/>
-      <c r="Q10" s="117"/>
-      <c r="R10" s="117"/>
-      <c r="S10" s="117"/>
-      <c r="T10" s="125"/>
-      <c r="U10" s="125"/>
-      <c r="V10" s="125"/>
-      <c r="W10" s="125"/>
-      <c r="X10" s="125"/>
-      <c r="Y10" s="111"/>
+      <c r="A10" s="108"/>
+      <c r="B10" s="108"/>
+      <c r="C10" s="108"/>
+      <c r="D10" s="108"/>
+      <c r="E10" s="108"/>
+      <c r="F10" s="108"/>
+      <c r="G10" s="108"/>
+      <c r="H10" s="108"/>
+      <c r="I10" s="108"/>
+      <c r="J10" s="108"/>
+      <c r="K10" s="108"/>
+      <c r="L10" s="108"/>
+      <c r="M10" s="108"/>
+      <c r="N10" s="108"/>
+      <c r="O10" s="108"/>
+      <c r="P10" s="108"/>
+      <c r="Q10" s="108"/>
+      <c r="R10" s="108"/>
+      <c r="S10" s="108"/>
+      <c r="T10" s="116"/>
+      <c r="U10" s="116"/>
+      <c r="V10" s="116"/>
+      <c r="W10" s="116"/>
+      <c r="X10" s="116"/>
+      <c r="Y10" s="102"/>
     </row>
     <row r="11" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="108">
+      <c r="A11" s="117">
         <v>1</v>
       </c>
-      <c r="B11" s="109" t="s">
+      <c r="B11" s="118" t="s">
         <v>93</v>
       </c>
-      <c r="C11" s="110" t="s">
+      <c r="C11" s="119" t="s">
         <v>94</v>
       </c>
       <c r="D11" s="25">
@@ -9065,41 +9098,42 @@
       <c r="S11" s="25">
         <v>16</v>
       </c>
-      <c r="T11" s="105" t="s">
-        <v>8</v>
-      </c>
-      <c r="U11" s="105" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="99" t="s">
-        <v>8</v>
-      </c>
-      <c r="W11" s="147"/>
-      <c r="X11" s="99">
-        <v>22</v>
-      </c>
-      <c r="Y11" s="102">
+      <c r="T11" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="U11" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="123" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11" s="150"/>
+      <c r="X11" s="123">
+        <v>4</v>
+      </c>
+      <c r="Y11" s="126">
         <v>6000</v>
       </c>
+      <c r="Z11" s="101"/>
     </row>
     <row r="12" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="108"/>
-      <c r="B12" s="109"/>
-      <c r="C12" s="110"/>
-      <c r="D12" s="26">
-        <v>2</v>
-      </c>
-      <c r="E12" s="26">
-        <v>2</v>
-      </c>
-      <c r="F12" s="26">
-        <v>2</v>
-      </c>
-      <c r="G12" s="26">
-        <v>2</v>
-      </c>
-      <c r="H12" s="26">
-        <v>2</v>
+      <c r="A12" s="117"/>
+      <c r="B12" s="118"/>
+      <c r="C12" s="119"/>
+      <c r="D12" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="E12" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="F12" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="G12" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="H12" s="26" t="s">
+        <v>104</v>
       </c>
       <c r="I12" s="26" t="s">
         <v>13</v>
@@ -9107,20 +9141,20 @@
       <c r="J12" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="K12" s="26">
-        <v>2</v>
-      </c>
-      <c r="L12" s="26">
-        <v>2</v>
-      </c>
-      <c r="M12" s="26">
-        <v>2</v>
-      </c>
-      <c r="N12" s="26">
-        <v>2</v>
-      </c>
-      <c r="O12" s="26">
-        <v>2</v>
+      <c r="K12" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="L12" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="M12" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="N12" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="O12" s="26" t="s">
+        <v>104</v>
       </c>
       <c r="P12" s="26" t="s">
         <v>13</v>
@@ -9128,27 +9162,27 @@
       <c r="Q12" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="R12" s="26">
-        <v>2</v>
-      </c>
-      <c r="S12" s="26">
-        <v>2</v>
-      </c>
-      <c r="T12" s="106"/>
-      <c r="U12" s="106"/>
-      <c r="V12" s="100"/>
-      <c r="W12" s="148"/>
-      <c r="X12" s="101"/>
-      <c r="Y12" s="102"/>
-      <c r="Z12" s="3">
+      <c r="R12" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="S12" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="T12" s="121"/>
+      <c r="U12" s="121"/>
+      <c r="V12" s="124"/>
+      <c r="W12" s="151"/>
+      <c r="X12" s="125"/>
+      <c r="Y12" s="126"/>
+      <c r="Z12" s="101">
         <f>SUM(D12:S12)</f>
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A13" s="108"/>
-      <c r="B13" s="109"/>
-      <c r="C13" s="110"/>
+      <c r="A13" s="117"/>
+      <c r="B13" s="118"/>
+      <c r="C13" s="119"/>
       <c r="D13" s="27">
         <v>17</v>
       </c>
@@ -9197,28 +9231,28 @@
       <c r="S13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T13" s="106"/>
-      <c r="U13" s="106"/>
-      <c r="V13" s="100"/>
-      <c r="W13" s="148"/>
-      <c r="X13" s="99">
+      <c r="T13" s="121"/>
+      <c r="U13" s="121"/>
+      <c r="V13" s="124"/>
+      <c r="W13" s="151"/>
+      <c r="X13" s="123">
         <f>Z12+Z14</f>
-        <v>44</v>
-      </c>
-      <c r="Y13" s="102"/>
+        <v>8</v>
+      </c>
+      <c r="Y13" s="126"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A14" s="108"/>
-      <c r="B14" s="109"/>
-      <c r="C14" s="110"/>
-      <c r="D14" s="26">
-        <v>2</v>
-      </c>
-      <c r="E14" s="26">
-        <v>2</v>
-      </c>
-      <c r="F14" s="26">
-        <v>2</v>
+      <c r="A14" s="117"/>
+      <c r="B14" s="118"/>
+      <c r="C14" s="119"/>
+      <c r="D14" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="E14" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="F14" s="26" t="s">
+        <v>104</v>
       </c>
       <c r="G14" s="26" t="s">
         <v>13</v>
@@ -9226,14 +9260,14 @@
       <c r="H14" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="I14" s="26">
-        <v>2</v>
-      </c>
-      <c r="J14" s="26">
-        <v>2</v>
-      </c>
-      <c r="K14" s="26">
-        <v>2</v>
+      <c r="I14" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="J14" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="K14" s="26" t="s">
+        <v>104</v>
       </c>
       <c r="L14" s="26">
         <v>2</v>
@@ -9259,25 +9293,25 @@
       <c r="S14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T14" s="107"/>
-      <c r="U14" s="107"/>
-      <c r="V14" s="101"/>
-      <c r="W14" s="149"/>
-      <c r="X14" s="101"/>
-      <c r="Y14" s="102"/>
-      <c r="Z14" s="2">
+      <c r="T14" s="122"/>
+      <c r="U14" s="122"/>
+      <c r="V14" s="125"/>
+      <c r="W14" s="152"/>
+      <c r="X14" s="125"/>
+      <c r="Y14" s="126"/>
+      <c r="Z14" s="100">
         <f>SUM(D14:S14)</f>
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="108">
+      <c r="A15" s="117">
         <v>2</v>
       </c>
-      <c r="B15" s="109" t="s">
+      <c r="B15" s="118" t="s">
         <v>95</v>
       </c>
-      <c r="C15" s="110" t="s">
+      <c r="C15" s="119" t="s">
         <v>96</v>
       </c>
       <c r="D15" s="25">
@@ -9328,27 +9362,28 @@
       <c r="S15" s="25">
         <v>16</v>
       </c>
-      <c r="T15" s="105" t="s">
-        <v>8</v>
-      </c>
-      <c r="U15" s="105" t="s">
-        <v>8</v>
-      </c>
-      <c r="V15" s="99" t="s">
-        <v>8</v>
-      </c>
-      <c r="W15" s="147"/>
-      <c r="X15" s="99">
+      <c r="T15" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="U15" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="V15" s="123" t="s">
+        <v>8</v>
+      </c>
+      <c r="W15" s="150"/>
+      <c r="X15" s="123">
         <v>22</v>
       </c>
-      <c r="Y15" s="102">
+      <c r="Y15" s="126">
         <v>6000</v>
       </c>
+      <c r="Z15" s="101"/>
     </row>
     <row r="16" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="108"/>
-      <c r="B16" s="109"/>
-      <c r="C16" s="110"/>
+      <c r="A16" s="117"/>
+      <c r="B16" s="118"/>
+      <c r="C16" s="119"/>
       <c r="D16" s="26">
         <v>8</v>
       </c>
@@ -9397,21 +9432,21 @@
       <c r="S16" s="26">
         <v>8</v>
       </c>
-      <c r="T16" s="106"/>
-      <c r="U16" s="106"/>
-      <c r="V16" s="100"/>
-      <c r="W16" s="148"/>
-      <c r="X16" s="101"/>
-      <c r="Y16" s="102"/>
-      <c r="Z16" s="3">
+      <c r="T16" s="121"/>
+      <c r="U16" s="121"/>
+      <c r="V16" s="124"/>
+      <c r="W16" s="151"/>
+      <c r="X16" s="125"/>
+      <c r="Y16" s="126"/>
+      <c r="Z16" s="101">
         <f>SUM(D16:S16)</f>
         <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A17" s="108"/>
-      <c r="B17" s="109"/>
-      <c r="C17" s="110"/>
+      <c r="A17" s="117"/>
+      <c r="B17" s="118"/>
+      <c r="C17" s="119"/>
       <c r="D17" s="27">
         <v>17</v>
       </c>
@@ -9460,20 +9495,20 @@
       <c r="S17" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T17" s="106"/>
-      <c r="U17" s="106"/>
-      <c r="V17" s="100"/>
-      <c r="W17" s="148"/>
-      <c r="X17" s="99">
+      <c r="T17" s="121"/>
+      <c r="U17" s="121"/>
+      <c r="V17" s="124"/>
+      <c r="W17" s="151"/>
+      <c r="X17" s="123">
         <f>Z16+Z18</f>
         <v>176</v>
       </c>
-      <c r="Y17" s="102"/>
+      <c r="Y17" s="126"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A18" s="108"/>
-      <c r="B18" s="109"/>
-      <c r="C18" s="110"/>
+      <c r="A18" s="117"/>
+      <c r="B18" s="118"/>
+      <c r="C18" s="119"/>
       <c r="D18" s="26">
         <v>8</v>
       </c>
@@ -9522,13 +9557,13 @@
       <c r="S18" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T18" s="107"/>
-      <c r="U18" s="107"/>
-      <c r="V18" s="101"/>
-      <c r="W18" s="149"/>
-      <c r="X18" s="101"/>
-      <c r="Y18" s="102"/>
-      <c r="Z18" s="2">
+      <c r="T18" s="122"/>
+      <c r="U18" s="122"/>
+      <c r="V18" s="125"/>
+      <c r="W18" s="152"/>
+      <c r="X18" s="125"/>
+      <c r="Y18" s="126"/>
+      <c r="Z18" s="100">
         <f>SUM(D18:S18)</f>
         <v>80</v>
       </c>
@@ -9637,6 +9672,26 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="T15:T18"/>
+    <mergeCell ref="U15:U18"/>
+    <mergeCell ref="V15:V18"/>
+    <mergeCell ref="W15:W18"/>
+    <mergeCell ref="X15:X16"/>
+    <mergeCell ref="Y15:Y18"/>
+    <mergeCell ref="X17:X18"/>
+    <mergeCell ref="V11:V14"/>
+    <mergeCell ref="W11:W14"/>
+    <mergeCell ref="X11:X12"/>
+    <mergeCell ref="Y11:Y14"/>
+    <mergeCell ref="X13:X14"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="T11:T14"/>
+    <mergeCell ref="U11:U14"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A7:W7"/>
     <mergeCell ref="A8:Y8"/>
@@ -9650,26 +9705,6 @@
     <mergeCell ref="W9:W10"/>
     <mergeCell ref="X9:X10"/>
     <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="T11:T14"/>
-    <mergeCell ref="U11:U14"/>
-    <mergeCell ref="V11:V14"/>
-    <mergeCell ref="W11:W14"/>
-    <mergeCell ref="X11:X12"/>
-    <mergeCell ref="Y11:Y14"/>
-    <mergeCell ref="X13:X14"/>
-    <mergeCell ref="V15:V18"/>
-    <mergeCell ref="W15:W18"/>
-    <mergeCell ref="X15:X16"/>
-    <mergeCell ref="Y15:Y18"/>
-    <mergeCell ref="X17:X18"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="T15:T18"/>
-    <mergeCell ref="U15:U18"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -9697,49 +9732,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="P1" s="113"/>
-      <c r="Q1" s="113"/>
-      <c r="R1" s="113"/>
-      <c r="S1" s="113"/>
-      <c r="T1" s="113"/>
-      <c r="U1" s="113"/>
-      <c r="V1" s="113"/>
-      <c r="W1" s="113"/>
-      <c r="X1" s="113"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="P1" s="104"/>
+      <c r="Q1" s="104"/>
+      <c r="R1" s="104"/>
+      <c r="S1" s="104"/>
+      <c r="T1" s="104"/>
+      <c r="U1" s="104"/>
+      <c r="V1" s="104"/>
+      <c r="W1" s="104"/>
+      <c r="X1" s="104"/>
     </row>
     <row r="2" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="114" t="s">
+      <c r="A2" s="105" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="114"/>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="114"/>
-      <c r="H2" s="114"/>
-      <c r="I2" s="114"/>
-      <c r="J2" s="114"/>
-      <c r="K2" s="114"/>
-      <c r="L2" s="114"/>
-      <c r="M2" s="114"/>
-      <c r="N2" s="114"/>
-      <c r="O2" s="114"/>
-      <c r="P2" s="114"/>
-      <c r="Q2" s="114"/>
-      <c r="R2" s="114"/>
-      <c r="S2" s="114"/>
-      <c r="T2" s="114"/>
-      <c r="U2" s="114"/>
-      <c r="V2" s="114"/>
-      <c r="W2" s="114"/>
-      <c r="X2" s="114"/>
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="105"/>
+      <c r="J2" s="105"/>
+      <c r="K2" s="105"/>
+      <c r="L2" s="105"/>
+      <c r="M2" s="105"/>
+      <c r="N2" s="105"/>
+      <c r="O2" s="105"/>
+      <c r="P2" s="105"/>
+      <c r="Q2" s="105"/>
+      <c r="R2" s="105"/>
+      <c r="S2" s="105"/>
+      <c r="T2" s="105"/>
+      <c r="U2" s="105"/>
+      <c r="V2" s="105"/>
+      <c r="W2" s="105"/>
+      <c r="X2" s="105"/>
     </row>
     <row r="3" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="19"/>
@@ -9849,147 +9884,147 @@
       <c r="X6" s="2"/>
     </row>
     <row r="7" spans="1:28" ht="20" x14ac:dyDescent="0.35">
-      <c r="A7" s="115" t="s">
+      <c r="A7" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="115"/>
-      <c r="C7" s="115"/>
-      <c r="D7" s="115"/>
-      <c r="E7" s="115"/>
-      <c r="F7" s="115"/>
-      <c r="G7" s="115"/>
-      <c r="H7" s="115"/>
-      <c r="I7" s="115"/>
-      <c r="J7" s="115"/>
-      <c r="K7" s="115"/>
-      <c r="L7" s="115"/>
-      <c r="M7" s="115"/>
-      <c r="N7" s="115"/>
-      <c r="O7" s="115"/>
-      <c r="P7" s="115"/>
-      <c r="Q7" s="115"/>
-      <c r="R7" s="115"/>
-      <c r="S7" s="115"/>
-      <c r="T7" s="115"/>
-      <c r="U7" s="115"/>
-      <c r="V7" s="115"/>
-      <c r="W7" s="115"/>
-      <c r="X7" s="115"/>
+      <c r="B7" s="106"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="106"/>
+      <c r="E7" s="106"/>
+      <c r="F7" s="106"/>
+      <c r="G7" s="106"/>
+      <c r="H7" s="106"/>
+      <c r="I7" s="106"/>
+      <c r="J7" s="106"/>
+      <c r="K7" s="106"/>
+      <c r="L7" s="106"/>
+      <c r="M7" s="106"/>
+      <c r="N7" s="106"/>
+      <c r="O7" s="106"/>
+      <c r="P7" s="106"/>
+      <c r="Q7" s="106"/>
+      <c r="R7" s="106"/>
+      <c r="S7" s="106"/>
+      <c r="T7" s="106"/>
+      <c r="U7" s="106"/>
+      <c r="V7" s="106"/>
+      <c r="W7" s="106"/>
+      <c r="X7" s="106"/>
     </row>
     <row r="8" spans="1:28" ht="20" x14ac:dyDescent="0.35">
-      <c r="A8" s="116" t="str">
+      <c r="A8" s="107" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ЛИСТОПАД 2021р.</v>
       </c>
-      <c r="B8" s="116"/>
-      <c r="C8" s="116"/>
-      <c r="D8" s="116"/>
-      <c r="E8" s="116"/>
-      <c r="F8" s="116"/>
-      <c r="G8" s="116"/>
-      <c r="H8" s="116"/>
-      <c r="I8" s="116"/>
-      <c r="J8" s="116"/>
-      <c r="K8" s="116"/>
-      <c r="L8" s="116"/>
-      <c r="M8" s="116"/>
-      <c r="N8" s="116"/>
-      <c r="O8" s="116"/>
-      <c r="P8" s="116"/>
-      <c r="Q8" s="116"/>
-      <c r="R8" s="116"/>
-      <c r="S8" s="116"/>
-      <c r="T8" s="116"/>
-      <c r="U8" s="116"/>
-      <c r="V8" s="116"/>
-      <c r="W8" s="116"/>
-      <c r="X8" s="116"/>
+      <c r="B8" s="107"/>
+      <c r="C8" s="107"/>
+      <c r="D8" s="107"/>
+      <c r="E8" s="107"/>
+      <c r="F8" s="107"/>
+      <c r="G8" s="107"/>
+      <c r="H8" s="107"/>
+      <c r="I8" s="107"/>
+      <c r="J8" s="107"/>
+      <c r="K8" s="107"/>
+      <c r="L8" s="107"/>
+      <c r="M8" s="107"/>
+      <c r="N8" s="107"/>
+      <c r="O8" s="107"/>
+      <c r="P8" s="107"/>
+      <c r="Q8" s="107"/>
+      <c r="R8" s="107"/>
+      <c r="S8" s="107"/>
+      <c r="T8" s="107"/>
+      <c r="U8" s="107"/>
+      <c r="V8" s="107"/>
+      <c r="W8" s="107"/>
+      <c r="X8" s="107"/>
     </row>
     <row r="9" spans="1:28" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="117" t="s">
+      <c r="A9" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="118"/>
-      <c r="C9" s="117" t="s">
+      <c r="B9" s="109"/>
+      <c r="C9" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="117" t="s">
+      <c r="D9" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="119" t="s">
+      <c r="E9" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="120"/>
-      <c r="G9" s="120"/>
-      <c r="H9" s="120"/>
-      <c r="I9" s="120"/>
-      <c r="J9" s="120"/>
-      <c r="K9" s="120"/>
-      <c r="L9" s="120"/>
-      <c r="M9" s="120"/>
-      <c r="N9" s="120"/>
-      <c r="O9" s="120"/>
-      <c r="P9" s="120"/>
-      <c r="Q9" s="120"/>
-      <c r="R9" s="120"/>
-      <c r="S9" s="120"/>
-      <c r="T9" s="121"/>
-      <c r="U9" s="125" t="s">
+      <c r="F9" s="111"/>
+      <c r="G9" s="111"/>
+      <c r="H9" s="111"/>
+      <c r="I9" s="111"/>
+      <c r="J9" s="111"/>
+      <c r="K9" s="111"/>
+      <c r="L9" s="111"/>
+      <c r="M9" s="111"/>
+      <c r="N9" s="111"/>
+      <c r="O9" s="111"/>
+      <c r="P9" s="111"/>
+      <c r="Q9" s="111"/>
+      <c r="R9" s="111"/>
+      <c r="S9" s="111"/>
+      <c r="T9" s="112"/>
+      <c r="U9" s="116" t="s">
         <v>48</v>
       </c>
-      <c r="V9" s="125" t="s">
+      <c r="V9" s="116" t="s">
         <v>49</v>
       </c>
-      <c r="W9" s="125" t="s">
+      <c r="W9" s="116" t="s">
         <v>50</v>
       </c>
-      <c r="X9" s="125" t="s">
+      <c r="X9" s="116" t="s">
         <v>47</v>
       </c>
-      <c r="Y9" s="125" t="s">
+      <c r="Y9" s="116" t="s">
         <v>46</v>
       </c>
-      <c r="Z9" s="111" t="s">
+      <c r="Z9" s="102" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:28" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="117"/>
-      <c r="B10" s="118"/>
-      <c r="C10" s="117"/>
-      <c r="D10" s="117"/>
-      <c r="E10" s="122"/>
-      <c r="F10" s="123"/>
-      <c r="G10" s="123"/>
-      <c r="H10" s="123"/>
-      <c r="I10" s="123"/>
-      <c r="J10" s="123"/>
-      <c r="K10" s="123"/>
-      <c r="L10" s="123"/>
-      <c r="M10" s="123"/>
-      <c r="N10" s="123"/>
-      <c r="O10" s="123"/>
-      <c r="P10" s="123"/>
-      <c r="Q10" s="123"/>
-      <c r="R10" s="123"/>
-      <c r="S10" s="123"/>
-      <c r="T10" s="124"/>
-      <c r="U10" s="125"/>
-      <c r="V10" s="125"/>
-      <c r="W10" s="125"/>
-      <c r="X10" s="125"/>
-      <c r="Y10" s="125"/>
-      <c r="Z10" s="111"/>
+      <c r="A10" s="108"/>
+      <c r="B10" s="109"/>
+      <c r="C10" s="108"/>
+      <c r="D10" s="108"/>
+      <c r="E10" s="113"/>
+      <c r="F10" s="114"/>
+      <c r="G10" s="114"/>
+      <c r="H10" s="114"/>
+      <c r="I10" s="114"/>
+      <c r="J10" s="114"/>
+      <c r="K10" s="114"/>
+      <c r="L10" s="114"/>
+      <c r="M10" s="114"/>
+      <c r="N10" s="114"/>
+      <c r="O10" s="114"/>
+      <c r="P10" s="114"/>
+      <c r="Q10" s="114"/>
+      <c r="R10" s="114"/>
+      <c r="S10" s="114"/>
+      <c r="T10" s="115"/>
+      <c r="U10" s="116"/>
+      <c r="V10" s="116"/>
+      <c r="W10" s="116"/>
+      <c r="X10" s="116"/>
+      <c r="Y10" s="116"/>
+      <c r="Z10" s="102"/>
     </row>
     <row r="11" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="108">
+      <c r="A11" s="117">
         <v>1</v>
       </c>
-      <c r="B11" s="108"/>
-      <c r="C11" s="109" t="s">
+      <c r="B11" s="117"/>
+      <c r="C11" s="118" t="s">
         <v>59</v>
       </c>
-      <c r="D11" s="110" t="s">
+      <c r="D11" s="119" t="s">
         <v>56</v>
       </c>
       <c r="E11" s="25">
@@ -10040,20 +10075,20 @@
       <c r="T11" s="25">
         <v>16</v>
       </c>
-      <c r="U11" s="105" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="105" t="s">
-        <v>8</v>
-      </c>
-      <c r="W11" s="99" t="s">
+      <c r="U11" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11" s="123" t="s">
         <v>8</v>
       </c>
       <c r="X11" s="48"/>
-      <c r="Y11" s="99">
+      <c r="Y11" s="123">
         <v>22</v>
       </c>
-      <c r="Z11" s="102">
+      <c r="Z11" s="126">
         <v>6060</v>
       </c>
       <c r="AA11" s="2">
@@ -10062,10 +10097,10 @@
       </c>
     </row>
     <row r="12" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="108"/>
-      <c r="B12" s="108"/>
-      <c r="C12" s="109"/>
-      <c r="D12" s="110"/>
+      <c r="A12" s="117"/>
+      <c r="B12" s="117"/>
+      <c r="C12" s="118"/>
+      <c r="D12" s="119"/>
       <c r="E12" s="26">
         <v>2</v>
       </c>
@@ -10114,18 +10149,18 @@
       <c r="T12" s="26">
         <v>2</v>
       </c>
-      <c r="U12" s="106"/>
-      <c r="V12" s="106"/>
-      <c r="W12" s="100"/>
+      <c r="U12" s="121"/>
+      <c r="V12" s="121"/>
+      <c r="W12" s="124"/>
       <c r="X12" s="50"/>
-      <c r="Y12" s="101"/>
-      <c r="Z12" s="102"/>
+      <c r="Y12" s="125"/>
+      <c r="Z12" s="126"/>
     </row>
     <row r="13" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="108"/>
-      <c r="B13" s="108"/>
-      <c r="C13" s="109"/>
-      <c r="D13" s="110"/>
+      <c r="A13" s="117"/>
+      <c r="B13" s="117"/>
+      <c r="C13" s="118"/>
+      <c r="D13" s="119"/>
       <c r="E13" s="27">
         <v>17</v>
       </c>
@@ -10174,24 +10209,24 @@
       <c r="T13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U13" s="106"/>
-      <c r="V13" s="106"/>
-      <c r="W13" s="100"/>
+      <c r="U13" s="121"/>
+      <c r="V13" s="121"/>
+      <c r="W13" s="124"/>
       <c r="X13" s="50"/>
-      <c r="Y13" s="99">
+      <c r="Y13" s="123">
         <v>44</v>
       </c>
-      <c r="Z13" s="102"/>
+      <c r="Z13" s="126"/>
       <c r="AB13" s="2">
         <f>AA11+AA14</f>
         <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="108"/>
-      <c r="B14" s="108"/>
-      <c r="C14" s="109"/>
-      <c r="D14" s="110"/>
+      <c r="A14" s="117"/>
+      <c r="B14" s="117"/>
+      <c r="C14" s="118"/>
+      <c r="D14" s="119"/>
       <c r="E14" s="26">
         <v>2</v>
       </c>
@@ -10240,12 +10275,12 @@
       <c r="T14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="107"/>
-      <c r="V14" s="107"/>
-      <c r="W14" s="101"/>
+      <c r="U14" s="122"/>
+      <c r="V14" s="122"/>
+      <c r="W14" s="125"/>
       <c r="X14" s="49"/>
-      <c r="Y14" s="101"/>
-      <c r="Z14" s="102"/>
+      <c r="Y14" s="125"/>
+      <c r="Z14" s="126"/>
       <c r="AA14" s="2">
         <f>SUM(E14:T14)</f>
         <v>20</v>
@@ -10330,29 +10365,32 @@
       <c r="X17" s="9"/>
     </row>
     <row r="18" spans="1:24" s="39" customFormat="1" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="B18" s="103" t="s">
+      <c r="B18" s="127" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="103"/>
-      <c r="D18" s="150">
+      <c r="C18" s="127"/>
+      <c r="D18" s="153">
         <f>Мельницький!C36</f>
         <v>44531</v>
       </c>
-      <c r="E18" s="150"/>
-      <c r="F18" s="150"/>
-      <c r="G18" s="150"/>
-      <c r="H18" s="150"/>
+      <c r="E18" s="153"/>
+      <c r="F18" s="153"/>
+      <c r="G18" s="153"/>
+      <c r="H18" s="153"/>
       <c r="L18" s="39" t="s">
         <v>60</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="U11:U14"/>
+    <mergeCell ref="Z9:Z10"/>
+    <mergeCell ref="Y11:Y12"/>
+    <mergeCell ref="Z11:Z14"/>
+    <mergeCell ref="Y13:Y14"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:H18"/>
+    <mergeCell ref="V11:V14"/>
+    <mergeCell ref="W11:W14"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="P1:X1"/>
     <mergeCell ref="A2:X2"/>
@@ -10368,14 +10406,11 @@
     <mergeCell ref="U9:U10"/>
     <mergeCell ref="V9:V10"/>
     <mergeCell ref="W9:W10"/>
-    <mergeCell ref="Z9:Z10"/>
-    <mergeCell ref="Y11:Y12"/>
-    <mergeCell ref="Z11:Z14"/>
-    <mergeCell ref="Y13:Y14"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:H18"/>
-    <mergeCell ref="V11:V14"/>
-    <mergeCell ref="W11:W14"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="U11:U14"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="99" orientation="landscape" r:id="rId1"/>
@@ -10388,8 +10423,8 @@
   <sheetPr codeName="Лист2"/>
   <dimension ref="A1:AD46"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="X27" sqref="X27:X28"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="Y38" sqref="A1:Y38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
@@ -10409,11 +10444,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
       <c r="Q1" s="15" t="s">
         <v>40</v>
       </c>
@@ -10503,142 +10538,142 @@
       <c r="W4" s="95"/>
     </row>
     <row r="5" spans="1:28" ht="20" x14ac:dyDescent="0.35">
-      <c r="A5" s="115" t="s">
+      <c r="A5" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="115"/>
-      <c r="C5" s="115"/>
-      <c r="D5" s="115"/>
-      <c r="E5" s="115"/>
-      <c r="F5" s="115"/>
-      <c r="G5" s="115"/>
-      <c r="H5" s="115"/>
-      <c r="I5" s="115"/>
-      <c r="J5" s="115"/>
-      <c r="K5" s="115"/>
-      <c r="L5" s="115"/>
-      <c r="M5" s="115"/>
-      <c r="N5" s="115"/>
-      <c r="O5" s="115"/>
-      <c r="P5" s="115"/>
-      <c r="Q5" s="115"/>
-      <c r="R5" s="115"/>
-      <c r="S5" s="115"/>
-      <c r="T5" s="115"/>
-      <c r="U5" s="115"/>
-      <c r="V5" s="115"/>
-      <c r="W5" s="115"/>
+      <c r="B5" s="106"/>
+      <c r="C5" s="106"/>
+      <c r="D5" s="106"/>
+      <c r="E5" s="106"/>
+      <c r="F5" s="106"/>
+      <c r="G5" s="106"/>
+      <c r="H5" s="106"/>
+      <c r="I5" s="106"/>
+      <c r="J5" s="106"/>
+      <c r="K5" s="106"/>
+      <c r="L5" s="106"/>
+      <c r="M5" s="106"/>
+      <c r="N5" s="106"/>
+      <c r="O5" s="106"/>
+      <c r="P5" s="106"/>
+      <c r="Q5" s="106"/>
+      <c r="R5" s="106"/>
+      <c r="S5" s="106"/>
+      <c r="T5" s="106"/>
+      <c r="U5" s="106"/>
+      <c r="V5" s="106"/>
+      <c r="W5" s="106"/>
     </row>
     <row r="6" spans="1:28" ht="20" x14ac:dyDescent="0.35">
-      <c r="A6" s="115" t="str">
+      <c r="A6" s="106" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ЛИСТОПАД 2021р.</v>
       </c>
-      <c r="B6" s="115"/>
-      <c r="C6" s="115"/>
-      <c r="D6" s="115"/>
-      <c r="E6" s="115"/>
-      <c r="F6" s="115"/>
-      <c r="G6" s="115"/>
-      <c r="H6" s="115"/>
-      <c r="I6" s="115"/>
-      <c r="J6" s="115"/>
-      <c r="K6" s="115"/>
-      <c r="L6" s="115"/>
-      <c r="M6" s="115"/>
-      <c r="N6" s="115"/>
-      <c r="O6" s="115"/>
-      <c r="P6" s="115"/>
-      <c r="Q6" s="115"/>
-      <c r="R6" s="115"/>
-      <c r="S6" s="115"/>
-      <c r="T6" s="115"/>
-      <c r="U6" s="115"/>
-      <c r="V6" s="115"/>
-      <c r="W6" s="115"/>
+      <c r="B6" s="106"/>
+      <c r="C6" s="106"/>
+      <c r="D6" s="106"/>
+      <c r="E6" s="106"/>
+      <c r="F6" s="106"/>
+      <c r="G6" s="106"/>
+      <c r="H6" s="106"/>
+      <c r="I6" s="106"/>
+      <c r="J6" s="106"/>
+      <c r="K6" s="106"/>
+      <c r="L6" s="106"/>
+      <c r="M6" s="106"/>
+      <c r="N6" s="106"/>
+      <c r="O6" s="106"/>
+      <c r="P6" s="106"/>
+      <c r="Q6" s="106"/>
+      <c r="R6" s="106"/>
+      <c r="S6" s="106"/>
+      <c r="T6" s="106"/>
+      <c r="U6" s="106"/>
+      <c r="V6" s="106"/>
+      <c r="W6" s="106"/>
     </row>
     <row r="7" spans="1:28" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="117" t="s">
+      <c r="A7" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="117" t="s">
+      <c r="B7" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="117" t="s">
+      <c r="C7" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="119" t="s">
+      <c r="D7" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="120"/>
-      <c r="F7" s="120"/>
-      <c r="G7" s="120"/>
-      <c r="H7" s="120"/>
-      <c r="I7" s="120"/>
-      <c r="J7" s="120"/>
-      <c r="K7" s="120"/>
-      <c r="L7" s="120"/>
-      <c r="M7" s="120"/>
-      <c r="N7" s="120"/>
-      <c r="O7" s="120"/>
-      <c r="P7" s="120"/>
-      <c r="Q7" s="120"/>
-      <c r="R7" s="120"/>
-      <c r="S7" s="121"/>
-      <c r="T7" s="125" t="s">
+      <c r="E7" s="111"/>
+      <c r="F7" s="111"/>
+      <c r="G7" s="111"/>
+      <c r="H7" s="111"/>
+      <c r="I7" s="111"/>
+      <c r="J7" s="111"/>
+      <c r="K7" s="111"/>
+      <c r="L7" s="111"/>
+      <c r="M7" s="111"/>
+      <c r="N7" s="111"/>
+      <c r="O7" s="111"/>
+      <c r="P7" s="111"/>
+      <c r="Q7" s="111"/>
+      <c r="R7" s="111"/>
+      <c r="S7" s="112"/>
+      <c r="T7" s="116" t="s">
         <v>48</v>
       </c>
-      <c r="U7" s="125" t="s">
+      <c r="U7" s="116" t="s">
         <v>49</v>
       </c>
-      <c r="V7" s="125" t="s">
+      <c r="V7" s="116" t="s">
         <v>50</v>
       </c>
-      <c r="W7" s="125" t="s">
+      <c r="W7" s="116" t="s">
         <v>77</v>
       </c>
-      <c r="X7" s="125" t="s">
+      <c r="X7" s="116" t="s">
         <v>46</v>
       </c>
-      <c r="Y7" s="111" t="s">
+      <c r="Y7" s="102" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:28" ht="42" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="117"/>
-      <c r="B8" s="117"/>
-      <c r="C8" s="117"/>
-      <c r="D8" s="122"/>
-      <c r="E8" s="123"/>
-      <c r="F8" s="123"/>
-      <c r="G8" s="123"/>
-      <c r="H8" s="123"/>
-      <c r="I8" s="123"/>
-      <c r="J8" s="123"/>
-      <c r="K8" s="123"/>
-      <c r="L8" s="123"/>
-      <c r="M8" s="123"/>
-      <c r="N8" s="123"/>
-      <c r="O8" s="123"/>
-      <c r="P8" s="123"/>
-      <c r="Q8" s="123"/>
-      <c r="R8" s="123"/>
-      <c r="S8" s="124"/>
-      <c r="T8" s="125"/>
-      <c r="U8" s="125"/>
-      <c r="V8" s="125"/>
-      <c r="W8" s="125"/>
-      <c r="X8" s="125"/>
-      <c r="Y8" s="111"/>
+      <c r="A8" s="108"/>
+      <c r="B8" s="108"/>
+      <c r="C8" s="108"/>
+      <c r="D8" s="113"/>
+      <c r="E8" s="114"/>
+      <c r="F8" s="114"/>
+      <c r="G8" s="114"/>
+      <c r="H8" s="114"/>
+      <c r="I8" s="114"/>
+      <c r="J8" s="114"/>
+      <c r="K8" s="114"/>
+      <c r="L8" s="114"/>
+      <c r="M8" s="114"/>
+      <c r="N8" s="114"/>
+      <c r="O8" s="114"/>
+      <c r="P8" s="114"/>
+      <c r="Q8" s="114"/>
+      <c r="R8" s="114"/>
+      <c r="S8" s="115"/>
+      <c r="T8" s="116"/>
+      <c r="U8" s="116"/>
+      <c r="V8" s="116"/>
+      <c r="W8" s="116"/>
+      <c r="X8" s="116"/>
+      <c r="Y8" s="102"/>
     </row>
     <row r="9" spans="1:28" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="108">
+      <c r="A9" s="117">
         <v>1</v>
       </c>
-      <c r="B9" s="109" t="s">
+      <c r="B9" s="118" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="137" t="s">
+      <c r="C9" s="147" t="s">
         <v>26</v>
       </c>
       <c r="D9" s="25">
@@ -10689,29 +10724,29 @@
       <c r="S9" s="25">
         <v>16</v>
       </c>
-      <c r="T9" s="105" t="s">
-        <v>8</v>
-      </c>
-      <c r="U9" s="105" t="s">
-        <v>8</v>
-      </c>
-      <c r="V9" s="99" t="s">
-        <v>8</v>
-      </c>
-      <c r="W9" s="99" t="s">
-        <v>8</v>
-      </c>
-      <c r="X9" s="99">
+      <c r="T9" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="U9" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="V9" s="123" t="s">
+        <v>8</v>
+      </c>
+      <c r="W9" s="123" t="s">
+        <v>8</v>
+      </c>
+      <c r="X9" s="123">
         <v>22</v>
       </c>
-      <c r="Y9" s="102">
+      <c r="Y9" s="126">
         <v>6300</v>
       </c>
     </row>
     <row r="10" spans="1:28" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="108"/>
-      <c r="B10" s="109"/>
-      <c r="C10" s="138"/>
+      <c r="A10" s="117"/>
+      <c r="B10" s="118"/>
+      <c r="C10" s="148"/>
       <c r="D10" s="26">
         <v>8</v>
       </c>
@@ -10760,21 +10795,21 @@
       <c r="S10" s="26">
         <v>8</v>
       </c>
-      <c r="T10" s="106"/>
-      <c r="U10" s="106"/>
-      <c r="V10" s="100"/>
-      <c r="W10" s="100"/>
-      <c r="X10" s="101"/>
-      <c r="Y10" s="102"/>
+      <c r="T10" s="121"/>
+      <c r="U10" s="121"/>
+      <c r="V10" s="124"/>
+      <c r="W10" s="124"/>
+      <c r="X10" s="125"/>
+      <c r="Y10" s="126"/>
       <c r="Z10" s="3">
         <f>SUM(D10:S10)</f>
         <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="108"/>
-      <c r="B11" s="109"/>
-      <c r="C11" s="138"/>
+      <c r="A11" s="117"/>
+      <c r="B11" s="118"/>
+      <c r="C11" s="148"/>
       <c r="D11" s="27">
         <v>17</v>
       </c>
@@ -10823,20 +10858,20 @@
       <c r="S11" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T11" s="106"/>
-      <c r="U11" s="106"/>
-      <c r="V11" s="100"/>
-      <c r="W11" s="100"/>
-      <c r="X11" s="99">
+      <c r="T11" s="121"/>
+      <c r="U11" s="121"/>
+      <c r="V11" s="124"/>
+      <c r="W11" s="124"/>
+      <c r="X11" s="123">
         <f>Z10+Z12</f>
         <v>176</v>
       </c>
-      <c r="Y11" s="102"/>
+      <c r="Y11" s="126"/>
     </row>
     <row r="12" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="108"/>
-      <c r="B12" s="109"/>
-      <c r="C12" s="139"/>
+      <c r="A12" s="117"/>
+      <c r="B12" s="118"/>
+      <c r="C12" s="149"/>
       <c r="D12" s="26">
         <v>8</v>
       </c>
@@ -10885,25 +10920,25 @@
       <c r="S12" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T12" s="107"/>
-      <c r="U12" s="107"/>
-      <c r="V12" s="101"/>
-      <c r="W12" s="101"/>
-      <c r="X12" s="101"/>
-      <c r="Y12" s="102"/>
+      <c r="T12" s="122"/>
+      <c r="U12" s="122"/>
+      <c r="V12" s="125"/>
+      <c r="W12" s="125"/>
+      <c r="X12" s="125"/>
+      <c r="Y12" s="126"/>
       <c r="Z12" s="2">
         <f>SUM(D12:S12)</f>
         <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="108">
+      <c r="A13" s="117">
         <v>2</v>
       </c>
-      <c r="B13" s="109" t="s">
+      <c r="B13" s="118" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="110" t="str">
+      <c r="C13" s="119" t="str">
         <f>C9</f>
         <v>лікар-стоматолог</v>
       </c>
@@ -10955,22 +10990,22 @@
       <c r="S13" s="25">
         <v>16</v>
       </c>
-      <c r="T13" s="105" t="s">
-        <v>8</v>
-      </c>
-      <c r="U13" s="105" t="s">
-        <v>8</v>
-      </c>
-      <c r="V13" s="99" t="s">
-        <v>8</v>
-      </c>
-      <c r="W13" s="99" t="s">
-        <v>8</v>
-      </c>
-      <c r="X13" s="99">
+      <c r="T13" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="U13" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="V13" s="123" t="s">
+        <v>8</v>
+      </c>
+      <c r="W13" s="123" t="s">
+        <v>8</v>
+      </c>
+      <c r="X13" s="123">
         <v>22</v>
       </c>
-      <c r="Y13" s="102">
+      <c r="Y13" s="126">
         <v>6300</v>
       </c>
       <c r="Z13" s="2" t="s">
@@ -10982,9 +11017,9 @@
       </c>
     </row>
     <row r="14" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="108"/>
-      <c r="B14" s="109"/>
-      <c r="C14" s="110"/>
+      <c r="A14" s="117"/>
+      <c r="B14" s="118"/>
+      <c r="C14" s="119"/>
       <c r="D14" s="26">
         <v>8</v>
       </c>
@@ -11033,12 +11068,12 @@
       <c r="S14" s="26">
         <v>8</v>
       </c>
-      <c r="T14" s="106"/>
-      <c r="U14" s="106"/>
-      <c r="V14" s="100"/>
-      <c r="W14" s="100"/>
-      <c r="X14" s="101"/>
-      <c r="Y14" s="102"/>
+      <c r="T14" s="121"/>
+      <c r="U14" s="121"/>
+      <c r="V14" s="124"/>
+      <c r="W14" s="124"/>
+      <c r="X14" s="125"/>
+      <c r="Y14" s="126"/>
       <c r="Z14" s="2">
         <f>SUM(D14:S14)</f>
         <v>96</v>
@@ -11049,9 +11084,9 @@
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="108"/>
-      <c r="B15" s="109"/>
-      <c r="C15" s="110"/>
+      <c r="A15" s="117"/>
+      <c r="B15" s="118"/>
+      <c r="C15" s="119"/>
       <c r="D15" s="27">
         <v>17</v>
       </c>
@@ -11100,20 +11135,20 @@
       <c r="S15" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T15" s="106"/>
-      <c r="U15" s="106"/>
-      <c r="V15" s="100"/>
-      <c r="W15" s="100"/>
-      <c r="X15" s="99">
+      <c r="T15" s="121"/>
+      <c r="U15" s="121"/>
+      <c r="V15" s="124"/>
+      <c r="W15" s="124"/>
+      <c r="X15" s="123">
         <f>Z14+Z16</f>
         <v>176</v>
       </c>
-      <c r="Y15" s="102"/>
+      <c r="Y15" s="126"/>
     </row>
     <row r="16" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="108"/>
-      <c r="B16" s="109"/>
-      <c r="C16" s="110"/>
+      <c r="A16" s="117"/>
+      <c r="B16" s="118"/>
+      <c r="C16" s="119"/>
       <c r="D16" s="26">
         <v>8</v>
       </c>
@@ -11162,12 +11197,12 @@
       <c r="S16" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T16" s="107"/>
-      <c r="U16" s="107"/>
-      <c r="V16" s="101"/>
-      <c r="W16" s="101"/>
-      <c r="X16" s="101"/>
-      <c r="Y16" s="102"/>
+      <c r="T16" s="122"/>
+      <c r="U16" s="122"/>
+      <c r="V16" s="125"/>
+      <c r="W16" s="125"/>
+      <c r="X16" s="125"/>
+      <c r="Y16" s="126"/>
       <c r="Z16" s="2">
         <f>SUM(D16:S16)</f>
         <v>80</v>
@@ -11178,13 +11213,13 @@
       </c>
     </row>
     <row r="17" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="161">
+      <c r="A17" s="160">
         <v>3</v>
       </c>
-      <c r="B17" s="162" t="s">
+      <c r="B17" s="161" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="154" t="s">
+      <c r="C17" s="162" t="s">
         <v>73</v>
       </c>
       <c r="D17" s="25">
@@ -11235,29 +11270,29 @@
       <c r="S17" s="25">
         <v>16</v>
       </c>
-      <c r="T17" s="105" t="s">
-        <v>8</v>
-      </c>
-      <c r="U17" s="158" t="s">
-        <v>8</v>
-      </c>
-      <c r="V17" s="155" t="s">
-        <v>8</v>
-      </c>
-      <c r="W17" s="155" t="s">
-        <v>8</v>
-      </c>
-      <c r="X17" s="155">
+      <c r="T17" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="U17" s="157" t="s">
+        <v>8</v>
+      </c>
+      <c r="V17" s="154" t="s">
+        <v>8</v>
+      </c>
+      <c r="W17" s="154" t="s">
+        <v>8</v>
+      </c>
+      <c r="X17" s="154">
         <v>22</v>
       </c>
-      <c r="Y17" s="102">
+      <c r="Y17" s="126">
         <v>6060</v>
       </c>
     </row>
     <row r="18" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="161"/>
-      <c r="B18" s="162"/>
-      <c r="C18" s="154"/>
+      <c r="A18" s="160"/>
+      <c r="B18" s="161"/>
+      <c r="C18" s="162"/>
       <c r="D18" s="26">
         <v>8</v>
       </c>
@@ -11306,21 +11341,21 @@
       <c r="S18" s="26">
         <v>8</v>
       </c>
-      <c r="T18" s="106"/>
-      <c r="U18" s="159"/>
-      <c r="V18" s="157"/>
-      <c r="W18" s="157"/>
+      <c r="T18" s="121"/>
+      <c r="U18" s="158"/>
+      <c r="V18" s="155"/>
+      <c r="W18" s="155"/>
       <c r="X18" s="156"/>
-      <c r="Y18" s="102"/>
+      <c r="Y18" s="126"/>
       <c r="Z18" s="2">
         <f>SUM(D18:S18)</f>
         <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="161"/>
-      <c r="B19" s="162"/>
-      <c r="C19" s="154"/>
+      <c r="A19" s="160"/>
+      <c r="B19" s="161"/>
+      <c r="C19" s="162"/>
       <c r="D19" s="27">
         <v>17</v>
       </c>
@@ -11369,20 +11404,20 @@
       <c r="S19" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T19" s="106"/>
-      <c r="U19" s="159"/>
-      <c r="V19" s="157"/>
-      <c r="W19" s="157"/>
-      <c r="X19" s="99">
+      <c r="T19" s="121"/>
+      <c r="U19" s="158"/>
+      <c r="V19" s="155"/>
+      <c r="W19" s="155"/>
+      <c r="X19" s="123">
         <f>Z18+Z20</f>
         <v>176</v>
       </c>
-      <c r="Y19" s="102"/>
+      <c r="Y19" s="126"/>
     </row>
     <row r="20" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="161"/>
-      <c r="B20" s="162"/>
-      <c r="C20" s="154"/>
+      <c r="A20" s="160"/>
+      <c r="B20" s="161"/>
+      <c r="C20" s="162"/>
       <c r="D20" s="26">
         <v>8</v>
       </c>
@@ -11431,12 +11466,12 @@
       <c r="S20" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T20" s="107"/>
-      <c r="U20" s="160"/>
+      <c r="T20" s="122"/>
+      <c r="U20" s="159"/>
       <c r="V20" s="156"/>
       <c r="W20" s="156"/>
-      <c r="X20" s="101"/>
-      <c r="Y20" s="102"/>
+      <c r="X20" s="125"/>
+      <c r="Y20" s="126"/>
       <c r="Z20" s="2">
         <f>SUM(D20:S20)</f>
         <v>80</v>
@@ -11446,10 +11481,10 @@
       <c r="A21" s="131">
         <v>4</v>
       </c>
-      <c r="B21" s="151" t="s">
+      <c r="B21" s="163" t="s">
         <v>87</v>
       </c>
-      <c r="C21" s="154" t="s">
+      <c r="C21" s="162" t="s">
         <v>26</v>
       </c>
       <c r="D21" s="25">
@@ -11500,29 +11535,29 @@
       <c r="S21" s="25">
         <v>16</v>
       </c>
-      <c r="T21" s="105" t="s">
-        <v>8</v>
-      </c>
-      <c r="U21" s="105" t="s">
-        <v>8</v>
-      </c>
-      <c r="V21" s="99" t="s">
-        <v>8</v>
-      </c>
-      <c r="W21" s="99" t="s">
-        <v>8</v>
-      </c>
-      <c r="X21" s="99">
+      <c r="T21" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="U21" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="V21" s="123" t="s">
+        <v>8</v>
+      </c>
+      <c r="W21" s="123" t="s">
+        <v>8</v>
+      </c>
+      <c r="X21" s="123">
         <v>22</v>
       </c>
-      <c r="Y21" s="102">
+      <c r="Y21" s="126">
         <v>6060</v>
       </c>
     </row>
     <row r="22" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="132"/>
-      <c r="B22" s="152"/>
-      <c r="C22" s="154"/>
+      <c r="B22" s="164"/>
+      <c r="C22" s="162"/>
       <c r="D22" s="26">
         <v>8</v>
       </c>
@@ -11571,12 +11606,12 @@
       <c r="S22" s="26">
         <v>8</v>
       </c>
-      <c r="T22" s="106"/>
-      <c r="U22" s="106"/>
-      <c r="V22" s="100"/>
-      <c r="W22" s="100"/>
-      <c r="X22" s="100"/>
-      <c r="Y22" s="102"/>
+      <c r="T22" s="121"/>
+      <c r="U22" s="121"/>
+      <c r="V22" s="124"/>
+      <c r="W22" s="124"/>
+      <c r="X22" s="124"/>
+      <c r="Y22" s="126"/>
       <c r="Z22" s="2">
         <f>SUM(D22:S22)</f>
         <v>96</v>
@@ -11584,8 +11619,8 @@
     </row>
     <row r="23" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="132"/>
-      <c r="B23" s="152"/>
-      <c r="C23" s="154"/>
+      <c r="B23" s="164"/>
+      <c r="C23" s="162"/>
       <c r="D23" s="27">
         <v>17</v>
       </c>
@@ -11634,20 +11669,20 @@
       <c r="S23" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T23" s="106"/>
-      <c r="U23" s="106"/>
-      <c r="V23" s="100"/>
-      <c r="W23" s="100"/>
-      <c r="X23" s="99">
+      <c r="T23" s="121"/>
+      <c r="U23" s="121"/>
+      <c r="V23" s="124"/>
+      <c r="W23" s="124"/>
+      <c r="X23" s="123">
         <f>Z22+Z24</f>
         <v>176</v>
       </c>
-      <c r="Y23" s="102"/>
+      <c r="Y23" s="126"/>
     </row>
     <row r="24" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="133"/>
-      <c r="B24" s="153"/>
-      <c r="C24" s="154"/>
+      <c r="B24" s="165"/>
+      <c r="C24" s="162"/>
       <c r="D24" s="26">
         <v>8</v>
       </c>
@@ -11696,12 +11731,12 @@
       <c r="S24" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T24" s="107"/>
-      <c r="U24" s="107"/>
-      <c r="V24" s="101"/>
-      <c r="W24" s="101"/>
-      <c r="X24" s="101"/>
-      <c r="Y24" s="102"/>
+      <c r="T24" s="122"/>
+      <c r="U24" s="122"/>
+      <c r="V24" s="125"/>
+      <c r="W24" s="125"/>
+      <c r="X24" s="125"/>
+      <c r="Y24" s="126"/>
       <c r="Z24" s="2">
         <f>SUM(D24:S24)</f>
         <v>80</v>
@@ -11711,10 +11746,10 @@
       <c r="A25" s="131">
         <v>4</v>
       </c>
-      <c r="B25" s="151" t="s">
+      <c r="B25" s="163" t="s">
         <v>101</v>
       </c>
-      <c r="C25" s="154" t="s">
+      <c r="C25" s="162" t="s">
         <v>26</v>
       </c>
       <c r="D25" s="25">
@@ -11765,29 +11800,29 @@
       <c r="S25" s="25">
         <v>16</v>
       </c>
-      <c r="T25" s="105" t="s">
-        <v>8</v>
-      </c>
-      <c r="U25" s="105" t="s">
-        <v>8</v>
-      </c>
-      <c r="V25" s="99" t="s">
-        <v>8</v>
-      </c>
-      <c r="W25" s="99" t="s">
-        <v>8</v>
-      </c>
-      <c r="X25" s="99">
+      <c r="T25" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="U25" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="V25" s="123" t="s">
+        <v>8</v>
+      </c>
+      <c r="W25" s="123" t="s">
+        <v>8</v>
+      </c>
+      <c r="X25" s="123">
         <v>22</v>
       </c>
-      <c r="Y25" s="102">
+      <c r="Y25" s="126">
         <v>6060</v>
       </c>
     </row>
     <row r="26" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="132"/>
-      <c r="B26" s="152"/>
-      <c r="C26" s="154"/>
+      <c r="B26" s="164"/>
+      <c r="C26" s="162"/>
       <c r="D26" s="26">
         <v>8</v>
       </c>
@@ -11836,12 +11871,12 @@
       <c r="S26" s="26">
         <v>8</v>
       </c>
-      <c r="T26" s="106"/>
-      <c r="U26" s="106"/>
-      <c r="V26" s="100"/>
-      <c r="W26" s="100"/>
-      <c r="X26" s="100"/>
-      <c r="Y26" s="102"/>
+      <c r="T26" s="121"/>
+      <c r="U26" s="121"/>
+      <c r="V26" s="124"/>
+      <c r="W26" s="124"/>
+      <c r="X26" s="124"/>
+      <c r="Y26" s="126"/>
       <c r="Z26" s="2">
         <f>SUM(D26:S26)</f>
         <v>96</v>
@@ -11849,8 +11884,8 @@
     </row>
     <row r="27" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="132"/>
-      <c r="B27" s="152"/>
-      <c r="C27" s="154"/>
+      <c r="B27" s="164"/>
+      <c r="C27" s="162"/>
       <c r="D27" s="27">
         <v>17</v>
       </c>
@@ -11899,20 +11934,20 @@
       <c r="S27" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T27" s="106"/>
-      <c r="U27" s="106"/>
-      <c r="V27" s="100"/>
-      <c r="W27" s="100"/>
-      <c r="X27" s="99">
+      <c r="T27" s="121"/>
+      <c r="U27" s="121"/>
+      <c r="V27" s="124"/>
+      <c r="W27" s="124"/>
+      <c r="X27" s="123">
         <f>Z26+Z28</f>
         <v>176</v>
       </c>
-      <c r="Y27" s="102"/>
+      <c r="Y27" s="126"/>
     </row>
     <row r="28" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="133"/>
-      <c r="B28" s="153"/>
-      <c r="C28" s="154"/>
+      <c r="B28" s="165"/>
+      <c r="C28" s="162"/>
       <c r="D28" s="26">
         <v>8</v>
       </c>
@@ -11961,12 +11996,12 @@
       <c r="S28" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T28" s="107"/>
-      <c r="U28" s="107"/>
-      <c r="V28" s="101"/>
-      <c r="W28" s="101"/>
-      <c r="X28" s="101"/>
-      <c r="Y28" s="102"/>
+      <c r="T28" s="122"/>
+      <c r="U28" s="122"/>
+      <c r="V28" s="125"/>
+      <c r="W28" s="125"/>
+      <c r="X28" s="125"/>
+      <c r="Y28" s="126"/>
       <c r="Z28" s="2">
         <f>SUM(D28:S28)</f>
         <v>80</v>
@@ -12006,10 +12041,10 @@
       </c>
     </row>
     <row r="30" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="103" t="s">
+      <c r="A30" s="127" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="103"/>
+      <c r="B30" s="127"/>
       <c r="C30" s="96">
         <f>Мельницький!C36</f>
         <v>44531</v>
@@ -12170,6 +12205,54 @@
     </row>
   </sheetData>
   <mergeCells count="64">
+    <mergeCell ref="V25:V28"/>
+    <mergeCell ref="W25:W28"/>
+    <mergeCell ref="X25:X26"/>
+    <mergeCell ref="Y25:Y28"/>
+    <mergeCell ref="X27:X28"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="C25:C28"/>
+    <mergeCell ref="T25:T28"/>
+    <mergeCell ref="U25:U28"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="T13:T16"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="T9:T12"/>
+    <mergeCell ref="T21:T24"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A5:W5"/>
+    <mergeCell ref="A6:W6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:S8"/>
+    <mergeCell ref="T7:T8"/>
+    <mergeCell ref="U7:U8"/>
+    <mergeCell ref="V7:V8"/>
+    <mergeCell ref="W7:W8"/>
+    <mergeCell ref="X21:X22"/>
+    <mergeCell ref="Y21:Y24"/>
+    <mergeCell ref="V21:V24"/>
+    <mergeCell ref="U21:U24"/>
+    <mergeCell ref="X23:X24"/>
+    <mergeCell ref="X7:X8"/>
+    <mergeCell ref="Y7:Y8"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="Y9:Y12"/>
+    <mergeCell ref="X11:X12"/>
+    <mergeCell ref="X13:X14"/>
+    <mergeCell ref="Y13:Y16"/>
+    <mergeCell ref="X15:X16"/>
+    <mergeCell ref="X17:X18"/>
+    <mergeCell ref="Y17:Y20"/>
+    <mergeCell ref="X19:X20"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="W9:W12"/>
     <mergeCell ref="W17:W20"/>
@@ -12186,54 +12269,6 @@
     <mergeCell ref="V13:V16"/>
     <mergeCell ref="V17:V20"/>
     <mergeCell ref="A9:A12"/>
-    <mergeCell ref="X13:X14"/>
-    <mergeCell ref="Y13:Y16"/>
-    <mergeCell ref="X15:X16"/>
-    <mergeCell ref="X17:X18"/>
-    <mergeCell ref="Y17:Y20"/>
-    <mergeCell ref="X19:X20"/>
-    <mergeCell ref="X7:X8"/>
-    <mergeCell ref="Y7:Y8"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="Y9:Y12"/>
-    <mergeCell ref="X11:X12"/>
-    <mergeCell ref="X21:X22"/>
-    <mergeCell ref="Y21:Y24"/>
-    <mergeCell ref="V21:V24"/>
-    <mergeCell ref="U21:U24"/>
-    <mergeCell ref="X23:X24"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A5:W5"/>
-    <mergeCell ref="A6:W6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:S8"/>
-    <mergeCell ref="T7:T8"/>
-    <mergeCell ref="U7:U8"/>
-    <mergeCell ref="V7:V8"/>
-    <mergeCell ref="W7:W8"/>
-    <mergeCell ref="C9:C12"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="T9:T12"/>
-    <mergeCell ref="T21:T24"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="C21:C24"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="C13:C16"/>
-    <mergeCell ref="T13:T16"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="C25:C28"/>
-    <mergeCell ref="T25:T28"/>
-    <mergeCell ref="U25:U28"/>
-    <mergeCell ref="V25:V28"/>
-    <mergeCell ref="W25:W28"/>
-    <mergeCell ref="X25:X26"/>
-    <mergeCell ref="Y25:Y28"/>
-    <mergeCell ref="X27:X28"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -12267,11 +12302,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
       <c r="Q1" s="15" t="s">
         <v>40</v>
       </c>
@@ -12385,141 +12420,141 @@
       <c r="W5" s="70"/>
     </row>
     <row r="6" spans="1:25" ht="20" x14ac:dyDescent="0.35">
-      <c r="A6" s="115" t="s">
+      <c r="A6" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="115"/>
-      <c r="C6" s="115"/>
-      <c r="D6" s="115"/>
-      <c r="E6" s="115"/>
-      <c r="F6" s="115"/>
-      <c r="G6" s="115"/>
-      <c r="H6" s="115"/>
-      <c r="I6" s="115"/>
-      <c r="J6" s="115"/>
-      <c r="K6" s="115"/>
-      <c r="L6" s="115"/>
-      <c r="M6" s="115"/>
-      <c r="N6" s="115"/>
-      <c r="O6" s="115"/>
-      <c r="P6" s="115"/>
-      <c r="Q6" s="115"/>
-      <c r="R6" s="115"/>
-      <c r="S6" s="115"/>
-      <c r="T6" s="115"/>
-      <c r="U6" s="115"/>
-      <c r="V6" s="115"/>
-      <c r="W6" s="115"/>
+      <c r="B6" s="106"/>
+      <c r="C6" s="106"/>
+      <c r="D6" s="106"/>
+      <c r="E6" s="106"/>
+      <c r="F6" s="106"/>
+      <c r="G6" s="106"/>
+      <c r="H6" s="106"/>
+      <c r="I6" s="106"/>
+      <c r="J6" s="106"/>
+      <c r="K6" s="106"/>
+      <c r="L6" s="106"/>
+      <c r="M6" s="106"/>
+      <c r="N6" s="106"/>
+      <c r="O6" s="106"/>
+      <c r="P6" s="106"/>
+      <c r="Q6" s="106"/>
+      <c r="R6" s="106"/>
+      <c r="S6" s="106"/>
+      <c r="T6" s="106"/>
+      <c r="U6" s="106"/>
+      <c r="V6" s="106"/>
+      <c r="W6" s="106"/>
     </row>
     <row r="7" spans="1:25" ht="20" x14ac:dyDescent="0.35">
-      <c r="A7" s="115" t="s">
+      <c r="A7" s="106" t="s">
         <v>89</v>
       </c>
-      <c r="B7" s="115"/>
-      <c r="C7" s="115"/>
-      <c r="D7" s="115"/>
-      <c r="E7" s="115"/>
-      <c r="F7" s="115"/>
-      <c r="G7" s="115"/>
-      <c r="H7" s="115"/>
-      <c r="I7" s="115"/>
-      <c r="J7" s="115"/>
-      <c r="K7" s="115"/>
-      <c r="L7" s="115"/>
-      <c r="M7" s="115"/>
-      <c r="N7" s="115"/>
-      <c r="O7" s="115"/>
-      <c r="P7" s="115"/>
-      <c r="Q7" s="115"/>
-      <c r="R7" s="115"/>
-      <c r="S7" s="115"/>
-      <c r="T7" s="115"/>
-      <c r="U7" s="115"/>
-      <c r="V7" s="115"/>
-      <c r="W7" s="115"/>
+      <c r="B7" s="106"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="106"/>
+      <c r="E7" s="106"/>
+      <c r="F7" s="106"/>
+      <c r="G7" s="106"/>
+      <c r="H7" s="106"/>
+      <c r="I7" s="106"/>
+      <c r="J7" s="106"/>
+      <c r="K7" s="106"/>
+      <c r="L7" s="106"/>
+      <c r="M7" s="106"/>
+      <c r="N7" s="106"/>
+      <c r="O7" s="106"/>
+      <c r="P7" s="106"/>
+      <c r="Q7" s="106"/>
+      <c r="R7" s="106"/>
+      <c r="S7" s="106"/>
+      <c r="T7" s="106"/>
+      <c r="U7" s="106"/>
+      <c r="V7" s="106"/>
+      <c r="W7" s="106"/>
     </row>
     <row r="8" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="117" t="s">
+      <c r="A8" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="117" t="s">
+      <c r="B8" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="117" t="s">
+      <c r="C8" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="117" t="s">
+      <c r="D8" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="117"/>
-      <c r="F8" s="117"/>
-      <c r="G8" s="117"/>
-      <c r="H8" s="117"/>
-      <c r="I8" s="117"/>
-      <c r="J8" s="117"/>
-      <c r="K8" s="117"/>
-      <c r="L8" s="117"/>
-      <c r="M8" s="117"/>
-      <c r="N8" s="117"/>
-      <c r="O8" s="117"/>
-      <c r="P8" s="117"/>
-      <c r="Q8" s="117"/>
-      <c r="R8" s="117"/>
-      <c r="S8" s="117"/>
-      <c r="T8" s="125" t="s">
+      <c r="E8" s="108"/>
+      <c r="F8" s="108"/>
+      <c r="G8" s="108"/>
+      <c r="H8" s="108"/>
+      <c r="I8" s="108"/>
+      <c r="J8" s="108"/>
+      <c r="K8" s="108"/>
+      <c r="L8" s="108"/>
+      <c r="M8" s="108"/>
+      <c r="N8" s="108"/>
+      <c r="O8" s="108"/>
+      <c r="P8" s="108"/>
+      <c r="Q8" s="108"/>
+      <c r="R8" s="108"/>
+      <c r="S8" s="108"/>
+      <c r="T8" s="116" t="s">
         <v>48</v>
       </c>
-      <c r="U8" s="125" t="s">
+      <c r="U8" s="116" t="s">
         <v>49</v>
       </c>
-      <c r="V8" s="125" t="s">
+      <c r="V8" s="116" t="s">
         <v>50</v>
       </c>
-      <c r="W8" s="125" t="s">
+      <c r="W8" s="116" t="s">
         <v>47</v>
       </c>
-      <c r="X8" s="125" t="s">
+      <c r="X8" s="116" t="s">
         <v>46</v>
       </c>
-      <c r="Y8" s="111" t="s">
+      <c r="Y8" s="102" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="117"/>
-      <c r="B9" s="117"/>
-      <c r="C9" s="117"/>
-      <c r="D9" s="117"/>
-      <c r="E9" s="117"/>
-      <c r="F9" s="117"/>
-      <c r="G9" s="117"/>
-      <c r="H9" s="117"/>
-      <c r="I9" s="117"/>
-      <c r="J9" s="117"/>
-      <c r="K9" s="117"/>
-      <c r="L9" s="117"/>
-      <c r="M9" s="117"/>
-      <c r="N9" s="117"/>
-      <c r="O9" s="117"/>
-      <c r="P9" s="117"/>
-      <c r="Q9" s="117"/>
-      <c r="R9" s="117"/>
-      <c r="S9" s="117"/>
-      <c r="T9" s="125"/>
-      <c r="U9" s="125"/>
-      <c r="V9" s="125"/>
-      <c r="W9" s="125"/>
-      <c r="X9" s="125"/>
-      <c r="Y9" s="111"/>
+      <c r="A9" s="108"/>
+      <c r="B9" s="108"/>
+      <c r="C9" s="108"/>
+      <c r="D9" s="108"/>
+      <c r="E9" s="108"/>
+      <c r="F9" s="108"/>
+      <c r="G9" s="108"/>
+      <c r="H9" s="108"/>
+      <c r="I9" s="108"/>
+      <c r="J9" s="108"/>
+      <c r="K9" s="108"/>
+      <c r="L9" s="108"/>
+      <c r="M9" s="108"/>
+      <c r="N9" s="108"/>
+      <c r="O9" s="108"/>
+      <c r="P9" s="108"/>
+      <c r="Q9" s="108"/>
+      <c r="R9" s="108"/>
+      <c r="S9" s="108"/>
+      <c r="T9" s="116"/>
+      <c r="U9" s="116"/>
+      <c r="V9" s="116"/>
+      <c r="W9" s="116"/>
+      <c r="X9" s="116"/>
+      <c r="Y9" s="102"/>
     </row>
     <row r="10" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="108">
+      <c r="A10" s="117">
         <v>1</v>
       </c>
-      <c r="B10" s="109" t="s">
+      <c r="B10" s="118" t="s">
         <v>85</v>
       </c>
-      <c r="C10" s="110" t="s">
+      <c r="C10" s="119" t="s">
         <v>84</v>
       </c>
       <c r="D10" s="25">
@@ -12570,29 +12605,29 @@
       <c r="S10" s="25">
         <v>16</v>
       </c>
-      <c r="T10" s="105" t="s">
-        <v>8</v>
-      </c>
-      <c r="U10" s="105" t="s">
-        <v>8</v>
-      </c>
-      <c r="V10" s="99" t="s">
-        <v>8</v>
-      </c>
-      <c r="W10" s="99" t="s">
-        <v>8</v>
-      </c>
-      <c r="X10" s="99" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y10" s="102">
+      <c r="T10" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="U10" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="V10" s="123" t="s">
+        <v>8</v>
+      </c>
+      <c r="W10" s="123" t="s">
+        <v>8</v>
+      </c>
+      <c r="X10" s="123" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y10" s="126">
         <v>4770</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="108"/>
-      <c r="B11" s="109"/>
-      <c r="C11" s="110"/>
+      <c r="A11" s="117"/>
+      <c r="B11" s="118"/>
+      <c r="C11" s="119"/>
       <c r="D11" s="26" t="s">
         <v>88</v>
       </c>
@@ -12641,17 +12676,17 @@
       <c r="S11" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="T11" s="106"/>
-      <c r="U11" s="106"/>
-      <c r="V11" s="100"/>
-      <c r="W11" s="100"/>
-      <c r="X11" s="101"/>
-      <c r="Y11" s="102"/>
+      <c r="T11" s="121"/>
+      <c r="U11" s="121"/>
+      <c r="V11" s="124"/>
+      <c r="W11" s="124"/>
+      <c r="X11" s="125"/>
+      <c r="Y11" s="126"/>
     </row>
     <row r="12" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="108"/>
-      <c r="B12" s="109"/>
-      <c r="C12" s="110"/>
+      <c r="A12" s="117"/>
+      <c r="B12" s="118"/>
+      <c r="C12" s="119"/>
       <c r="D12" s="27">
         <v>17</v>
       </c>
@@ -12700,19 +12735,19 @@
       <c r="S12" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T12" s="106"/>
-      <c r="U12" s="106"/>
-      <c r="V12" s="100"/>
-      <c r="W12" s="100"/>
-      <c r="X12" s="99" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y12" s="102"/>
+      <c r="T12" s="121"/>
+      <c r="U12" s="121"/>
+      <c r="V12" s="124"/>
+      <c r="W12" s="124"/>
+      <c r="X12" s="123" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y12" s="126"/>
     </row>
     <row r="13" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="108"/>
-      <c r="B13" s="109"/>
-      <c r="C13" s="110"/>
+      <c r="A13" s="117"/>
+      <c r="B13" s="118"/>
+      <c r="C13" s="119"/>
       <c r="D13" s="26" t="s">
         <v>88</v>
       </c>
@@ -12761,12 +12796,12 @@
       <c r="S13" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T13" s="107"/>
-      <c r="U13" s="107"/>
-      <c r="V13" s="101"/>
-      <c r="W13" s="101"/>
-      <c r="X13" s="101"/>
-      <c r="Y13" s="102"/>
+      <c r="T13" s="122"/>
+      <c r="U13" s="122"/>
+      <c r="V13" s="125"/>
+      <c r="W13" s="125"/>
+      <c r="X13" s="125"/>
+      <c r="Y13" s="126"/>
     </row>
     <row r="14" spans="1:25" s="69" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="68"/>
@@ -12781,10 +12816,10 @@
       </c>
     </row>
     <row r="15" spans="1:25" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="103" t="s">
+      <c r="A15" s="127" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="103"/>
+      <c r="B15" s="127"/>
       <c r="C15" s="71">
         <f>Мельницький!C36</f>
         <v>44531</v>
@@ -12851,16 +12886,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="W10:W13"/>
-    <mergeCell ref="X12:X13"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="T10:T13"/>
-    <mergeCell ref="U10:U13"/>
-    <mergeCell ref="V10:V13"/>
-    <mergeCell ref="X10:X11"/>
     <mergeCell ref="Y10:Y13"/>
     <mergeCell ref="X8:X9"/>
     <mergeCell ref="Y8:Y9"/>
@@ -12875,6 +12900,16 @@
     <mergeCell ref="U8:U9"/>
     <mergeCell ref="V8:V9"/>
     <mergeCell ref="W8:W9"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="W10:W13"/>
+    <mergeCell ref="X12:X13"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="T10:T13"/>
+    <mergeCell ref="U10:U13"/>
+    <mergeCell ref="V10:V13"/>
+    <mergeCell ref="X10:X11"/>
   </mergeCells>
   <pageMargins left="0.31496062992125984" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -13039,63 +13074,63 @@
       <c r="Y5" s="60"/>
     </row>
     <row r="6" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A6" s="115" t="s">
+      <c r="A6" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="115"/>
-      <c r="C6" s="115"/>
-      <c r="D6" s="115"/>
-      <c r="E6" s="115"/>
-      <c r="F6" s="115"/>
-      <c r="G6" s="115"/>
-      <c r="H6" s="115"/>
-      <c r="I6" s="115"/>
-      <c r="J6" s="115"/>
-      <c r="K6" s="115"/>
-      <c r="L6" s="115"/>
-      <c r="M6" s="115"/>
-      <c r="N6" s="115"/>
-      <c r="O6" s="115"/>
-      <c r="P6" s="115"/>
-      <c r="Q6" s="115"/>
-      <c r="R6" s="115"/>
-      <c r="S6" s="115"/>
-      <c r="T6" s="115"/>
-      <c r="U6" s="115"/>
-      <c r="V6" s="115"/>
-      <c r="W6" s="115"/>
-      <c r="X6" s="115"/>
-      <c r="Y6" s="115"/>
+      <c r="B6" s="106"/>
+      <c r="C6" s="106"/>
+      <c r="D6" s="106"/>
+      <c r="E6" s="106"/>
+      <c r="F6" s="106"/>
+      <c r="G6" s="106"/>
+      <c r="H6" s="106"/>
+      <c r="I6" s="106"/>
+      <c r="J6" s="106"/>
+      <c r="K6" s="106"/>
+      <c r="L6" s="106"/>
+      <c r="M6" s="106"/>
+      <c r="N6" s="106"/>
+      <c r="O6" s="106"/>
+      <c r="P6" s="106"/>
+      <c r="Q6" s="106"/>
+      <c r="R6" s="106"/>
+      <c r="S6" s="106"/>
+      <c r="T6" s="106"/>
+      <c r="U6" s="106"/>
+      <c r="V6" s="106"/>
+      <c r="W6" s="106"/>
+      <c r="X6" s="106"/>
+      <c r="Y6" s="106"/>
     </row>
     <row r="7" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A7" s="115" t="str">
+      <c r="A7" s="106" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ЛИСТОПАД 2021р.</v>
       </c>
-      <c r="B7" s="115"/>
-      <c r="C7" s="115"/>
-      <c r="D7" s="115"/>
-      <c r="E7" s="115"/>
-      <c r="F7" s="115"/>
-      <c r="G7" s="115"/>
-      <c r="H7" s="115"/>
-      <c r="I7" s="115"/>
-      <c r="J7" s="115"/>
-      <c r="K7" s="115"/>
-      <c r="L7" s="115"/>
-      <c r="M7" s="115"/>
-      <c r="N7" s="115"/>
-      <c r="O7" s="115"/>
-      <c r="P7" s="115"/>
-      <c r="Q7" s="115"/>
-      <c r="R7" s="115"/>
-      <c r="S7" s="115"/>
-      <c r="T7" s="115"/>
-      <c r="U7" s="115"/>
-      <c r="V7" s="115"/>
-      <c r="W7" s="115"/>
-      <c r="X7" s="115"/>
-      <c r="Y7" s="115"/>
+      <c r="B7" s="106"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="106"/>
+      <c r="E7" s="106"/>
+      <c r="F7" s="106"/>
+      <c r="G7" s="106"/>
+      <c r="H7" s="106"/>
+      <c r="I7" s="106"/>
+      <c r="J7" s="106"/>
+      <c r="K7" s="106"/>
+      <c r="L7" s="106"/>
+      <c r="M7" s="106"/>
+      <c r="N7" s="106"/>
+      <c r="O7" s="106"/>
+      <c r="P7" s="106"/>
+      <c r="Q7" s="106"/>
+      <c r="R7" s="106"/>
+      <c r="S7" s="106"/>
+      <c r="T7" s="106"/>
+      <c r="U7" s="106"/>
+      <c r="V7" s="106"/>
+      <c r="W7" s="106"/>
+      <c r="X7" s="106"/>
+      <c r="Y7" s="106"/>
     </row>
     <row r="8" spans="1:26" ht="20" x14ac:dyDescent="0.35">
       <c r="A8" s="61"/>
@@ -13125,94 +13160,94 @@
       <c r="Y8" s="61"/>
     </row>
     <row r="9" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="117" t="s">
+      <c r="A9" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="118" t="s">
+      <c r="B9" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="117" t="s">
+      <c r="C9" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="117" t="s">
+      <c r="D9" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="117" t="s">
+      <c r="E9" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="117"/>
-      <c r="G9" s="117"/>
-      <c r="H9" s="117"/>
-      <c r="I9" s="117"/>
-      <c r="J9" s="117"/>
-      <c r="K9" s="117"/>
-      <c r="L9" s="117"/>
-      <c r="M9" s="117"/>
-      <c r="N9" s="117"/>
-      <c r="O9" s="117"/>
-      <c r="P9" s="117"/>
-      <c r="Q9" s="117"/>
-      <c r="R9" s="117"/>
-      <c r="S9" s="117"/>
-      <c r="T9" s="117"/>
-      <c r="U9" s="125" t="s">
+      <c r="F9" s="108"/>
+      <c r="G9" s="108"/>
+      <c r="H9" s="108"/>
+      <c r="I9" s="108"/>
+      <c r="J9" s="108"/>
+      <c r="K9" s="108"/>
+      <c r="L9" s="108"/>
+      <c r="M9" s="108"/>
+      <c r="N9" s="108"/>
+      <c r="O9" s="108"/>
+      <c r="P9" s="108"/>
+      <c r="Q9" s="108"/>
+      <c r="R9" s="108"/>
+      <c r="S9" s="108"/>
+      <c r="T9" s="108"/>
+      <c r="U9" s="116" t="s">
         <v>48</v>
       </c>
-      <c r="V9" s="125" t="s">
+      <c r="V9" s="116" t="s">
         <v>49</v>
       </c>
-      <c r="W9" s="125" t="s">
+      <c r="W9" s="116" t="s">
         <v>50</v>
       </c>
-      <c r="X9" s="125" t="s">
+      <c r="X9" s="116" t="s">
         <v>47</v>
       </c>
-      <c r="Y9" s="125" t="s">
+      <c r="Y9" s="116" t="s">
         <v>46</v>
       </c>
-      <c r="Z9" s="111" t="s">
+      <c r="Z9" s="102" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="117"/>
-      <c r="B10" s="118"/>
-      <c r="C10" s="117"/>
-      <c r="D10" s="117"/>
-      <c r="E10" s="117"/>
-      <c r="F10" s="117"/>
-      <c r="G10" s="117"/>
-      <c r="H10" s="117"/>
-      <c r="I10" s="117"/>
-      <c r="J10" s="117"/>
-      <c r="K10" s="117"/>
-      <c r="L10" s="117"/>
-      <c r="M10" s="117"/>
-      <c r="N10" s="117"/>
-      <c r="O10" s="117"/>
-      <c r="P10" s="117"/>
-      <c r="Q10" s="117"/>
-      <c r="R10" s="117"/>
-      <c r="S10" s="117"/>
-      <c r="T10" s="117"/>
-      <c r="U10" s="125"/>
-      <c r="V10" s="125"/>
-      <c r="W10" s="125"/>
-      <c r="X10" s="125"/>
-      <c r="Y10" s="125"/>
-      <c r="Z10" s="111"/>
+      <c r="A10" s="108"/>
+      <c r="B10" s="109"/>
+      <c r="C10" s="108"/>
+      <c r="D10" s="108"/>
+      <c r="E10" s="108"/>
+      <c r="F10" s="108"/>
+      <c r="G10" s="108"/>
+      <c r="H10" s="108"/>
+      <c r="I10" s="108"/>
+      <c r="J10" s="108"/>
+      <c r="K10" s="108"/>
+      <c r="L10" s="108"/>
+      <c r="M10" s="108"/>
+      <c r="N10" s="108"/>
+      <c r="O10" s="108"/>
+      <c r="P10" s="108"/>
+      <c r="Q10" s="108"/>
+      <c r="R10" s="108"/>
+      <c r="S10" s="108"/>
+      <c r="T10" s="108"/>
+      <c r="U10" s="116"/>
+      <c r="V10" s="116"/>
+      <c r="W10" s="116"/>
+      <c r="X10" s="116"/>
+      <c r="Y10" s="116"/>
+      <c r="Z10" s="102"/>
     </row>
     <row r="11" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="108">
+      <c r="A11" s="117">
         <v>1</v>
       </c>
-      <c r="B11" s="108">
+      <c r="B11" s="117">
         <v>1</v>
       </c>
-      <c r="C11" s="109" t="s">
+      <c r="C11" s="118" t="s">
         <v>80</v>
       </c>
-      <c r="D11" s="110" t="s">
+      <c r="D11" s="119" t="s">
         <v>16</v>
       </c>
       <c r="E11" s="25">
@@ -13263,28 +13298,28 @@
       <c r="T11" s="25">
         <v>16</v>
       </c>
-      <c r="U11" s="105" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="105" t="s">
-        <v>8</v>
-      </c>
-      <c r="W11" s="99" t="s">
-        <v>8</v>
-      </c>
-      <c r="X11" s="147"/>
-      <c r="Y11" s="99">
+      <c r="U11" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11" s="123" t="s">
+        <v>8</v>
+      </c>
+      <c r="X11" s="150"/>
+      <c r="Y11" s="123">
         <v>20</v>
       </c>
-      <c r="Z11" s="163">
+      <c r="Z11" s="166">
         <v>4770</v>
       </c>
     </row>
     <row r="12" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="108"/>
-      <c r="B12" s="108"/>
-      <c r="C12" s="109"/>
-      <c r="D12" s="110"/>
+      <c r="A12" s="117"/>
+      <c r="B12" s="117"/>
+      <c r="C12" s="118"/>
+      <c r="D12" s="119"/>
       <c r="E12" s="26" t="s">
         <v>88</v>
       </c>
@@ -13333,18 +13368,18 @@
       <c r="T12" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="U12" s="106"/>
-      <c r="V12" s="106"/>
-      <c r="W12" s="100"/>
-      <c r="X12" s="148"/>
-      <c r="Y12" s="101"/>
-      <c r="Z12" s="163"/>
+      <c r="U12" s="121"/>
+      <c r="V12" s="121"/>
+      <c r="W12" s="124"/>
+      <c r="X12" s="151"/>
+      <c r="Y12" s="125"/>
+      <c r="Z12" s="166"/>
     </row>
     <row r="13" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="108"/>
-      <c r="B13" s="108"/>
-      <c r="C13" s="109"/>
-      <c r="D13" s="110"/>
+      <c r="A13" s="117"/>
+      <c r="B13" s="117"/>
+      <c r="C13" s="118"/>
+      <c r="D13" s="119"/>
       <c r="E13" s="27">
         <v>17</v>
       </c>
@@ -13393,20 +13428,20 @@
       <c r="T13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U13" s="106"/>
-      <c r="V13" s="106"/>
-      <c r="W13" s="100"/>
-      <c r="X13" s="148"/>
-      <c r="Y13" s="99">
+      <c r="U13" s="121"/>
+      <c r="V13" s="121"/>
+      <c r="W13" s="124"/>
+      <c r="X13" s="151"/>
+      <c r="Y13" s="123">
         <v>160</v>
       </c>
-      <c r="Z13" s="163"/>
+      <c r="Z13" s="166"/>
     </row>
     <row r="14" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="108"/>
-      <c r="B14" s="108"/>
-      <c r="C14" s="109"/>
-      <c r="D14" s="110"/>
+      <c r="A14" s="117"/>
+      <c r="B14" s="117"/>
+      <c r="C14" s="118"/>
+      <c r="D14" s="119"/>
       <c r="E14" s="26" t="s">
         <v>88</v>
       </c>
@@ -13455,18 +13490,18 @@
       <c r="T14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="107"/>
-      <c r="V14" s="107"/>
-      <c r="W14" s="101"/>
-      <c r="X14" s="149"/>
-      <c r="Y14" s="101"/>
-      <c r="Z14" s="163"/>
+      <c r="U14" s="122"/>
+      <c r="V14" s="122"/>
+      <c r="W14" s="125"/>
+      <c r="X14" s="152"/>
+      <c r="Y14" s="125"/>
+      <c r="Z14" s="166"/>
     </row>
     <row r="15" spans="1:26" s="59" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="103" t="s">
+      <c r="B15" s="127" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="103"/>
+      <c r="C15" s="127"/>
       <c r="D15" s="58">
         <f>Мельницький!C36</f>
         <v>44531</v>
@@ -13530,18 +13565,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A6:Y6"/>
-    <mergeCell ref="A7:Y7"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:T10"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="Y9:Y10"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="Z9:Z10"/>
     <mergeCell ref="A11:A14"/>
@@ -13555,6 +13578,18 @@
     <mergeCell ref="Y11:Y12"/>
     <mergeCell ref="Z11:Z14"/>
     <mergeCell ref="Y13:Y14"/>
+    <mergeCell ref="A6:Y6"/>
+    <mergeCell ref="A7:Y7"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:T10"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="Y9:Y10"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>

--- a/Фопи/Зарплата ФОП 2021/Табель ФОП 2020/Табель 11 – 21.xlsx
+++ b/Фопи/Зарплата ФОП 2021/Табель ФОП 2020/Табель 11 – 21.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="84" windowWidth="15120" windowHeight="7764" tabRatio="874"/>
+    <workbookView xWindow="120" yWindow="84" windowWidth="15120" windowHeight="7764" tabRatio="874" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Угринчук" sheetId="25" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="105">
   <si>
     <t>Посада</t>
   </si>
@@ -1483,8 +1483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -5043,8 +5043,8 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A2:AA44"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="X33" sqref="X33:X34"/>
+    <sheetView topLeftCell="A7" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="R32" sqref="R32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -6191,50 +6191,50 @@
       <c r="A24" s="111"/>
       <c r="B24" s="112"/>
       <c r="C24" s="113"/>
-      <c r="D24" s="26">
-        <v>8</v>
-      </c>
-      <c r="E24" s="26">
-        <v>8</v>
-      </c>
-      <c r="F24" s="26">
-        <v>8</v>
-      </c>
-      <c r="G24" s="26">
-        <v>8</v>
-      </c>
-      <c r="H24" s="26">
-        <v>8</v>
+      <c r="D24" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="E24" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="F24" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="G24" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="H24" s="26" t="s">
+        <v>88</v>
       </c>
       <c r="I24" s="26" t="s">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="J24" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="K24" s="26">
-        <v>8</v>
-      </c>
-      <c r="L24" s="26">
-        <v>8</v>
-      </c>
-      <c r="M24" s="26">
-        <v>8</v>
-      </c>
-      <c r="N24" s="26">
-        <v>8</v>
-      </c>
-      <c r="O24" s="26">
-        <v>8</v>
+        <v>88</v>
+      </c>
+      <c r="K24" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="L24" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="M24" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="N24" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="O24" s="26" t="s">
+        <v>88</v>
       </c>
       <c r="P24" s="26" t="s">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="Q24" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="R24" s="26">
-        <v>8</v>
+        <v>88</v>
+      </c>
+      <c r="R24" s="26" t="s">
+        <v>88</v>
       </c>
       <c r="S24" s="26">
         <v>8</v>
@@ -6247,7 +6247,7 @@
       <c r="Y24" s="105"/>
       <c r="Z24" s="2">
         <f>SUM(D24:S24)</f>
-        <v>96</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -6308,12 +6308,12 @@
       <c r="W25" s="55"/>
       <c r="X25" s="102">
         <f>Z24+Z26</f>
-        <v>176</v>
+        <v>88</v>
       </c>
       <c r="Y25" s="105"/>
       <c r="AA25" s="2">
         <f>Z26+Z24</f>
-        <v>176</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -6453,58 +6453,55 @@
       <c r="Y27" s="105">
         <v>6060</v>
       </c>
-      <c r="Z27" s="2" t="s">
-        <v>52</v>
-      </c>
     </row>
     <row r="28" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="111"/>
       <c r="B28" s="129"/>
       <c r="C28" s="130"/>
-      <c r="D28" s="26">
-        <v>8</v>
-      </c>
-      <c r="E28" s="26">
-        <v>8</v>
-      </c>
-      <c r="F28" s="26">
-        <v>8</v>
-      </c>
-      <c r="G28" s="26">
-        <v>8</v>
-      </c>
-      <c r="H28" s="26">
-        <v>8</v>
+      <c r="D28" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="E28" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="F28" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="G28" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="H28" s="26" t="s">
+        <v>88</v>
       </c>
       <c r="I28" s="26" t="s">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="J28" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="K28" s="26">
-        <v>8</v>
-      </c>
-      <c r="L28" s="26">
-        <v>8</v>
-      </c>
-      <c r="M28" s="26">
-        <v>8</v>
-      </c>
-      <c r="N28" s="26">
-        <v>8</v>
-      </c>
-      <c r="O28" s="26">
-        <v>8</v>
+        <v>88</v>
+      </c>
+      <c r="K28" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="L28" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="M28" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="N28" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="O28" s="26" t="s">
+        <v>88</v>
       </c>
       <c r="P28" s="26" t="s">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="Q28" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="R28" s="26">
-        <v>8</v>
+        <v>88</v>
+      </c>
+      <c r="R28" s="26" t="s">
+        <v>88</v>
       </c>
       <c r="S28" s="26">
         <v>8</v>
@@ -6515,6 +6512,10 @@
       <c r="W28" s="55"/>
       <c r="X28" s="104"/>
       <c r="Y28" s="105"/>
+      <c r="Z28" s="2">
+        <f>SUM(D28:S28)</f>
+        <v>8</v>
+      </c>
     </row>
     <row r="29" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="111"/>
@@ -6573,9 +6574,14 @@
       <c r="V29" s="103"/>
       <c r="W29" s="55"/>
       <c r="X29" s="102">
-        <v>32</v>
+        <f>Z28+Z30</f>
+        <v>88</v>
       </c>
       <c r="Y29" s="105"/>
+      <c r="AA29" s="2">
+        <f>Z30+Z28</f>
+        <v>88</v>
+      </c>
     </row>
     <row r="30" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="111"/>
@@ -6635,6 +6641,10 @@
       <c r="W30" s="54"/>
       <c r="X30" s="104"/>
       <c r="Y30" s="105"/>
+      <c r="Z30" s="2">
+        <f>SUM(D30:S30)</f>
+        <v>80</v>
+      </c>
     </row>
     <row r="31" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="111">
@@ -6715,50 +6725,50 @@
       <c r="A32" s="111"/>
       <c r="B32" s="112"/>
       <c r="C32" s="113"/>
-      <c r="D32" s="26">
-        <v>8</v>
-      </c>
-      <c r="E32" s="26">
-        <v>8</v>
-      </c>
-      <c r="F32" s="26">
-        <v>8</v>
-      </c>
-      <c r="G32" s="26">
-        <v>8</v>
-      </c>
-      <c r="H32" s="26">
-        <v>8</v>
+      <c r="D32" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="E32" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="F32" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="G32" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="H32" s="26" t="s">
+        <v>88</v>
       </c>
       <c r="I32" s="26" t="s">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="J32" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="K32" s="26">
-        <v>8</v>
-      </c>
-      <c r="L32" s="26">
-        <v>8</v>
-      </c>
-      <c r="M32" s="26">
-        <v>8</v>
-      </c>
-      <c r="N32" s="26">
-        <v>8</v>
-      </c>
-      <c r="O32" s="26">
-        <v>8</v>
+        <v>88</v>
+      </c>
+      <c r="K32" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="L32" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="M32" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="N32" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="O32" s="26" t="s">
+        <v>88</v>
       </c>
       <c r="P32" s="26" t="s">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="Q32" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="R32" s="26">
-        <v>8</v>
+        <v>88</v>
+      </c>
+      <c r="R32" s="26" t="s">
+        <v>88</v>
       </c>
       <c r="S32" s="26">
         <v>8</v>
@@ -6771,11 +6781,11 @@
       <c r="Y32" s="105"/>
       <c r="Z32" s="2">
         <f>SUM(D32:S32)</f>
-        <v>96</v>
+        <v>8</v>
       </c>
       <c r="AA32" s="2">
         <f>Z32+Z34</f>
-        <v>176</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -6836,7 +6846,7 @@
       <c r="W33" s="47"/>
       <c r="X33" s="102">
         <f>Z32+Z34</f>
-        <v>176</v>
+        <v>88</v>
       </c>
       <c r="Y33" s="105"/>
     </row>
@@ -6908,7 +6918,7 @@
       <c r="C35" s="33"/>
       <c r="X35" s="74">
         <f>X33+X29+X25+X21+X17+X13</f>
-        <v>912</v>
+        <v>792</v>
       </c>
       <c r="Y35" s="34">
         <f>Y11+Y15+Y19+Y23+Y27+Y31</f>
@@ -7066,8 +7076,8 @@
   <sheetPr codeName="Лист5"/>
   <dimension ref="A1:Z28"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="T14" sqref="E11:T14"/>
+    <sheetView topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15:T18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -10423,8 +10433,8 @@
   <sheetPr codeName="Лист2"/>
   <dimension ref="A1:AD46"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="Y38" sqref="A1:Y38"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -11294,19 +11304,19 @@
       <c r="B18" s="165"/>
       <c r="C18" s="157"/>
       <c r="D18" s="26">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E18" s="26">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F18" s="26">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G18" s="26">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H18" s="26">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I18" s="26" t="s">
         <v>13</v>
@@ -11315,19 +11325,19 @@
         <v>13</v>
       </c>
       <c r="K18" s="26">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="L18" s="26">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M18" s="26">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="N18" s="26">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="O18" s="26">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="P18" s="26" t="s">
         <v>13</v>
@@ -11336,10 +11346,10 @@
         <v>13</v>
       </c>
       <c r="R18" s="26">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="S18" s="26">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="T18" s="109"/>
       <c r="U18" s="162"/>
@@ -11349,7 +11359,7 @@
       <c r="Y18" s="105"/>
       <c r="Z18" s="2">
         <f>SUM(D18:S18)</f>
-        <v>96</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -11410,7 +11420,7 @@
       <c r="W19" s="160"/>
       <c r="X19" s="102">
         <f>Z18+Z20</f>
-        <v>176</v>
+        <v>88</v>
       </c>
       <c r="Y19" s="105"/>
     </row>
@@ -11419,13 +11429,13 @@
       <c r="B20" s="165"/>
       <c r="C20" s="157"/>
       <c r="D20" s="26">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E20" s="26">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F20" s="26">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G20" s="26" t="s">
         <v>13</v>
@@ -11434,19 +11444,19 @@
         <v>13</v>
       </c>
       <c r="I20" s="26">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J20" s="26">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K20" s="26">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="L20" s="26">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M20" s="26">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="N20" s="26" t="s">
         <v>13</v>
@@ -11455,10 +11465,10 @@
         <v>13</v>
       </c>
       <c r="P20" s="26">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q20" s="26">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="R20" s="29" t="s">
         <v>10</v>
@@ -11474,7 +11484,7 @@
       <c r="Y20" s="105"/>
       <c r="Z20" s="2">
         <f>SUM(D20:S20)</f>
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -11558,50 +11568,50 @@
       <c r="A22" s="135"/>
       <c r="B22" s="155"/>
       <c r="C22" s="157"/>
-      <c r="D22" s="26">
-        <v>8</v>
-      </c>
-      <c r="E22" s="26">
-        <v>8</v>
-      </c>
-      <c r="F22" s="26">
-        <v>8</v>
-      </c>
-      <c r="G22" s="26">
-        <v>8</v>
-      </c>
-      <c r="H22" s="26">
-        <v>8</v>
+      <c r="D22" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="E22" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="F22" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="G22" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="H22" s="26" t="s">
+        <v>88</v>
       </c>
       <c r="I22" s="26" t="s">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="J22" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="K22" s="26">
-        <v>8</v>
-      </c>
-      <c r="L22" s="26">
-        <v>8</v>
-      </c>
-      <c r="M22" s="26">
-        <v>8</v>
-      </c>
-      <c r="N22" s="26">
-        <v>8</v>
-      </c>
-      <c r="O22" s="26">
-        <v>8</v>
+        <v>88</v>
+      </c>
+      <c r="K22" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="L22" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="M22" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="N22" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="O22" s="26" t="s">
+        <v>88</v>
       </c>
       <c r="P22" s="26" t="s">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="Q22" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="R22" s="26">
-        <v>8</v>
+        <v>88</v>
+      </c>
+      <c r="R22" s="26" t="s">
+        <v>88</v>
       </c>
       <c r="S22" s="26">
         <v>8</v>
@@ -11614,7 +11624,7 @@
       <c r="Y22" s="105"/>
       <c r="Z22" s="2">
         <f>SUM(D22:S22)</f>
-        <v>96</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -11675,7 +11685,7 @@
       <c r="W23" s="103"/>
       <c r="X23" s="102">
         <f>Z22+Z24</f>
-        <v>176</v>
+        <v>88</v>
       </c>
       <c r="Y23" s="105"/>
     </row>
@@ -11823,50 +11833,50 @@
       <c r="A26" s="135"/>
       <c r="B26" s="155"/>
       <c r="C26" s="157"/>
-      <c r="D26" s="26">
-        <v>8</v>
-      </c>
-      <c r="E26" s="26">
-        <v>8</v>
-      </c>
-      <c r="F26" s="26">
-        <v>8</v>
-      </c>
-      <c r="G26" s="26">
-        <v>8</v>
-      </c>
-      <c r="H26" s="26">
-        <v>8</v>
+      <c r="D26" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="E26" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="F26" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="G26" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="H26" s="26" t="s">
+        <v>88</v>
       </c>
       <c r="I26" s="26" t="s">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="J26" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="K26" s="26">
-        <v>8</v>
-      </c>
-      <c r="L26" s="26">
-        <v>8</v>
-      </c>
-      <c r="M26" s="26">
-        <v>8</v>
-      </c>
-      <c r="N26" s="26">
-        <v>8</v>
-      </c>
-      <c r="O26" s="26">
-        <v>8</v>
+        <v>88</v>
+      </c>
+      <c r="K26" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="L26" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="M26" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="N26" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="O26" s="26" t="s">
+        <v>88</v>
       </c>
       <c r="P26" s="26" t="s">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="Q26" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="R26" s="26">
-        <v>8</v>
+        <v>88</v>
+      </c>
+      <c r="R26" s="26" t="s">
+        <v>88</v>
       </c>
       <c r="S26" s="26">
         <v>8</v>
@@ -11879,7 +11889,7 @@
       <c r="Y26" s="105"/>
       <c r="Z26" s="2">
         <f>SUM(D26:S26)</f>
-        <v>96</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -11940,7 +11950,7 @@
       <c r="W27" s="103"/>
       <c r="X27" s="102">
         <f>Z26+Z28</f>
-        <v>176</v>
+        <v>88</v>
       </c>
       <c r="Y27" s="105"/>
     </row>
@@ -12033,7 +12043,7 @@
       <c r="W29" s="9"/>
       <c r="X29" s="9">
         <f>SUM(X11+X15+X19+X23)</f>
-        <v>704</v>
+        <v>528</v>
       </c>
       <c r="Y29" s="35">
         <f>SUM(Y9:Y24)</f>

--- a/Фопи/Зарплата ФОП 2021/Табель ФОП 2020/Табель 11 – 21.xlsx
+++ b/Фопи/Зарплата ФОП 2021/Табель ФОП 2020/Табель 11 – 21.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="84" windowWidth="15120" windowHeight="7764" tabRatio="874" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="120" yWindow="84" windowWidth="15120" windowHeight="7764" tabRatio="874" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Угринчук" sheetId="25" r:id="rId1"/>
@@ -977,6 +977,69 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -995,75 +1058,30 @@
     <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
     <xf numFmtId="2" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1073,23 +1091,26 @@
     <xf numFmtId="2" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1100,27 +1121,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1133,6 +1133,33 @@
     <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1140,33 +1167,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1501,49 +1501,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="P1" s="116"/>
-      <c r="Q1" s="116"/>
-      <c r="R1" s="116"/>
-      <c r="S1" s="116"/>
-      <c r="T1" s="116"/>
-      <c r="U1" s="116"/>
-      <c r="V1" s="116"/>
-      <c r="W1" s="116"/>
-      <c r="X1" s="116"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="P1" s="104"/>
+      <c r="Q1" s="104"/>
+      <c r="R1" s="104"/>
+      <c r="S1" s="104"/>
+      <c r="T1" s="104"/>
+      <c r="U1" s="104"/>
+      <c r="V1" s="104"/>
+      <c r="W1" s="104"/>
+      <c r="X1" s="104"/>
     </row>
     <row r="2" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A2" s="117" t="s">
+      <c r="A2" s="105" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="117"/>
-      <c r="C2" s="117"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="117"/>
-      <c r="H2" s="117"/>
-      <c r="I2" s="117"/>
-      <c r="J2" s="117"/>
-      <c r="K2" s="117"/>
-      <c r="L2" s="117"/>
-      <c r="M2" s="117"/>
-      <c r="N2" s="117"/>
-      <c r="O2" s="117"/>
-      <c r="P2" s="117"/>
-      <c r="Q2" s="117"/>
-      <c r="R2" s="117"/>
-      <c r="S2" s="117"/>
-      <c r="T2" s="117"/>
-      <c r="U2" s="117"/>
-      <c r="V2" s="117"/>
-      <c r="W2" s="117"/>
-      <c r="X2" s="117"/>
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="105"/>
+      <c r="J2" s="105"/>
+      <c r="K2" s="105"/>
+      <c r="L2" s="105"/>
+      <c r="M2" s="105"/>
+      <c r="N2" s="105"/>
+      <c r="O2" s="105"/>
+      <c r="P2" s="105"/>
+      <c r="Q2" s="105"/>
+      <c r="R2" s="105"/>
+      <c r="S2" s="105"/>
+      <c r="T2" s="105"/>
+      <c r="U2" s="105"/>
+      <c r="V2" s="105"/>
+      <c r="W2" s="105"/>
+      <c r="X2" s="105"/>
     </row>
     <row r="3" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A3" s="93"/>
@@ -1653,147 +1653,147 @@
       <c r="X6" s="2"/>
     </row>
     <row r="7" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A7" s="118" t="s">
+      <c r="A7" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="118"/>
-      <c r="C7" s="118"/>
-      <c r="D7" s="118"/>
-      <c r="E7" s="118"/>
-      <c r="F7" s="118"/>
-      <c r="G7" s="118"/>
-      <c r="H7" s="118"/>
-      <c r="I7" s="118"/>
-      <c r="J7" s="118"/>
-      <c r="K7" s="118"/>
-      <c r="L7" s="118"/>
-      <c r="M7" s="118"/>
-      <c r="N7" s="118"/>
-      <c r="O7" s="118"/>
-      <c r="P7" s="118"/>
-      <c r="Q7" s="118"/>
-      <c r="R7" s="118"/>
-      <c r="S7" s="118"/>
-      <c r="T7" s="118"/>
-      <c r="U7" s="118"/>
-      <c r="V7" s="118"/>
-      <c r="W7" s="118"/>
-      <c r="X7" s="118"/>
+      <c r="B7" s="106"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="106"/>
+      <c r="E7" s="106"/>
+      <c r="F7" s="106"/>
+      <c r="G7" s="106"/>
+      <c r="H7" s="106"/>
+      <c r="I7" s="106"/>
+      <c r="J7" s="106"/>
+      <c r="K7" s="106"/>
+      <c r="L7" s="106"/>
+      <c r="M7" s="106"/>
+      <c r="N7" s="106"/>
+      <c r="O7" s="106"/>
+      <c r="P7" s="106"/>
+      <c r="Q7" s="106"/>
+      <c r="R7" s="106"/>
+      <c r="S7" s="106"/>
+      <c r="T7" s="106"/>
+      <c r="U7" s="106"/>
+      <c r="V7" s="106"/>
+      <c r="W7" s="106"/>
+      <c r="X7" s="106"/>
     </row>
     <row r="8" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A8" s="119" t="str">
+      <c r="A8" s="107" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ЛИСТОПАД 2021р.</v>
       </c>
-      <c r="B8" s="119"/>
-      <c r="C8" s="119"/>
-      <c r="D8" s="119"/>
-      <c r="E8" s="119"/>
-      <c r="F8" s="119"/>
-      <c r="G8" s="119"/>
-      <c r="H8" s="119"/>
-      <c r="I8" s="119"/>
-      <c r="J8" s="119"/>
-      <c r="K8" s="119"/>
-      <c r="L8" s="119"/>
-      <c r="M8" s="119"/>
-      <c r="N8" s="119"/>
-      <c r="O8" s="119"/>
-      <c r="P8" s="119"/>
-      <c r="Q8" s="119"/>
-      <c r="R8" s="119"/>
-      <c r="S8" s="119"/>
-      <c r="T8" s="119"/>
-      <c r="U8" s="119"/>
-      <c r="V8" s="119"/>
-      <c r="W8" s="119"/>
-      <c r="X8" s="119"/>
+      <c r="B8" s="107"/>
+      <c r="C8" s="107"/>
+      <c r="D8" s="107"/>
+      <c r="E8" s="107"/>
+      <c r="F8" s="107"/>
+      <c r="G8" s="107"/>
+      <c r="H8" s="107"/>
+      <c r="I8" s="107"/>
+      <c r="J8" s="107"/>
+      <c r="K8" s="107"/>
+      <c r="L8" s="107"/>
+      <c r="M8" s="107"/>
+      <c r="N8" s="107"/>
+      <c r="O8" s="107"/>
+      <c r="P8" s="107"/>
+      <c r="Q8" s="107"/>
+      <c r="R8" s="107"/>
+      <c r="S8" s="107"/>
+      <c r="T8" s="107"/>
+      <c r="U8" s="107"/>
+      <c r="V8" s="107"/>
+      <c r="W8" s="107"/>
+      <c r="X8" s="107"/>
     </row>
     <row r="9" spans="1:28" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="120" t="s">
+      <c r="A9" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="121"/>
-      <c r="C9" s="120" t="s">
+      <c r="B9" s="109"/>
+      <c r="C9" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="120" t="s">
+      <c r="D9" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="122" t="s">
+      <c r="E9" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="123"/>
-      <c r="G9" s="123"/>
-      <c r="H9" s="123"/>
-      <c r="I9" s="123"/>
-      <c r="J9" s="123"/>
-      <c r="K9" s="123"/>
-      <c r="L9" s="123"/>
-      <c r="M9" s="123"/>
-      <c r="N9" s="123"/>
-      <c r="O9" s="123"/>
-      <c r="P9" s="123"/>
-      <c r="Q9" s="123"/>
-      <c r="R9" s="123"/>
-      <c r="S9" s="123"/>
-      <c r="T9" s="124"/>
-      <c r="U9" s="128" t="s">
+      <c r="F9" s="111"/>
+      <c r="G9" s="111"/>
+      <c r="H9" s="111"/>
+      <c r="I9" s="111"/>
+      <c r="J9" s="111"/>
+      <c r="K9" s="111"/>
+      <c r="L9" s="111"/>
+      <c r="M9" s="111"/>
+      <c r="N9" s="111"/>
+      <c r="O9" s="111"/>
+      <c r="P9" s="111"/>
+      <c r="Q9" s="111"/>
+      <c r="R9" s="111"/>
+      <c r="S9" s="111"/>
+      <c r="T9" s="112"/>
+      <c r="U9" s="116" t="s">
         <v>48</v>
       </c>
-      <c r="V9" s="128" t="s">
+      <c r="V9" s="116" t="s">
         <v>49</v>
       </c>
-      <c r="W9" s="128" t="s">
+      <c r="W9" s="116" t="s">
         <v>50</v>
       </c>
-      <c r="X9" s="128" t="s">
+      <c r="X9" s="116" t="s">
         <v>47</v>
       </c>
-      <c r="Y9" s="128" t="s">
+      <c r="Y9" s="116" t="s">
         <v>46</v>
       </c>
-      <c r="Z9" s="114" t="s">
+      <c r="Z9" s="102" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:28" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="120"/>
-      <c r="B10" s="121"/>
-      <c r="C10" s="120"/>
-      <c r="D10" s="120"/>
-      <c r="E10" s="125"/>
-      <c r="F10" s="126"/>
-      <c r="G10" s="126"/>
-      <c r="H10" s="126"/>
-      <c r="I10" s="126"/>
-      <c r="J10" s="126"/>
-      <c r="K10" s="126"/>
-      <c r="L10" s="126"/>
-      <c r="M10" s="126"/>
-      <c r="N10" s="126"/>
-      <c r="O10" s="126"/>
-      <c r="P10" s="126"/>
-      <c r="Q10" s="126"/>
-      <c r="R10" s="126"/>
-      <c r="S10" s="126"/>
-      <c r="T10" s="127"/>
-      <c r="U10" s="128"/>
-      <c r="V10" s="128"/>
-      <c r="W10" s="128"/>
-      <c r="X10" s="128"/>
-      <c r="Y10" s="128"/>
-      <c r="Z10" s="114"/>
+      <c r="A10" s="108"/>
+      <c r="B10" s="109"/>
+      <c r="C10" s="108"/>
+      <c r="D10" s="108"/>
+      <c r="E10" s="113"/>
+      <c r="F10" s="114"/>
+      <c r="G10" s="114"/>
+      <c r="H10" s="114"/>
+      <c r="I10" s="114"/>
+      <c r="J10" s="114"/>
+      <c r="K10" s="114"/>
+      <c r="L10" s="114"/>
+      <c r="M10" s="114"/>
+      <c r="N10" s="114"/>
+      <c r="O10" s="114"/>
+      <c r="P10" s="114"/>
+      <c r="Q10" s="114"/>
+      <c r="R10" s="114"/>
+      <c r="S10" s="114"/>
+      <c r="T10" s="115"/>
+      <c r="U10" s="116"/>
+      <c r="V10" s="116"/>
+      <c r="W10" s="116"/>
+      <c r="X10" s="116"/>
+      <c r="Y10" s="116"/>
+      <c r="Z10" s="102"/>
     </row>
     <row r="11" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="111">
+      <c r="A11" s="117">
         <v>1</v>
       </c>
-      <c r="B11" s="111"/>
-      <c r="C11" s="112" t="s">
+      <c r="B11" s="117"/>
+      <c r="C11" s="118" t="s">
         <v>100</v>
       </c>
-      <c r="D11" s="113" t="s">
+      <c r="D11" s="119" t="s">
         <v>84</v>
       </c>
       <c r="E11" s="25">
@@ -1844,28 +1844,28 @@
       <c r="T11" s="25">
         <v>16</v>
       </c>
-      <c r="U11" s="108" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="108" t="s">
-        <v>8</v>
-      </c>
-      <c r="W11" s="102" t="s">
+      <c r="U11" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11" s="123" t="s">
         <v>8</v>
       </c>
       <c r="X11" s="89"/>
-      <c r="Y11" s="102">
+      <c r="Y11" s="123">
         <v>22</v>
       </c>
-      <c r="Z11" s="105">
+      <c r="Z11" s="126">
         <v>6000</v>
       </c>
     </row>
     <row r="12" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="111"/>
-      <c r="B12" s="111"/>
-      <c r="C12" s="112"/>
-      <c r="D12" s="113"/>
+      <c r="A12" s="117"/>
+      <c r="B12" s="117"/>
+      <c r="C12" s="118"/>
+      <c r="D12" s="119"/>
       <c r="E12" s="26">
         <v>4</v>
       </c>
@@ -1914,22 +1914,22 @@
       <c r="T12" s="26">
         <v>4</v>
       </c>
-      <c r="U12" s="109"/>
-      <c r="V12" s="109"/>
-      <c r="W12" s="103"/>
+      <c r="U12" s="121"/>
+      <c r="V12" s="121"/>
+      <c r="W12" s="124"/>
       <c r="X12" s="90"/>
-      <c r="Y12" s="104"/>
-      <c r="Z12" s="105"/>
+      <c r="Y12" s="125"/>
+      <c r="Z12" s="126"/>
       <c r="AA12" s="2">
         <f>SUM(E12:T12)</f>
         <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="111"/>
-      <c r="B13" s="111"/>
-      <c r="C13" s="112"/>
-      <c r="D13" s="113"/>
+      <c r="A13" s="117"/>
+      <c r="B13" s="117"/>
+      <c r="C13" s="118"/>
+      <c r="D13" s="119"/>
       <c r="E13" s="27">
         <v>17</v>
       </c>
@@ -1978,25 +1978,25 @@
       <c r="T13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U13" s="109"/>
-      <c r="V13" s="109"/>
-      <c r="W13" s="103"/>
+      <c r="U13" s="121"/>
+      <c r="V13" s="121"/>
+      <c r="W13" s="124"/>
       <c r="X13" s="90"/>
-      <c r="Y13" s="102">
+      <c r="Y13" s="123">
         <f>AB13</f>
         <v>88</v>
       </c>
-      <c r="Z13" s="105"/>
+      <c r="Z13" s="126"/>
       <c r="AB13" s="2">
         <f>AA12+AA14</f>
         <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="111"/>
-      <c r="B14" s="111"/>
-      <c r="C14" s="112"/>
-      <c r="D14" s="113"/>
+      <c r="A14" s="117"/>
+      <c r="B14" s="117"/>
+      <c r="C14" s="118"/>
+      <c r="D14" s="119"/>
       <c r="E14" s="26">
         <v>4</v>
       </c>
@@ -2045,12 +2045,12 @@
       <c r="T14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="110"/>
-      <c r="V14" s="110"/>
-      <c r="W14" s="104"/>
+      <c r="U14" s="122"/>
+      <c r="V14" s="122"/>
+      <c r="W14" s="125"/>
       <c r="X14" s="91"/>
-      <c r="Y14" s="104"/>
-      <c r="Z14" s="105"/>
+      <c r="Y14" s="125"/>
+      <c r="Z14" s="126"/>
       <c r="AA14" s="2">
         <f>SUM(E14:T14)</f>
         <v>40</v>
@@ -2135,18 +2135,18 @@
       <c r="X17" s="9"/>
     </row>
     <row r="18" spans="1:24" s="92" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="B18" s="106" t="s">
+      <c r="B18" s="127" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="106"/>
-      <c r="D18" s="107">
+      <c r="C18" s="127"/>
+      <c r="D18" s="128">
         <f>Мельницький!C36</f>
         <v>44531</v>
       </c>
-      <c r="E18" s="107"/>
-      <c r="F18" s="107"/>
-      <c r="G18" s="107"/>
-      <c r="H18" s="107"/>
+      <c r="E18" s="128"/>
+      <c r="F18" s="128"/>
+      <c r="G18" s="128"/>
+      <c r="H18" s="128"/>
       <c r="L18" s="92" t="s">
         <v>99</v>
       </c>
@@ -2188,6 +2188,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="W11:W14"/>
+    <mergeCell ref="Y11:Y12"/>
+    <mergeCell ref="Z11:Z14"/>
+    <mergeCell ref="Y13:Y14"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:H18"/>
+    <mergeCell ref="V11:V14"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="U11:U14"/>
     <mergeCell ref="Z9:Z10"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="P1:X1"/>
@@ -2204,18 +2216,6 @@
     <mergeCell ref="W9:W10"/>
     <mergeCell ref="X9:X10"/>
     <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="U11:U14"/>
-    <mergeCell ref="W11:W14"/>
-    <mergeCell ref="Y11:Y12"/>
-    <mergeCell ref="Z11:Z14"/>
-    <mergeCell ref="Y13:Y14"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:H18"/>
-    <mergeCell ref="V11:V14"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="99" orientation="landscape" r:id="rId1"/>
@@ -2380,63 +2380,63 @@
       <c r="Y5" s="65"/>
     </row>
     <row r="6" spans="1:26" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A6" s="118" t="s">
+      <c r="A6" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="118"/>
-      <c r="C6" s="118"/>
-      <c r="D6" s="118"/>
-      <c r="E6" s="118"/>
-      <c r="F6" s="118"/>
-      <c r="G6" s="118"/>
-      <c r="H6" s="118"/>
-      <c r="I6" s="118"/>
-      <c r="J6" s="118"/>
-      <c r="K6" s="118"/>
-      <c r="L6" s="118"/>
-      <c r="M6" s="118"/>
-      <c r="N6" s="118"/>
-      <c r="O6" s="118"/>
-      <c r="P6" s="118"/>
-      <c r="Q6" s="118"/>
-      <c r="R6" s="118"/>
-      <c r="S6" s="118"/>
-      <c r="T6" s="118"/>
-      <c r="U6" s="118"/>
-      <c r="V6" s="118"/>
-      <c r="W6" s="118"/>
-      <c r="X6" s="118"/>
-      <c r="Y6" s="118"/>
+      <c r="B6" s="106"/>
+      <c r="C6" s="106"/>
+      <c r="D6" s="106"/>
+      <c r="E6" s="106"/>
+      <c r="F6" s="106"/>
+      <c r="G6" s="106"/>
+      <c r="H6" s="106"/>
+      <c r="I6" s="106"/>
+      <c r="J6" s="106"/>
+      <c r="K6" s="106"/>
+      <c r="L6" s="106"/>
+      <c r="M6" s="106"/>
+      <c r="N6" s="106"/>
+      <c r="O6" s="106"/>
+      <c r="P6" s="106"/>
+      <c r="Q6" s="106"/>
+      <c r="R6" s="106"/>
+      <c r="S6" s="106"/>
+      <c r="T6" s="106"/>
+      <c r="U6" s="106"/>
+      <c r="V6" s="106"/>
+      <c r="W6" s="106"/>
+      <c r="X6" s="106"/>
+      <c r="Y6" s="106"/>
     </row>
     <row r="7" spans="1:26" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A7" s="118" t="str">
+      <c r="A7" s="106" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ЛИСТОПАД 2021р.</v>
       </c>
-      <c r="B7" s="118"/>
-      <c r="C7" s="118"/>
-      <c r="D7" s="118"/>
-      <c r="E7" s="118"/>
-      <c r="F7" s="118"/>
-      <c r="G7" s="118"/>
-      <c r="H7" s="118"/>
-      <c r="I7" s="118"/>
-      <c r="J7" s="118"/>
-      <c r="K7" s="118"/>
-      <c r="L7" s="118"/>
-      <c r="M7" s="118"/>
-      <c r="N7" s="118"/>
-      <c r="O7" s="118"/>
-      <c r="P7" s="118"/>
-      <c r="Q7" s="118"/>
-      <c r="R7" s="118"/>
-      <c r="S7" s="118"/>
-      <c r="T7" s="118"/>
-      <c r="U7" s="118"/>
-      <c r="V7" s="118"/>
-      <c r="W7" s="118"/>
-      <c r="X7" s="118"/>
-      <c r="Y7" s="118"/>
+      <c r="B7" s="106"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="106"/>
+      <c r="E7" s="106"/>
+      <c r="F7" s="106"/>
+      <c r="G7" s="106"/>
+      <c r="H7" s="106"/>
+      <c r="I7" s="106"/>
+      <c r="J7" s="106"/>
+      <c r="K7" s="106"/>
+      <c r="L7" s="106"/>
+      <c r="M7" s="106"/>
+      <c r="N7" s="106"/>
+      <c r="O7" s="106"/>
+      <c r="P7" s="106"/>
+      <c r="Q7" s="106"/>
+      <c r="R7" s="106"/>
+      <c r="S7" s="106"/>
+      <c r="T7" s="106"/>
+      <c r="U7" s="106"/>
+      <c r="V7" s="106"/>
+      <c r="W7" s="106"/>
+      <c r="X7" s="106"/>
+      <c r="Y7" s="106"/>
     </row>
     <row r="8" spans="1:26" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A8" s="63"/>
@@ -2466,94 +2466,94 @@
       <c r="Y8" s="63"/>
     </row>
     <row r="9" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="120" t="s">
+      <c r="A9" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="121" t="s">
+      <c r="B9" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="120" t="s">
+      <c r="C9" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="120" t="s">
+      <c r="D9" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="120" t="s">
+      <c r="E9" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="120"/>
-      <c r="G9" s="120"/>
-      <c r="H9" s="120"/>
-      <c r="I9" s="120"/>
-      <c r="J9" s="120"/>
-      <c r="K9" s="120"/>
-      <c r="L9" s="120"/>
-      <c r="M9" s="120"/>
-      <c r="N9" s="120"/>
-      <c r="O9" s="120"/>
-      <c r="P9" s="120"/>
-      <c r="Q9" s="120"/>
-      <c r="R9" s="120"/>
-      <c r="S9" s="120"/>
-      <c r="T9" s="120"/>
-      <c r="U9" s="128" t="s">
+      <c r="F9" s="108"/>
+      <c r="G9" s="108"/>
+      <c r="H9" s="108"/>
+      <c r="I9" s="108"/>
+      <c r="J9" s="108"/>
+      <c r="K9" s="108"/>
+      <c r="L9" s="108"/>
+      <c r="M9" s="108"/>
+      <c r="N9" s="108"/>
+      <c r="O9" s="108"/>
+      <c r="P9" s="108"/>
+      <c r="Q9" s="108"/>
+      <c r="R9" s="108"/>
+      <c r="S9" s="108"/>
+      <c r="T9" s="108"/>
+      <c r="U9" s="116" t="s">
         <v>48</v>
       </c>
-      <c r="V9" s="128" t="s">
+      <c r="V9" s="116" t="s">
         <v>49</v>
       </c>
-      <c r="W9" s="128" t="s">
+      <c r="W9" s="116" t="s">
         <v>50</v>
       </c>
-      <c r="X9" s="128" t="s">
+      <c r="X9" s="116" t="s">
         <v>47</v>
       </c>
-      <c r="Y9" s="128" t="s">
+      <c r="Y9" s="116" t="s">
         <v>46</v>
       </c>
-      <c r="Z9" s="114" t="s">
+      <c r="Z9" s="102" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="120"/>
-      <c r="B10" s="121"/>
-      <c r="C10" s="120"/>
-      <c r="D10" s="120"/>
-      <c r="E10" s="120"/>
-      <c r="F10" s="120"/>
-      <c r="G10" s="120"/>
-      <c r="H10" s="120"/>
-      <c r="I10" s="120"/>
-      <c r="J10" s="120"/>
-      <c r="K10" s="120"/>
-      <c r="L10" s="120"/>
-      <c r="M10" s="120"/>
-      <c r="N10" s="120"/>
-      <c r="O10" s="120"/>
-      <c r="P10" s="120"/>
-      <c r="Q10" s="120"/>
-      <c r="R10" s="120"/>
-      <c r="S10" s="120"/>
-      <c r="T10" s="120"/>
-      <c r="U10" s="128"/>
-      <c r="V10" s="128"/>
-      <c r="W10" s="128"/>
-      <c r="X10" s="128"/>
-      <c r="Y10" s="128"/>
-      <c r="Z10" s="114"/>
+      <c r="A10" s="108"/>
+      <c r="B10" s="109"/>
+      <c r="C10" s="108"/>
+      <c r="D10" s="108"/>
+      <c r="E10" s="108"/>
+      <c r="F10" s="108"/>
+      <c r="G10" s="108"/>
+      <c r="H10" s="108"/>
+      <c r="I10" s="108"/>
+      <c r="J10" s="108"/>
+      <c r="K10" s="108"/>
+      <c r="L10" s="108"/>
+      <c r="M10" s="108"/>
+      <c r="N10" s="108"/>
+      <c r="O10" s="108"/>
+      <c r="P10" s="108"/>
+      <c r="Q10" s="108"/>
+      <c r="R10" s="108"/>
+      <c r="S10" s="108"/>
+      <c r="T10" s="108"/>
+      <c r="U10" s="116"/>
+      <c r="V10" s="116"/>
+      <c r="W10" s="116"/>
+      <c r="X10" s="116"/>
+      <c r="Y10" s="116"/>
+      <c r="Z10" s="102"/>
     </row>
     <row r="11" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="111">
+      <c r="A11" s="117">
         <v>1</v>
       </c>
-      <c r="B11" s="111">
+      <c r="B11" s="117">
         <v>1</v>
       </c>
-      <c r="C11" s="112" t="s">
+      <c r="C11" s="118" t="s">
         <v>78</v>
       </c>
-      <c r="D11" s="113" t="s">
+      <c r="D11" s="119" t="s">
         <v>74</v>
       </c>
       <c r="E11" s="25">
@@ -2604,17 +2604,17 @@
       <c r="T11" s="25">
         <v>16</v>
       </c>
-      <c r="U11" s="108" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="108" t="s">
-        <v>8</v>
-      </c>
-      <c r="W11" s="102" t="s">
+      <c r="U11" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11" s="123" t="s">
         <v>8</v>
       </c>
       <c r="X11" s="150"/>
-      <c r="Y11" s="102" t="s">
+      <c r="Y11" s="123" t="s">
         <v>8</v>
       </c>
       <c r="Z11" s="166">
@@ -2622,10 +2622,10 @@
       </c>
     </row>
     <row r="12" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="111"/>
-      <c r="B12" s="111"/>
-      <c r="C12" s="112"/>
-      <c r="D12" s="113"/>
+      <c r="A12" s="117"/>
+      <c r="B12" s="117"/>
+      <c r="C12" s="118"/>
+      <c r="D12" s="119"/>
       <c r="E12" s="26" t="s">
         <v>88</v>
       </c>
@@ -2674,18 +2674,18 @@
       <c r="T12" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="U12" s="109"/>
-      <c r="V12" s="109"/>
-      <c r="W12" s="103"/>
+      <c r="U12" s="121"/>
+      <c r="V12" s="121"/>
+      <c r="W12" s="124"/>
       <c r="X12" s="151"/>
-      <c r="Y12" s="104"/>
+      <c r="Y12" s="125"/>
       <c r="Z12" s="166"/>
     </row>
     <row r="13" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="111"/>
-      <c r="B13" s="111"/>
-      <c r="C13" s="112"/>
-      <c r="D13" s="113"/>
+      <c r="A13" s="117"/>
+      <c r="B13" s="117"/>
+      <c r="C13" s="118"/>
+      <c r="D13" s="119"/>
       <c r="E13" s="27">
         <v>17</v>
       </c>
@@ -2734,20 +2734,20 @@
       <c r="T13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U13" s="109"/>
-      <c r="V13" s="109"/>
-      <c r="W13" s="103"/>
+      <c r="U13" s="121"/>
+      <c r="V13" s="121"/>
+      <c r="W13" s="124"/>
       <c r="X13" s="151"/>
-      <c r="Y13" s="102" t="s">
+      <c r="Y13" s="123" t="s">
         <v>8</v>
       </c>
       <c r="Z13" s="166"/>
     </row>
     <row r="14" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="111"/>
-      <c r="B14" s="111"/>
-      <c r="C14" s="112"/>
-      <c r="D14" s="113"/>
+      <c r="A14" s="117"/>
+      <c r="B14" s="117"/>
+      <c r="C14" s="118"/>
+      <c r="D14" s="119"/>
       <c r="E14" s="26" t="s">
         <v>88</v>
       </c>
@@ -2796,18 +2796,18 @@
       <c r="T14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="110"/>
-      <c r="V14" s="110"/>
-      <c r="W14" s="104"/>
+      <c r="U14" s="122"/>
+      <c r="V14" s="122"/>
+      <c r="W14" s="125"/>
       <c r="X14" s="152"/>
-      <c r="Y14" s="104"/>
+      <c r="Y14" s="125"/>
       <c r="Z14" s="166"/>
     </row>
     <row r="15" spans="1:26" s="64" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="106" t="s">
+      <c r="B15" s="127" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="106"/>
+      <c r="C15" s="127"/>
       <c r="D15" s="66">
         <f>Мельницький!C36</f>
         <v>44531</v>
@@ -2871,6 +2871,18 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A6:Y6"/>
+    <mergeCell ref="A7:Y7"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:T10"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="Y9:Y10"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="Z9:Z10"/>
     <mergeCell ref="A11:A14"/>
@@ -2884,18 +2896,6 @@
     <mergeCell ref="Y11:Y12"/>
     <mergeCell ref="Z11:Z14"/>
     <mergeCell ref="Y13:Y14"/>
-    <mergeCell ref="A6:Y6"/>
-    <mergeCell ref="A7:Y7"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:T10"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="Y9:Y10"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -3083,147 +3083,147 @@
       <c r="X6" s="19"/>
     </row>
     <row r="7" spans="1:27" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A7" s="118" t="s">
+      <c r="A7" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="118"/>
-      <c r="C7" s="118"/>
-      <c r="D7" s="118"/>
-      <c r="E7" s="118"/>
-      <c r="F7" s="118"/>
-      <c r="G7" s="118"/>
-      <c r="H7" s="118"/>
-      <c r="I7" s="118"/>
-      <c r="J7" s="118"/>
-      <c r="K7" s="118"/>
-      <c r="L7" s="118"/>
-      <c r="M7" s="118"/>
-      <c r="N7" s="118"/>
-      <c r="O7" s="118"/>
-      <c r="P7" s="118"/>
-      <c r="Q7" s="118"/>
-      <c r="R7" s="118"/>
-      <c r="S7" s="118"/>
-      <c r="T7" s="118"/>
-      <c r="U7" s="118"/>
-      <c r="V7" s="118"/>
-      <c r="W7" s="118"/>
-      <c r="X7" s="118"/>
+      <c r="B7" s="106"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="106"/>
+      <c r="E7" s="106"/>
+      <c r="F7" s="106"/>
+      <c r="G7" s="106"/>
+      <c r="H7" s="106"/>
+      <c r="I7" s="106"/>
+      <c r="J7" s="106"/>
+      <c r="K7" s="106"/>
+      <c r="L7" s="106"/>
+      <c r="M7" s="106"/>
+      <c r="N7" s="106"/>
+      <c r="O7" s="106"/>
+      <c r="P7" s="106"/>
+      <c r="Q7" s="106"/>
+      <c r="R7" s="106"/>
+      <c r="S7" s="106"/>
+      <c r="T7" s="106"/>
+      <c r="U7" s="106"/>
+      <c r="V7" s="106"/>
+      <c r="W7" s="106"/>
+      <c r="X7" s="106"/>
     </row>
     <row r="8" spans="1:27" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A8" s="118" t="str">
+      <c r="A8" s="106" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ЛИСТОПАД 2021р.</v>
       </c>
-      <c r="B8" s="118"/>
-      <c r="C8" s="118"/>
-      <c r="D8" s="118"/>
-      <c r="E8" s="118"/>
-      <c r="F8" s="118"/>
-      <c r="G8" s="118"/>
-      <c r="H8" s="118"/>
-      <c r="I8" s="118"/>
-      <c r="J8" s="118"/>
-      <c r="K8" s="118"/>
-      <c r="L8" s="118"/>
-      <c r="M8" s="118"/>
-      <c r="N8" s="118"/>
-      <c r="O8" s="118"/>
-      <c r="P8" s="118"/>
-      <c r="Q8" s="118"/>
-      <c r="R8" s="118"/>
-      <c r="S8" s="118"/>
-      <c r="T8" s="118"/>
-      <c r="U8" s="118"/>
-      <c r="V8" s="118"/>
-      <c r="W8" s="118"/>
-      <c r="X8" s="118"/>
+      <c r="B8" s="106"/>
+      <c r="C8" s="106"/>
+      <c r="D8" s="106"/>
+      <c r="E8" s="106"/>
+      <c r="F8" s="106"/>
+      <c r="G8" s="106"/>
+      <c r="H8" s="106"/>
+      <c r="I8" s="106"/>
+      <c r="J8" s="106"/>
+      <c r="K8" s="106"/>
+      <c r="L8" s="106"/>
+      <c r="M8" s="106"/>
+      <c r="N8" s="106"/>
+      <c r="O8" s="106"/>
+      <c r="P8" s="106"/>
+      <c r="Q8" s="106"/>
+      <c r="R8" s="106"/>
+      <c r="S8" s="106"/>
+      <c r="T8" s="106"/>
+      <c r="U8" s="106"/>
+      <c r="V8" s="106"/>
+      <c r="W8" s="106"/>
+      <c r="X8" s="106"/>
     </row>
     <row r="9" spans="1:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="120" t="s">
+      <c r="A9" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="121" t="s">
+      <c r="B9" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="120" t="s">
+      <c r="C9" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="120" t="s">
+      <c r="D9" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="120" t="s">
+      <c r="E9" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="120"/>
-      <c r="G9" s="120"/>
-      <c r="H9" s="120"/>
-      <c r="I9" s="120"/>
-      <c r="J9" s="120"/>
-      <c r="K9" s="120"/>
-      <c r="L9" s="120"/>
-      <c r="M9" s="120"/>
-      <c r="N9" s="120"/>
-      <c r="O9" s="120"/>
-      <c r="P9" s="120"/>
-      <c r="Q9" s="120"/>
-      <c r="R9" s="120"/>
-      <c r="S9" s="120"/>
-      <c r="T9" s="120"/>
-      <c r="U9" s="128" t="s">
+      <c r="F9" s="108"/>
+      <c r="G9" s="108"/>
+      <c r="H9" s="108"/>
+      <c r="I9" s="108"/>
+      <c r="J9" s="108"/>
+      <c r="K9" s="108"/>
+      <c r="L9" s="108"/>
+      <c r="M9" s="108"/>
+      <c r="N9" s="108"/>
+      <c r="O9" s="108"/>
+      <c r="P9" s="108"/>
+      <c r="Q9" s="108"/>
+      <c r="R9" s="108"/>
+      <c r="S9" s="108"/>
+      <c r="T9" s="108"/>
+      <c r="U9" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="V9" s="128" t="s">
+      <c r="V9" s="116" t="s">
         <v>6</v>
       </c>
-      <c r="W9" s="128" t="s">
+      <c r="W9" s="116" t="s">
         <v>14</v>
       </c>
-      <c r="X9" s="128" t="s">
+      <c r="X9" s="116" t="s">
         <v>7</v>
       </c>
-      <c r="Y9" s="114" t="s">
+      <c r="Y9" s="102" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:27" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="120"/>
-      <c r="B10" s="121"/>
-      <c r="C10" s="120"/>
-      <c r="D10" s="120"/>
-      <c r="E10" s="120"/>
-      <c r="F10" s="120"/>
-      <c r="G10" s="120"/>
-      <c r="H10" s="120"/>
-      <c r="I10" s="120"/>
-      <c r="J10" s="120"/>
-      <c r="K10" s="120"/>
-      <c r="L10" s="120"/>
-      <c r="M10" s="120"/>
-      <c r="N10" s="120"/>
-      <c r="O10" s="120"/>
-      <c r="P10" s="120"/>
-      <c r="Q10" s="120"/>
-      <c r="R10" s="120"/>
-      <c r="S10" s="120"/>
-      <c r="T10" s="120"/>
-      <c r="U10" s="128"/>
-      <c r="V10" s="128"/>
-      <c r="W10" s="128"/>
-      <c r="X10" s="128"/>
-      <c r="Y10" s="114"/>
+      <c r="A10" s="108"/>
+      <c r="B10" s="109"/>
+      <c r="C10" s="108"/>
+      <c r="D10" s="108"/>
+      <c r="E10" s="108"/>
+      <c r="F10" s="108"/>
+      <c r="G10" s="108"/>
+      <c r="H10" s="108"/>
+      <c r="I10" s="108"/>
+      <c r="J10" s="108"/>
+      <c r="K10" s="108"/>
+      <c r="L10" s="108"/>
+      <c r="M10" s="108"/>
+      <c r="N10" s="108"/>
+      <c r="O10" s="108"/>
+      <c r="P10" s="108"/>
+      <c r="Q10" s="108"/>
+      <c r="R10" s="108"/>
+      <c r="S10" s="108"/>
+      <c r="T10" s="108"/>
+      <c r="U10" s="116"/>
+      <c r="V10" s="116"/>
+      <c r="W10" s="116"/>
+      <c r="X10" s="116"/>
+      <c r="Y10" s="102"/>
     </row>
     <row r="11" spans="1:27" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="111">
+      <c r="A11" s="117">
         <v>1</v>
       </c>
-      <c r="B11" s="111">
+      <c r="B11" s="117">
         <v>1</v>
       </c>
-      <c r="C11" s="112" t="s">
+      <c r="C11" s="118" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="113" t="s">
+      <c r="D11" s="119" t="s">
         <v>56</v>
       </c>
       <c r="E11" s="25">
@@ -3274,29 +3274,29 @@
       <c r="T11" s="25">
         <v>16</v>
       </c>
-      <c r="U11" s="108" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="108" t="s">
-        <v>8</v>
-      </c>
-      <c r="W11" s="102" t="s">
-        <v>8</v>
-      </c>
-      <c r="X11" s="102">
+      <c r="U11" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11" s="123" t="s">
+        <v>8</v>
+      </c>
+      <c r="X11" s="123">
         <v>21</v>
       </c>
-      <c r="Y11" s="102"/>
+      <c r="Y11" s="123"/>
       <c r="Z11" s="3">
         <f>SUM(E12:T12)</f>
         <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:27" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="111"/>
-      <c r="B12" s="111"/>
-      <c r="C12" s="112"/>
-      <c r="D12" s="113"/>
+      <c r="A12" s="117"/>
+      <c r="B12" s="117"/>
+      <c r="C12" s="118"/>
+      <c r="D12" s="119"/>
       <c r="E12" s="26" t="s">
         <v>13</v>
       </c>
@@ -3345,17 +3345,17 @@
       <c r="T12" s="26">
         <v>2</v>
       </c>
-      <c r="U12" s="109"/>
-      <c r="V12" s="109"/>
-      <c r="W12" s="103"/>
-      <c r="X12" s="103"/>
-      <c r="Y12" s="103"/>
+      <c r="U12" s="121"/>
+      <c r="V12" s="121"/>
+      <c r="W12" s="124"/>
+      <c r="X12" s="124"/>
+      <c r="Y12" s="124"/>
     </row>
     <row r="13" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="111"/>
-      <c r="B13" s="111"/>
-      <c r="C13" s="112"/>
-      <c r="D13" s="113"/>
+      <c r="A13" s="117"/>
+      <c r="B13" s="117"/>
+      <c r="C13" s="118"/>
+      <c r="D13" s="119"/>
       <c r="E13" s="27">
         <v>17</v>
       </c>
@@ -3404,23 +3404,23 @@
       <c r="T13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U13" s="109"/>
-      <c r="V13" s="109"/>
-      <c r="W13" s="103"/>
-      <c r="X13" s="103">
+      <c r="U13" s="121"/>
+      <c r="V13" s="121"/>
+      <c r="W13" s="124"/>
+      <c r="X13" s="124">
         <v>42</v>
       </c>
-      <c r="Y13" s="103"/>
+      <c r="Y13" s="124"/>
       <c r="AA13" s="2">
         <f>Z11+Z14</f>
         <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="111"/>
-      <c r="B14" s="111"/>
-      <c r="C14" s="112"/>
-      <c r="D14" s="113"/>
+      <c r="A14" s="117"/>
+      <c r="B14" s="117"/>
+      <c r="C14" s="118"/>
+      <c r="D14" s="119"/>
       <c r="E14" s="26">
         <v>2</v>
       </c>
@@ -3469,11 +3469,11 @@
       <c r="T14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="110"/>
-      <c r="V14" s="110"/>
-      <c r="W14" s="104"/>
-      <c r="X14" s="104"/>
-      <c r="Y14" s="104"/>
+      <c r="U14" s="122"/>
+      <c r="V14" s="122"/>
+      <c r="W14" s="125"/>
+      <c r="X14" s="125"/>
+      <c r="Y14" s="125"/>
       <c r="Z14" s="3">
         <f>SUM(E14:T14)</f>
         <v>22</v>
@@ -3532,10 +3532,10 @@
       <c r="X16" s="9"/>
     </row>
     <row r="17" spans="2:12" s="36" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="146" t="s">
+      <c r="B17" s="143" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="146"/>
+      <c r="C17" s="143"/>
       <c r="D17" s="37">
         <f>Мельницький!C36</f>
         <v>44531</v>
@@ -3599,6 +3599,20 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A7:X7"/>
+    <mergeCell ref="A8:X8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:T10"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="U11:U14"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="W9:W10"/>
     <mergeCell ref="X9:X10"/>
@@ -3608,20 +3622,6 @@
     <mergeCell ref="X11:X12"/>
     <mergeCell ref="X13:X14"/>
     <mergeCell ref="Y11:Y14"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="U11:U14"/>
-    <mergeCell ref="A7:X7"/>
-    <mergeCell ref="A8:X8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:T10"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="V9:V10"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="99" orientation="landscape" r:id="rId1"/>
@@ -3809,147 +3809,147 @@
       <c r="X6" s="19"/>
     </row>
     <row r="7" spans="1:26" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A7" s="118" t="s">
+      <c r="A7" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="118"/>
-      <c r="C7" s="118"/>
-      <c r="D7" s="118"/>
-      <c r="E7" s="118"/>
-      <c r="F7" s="118"/>
-      <c r="G7" s="118"/>
-      <c r="H7" s="118"/>
-      <c r="I7" s="118"/>
-      <c r="J7" s="118"/>
-      <c r="K7" s="118"/>
-      <c r="L7" s="118"/>
-      <c r="M7" s="118"/>
-      <c r="N7" s="118"/>
-      <c r="O7" s="118"/>
-      <c r="P7" s="118"/>
-      <c r="Q7" s="118"/>
-      <c r="R7" s="118"/>
-      <c r="S7" s="118"/>
-      <c r="T7" s="118"/>
-      <c r="U7" s="118"/>
-      <c r="V7" s="118"/>
-      <c r="W7" s="118"/>
-      <c r="X7" s="118"/>
+      <c r="B7" s="106"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="106"/>
+      <c r="E7" s="106"/>
+      <c r="F7" s="106"/>
+      <c r="G7" s="106"/>
+      <c r="H7" s="106"/>
+      <c r="I7" s="106"/>
+      <c r="J7" s="106"/>
+      <c r="K7" s="106"/>
+      <c r="L7" s="106"/>
+      <c r="M7" s="106"/>
+      <c r="N7" s="106"/>
+      <c r="O7" s="106"/>
+      <c r="P7" s="106"/>
+      <c r="Q7" s="106"/>
+      <c r="R7" s="106"/>
+      <c r="S7" s="106"/>
+      <c r="T7" s="106"/>
+      <c r="U7" s="106"/>
+      <c r="V7" s="106"/>
+      <c r="W7" s="106"/>
+      <c r="X7" s="106"/>
     </row>
     <row r="8" spans="1:26" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A8" s="118" t="str">
+      <c r="A8" s="106" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ЛИСТОПАД 2021р.</v>
       </c>
-      <c r="B8" s="118"/>
-      <c r="C8" s="118"/>
-      <c r="D8" s="118"/>
-      <c r="E8" s="118"/>
-      <c r="F8" s="118"/>
-      <c r="G8" s="118"/>
-      <c r="H8" s="118"/>
-      <c r="I8" s="118"/>
-      <c r="J8" s="118"/>
-      <c r="K8" s="118"/>
-      <c r="L8" s="118"/>
-      <c r="M8" s="118"/>
-      <c r="N8" s="118"/>
-      <c r="O8" s="118"/>
-      <c r="P8" s="118"/>
-      <c r="Q8" s="118"/>
-      <c r="R8" s="118"/>
-      <c r="S8" s="118"/>
-      <c r="T8" s="118"/>
-      <c r="U8" s="118"/>
-      <c r="V8" s="118"/>
-      <c r="W8" s="118"/>
-      <c r="X8" s="118"/>
+      <c r="B8" s="106"/>
+      <c r="C8" s="106"/>
+      <c r="D8" s="106"/>
+      <c r="E8" s="106"/>
+      <c r="F8" s="106"/>
+      <c r="G8" s="106"/>
+      <c r="H8" s="106"/>
+      <c r="I8" s="106"/>
+      <c r="J8" s="106"/>
+      <c r="K8" s="106"/>
+      <c r="L8" s="106"/>
+      <c r="M8" s="106"/>
+      <c r="N8" s="106"/>
+      <c r="O8" s="106"/>
+      <c r="P8" s="106"/>
+      <c r="Q8" s="106"/>
+      <c r="R8" s="106"/>
+      <c r="S8" s="106"/>
+      <c r="T8" s="106"/>
+      <c r="U8" s="106"/>
+      <c r="V8" s="106"/>
+      <c r="W8" s="106"/>
+      <c r="X8" s="106"/>
     </row>
     <row r="9" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="120" t="s">
+      <c r="A9" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="121" t="s">
+      <c r="B9" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="120" t="s">
+      <c r="C9" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="120" t="s">
+      <c r="D9" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="120" t="s">
+      <c r="E9" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="120"/>
-      <c r="G9" s="120"/>
-      <c r="H9" s="120"/>
-      <c r="I9" s="120"/>
-      <c r="J9" s="120"/>
-      <c r="K9" s="120"/>
-      <c r="L9" s="120"/>
-      <c r="M9" s="120"/>
-      <c r="N9" s="120"/>
-      <c r="O9" s="120"/>
-      <c r="P9" s="120"/>
-      <c r="Q9" s="120"/>
-      <c r="R9" s="120"/>
-      <c r="S9" s="120"/>
-      <c r="T9" s="120"/>
-      <c r="U9" s="128" t="s">
+      <c r="F9" s="108"/>
+      <c r="G9" s="108"/>
+      <c r="H9" s="108"/>
+      <c r="I9" s="108"/>
+      <c r="J9" s="108"/>
+      <c r="K9" s="108"/>
+      <c r="L9" s="108"/>
+      <c r="M9" s="108"/>
+      <c r="N9" s="108"/>
+      <c r="O9" s="108"/>
+      <c r="P9" s="108"/>
+      <c r="Q9" s="108"/>
+      <c r="R9" s="108"/>
+      <c r="S9" s="108"/>
+      <c r="T9" s="108"/>
+      <c r="U9" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="V9" s="128" t="s">
+      <c r="V9" s="116" t="s">
         <v>6</v>
       </c>
-      <c r="W9" s="128" t="s">
+      <c r="W9" s="116" t="s">
         <v>14</v>
       </c>
-      <c r="X9" s="128" t="s">
+      <c r="X9" s="116" t="s">
         <v>7</v>
       </c>
-      <c r="Y9" s="114" t="s">
+      <c r="Y9" s="102" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="120"/>
-      <c r="B10" s="121"/>
-      <c r="C10" s="120"/>
-      <c r="D10" s="120"/>
-      <c r="E10" s="120"/>
-      <c r="F10" s="120"/>
-      <c r="G10" s="120"/>
-      <c r="H10" s="120"/>
-      <c r="I10" s="120"/>
-      <c r="J10" s="120"/>
-      <c r="K10" s="120"/>
-      <c r="L10" s="120"/>
-      <c r="M10" s="120"/>
-      <c r="N10" s="120"/>
-      <c r="O10" s="120"/>
-      <c r="P10" s="120"/>
-      <c r="Q10" s="120"/>
-      <c r="R10" s="120"/>
-      <c r="S10" s="120"/>
-      <c r="T10" s="120"/>
-      <c r="U10" s="128"/>
-      <c r="V10" s="128"/>
-      <c r="W10" s="128"/>
-      <c r="X10" s="128"/>
-      <c r="Y10" s="114"/>
+      <c r="A10" s="108"/>
+      <c r="B10" s="109"/>
+      <c r="C10" s="108"/>
+      <c r="D10" s="108"/>
+      <c r="E10" s="108"/>
+      <c r="F10" s="108"/>
+      <c r="G10" s="108"/>
+      <c r="H10" s="108"/>
+      <c r="I10" s="108"/>
+      <c r="J10" s="108"/>
+      <c r="K10" s="108"/>
+      <c r="L10" s="108"/>
+      <c r="M10" s="108"/>
+      <c r="N10" s="108"/>
+      <c r="O10" s="108"/>
+      <c r="P10" s="108"/>
+      <c r="Q10" s="108"/>
+      <c r="R10" s="108"/>
+      <c r="S10" s="108"/>
+      <c r="T10" s="108"/>
+      <c r="U10" s="116"/>
+      <c r="V10" s="116"/>
+      <c r="W10" s="116"/>
+      <c r="X10" s="116"/>
+      <c r="Y10" s="102"/>
     </row>
     <row r="11" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="111">
+      <c r="A11" s="117">
         <v>1</v>
       </c>
-      <c r="B11" s="111">
+      <c r="B11" s="117">
         <v>1</v>
       </c>
-      <c r="C11" s="112" t="s">
+      <c r="C11" s="118" t="s">
         <v>62</v>
       </c>
-      <c r="D11" s="113" t="s">
+      <c r="D11" s="119" t="s">
         <v>56</v>
       </c>
       <c r="E11" s="25">
@@ -4000,29 +4000,29 @@
       <c r="T11" s="25">
         <v>16</v>
       </c>
-      <c r="U11" s="108" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="108" t="s">
-        <v>8</v>
-      </c>
-      <c r="W11" s="102" t="s">
-        <v>8</v>
-      </c>
-      <c r="X11" s="102">
+      <c r="U11" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11" s="123" t="s">
+        <v>8</v>
+      </c>
+      <c r="X11" s="123">
         <v>21</v>
       </c>
-      <c r="Y11" s="143"/>
+      <c r="Y11" s="140"/>
       <c r="Z11" s="3">
         <f>SUM(E12:T12)</f>
         <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="111"/>
-      <c r="B12" s="111"/>
-      <c r="C12" s="112"/>
-      <c r="D12" s="113"/>
+      <c r="A12" s="117"/>
+      <c r="B12" s="117"/>
+      <c r="C12" s="118"/>
+      <c r="D12" s="119"/>
       <c r="E12" s="26" t="s">
         <v>13</v>
       </c>
@@ -4071,17 +4071,17 @@
       <c r="T12" s="26">
         <v>2</v>
       </c>
-      <c r="U12" s="109"/>
-      <c r="V12" s="109"/>
-      <c r="W12" s="103"/>
-      <c r="X12" s="104"/>
-      <c r="Y12" s="144"/>
+      <c r="U12" s="121"/>
+      <c r="V12" s="121"/>
+      <c r="W12" s="124"/>
+      <c r="X12" s="125"/>
+      <c r="Y12" s="141"/>
     </row>
     <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="111"/>
-      <c r="B13" s="111"/>
-      <c r="C13" s="112"/>
-      <c r="D13" s="113"/>
+      <c r="A13" s="117"/>
+      <c r="B13" s="117"/>
+      <c r="C13" s="118"/>
+      <c r="D13" s="119"/>
       <c r="E13" s="27">
         <v>17</v>
       </c>
@@ -4130,20 +4130,20 @@
       <c r="T13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U13" s="109"/>
-      <c r="V13" s="109"/>
-      <c r="W13" s="103"/>
-      <c r="X13" s="102">
+      <c r="U13" s="121"/>
+      <c r="V13" s="121"/>
+      <c r="W13" s="124"/>
+      <c r="X13" s="123">
         <f>Z11+Z14</f>
         <v>42</v>
       </c>
-      <c r="Y13" s="144"/>
+      <c r="Y13" s="141"/>
     </row>
     <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="111"/>
-      <c r="B14" s="111"/>
-      <c r="C14" s="112"/>
-      <c r="D14" s="113"/>
+      <c r="A14" s="117"/>
+      <c r="B14" s="117"/>
+      <c r="C14" s="118"/>
+      <c r="D14" s="119"/>
       <c r="E14" s="26">
         <v>2</v>
       </c>
@@ -4192,11 +4192,11 @@
       <c r="T14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="110"/>
-      <c r="V14" s="110"/>
-      <c r="W14" s="104"/>
-      <c r="X14" s="104"/>
-      <c r="Y14" s="145"/>
+      <c r="U14" s="122"/>
+      <c r="V14" s="122"/>
+      <c r="W14" s="125"/>
+      <c r="X14" s="125"/>
+      <c r="Y14" s="142"/>
       <c r="Z14" s="3">
         <f>SUM(E14:T14)</f>
         <v>22</v>
@@ -4255,10 +4255,10 @@
       <c r="X16" s="9"/>
     </row>
     <row r="17" spans="2:12" s="39" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="146" t="s">
+      <c r="B17" s="143" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="146"/>
+      <c r="C17" s="143"/>
       <c r="D17" s="40">
         <f>Мельницький!C36</f>
         <v>44531</v>
@@ -4322,6 +4322,19 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="Y11:Y14"/>
+    <mergeCell ref="X13:X14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="V11:V14"/>
+    <mergeCell ref="W11:W14"/>
+    <mergeCell ref="X11:X12"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="U11:U14"/>
     <mergeCell ref="A7:X7"/>
     <mergeCell ref="A8:X8"/>
     <mergeCell ref="A9:A10"/>
@@ -4332,19 +4345,6 @@
     <mergeCell ref="U9:U10"/>
     <mergeCell ref="V9:V10"/>
     <mergeCell ref="W9:W10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="U11:U14"/>
-    <mergeCell ref="Y11:Y14"/>
-    <mergeCell ref="X13:X14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="V11:V14"/>
-    <mergeCell ref="W11:W14"/>
-    <mergeCell ref="X11:X12"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="99" orientation="landscape" r:id="rId1"/>
@@ -4373,12 +4373,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
       <c r="Q1" s="15" t="s">
         <v>40</v>
       </c>
@@ -4522,149 +4522,149 @@
       <c r="X6" s="19"/>
     </row>
     <row r="7" spans="1:26" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A7" s="118" t="s">
+      <c r="A7" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="118"/>
-      <c r="C7" s="118"/>
-      <c r="D7" s="118"/>
-      <c r="E7" s="118"/>
-      <c r="F7" s="118"/>
-      <c r="G7" s="118"/>
-      <c r="H7" s="118"/>
-      <c r="I7" s="118"/>
-      <c r="J7" s="118"/>
-      <c r="K7" s="118"/>
-      <c r="L7" s="118"/>
-      <c r="M7" s="118"/>
-      <c r="N7" s="118"/>
-      <c r="O7" s="118"/>
-      <c r="P7" s="118"/>
-      <c r="Q7" s="118"/>
-      <c r="R7" s="118"/>
-      <c r="S7" s="118"/>
-      <c r="T7" s="118"/>
-      <c r="U7" s="118"/>
-      <c r="V7" s="118"/>
-      <c r="W7" s="118"/>
-      <c r="X7" s="118"/>
-      <c r="Y7" s="118"/>
-      <c r="Z7" s="118"/>
+      <c r="B7" s="106"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="106"/>
+      <c r="E7" s="106"/>
+      <c r="F7" s="106"/>
+      <c r="G7" s="106"/>
+      <c r="H7" s="106"/>
+      <c r="I7" s="106"/>
+      <c r="J7" s="106"/>
+      <c r="K7" s="106"/>
+      <c r="L7" s="106"/>
+      <c r="M7" s="106"/>
+      <c r="N7" s="106"/>
+      <c r="O7" s="106"/>
+      <c r="P7" s="106"/>
+      <c r="Q7" s="106"/>
+      <c r="R7" s="106"/>
+      <c r="S7" s="106"/>
+      <c r="T7" s="106"/>
+      <c r="U7" s="106"/>
+      <c r="V7" s="106"/>
+      <c r="W7" s="106"/>
+      <c r="X7" s="106"/>
+      <c r="Y7" s="106"/>
+      <c r="Z7" s="106"/>
     </row>
     <row r="8" spans="1:26" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A8" s="119" t="str">
+      <c r="A8" s="107" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ЛИСТОПАД 2021р.</v>
       </c>
-      <c r="B8" s="119"/>
-      <c r="C8" s="119"/>
-      <c r="D8" s="119"/>
-      <c r="E8" s="119"/>
-      <c r="F8" s="119"/>
-      <c r="G8" s="119"/>
-      <c r="H8" s="119"/>
-      <c r="I8" s="119"/>
-      <c r="J8" s="119"/>
-      <c r="K8" s="119"/>
-      <c r="L8" s="119"/>
-      <c r="M8" s="119"/>
-      <c r="N8" s="119"/>
-      <c r="O8" s="119"/>
-      <c r="P8" s="119"/>
-      <c r="Q8" s="119"/>
-      <c r="R8" s="119"/>
-      <c r="S8" s="119"/>
-      <c r="T8" s="119"/>
-      <c r="U8" s="119"/>
-      <c r="V8" s="119"/>
-      <c r="W8" s="119"/>
-      <c r="X8" s="119"/>
-      <c r="Y8" s="119"/>
-      <c r="Z8" s="119"/>
+      <c r="B8" s="107"/>
+      <c r="C8" s="107"/>
+      <c r="D8" s="107"/>
+      <c r="E8" s="107"/>
+      <c r="F8" s="107"/>
+      <c r="G8" s="107"/>
+      <c r="H8" s="107"/>
+      <c r="I8" s="107"/>
+      <c r="J8" s="107"/>
+      <c r="K8" s="107"/>
+      <c r="L8" s="107"/>
+      <c r="M8" s="107"/>
+      <c r="N8" s="107"/>
+      <c r="O8" s="107"/>
+      <c r="P8" s="107"/>
+      <c r="Q8" s="107"/>
+      <c r="R8" s="107"/>
+      <c r="S8" s="107"/>
+      <c r="T8" s="107"/>
+      <c r="U8" s="107"/>
+      <c r="V8" s="107"/>
+      <c r="W8" s="107"/>
+      <c r="X8" s="107"/>
+      <c r="Y8" s="107"/>
+      <c r="Z8" s="107"/>
     </row>
     <row r="9" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="120" t="s">
+      <c r="A9" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="121" t="s">
+      <c r="B9" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="120" t="s">
+      <c r="C9" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="120" t="s">
+      <c r="D9" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="120" t="s">
+      <c r="E9" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="120"/>
-      <c r="G9" s="120"/>
-      <c r="H9" s="120"/>
-      <c r="I9" s="120"/>
-      <c r="J9" s="120"/>
-      <c r="K9" s="120"/>
-      <c r="L9" s="120"/>
-      <c r="M9" s="120"/>
-      <c r="N9" s="120"/>
-      <c r="O9" s="120"/>
-      <c r="P9" s="120"/>
-      <c r="Q9" s="120"/>
-      <c r="R9" s="120"/>
-      <c r="S9" s="120"/>
-      <c r="T9" s="120"/>
-      <c r="U9" s="128" t="s">
+      <c r="F9" s="108"/>
+      <c r="G9" s="108"/>
+      <c r="H9" s="108"/>
+      <c r="I9" s="108"/>
+      <c r="J9" s="108"/>
+      <c r="K9" s="108"/>
+      <c r="L9" s="108"/>
+      <c r="M9" s="108"/>
+      <c r="N9" s="108"/>
+      <c r="O9" s="108"/>
+      <c r="P9" s="108"/>
+      <c r="Q9" s="108"/>
+      <c r="R9" s="108"/>
+      <c r="S9" s="108"/>
+      <c r="T9" s="108"/>
+      <c r="U9" s="116" t="s">
         <v>48</v>
       </c>
-      <c r="V9" s="128" t="s">
+      <c r="V9" s="116" t="s">
         <v>49</v>
       </c>
-      <c r="W9" s="128" t="s">
+      <c r="W9" s="116" t="s">
         <v>50</v>
       </c>
-      <c r="X9" s="128" t="s">
+      <c r="X9" s="116" t="s">
         <v>47</v>
       </c>
-      <c r="Y9" s="128" t="s">
+      <c r="Y9" s="116" t="s">
         <v>46</v>
       </c>
-      <c r="Z9" s="114" t="s">
+      <c r="Z9" s="102" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="120"/>
-      <c r="B10" s="121"/>
-      <c r="C10" s="120"/>
-      <c r="D10" s="120"/>
-      <c r="E10" s="120"/>
-      <c r="F10" s="120"/>
-      <c r="G10" s="120"/>
-      <c r="H10" s="120"/>
-      <c r="I10" s="120"/>
-      <c r="J10" s="120"/>
-      <c r="K10" s="120"/>
-      <c r="L10" s="120"/>
-      <c r="M10" s="120"/>
-      <c r="N10" s="120"/>
-      <c r="O10" s="120"/>
-      <c r="P10" s="120"/>
-      <c r="Q10" s="120"/>
-      <c r="R10" s="120"/>
-      <c r="S10" s="120"/>
-      <c r="T10" s="120"/>
-      <c r="U10" s="128"/>
-      <c r="V10" s="128"/>
-      <c r="W10" s="128"/>
-      <c r="X10" s="128"/>
-      <c r="Y10" s="128"/>
-      <c r="Z10" s="114"/>
+      <c r="A10" s="108"/>
+      <c r="B10" s="109"/>
+      <c r="C10" s="108"/>
+      <c r="D10" s="108"/>
+      <c r="E10" s="108"/>
+      <c r="F10" s="108"/>
+      <c r="G10" s="108"/>
+      <c r="H10" s="108"/>
+      <c r="I10" s="108"/>
+      <c r="J10" s="108"/>
+      <c r="K10" s="108"/>
+      <c r="L10" s="108"/>
+      <c r="M10" s="108"/>
+      <c r="N10" s="108"/>
+      <c r="O10" s="108"/>
+      <c r="P10" s="108"/>
+      <c r="Q10" s="108"/>
+      <c r="R10" s="108"/>
+      <c r="S10" s="108"/>
+      <c r="T10" s="108"/>
+      <c r="U10" s="116"/>
+      <c r="V10" s="116"/>
+      <c r="W10" s="116"/>
+      <c r="X10" s="116"/>
+      <c r="Y10" s="116"/>
+      <c r="Z10" s="102"/>
     </row>
     <row r="11" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="111">
+      <c r="A11" s="117">
         <v>1</v>
       </c>
-      <c r="B11" s="111">
+      <c r="B11" s="117">
         <v>2</v>
       </c>
       <c r="C11" s="129" t="s">
@@ -4721,26 +4721,26 @@
       <c r="T11" s="25">
         <v>16</v>
       </c>
-      <c r="U11" s="108" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="108" t="s">
-        <v>8</v>
-      </c>
-      <c r="W11" s="102" t="s">
+      <c r="U11" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11" s="123" t="s">
         <v>8</v>
       </c>
       <c r="X11" s="22"/>
-      <c r="Y11" s="102">
+      <c r="Y11" s="123">
         <v>21</v>
       </c>
-      <c r="Z11" s="105">
+      <c r="Z11" s="126">
         <v>3232</v>
       </c>
     </row>
     <row r="12" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="111"/>
-      <c r="B12" s="111"/>
+      <c r="A12" s="117"/>
+      <c r="B12" s="117"/>
       <c r="C12" s="129"/>
       <c r="D12" s="130"/>
       <c r="E12" s="26" t="s">
@@ -4791,16 +4791,16 @@
       <c r="T12" s="26">
         <v>2</v>
       </c>
-      <c r="U12" s="109"/>
-      <c r="V12" s="109"/>
-      <c r="W12" s="103"/>
+      <c r="U12" s="121"/>
+      <c r="V12" s="121"/>
+      <c r="W12" s="124"/>
       <c r="X12" s="23"/>
-      <c r="Y12" s="104"/>
-      <c r="Z12" s="105"/>
+      <c r="Y12" s="125"/>
+      <c r="Z12" s="126"/>
     </row>
     <row r="13" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="111"/>
-      <c r="B13" s="111"/>
+      <c r="A13" s="117"/>
+      <c r="B13" s="117"/>
       <c r="C13" s="129"/>
       <c r="D13" s="130"/>
       <c r="E13" s="27">
@@ -4851,18 +4851,18 @@
       <c r="T13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U13" s="109"/>
-      <c r="V13" s="109"/>
-      <c r="W13" s="103"/>
+      <c r="U13" s="121"/>
+      <c r="V13" s="121"/>
+      <c r="W13" s="124"/>
       <c r="X13" s="23"/>
-      <c r="Y13" s="102">
+      <c r="Y13" s="123">
         <v>42</v>
       </c>
-      <c r="Z13" s="105"/>
+      <c r="Z13" s="126"/>
     </row>
     <row r="14" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="111"/>
-      <c r="B14" s="111"/>
+      <c r="A14" s="117"/>
+      <c r="B14" s="117"/>
       <c r="C14" s="129"/>
       <c r="D14" s="130"/>
       <c r="E14" s="26">
@@ -4913,18 +4913,18 @@
       <c r="T14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="110"/>
-      <c r="V14" s="110"/>
-      <c r="W14" s="104"/>
+      <c r="U14" s="122"/>
+      <c r="V14" s="122"/>
+      <c r="W14" s="125"/>
       <c r="X14" s="24"/>
-      <c r="Y14" s="104"/>
-      <c r="Z14" s="105"/>
+      <c r="Y14" s="125"/>
+      <c r="Z14" s="126"/>
     </row>
     <row r="16" spans="1:26" ht="18" x14ac:dyDescent="0.3">
-      <c r="B16" s="106" t="s">
+      <c r="B16" s="127" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="106"/>
+      <c r="C16" s="127"/>
       <c r="D16" s="30">
         <v>42916</v>
       </c>
@@ -5006,15 +5006,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="V11:V14"/>
-    <mergeCell ref="W11:W14"/>
     <mergeCell ref="Y11:Y12"/>
     <mergeCell ref="Z11:Z14"/>
     <mergeCell ref="Y13:Y14"/>
@@ -5031,6 +5022,15 @@
     <mergeCell ref="A11:A14"/>
     <mergeCell ref="Y9:Y10"/>
     <mergeCell ref="Z9:Z10"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="V11:V14"/>
+    <mergeCell ref="W11:W14"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -5043,7 +5043,7 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A2:AA44"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
       <selection activeCell="R32" sqref="R32"/>
     </sheetView>
   </sheetViews>
@@ -5063,11 +5063,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:27" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A2" s="115" t="s">
+      <c r="A2" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
       <c r="Q2" s="15" t="s">
         <v>40</v>
       </c>
@@ -5181,141 +5181,141 @@
       <c r="W6" s="18"/>
     </row>
     <row r="7" spans="1:27" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A7" s="118" t="s">
+      <c r="A7" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="118"/>
-      <c r="C7" s="118"/>
-      <c r="D7" s="118"/>
-      <c r="E7" s="118"/>
-      <c r="F7" s="118"/>
-      <c r="G7" s="118"/>
-      <c r="H7" s="118"/>
-      <c r="I7" s="118"/>
-      <c r="J7" s="118"/>
-      <c r="K7" s="118"/>
-      <c r="L7" s="118"/>
-      <c r="M7" s="118"/>
-      <c r="N7" s="118"/>
-      <c r="O7" s="118"/>
-      <c r="P7" s="118"/>
-      <c r="Q7" s="118"/>
-      <c r="R7" s="118"/>
-      <c r="S7" s="118"/>
-      <c r="T7" s="118"/>
-      <c r="U7" s="118"/>
-      <c r="V7" s="118"/>
-      <c r="W7" s="118"/>
+      <c r="B7" s="106"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="106"/>
+      <c r="E7" s="106"/>
+      <c r="F7" s="106"/>
+      <c r="G7" s="106"/>
+      <c r="H7" s="106"/>
+      <c r="I7" s="106"/>
+      <c r="J7" s="106"/>
+      <c r="K7" s="106"/>
+      <c r="L7" s="106"/>
+      <c r="M7" s="106"/>
+      <c r="N7" s="106"/>
+      <c r="O7" s="106"/>
+      <c r="P7" s="106"/>
+      <c r="Q7" s="106"/>
+      <c r="R7" s="106"/>
+      <c r="S7" s="106"/>
+      <c r="T7" s="106"/>
+      <c r="U7" s="106"/>
+      <c r="V7" s="106"/>
+      <c r="W7" s="106"/>
     </row>
     <row r="8" spans="1:27" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A8" s="118" t="s">
+      <c r="A8" s="106" t="s">
         <v>103</v>
       </c>
-      <c r="B8" s="118"/>
-      <c r="C8" s="118"/>
-      <c r="D8" s="118"/>
-      <c r="E8" s="118"/>
-      <c r="F8" s="118"/>
-      <c r="G8" s="118"/>
-      <c r="H8" s="118"/>
-      <c r="I8" s="118"/>
-      <c r="J8" s="118"/>
-      <c r="K8" s="118"/>
-      <c r="L8" s="118"/>
-      <c r="M8" s="118"/>
-      <c r="N8" s="118"/>
-      <c r="O8" s="118"/>
-      <c r="P8" s="118"/>
-      <c r="Q8" s="118"/>
-      <c r="R8" s="118"/>
-      <c r="S8" s="118"/>
-      <c r="T8" s="118"/>
-      <c r="U8" s="118"/>
-      <c r="V8" s="118"/>
-      <c r="W8" s="118"/>
+      <c r="B8" s="106"/>
+      <c r="C8" s="106"/>
+      <c r="D8" s="106"/>
+      <c r="E8" s="106"/>
+      <c r="F8" s="106"/>
+      <c r="G8" s="106"/>
+      <c r="H8" s="106"/>
+      <c r="I8" s="106"/>
+      <c r="J8" s="106"/>
+      <c r="K8" s="106"/>
+      <c r="L8" s="106"/>
+      <c r="M8" s="106"/>
+      <c r="N8" s="106"/>
+      <c r="O8" s="106"/>
+      <c r="P8" s="106"/>
+      <c r="Q8" s="106"/>
+      <c r="R8" s="106"/>
+      <c r="S8" s="106"/>
+      <c r="T8" s="106"/>
+      <c r="U8" s="106"/>
+      <c r="V8" s="106"/>
+      <c r="W8" s="106"/>
     </row>
     <row r="9" spans="1:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="120" t="s">
+      <c r="A9" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="120" t="s">
+      <c r="B9" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="120" t="s">
+      <c r="C9" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="120" t="s">
+      <c r="D9" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="120"/>
-      <c r="F9" s="120"/>
-      <c r="G9" s="120"/>
-      <c r="H9" s="120"/>
-      <c r="I9" s="120"/>
-      <c r="J9" s="120"/>
-      <c r="K9" s="120"/>
-      <c r="L9" s="120"/>
-      <c r="M9" s="120"/>
-      <c r="N9" s="120"/>
-      <c r="O9" s="120"/>
-      <c r="P9" s="120"/>
-      <c r="Q9" s="120"/>
-      <c r="R9" s="120"/>
-      <c r="S9" s="120"/>
-      <c r="T9" s="128" t="s">
+      <c r="E9" s="108"/>
+      <c r="F9" s="108"/>
+      <c r="G9" s="108"/>
+      <c r="H9" s="108"/>
+      <c r="I9" s="108"/>
+      <c r="J9" s="108"/>
+      <c r="K9" s="108"/>
+      <c r="L9" s="108"/>
+      <c r="M9" s="108"/>
+      <c r="N9" s="108"/>
+      <c r="O9" s="108"/>
+      <c r="P9" s="108"/>
+      <c r="Q9" s="108"/>
+      <c r="R9" s="108"/>
+      <c r="S9" s="108"/>
+      <c r="T9" s="116" t="s">
         <v>48</v>
       </c>
-      <c r="U9" s="128" t="s">
+      <c r="U9" s="116" t="s">
         <v>49</v>
       </c>
-      <c r="V9" s="128" t="s">
+      <c r="V9" s="116" t="s">
         <v>50</v>
       </c>
-      <c r="W9" s="128" t="s">
+      <c r="W9" s="116" t="s">
         <v>47</v>
       </c>
-      <c r="X9" s="128" t="s">
+      <c r="X9" s="116" t="s">
         <v>46</v>
       </c>
-      <c r="Y9" s="114" t="s">
+      <c r="Y9" s="102" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:27" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="120"/>
-      <c r="B10" s="120"/>
-      <c r="C10" s="120"/>
-      <c r="D10" s="120"/>
-      <c r="E10" s="120"/>
-      <c r="F10" s="120"/>
-      <c r="G10" s="120"/>
-      <c r="H10" s="120"/>
-      <c r="I10" s="120"/>
-      <c r="J10" s="120"/>
-      <c r="K10" s="120"/>
-      <c r="L10" s="120"/>
-      <c r="M10" s="120"/>
-      <c r="N10" s="120"/>
-      <c r="O10" s="120"/>
-      <c r="P10" s="120"/>
-      <c r="Q10" s="120"/>
-      <c r="R10" s="120"/>
-      <c r="S10" s="120"/>
-      <c r="T10" s="128"/>
-      <c r="U10" s="128"/>
-      <c r="V10" s="128"/>
-      <c r="W10" s="128"/>
-      <c r="X10" s="128"/>
-      <c r="Y10" s="114"/>
+      <c r="A10" s="108"/>
+      <c r="B10" s="108"/>
+      <c r="C10" s="108"/>
+      <c r="D10" s="108"/>
+      <c r="E10" s="108"/>
+      <c r="F10" s="108"/>
+      <c r="G10" s="108"/>
+      <c r="H10" s="108"/>
+      <c r="I10" s="108"/>
+      <c r="J10" s="108"/>
+      <c r="K10" s="108"/>
+      <c r="L10" s="108"/>
+      <c r="M10" s="108"/>
+      <c r="N10" s="108"/>
+      <c r="O10" s="108"/>
+      <c r="P10" s="108"/>
+      <c r="Q10" s="108"/>
+      <c r="R10" s="108"/>
+      <c r="S10" s="108"/>
+      <c r="T10" s="116"/>
+      <c r="U10" s="116"/>
+      <c r="V10" s="116"/>
+      <c r="W10" s="116"/>
+      <c r="X10" s="116"/>
+      <c r="Y10" s="102"/>
     </row>
     <row r="11" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="111">
+      <c r="A11" s="117">
         <v>1</v>
       </c>
-      <c r="B11" s="112" t="s">
+      <c r="B11" s="118" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="113" t="s">
+      <c r="C11" s="119" t="s">
         <v>15</v>
       </c>
       <c r="D11" s="25">
@@ -5366,27 +5366,27 @@
       <c r="S11" s="25">
         <v>16</v>
       </c>
-      <c r="T11" s="108" t="s">
-        <v>8</v>
-      </c>
-      <c r="U11" s="108" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="102" t="s">
+      <c r="T11" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="U11" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="123" t="s">
         <v>8</v>
       </c>
       <c r="W11" s="22"/>
-      <c r="X11" s="102">
+      <c r="X11" s="123">
         <v>22</v>
       </c>
-      <c r="Y11" s="105">
+      <c r="Y11" s="126">
         <v>6060</v>
       </c>
     </row>
     <row r="12" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="111"/>
-      <c r="B12" s="112"/>
-      <c r="C12" s="113"/>
+      <c r="A12" s="117"/>
+      <c r="B12" s="118"/>
+      <c r="C12" s="119"/>
       <c r="D12" s="26">
         <v>8</v>
       </c>
@@ -5435,21 +5435,21 @@
       <c r="S12" s="26">
         <v>8</v>
       </c>
-      <c r="T12" s="109"/>
-      <c r="U12" s="109"/>
-      <c r="V12" s="103"/>
+      <c r="T12" s="121"/>
+      <c r="U12" s="121"/>
+      <c r="V12" s="124"/>
       <c r="W12" s="23"/>
-      <c r="X12" s="104"/>
-      <c r="Y12" s="105"/>
+      <c r="X12" s="125"/>
+      <c r="Y12" s="126"/>
       <c r="Z12" s="2">
         <f>SUM(D12:S12)</f>
         <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="111"/>
-      <c r="B13" s="112"/>
-      <c r="C13" s="113"/>
+      <c r="A13" s="117"/>
+      <c r="B13" s="118"/>
+      <c r="C13" s="119"/>
       <c r="D13" s="27">
         <v>17</v>
       </c>
@@ -5498,24 +5498,24 @@
       <c r="S13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T13" s="109"/>
-      <c r="U13" s="109"/>
-      <c r="V13" s="103"/>
+      <c r="T13" s="121"/>
+      <c r="U13" s="121"/>
+      <c r="V13" s="124"/>
       <c r="W13" s="23"/>
-      <c r="X13" s="102">
+      <c r="X13" s="123">
         <f>Z12+Z14</f>
         <v>176</v>
       </c>
-      <c r="Y13" s="105"/>
+      <c r="Y13" s="126"/>
       <c r="AA13" s="2">
         <f>Z14+Z12</f>
         <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="111"/>
-      <c r="B14" s="112"/>
-      <c r="C14" s="113"/>
+      <c r="A14" s="117"/>
+      <c r="B14" s="118"/>
+      <c r="C14" s="119"/>
       <c r="D14" s="26">
         <v>8</v>
       </c>
@@ -5564,25 +5564,25 @@
       <c r="S14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T14" s="110"/>
-      <c r="U14" s="110"/>
-      <c r="V14" s="104"/>
+      <c r="T14" s="122"/>
+      <c r="U14" s="122"/>
+      <c r="V14" s="125"/>
       <c r="W14" s="24"/>
-      <c r="X14" s="104"/>
-      <c r="Y14" s="105"/>
+      <c r="X14" s="125"/>
+      <c r="Y14" s="126"/>
       <c r="Z14" s="2">
         <f>SUM(D14:S14)</f>
         <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="111">
+      <c r="A15" s="117">
         <v>2</v>
       </c>
-      <c r="B15" s="112" t="s">
+      <c r="B15" s="118" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="113" t="s">
+      <c r="C15" s="119" t="s">
         <v>65</v>
       </c>
       <c r="D15" s="25">
@@ -5633,20 +5633,20 @@
       <c r="S15" s="25">
         <v>16</v>
       </c>
-      <c r="T15" s="108" t="s">
-        <v>8</v>
-      </c>
-      <c r="U15" s="108" t="s">
-        <v>8</v>
-      </c>
-      <c r="V15" s="102" t="s">
+      <c r="T15" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="U15" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="V15" s="123" t="s">
         <v>8</v>
       </c>
       <c r="W15" s="42"/>
-      <c r="X15" s="102">
+      <c r="X15" s="123">
         <v>22</v>
       </c>
-      <c r="Y15" s="105">
+      <c r="Y15" s="126">
         <v>6060</v>
       </c>
       <c r="Z15" s="2">
@@ -5655,9 +5655,9 @@
       </c>
     </row>
     <row r="16" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="111"/>
-      <c r="B16" s="112"/>
-      <c r="C16" s="113"/>
+      <c r="A16" s="117"/>
+      <c r="B16" s="118"/>
+      <c r="C16" s="119"/>
       <c r="D16" s="26">
         <v>8</v>
       </c>
@@ -5706,12 +5706,12 @@
       <c r="S16" s="26">
         <v>8</v>
       </c>
-      <c r="T16" s="109"/>
-      <c r="U16" s="109"/>
-      <c r="V16" s="103"/>
+      <c r="T16" s="121"/>
+      <c r="U16" s="121"/>
+      <c r="V16" s="124"/>
       <c r="W16" s="44"/>
-      <c r="X16" s="104"/>
-      <c r="Y16" s="105"/>
+      <c r="X16" s="125"/>
+      <c r="Y16" s="126"/>
       <c r="Z16" s="2" t="s">
         <v>52</v>
       </c>
@@ -5721,9 +5721,9 @@
       </c>
     </row>
     <row r="17" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="111"/>
-      <c r="B17" s="112"/>
-      <c r="C17" s="113"/>
+      <c r="A17" s="117"/>
+      <c r="B17" s="118"/>
+      <c r="C17" s="119"/>
       <c r="D17" s="27">
         <v>17</v>
       </c>
@@ -5772,24 +5772,24 @@
       <c r="S17" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T17" s="109"/>
-      <c r="U17" s="109"/>
-      <c r="V17" s="103"/>
+      <c r="T17" s="121"/>
+      <c r="U17" s="121"/>
+      <c r="V17" s="124"/>
       <c r="W17" s="44"/>
-      <c r="X17" s="102">
+      <c r="X17" s="123">
         <f>Z15+Z17</f>
         <v>176</v>
       </c>
-      <c r="Y17" s="105"/>
+      <c r="Y17" s="126"/>
       <c r="Z17" s="2">
         <f>SUM(D18:S18)</f>
         <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="111"/>
-      <c r="B18" s="112"/>
-      <c r="C18" s="113"/>
+      <c r="A18" s="117"/>
+      <c r="B18" s="118"/>
+      <c r="C18" s="119"/>
       <c r="D18" s="26">
         <v>8</v>
       </c>
@@ -5838,21 +5838,21 @@
       <c r="S18" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T18" s="110"/>
-      <c r="U18" s="110"/>
-      <c r="V18" s="104"/>
+      <c r="T18" s="122"/>
+      <c r="U18" s="122"/>
+      <c r="V18" s="125"/>
       <c r="W18" s="43"/>
-      <c r="X18" s="104"/>
-      <c r="Y18" s="105"/>
+      <c r="X18" s="125"/>
+      <c r="Y18" s="126"/>
     </row>
     <row r="19" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="111">
+      <c r="A19" s="117">
         <v>3</v>
       </c>
-      <c r="B19" s="112" t="s">
+      <c r="B19" s="118" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="113" t="s">
+      <c r="C19" s="119" t="s">
         <v>32</v>
       </c>
       <c r="D19" s="25">
@@ -5903,27 +5903,27 @@
       <c r="S19" s="25">
         <v>16</v>
       </c>
-      <c r="T19" s="108" t="s">
-        <v>8</v>
-      </c>
-      <c r="U19" s="108" t="s">
-        <v>8</v>
-      </c>
-      <c r="V19" s="102" t="s">
+      <c r="T19" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="U19" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="V19" s="123" t="s">
         <v>8</v>
       </c>
       <c r="W19" s="53"/>
-      <c r="X19" s="102">
+      <c r="X19" s="123">
         <v>22</v>
       </c>
-      <c r="Y19" s="105">
+      <c r="Y19" s="126">
         <v>6300</v>
       </c>
     </row>
     <row r="20" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="111"/>
-      <c r="B20" s="112"/>
-      <c r="C20" s="113"/>
+      <c r="A20" s="117"/>
+      <c r="B20" s="118"/>
+      <c r="C20" s="119"/>
       <c r="D20" s="26">
         <v>8</v>
       </c>
@@ -5972,21 +5972,21 @@
       <c r="S20" s="26">
         <v>8</v>
       </c>
-      <c r="T20" s="109"/>
-      <c r="U20" s="109"/>
-      <c r="V20" s="103"/>
+      <c r="T20" s="121"/>
+      <c r="U20" s="121"/>
+      <c r="V20" s="124"/>
       <c r="W20" s="55"/>
-      <c r="X20" s="104"/>
-      <c r="Y20" s="105"/>
+      <c r="X20" s="125"/>
+      <c r="Y20" s="126"/>
       <c r="Z20" s="2">
         <f>SUM(D20:S20)</f>
         <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="111"/>
-      <c r="B21" s="112"/>
-      <c r="C21" s="113"/>
+      <c r="A21" s="117"/>
+      <c r="B21" s="118"/>
+      <c r="C21" s="119"/>
       <c r="D21" s="27">
         <v>17</v>
       </c>
@@ -6035,24 +6035,24 @@
       <c r="S21" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T21" s="109"/>
-      <c r="U21" s="109"/>
-      <c r="V21" s="103"/>
+      <c r="T21" s="121"/>
+      <c r="U21" s="121"/>
+      <c r="V21" s="124"/>
       <c r="W21" s="55"/>
-      <c r="X21" s="102">
+      <c r="X21" s="123">
         <f>Z20+Z22</f>
         <v>176</v>
       </c>
-      <c r="Y21" s="105"/>
+      <c r="Y21" s="126"/>
       <c r="AA21" s="2">
         <f>Z22+Z20</f>
         <v>176</v>
       </c>
     </row>
     <row r="22" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="111"/>
-      <c r="B22" s="112"/>
-      <c r="C22" s="113"/>
+      <c r="A22" s="117"/>
+      <c r="B22" s="118"/>
+      <c r="C22" s="119"/>
       <c r="D22" s="26">
         <v>8</v>
       </c>
@@ -6101,25 +6101,25 @@
       <c r="S22" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T22" s="110"/>
-      <c r="U22" s="110"/>
-      <c r="V22" s="104"/>
+      <c r="T22" s="122"/>
+      <c r="U22" s="122"/>
+      <c r="V22" s="125"/>
       <c r="W22" s="54"/>
-      <c r="X22" s="104"/>
-      <c r="Y22" s="105"/>
+      <c r="X22" s="125"/>
+      <c r="Y22" s="126"/>
       <c r="Z22" s="2">
         <f>SUM(D22:S22)</f>
         <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="111">
+      <c r="A23" s="117">
         <v>4</v>
       </c>
-      <c r="B23" s="112" t="s">
+      <c r="B23" s="118" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="113" t="s">
+      <c r="C23" s="119" t="s">
         <v>32</v>
       </c>
       <c r="D23" s="25">
@@ -6170,27 +6170,27 @@
       <c r="S23" s="25">
         <v>16</v>
       </c>
-      <c r="T23" s="108" t="s">
-        <v>8</v>
-      </c>
-      <c r="U23" s="108" t="s">
-        <v>8</v>
-      </c>
-      <c r="V23" s="102" t="s">
+      <c r="T23" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="U23" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="V23" s="123" t="s">
         <v>8</v>
       </c>
       <c r="W23" s="53"/>
-      <c r="X23" s="102">
+      <c r="X23" s="123">
         <v>22</v>
       </c>
-      <c r="Y23" s="105">
+      <c r="Y23" s="126">
         <v>6060</v>
       </c>
     </row>
     <row r="24" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="111"/>
-      <c r="B24" s="112"/>
-      <c r="C24" s="113"/>
+      <c r="A24" s="117"/>
+      <c r="B24" s="118"/>
+      <c r="C24" s="119"/>
       <c r="D24" s="26" t="s">
         <v>88</v>
       </c>
@@ -6239,21 +6239,21 @@
       <c r="S24" s="26">
         <v>8</v>
       </c>
-      <c r="T24" s="109"/>
-      <c r="U24" s="109"/>
-      <c r="V24" s="103"/>
+      <c r="T24" s="121"/>
+      <c r="U24" s="121"/>
+      <c r="V24" s="124"/>
       <c r="W24" s="55"/>
-      <c r="X24" s="104"/>
-      <c r="Y24" s="105"/>
+      <c r="X24" s="125"/>
+      <c r="Y24" s="126"/>
       <c r="Z24" s="2">
         <f>SUM(D24:S24)</f>
         <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="111"/>
-      <c r="B25" s="112"/>
-      <c r="C25" s="113"/>
+      <c r="A25" s="117"/>
+      <c r="B25" s="118"/>
+      <c r="C25" s="119"/>
       <c r="D25" s="27">
         <v>17</v>
       </c>
@@ -6302,24 +6302,24 @@
       <c r="S25" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T25" s="109"/>
-      <c r="U25" s="109"/>
-      <c r="V25" s="103"/>
+      <c r="T25" s="121"/>
+      <c r="U25" s="121"/>
+      <c r="V25" s="124"/>
       <c r="W25" s="55"/>
-      <c r="X25" s="102">
+      <c r="X25" s="123">
         <f>Z24+Z26</f>
         <v>88</v>
       </c>
-      <c r="Y25" s="105"/>
+      <c r="Y25" s="126"/>
       <c r="AA25" s="2">
         <f>Z26+Z24</f>
         <v>88</v>
       </c>
     </row>
     <row r="26" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="111"/>
-      <c r="B26" s="112"/>
-      <c r="C26" s="113"/>
+      <c r="A26" s="117"/>
+      <c r="B26" s="118"/>
+      <c r="C26" s="119"/>
       <c r="D26" s="26">
         <v>8</v>
       </c>
@@ -6368,19 +6368,19 @@
       <c r="S26" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T26" s="110"/>
-      <c r="U26" s="110"/>
-      <c r="V26" s="104"/>
+      <c r="T26" s="122"/>
+      <c r="U26" s="122"/>
+      <c r="V26" s="125"/>
       <c r="W26" s="54"/>
-      <c r="X26" s="104"/>
-      <c r="Y26" s="105"/>
+      <c r="X26" s="125"/>
+      <c r="Y26" s="126"/>
       <c r="Z26" s="2">
         <f>SUM(D26:S26)</f>
         <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="111">
+      <c r="A27" s="117">
         <v>5</v>
       </c>
       <c r="B27" s="129" t="s">
@@ -6437,25 +6437,25 @@
       <c r="S27" s="25">
         <v>16</v>
       </c>
-      <c r="T27" s="108" t="s">
-        <v>8</v>
-      </c>
-      <c r="U27" s="108" t="s">
-        <v>8</v>
-      </c>
-      <c r="V27" s="102" t="s">
+      <c r="T27" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="U27" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="V27" s="123" t="s">
         <v>8</v>
       </c>
       <c r="W27" s="53"/>
-      <c r="X27" s="102">
+      <c r="X27" s="123">
         <v>22</v>
       </c>
-      <c r="Y27" s="105">
+      <c r="Y27" s="126">
         <v>6060</v>
       </c>
     </row>
     <row r="28" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="111"/>
+      <c r="A28" s="117"/>
       <c r="B28" s="129"/>
       <c r="C28" s="130"/>
       <c r="D28" s="26" t="s">
@@ -6506,19 +6506,19 @@
       <c r="S28" s="26">
         <v>8</v>
       </c>
-      <c r="T28" s="109"/>
-      <c r="U28" s="109"/>
-      <c r="V28" s="103"/>
+      <c r="T28" s="121"/>
+      <c r="U28" s="121"/>
+      <c r="V28" s="124"/>
       <c r="W28" s="55"/>
-      <c r="X28" s="104"/>
-      <c r="Y28" s="105"/>
+      <c r="X28" s="125"/>
+      <c r="Y28" s="126"/>
       <c r="Z28" s="2">
         <f>SUM(D28:S28)</f>
         <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="111"/>
+      <c r="A29" s="117"/>
       <c r="B29" s="129"/>
       <c r="C29" s="130"/>
       <c r="D29" s="27">
@@ -6569,22 +6569,22 @@
       <c r="S29" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T29" s="109"/>
-      <c r="U29" s="109"/>
-      <c r="V29" s="103"/>
+      <c r="T29" s="121"/>
+      <c r="U29" s="121"/>
+      <c r="V29" s="124"/>
       <c r="W29" s="55"/>
-      <c r="X29" s="102">
+      <c r="X29" s="123">
         <f>Z28+Z30</f>
         <v>88</v>
       </c>
-      <c r="Y29" s="105"/>
+      <c r="Y29" s="126"/>
       <c r="AA29" s="2">
         <f>Z30+Z28</f>
         <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="111"/>
+      <c r="A30" s="117"/>
       <c r="B30" s="129"/>
       <c r="C30" s="130"/>
       <c r="D30" s="26">
@@ -6635,25 +6635,25 @@
       <c r="S30" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T30" s="110"/>
-      <c r="U30" s="110"/>
-      <c r="V30" s="104"/>
+      <c r="T30" s="122"/>
+      <c r="U30" s="122"/>
+      <c r="V30" s="125"/>
       <c r="W30" s="54"/>
-      <c r="X30" s="104"/>
-      <c r="Y30" s="105"/>
+      <c r="X30" s="125"/>
+      <c r="Y30" s="126"/>
       <c r="Z30" s="2">
         <f>SUM(D30:S30)</f>
         <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="111">
+      <c r="A31" s="117">
         <v>6</v>
       </c>
-      <c r="B31" s="112" t="s">
+      <c r="B31" s="118" t="s">
         <v>64</v>
       </c>
-      <c r="C31" s="113" t="s">
+      <c r="C31" s="119" t="s">
         <v>32</v>
       </c>
       <c r="D31" s="25">
@@ -6704,27 +6704,27 @@
       <c r="S31" s="25">
         <v>16</v>
       </c>
-      <c r="T31" s="108" t="s">
-        <v>8</v>
-      </c>
-      <c r="U31" s="108" t="s">
-        <v>8</v>
-      </c>
-      <c r="V31" s="102" t="s">
+      <c r="T31" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="U31" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="V31" s="123" t="s">
         <v>8</v>
       </c>
       <c r="W31" s="45"/>
-      <c r="X31" s="102">
+      <c r="X31" s="123">
         <v>22</v>
       </c>
-      <c r="Y31" s="105">
+      <c r="Y31" s="126">
         <v>6060</v>
       </c>
     </row>
     <row r="32" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="111"/>
-      <c r="B32" s="112"/>
-      <c r="C32" s="113"/>
+      <c r="A32" s="117"/>
+      <c r="B32" s="118"/>
+      <c r="C32" s="119"/>
       <c r="D32" s="26" t="s">
         <v>88</v>
       </c>
@@ -6773,12 +6773,12 @@
       <c r="S32" s="26">
         <v>8</v>
       </c>
-      <c r="T32" s="109"/>
-      <c r="U32" s="109"/>
-      <c r="V32" s="103"/>
+      <c r="T32" s="121"/>
+      <c r="U32" s="121"/>
+      <c r="V32" s="124"/>
       <c r="W32" s="47"/>
-      <c r="X32" s="104"/>
-      <c r="Y32" s="105"/>
+      <c r="X32" s="125"/>
+      <c r="Y32" s="126"/>
       <c r="Z32" s="2">
         <f>SUM(D32:S32)</f>
         <v>8</v>
@@ -6789,9 +6789,9 @@
       </c>
     </row>
     <row r="33" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="111"/>
-      <c r="B33" s="112"/>
-      <c r="C33" s="113"/>
+      <c r="A33" s="117"/>
+      <c r="B33" s="118"/>
+      <c r="C33" s="119"/>
       <c r="D33" s="27">
         <v>17</v>
       </c>
@@ -6840,20 +6840,20 @@
       <c r="S33" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T33" s="109"/>
-      <c r="U33" s="109"/>
-      <c r="V33" s="103"/>
+      <c r="T33" s="121"/>
+      <c r="U33" s="121"/>
+      <c r="V33" s="124"/>
       <c r="W33" s="47"/>
-      <c r="X33" s="102">
+      <c r="X33" s="123">
         <f>Z32+Z34</f>
         <v>88</v>
       </c>
-      <c r="Y33" s="105"/>
+      <c r="Y33" s="126"/>
     </row>
     <row r="34" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="111"/>
-      <c r="B34" s="112"/>
-      <c r="C34" s="113"/>
+      <c r="A34" s="117"/>
+      <c r="B34" s="118"/>
+      <c r="C34" s="119"/>
       <c r="D34" s="26">
         <v>8</v>
       </c>
@@ -6902,12 +6902,12 @@
       <c r="S34" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T34" s="110"/>
-      <c r="U34" s="110"/>
-      <c r="V34" s="104"/>
+      <c r="T34" s="122"/>
+      <c r="U34" s="122"/>
+      <c r="V34" s="125"/>
       <c r="W34" s="46"/>
-      <c r="X34" s="104"/>
-      <c r="Y34" s="105"/>
+      <c r="X34" s="125"/>
+      <c r="Y34" s="126"/>
       <c r="Z34" s="2">
         <f>SUM(D34:S34)</f>
         <v>80</v>
@@ -6926,10 +6926,10 @@
       </c>
     </row>
     <row r="36" spans="1:26" ht="18" x14ac:dyDescent="0.3">
-      <c r="A36" s="106" t="s">
+      <c r="A36" s="127" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="106"/>
+      <c r="B36" s="127"/>
       <c r="C36" s="33">
         <v>44531</v>
       </c>
@@ -6995,33 +6995,31 @@
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="U31:U34"/>
-    <mergeCell ref="V31:V34"/>
-    <mergeCell ref="X31:X32"/>
-    <mergeCell ref="Y31:Y34"/>
-    <mergeCell ref="X33:X34"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="C31:C34"/>
-    <mergeCell ref="T31:T34"/>
-    <mergeCell ref="Y23:Y26"/>
-    <mergeCell ref="X25:X26"/>
-    <mergeCell ref="Y27:Y30"/>
-    <mergeCell ref="X29:X30"/>
-    <mergeCell ref="X27:X28"/>
-    <mergeCell ref="X23:X24"/>
-    <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="X11:X12"/>
-    <mergeCell ref="Y11:Y14"/>
-    <mergeCell ref="X13:X14"/>
-    <mergeCell ref="X19:X20"/>
-    <mergeCell ref="Y19:Y22"/>
-    <mergeCell ref="X21:X22"/>
-    <mergeCell ref="X15:X16"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="Y15:Y18"/>
-    <mergeCell ref="X17:X18"/>
+    <mergeCell ref="U19:U22"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="V15:V18"/>
+    <mergeCell ref="V19:V22"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="T15:T18"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="T11:T14"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A7:W7"/>
+    <mergeCell ref="A8:W8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="D9:S10"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="V11:V14"/>
+    <mergeCell ref="U11:U14"/>
+    <mergeCell ref="U15:U18"/>
     <mergeCell ref="A19:A22"/>
     <mergeCell ref="V27:V30"/>
     <mergeCell ref="A27:A30"/>
@@ -7038,31 +7036,33 @@
     <mergeCell ref="B19:B22"/>
     <mergeCell ref="C19:C22"/>
     <mergeCell ref="T19:T22"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A7:W7"/>
-    <mergeCell ref="A8:W8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="T9:T10"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="D9:S10"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="V11:V14"/>
-    <mergeCell ref="U11:U14"/>
-    <mergeCell ref="U15:U18"/>
-    <mergeCell ref="U19:U22"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="V15:V18"/>
-    <mergeCell ref="V19:V22"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="T15:T18"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="T11:T14"/>
+    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="X11:X12"/>
+    <mergeCell ref="Y11:Y14"/>
+    <mergeCell ref="X13:X14"/>
+    <mergeCell ref="X19:X20"/>
+    <mergeCell ref="Y19:Y22"/>
+    <mergeCell ref="X21:X22"/>
+    <mergeCell ref="X15:X16"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="Y15:Y18"/>
+    <mergeCell ref="X17:X18"/>
+    <mergeCell ref="Y23:Y26"/>
+    <mergeCell ref="X25:X26"/>
+    <mergeCell ref="Y27:Y30"/>
+    <mergeCell ref="X29:X30"/>
+    <mergeCell ref="X27:X28"/>
+    <mergeCell ref="X23:X24"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="T31:T34"/>
+    <mergeCell ref="U31:U34"/>
+    <mergeCell ref="V31:V34"/>
+    <mergeCell ref="X31:X32"/>
+    <mergeCell ref="Y31:Y34"/>
+    <mergeCell ref="X33:X34"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -7230,63 +7230,63 @@
       <c r="Y5" s="77"/>
     </row>
     <row r="6" spans="1:26" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A6" s="118" t="s">
+      <c r="A6" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="118"/>
-      <c r="C6" s="118"/>
-      <c r="D6" s="118"/>
-      <c r="E6" s="118"/>
-      <c r="F6" s="118"/>
-      <c r="G6" s="118"/>
-      <c r="H6" s="118"/>
-      <c r="I6" s="118"/>
-      <c r="J6" s="118"/>
-      <c r="K6" s="118"/>
-      <c r="L6" s="118"/>
-      <c r="M6" s="118"/>
-      <c r="N6" s="118"/>
-      <c r="O6" s="118"/>
-      <c r="P6" s="118"/>
-      <c r="Q6" s="118"/>
-      <c r="R6" s="118"/>
-      <c r="S6" s="118"/>
-      <c r="T6" s="118"/>
-      <c r="U6" s="118"/>
-      <c r="V6" s="118"/>
-      <c r="W6" s="118"/>
-      <c r="X6" s="118"/>
-      <c r="Y6" s="118"/>
+      <c r="B6" s="106"/>
+      <c r="C6" s="106"/>
+      <c r="D6" s="106"/>
+      <c r="E6" s="106"/>
+      <c r="F6" s="106"/>
+      <c r="G6" s="106"/>
+      <c r="H6" s="106"/>
+      <c r="I6" s="106"/>
+      <c r="J6" s="106"/>
+      <c r="K6" s="106"/>
+      <c r="L6" s="106"/>
+      <c r="M6" s="106"/>
+      <c r="N6" s="106"/>
+      <c r="O6" s="106"/>
+      <c r="P6" s="106"/>
+      <c r="Q6" s="106"/>
+      <c r="R6" s="106"/>
+      <c r="S6" s="106"/>
+      <c r="T6" s="106"/>
+      <c r="U6" s="106"/>
+      <c r="V6" s="106"/>
+      <c r="W6" s="106"/>
+      <c r="X6" s="106"/>
+      <c r="Y6" s="106"/>
     </row>
     <row r="7" spans="1:26" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A7" s="118" t="str">
+      <c r="A7" s="106" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ЛИСТОПАД 2021р.</v>
       </c>
-      <c r="B7" s="118"/>
-      <c r="C7" s="118"/>
-      <c r="D7" s="118"/>
-      <c r="E7" s="118"/>
-      <c r="F7" s="118"/>
-      <c r="G7" s="118"/>
-      <c r="H7" s="118"/>
-      <c r="I7" s="118"/>
-      <c r="J7" s="118"/>
-      <c r="K7" s="118"/>
-      <c r="L7" s="118"/>
-      <c r="M7" s="118"/>
-      <c r="N7" s="118"/>
-      <c r="O7" s="118"/>
-      <c r="P7" s="118"/>
-      <c r="Q7" s="118"/>
-      <c r="R7" s="118"/>
-      <c r="S7" s="118"/>
-      <c r="T7" s="118"/>
-      <c r="U7" s="118"/>
-      <c r="V7" s="118"/>
-      <c r="W7" s="118"/>
-      <c r="X7" s="118"/>
-      <c r="Y7" s="118"/>
+      <c r="B7" s="106"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="106"/>
+      <c r="E7" s="106"/>
+      <c r="F7" s="106"/>
+      <c r="G7" s="106"/>
+      <c r="H7" s="106"/>
+      <c r="I7" s="106"/>
+      <c r="J7" s="106"/>
+      <c r="K7" s="106"/>
+      <c r="L7" s="106"/>
+      <c r="M7" s="106"/>
+      <c r="N7" s="106"/>
+      <c r="O7" s="106"/>
+      <c r="P7" s="106"/>
+      <c r="Q7" s="106"/>
+      <c r="R7" s="106"/>
+      <c r="S7" s="106"/>
+      <c r="T7" s="106"/>
+      <c r="U7" s="106"/>
+      <c r="V7" s="106"/>
+      <c r="W7" s="106"/>
+      <c r="X7" s="106"/>
+      <c r="Y7" s="106"/>
     </row>
     <row r="8" spans="1:26" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A8" s="76"/>
@@ -7316,90 +7316,90 @@
       <c r="Y8" s="76"/>
     </row>
     <row r="9" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="120" t="s">
+      <c r="A9" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="108"/>
-      <c r="C9" s="120" t="s">
+      <c r="B9" s="120"/>
+      <c r="C9" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="120" t="s">
+      <c r="D9" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="120" t="s">
+      <c r="E9" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="120"/>
-      <c r="G9" s="120"/>
-      <c r="H9" s="120"/>
-      <c r="I9" s="120"/>
-      <c r="J9" s="120"/>
-      <c r="K9" s="120"/>
-      <c r="L9" s="120"/>
-      <c r="M9" s="120"/>
-      <c r="N9" s="120"/>
-      <c r="O9" s="120"/>
-      <c r="P9" s="120"/>
-      <c r="Q9" s="120"/>
-      <c r="R9" s="120"/>
-      <c r="S9" s="120"/>
-      <c r="T9" s="120"/>
-      <c r="U9" s="128" t="s">
+      <c r="F9" s="108"/>
+      <c r="G9" s="108"/>
+      <c r="H9" s="108"/>
+      <c r="I9" s="108"/>
+      <c r="J9" s="108"/>
+      <c r="K9" s="108"/>
+      <c r="L9" s="108"/>
+      <c r="M9" s="108"/>
+      <c r="N9" s="108"/>
+      <c r="O9" s="108"/>
+      <c r="P9" s="108"/>
+      <c r="Q9" s="108"/>
+      <c r="R9" s="108"/>
+      <c r="S9" s="108"/>
+      <c r="T9" s="108"/>
+      <c r="U9" s="116" t="s">
         <v>48</v>
       </c>
-      <c r="V9" s="128" t="s">
+      <c r="V9" s="116" t="s">
         <v>49</v>
       </c>
-      <c r="W9" s="128" t="s">
+      <c r="W9" s="116" t="s">
         <v>50</v>
       </c>
-      <c r="X9" s="128" t="s">
+      <c r="X9" s="116" t="s">
         <v>47</v>
       </c>
-      <c r="Y9" s="128" t="s">
+      <c r="Y9" s="116" t="s">
         <v>46</v>
       </c>
-      <c r="Z9" s="114" t="s">
+      <c r="Z9" s="102" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="120"/>
-      <c r="B10" s="110"/>
-      <c r="C10" s="120"/>
-      <c r="D10" s="120"/>
-      <c r="E10" s="120"/>
-      <c r="F10" s="120"/>
-      <c r="G10" s="120"/>
-      <c r="H10" s="120"/>
-      <c r="I10" s="120"/>
-      <c r="J10" s="120"/>
-      <c r="K10" s="120"/>
-      <c r="L10" s="120"/>
-      <c r="M10" s="120"/>
-      <c r="N10" s="120"/>
-      <c r="O10" s="120"/>
-      <c r="P10" s="120"/>
-      <c r="Q10" s="120"/>
-      <c r="R10" s="120"/>
-      <c r="S10" s="120"/>
-      <c r="T10" s="120"/>
-      <c r="U10" s="128"/>
-      <c r="V10" s="128"/>
-      <c r="W10" s="128"/>
-      <c r="X10" s="128"/>
-      <c r="Y10" s="128"/>
-      <c r="Z10" s="114"/>
+      <c r="A10" s="108"/>
+      <c r="B10" s="122"/>
+      <c r="C10" s="108"/>
+      <c r="D10" s="108"/>
+      <c r="E10" s="108"/>
+      <c r="F10" s="108"/>
+      <c r="G10" s="108"/>
+      <c r="H10" s="108"/>
+      <c r="I10" s="108"/>
+      <c r="J10" s="108"/>
+      <c r="K10" s="108"/>
+      <c r="L10" s="108"/>
+      <c r="M10" s="108"/>
+      <c r="N10" s="108"/>
+      <c r="O10" s="108"/>
+      <c r="P10" s="108"/>
+      <c r="Q10" s="108"/>
+      <c r="R10" s="108"/>
+      <c r="S10" s="108"/>
+      <c r="T10" s="108"/>
+      <c r="U10" s="116"/>
+      <c r="V10" s="116"/>
+      <c r="W10" s="116"/>
+      <c r="X10" s="116"/>
+      <c r="Y10" s="116"/>
+      <c r="Z10" s="102"/>
     </row>
     <row r="11" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="134">
+      <c r="A11" s="131">
         <v>1</v>
       </c>
-      <c r="B11" s="108"/>
-      <c r="C11" s="108" t="s">
+      <c r="B11" s="120"/>
+      <c r="C11" s="120" t="s">
         <v>90</v>
       </c>
-      <c r="D11" s="113" t="s">
+      <c r="D11" s="119" t="s">
         <v>37</v>
       </c>
       <c r="E11" s="25">
@@ -7450,22 +7450,22 @@
       <c r="T11" s="25">
         <v>16</v>
       </c>
-      <c r="U11" s="137"/>
-      <c r="V11" s="137"/>
-      <c r="W11" s="137"/>
-      <c r="X11" s="137"/>
-      <c r="Y11" s="102">
+      <c r="U11" s="134"/>
+      <c r="V11" s="134"/>
+      <c r="W11" s="134"/>
+      <c r="X11" s="134"/>
+      <c r="Y11" s="123">
         <v>22</v>
       </c>
-      <c r="Z11" s="131">
+      <c r="Z11" s="137">
         <v>6060</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="135"/>
-      <c r="B12" s="109"/>
-      <c r="C12" s="109"/>
-      <c r="D12" s="113"/>
+      <c r="A12" s="132"/>
+      <c r="B12" s="121"/>
+      <c r="C12" s="121"/>
+      <c r="D12" s="119"/>
       <c r="E12" s="26">
         <v>8</v>
       </c>
@@ -7514,18 +7514,18 @@
       <c r="T12" s="26">
         <v>8</v>
       </c>
-      <c r="U12" s="138"/>
-      <c r="V12" s="138"/>
-      <c r="W12" s="138"/>
-      <c r="X12" s="138"/>
-      <c r="Y12" s="104"/>
-      <c r="Z12" s="132"/>
+      <c r="U12" s="135"/>
+      <c r="V12" s="135"/>
+      <c r="W12" s="135"/>
+      <c r="X12" s="135"/>
+      <c r="Y12" s="125"/>
+      <c r="Z12" s="138"/>
     </row>
     <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="135"/>
-      <c r="B13" s="109"/>
-      <c r="C13" s="109"/>
-      <c r="D13" s="113"/>
+      <c r="A13" s="132"/>
+      <c r="B13" s="121"/>
+      <c r="C13" s="121"/>
+      <c r="D13" s="119"/>
       <c r="E13" s="27">
         <v>17</v>
       </c>
@@ -7574,20 +7574,20 @@
       <c r="T13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U13" s="138"/>
-      <c r="V13" s="138"/>
-      <c r="W13" s="138"/>
-      <c r="X13" s="138"/>
-      <c r="Y13" s="102">
+      <c r="U13" s="135"/>
+      <c r="V13" s="135"/>
+      <c r="W13" s="135"/>
+      <c r="X13" s="135"/>
+      <c r="Y13" s="123">
         <v>176</v>
       </c>
-      <c r="Z13" s="132"/>
+      <c r="Z13" s="138"/>
     </row>
     <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="136"/>
-      <c r="B14" s="110"/>
-      <c r="C14" s="110"/>
-      <c r="D14" s="113"/>
+      <c r="A14" s="133"/>
+      <c r="B14" s="122"/>
+      <c r="C14" s="122"/>
+      <c r="D14" s="119"/>
       <c r="E14" s="26">
         <v>8</v>
       </c>
@@ -7636,22 +7636,22 @@
       <c r="T14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="139"/>
-      <c r="V14" s="139"/>
-      <c r="W14" s="139"/>
-      <c r="X14" s="139"/>
-      <c r="Y14" s="104"/>
-      <c r="Z14" s="133"/>
+      <c r="U14" s="136"/>
+      <c r="V14" s="136"/>
+      <c r="W14" s="136"/>
+      <c r="X14" s="136"/>
+      <c r="Y14" s="125"/>
+      <c r="Z14" s="139"/>
     </row>
     <row r="15" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="134">
+      <c r="A15" s="131">
         <v>2</v>
       </c>
-      <c r="B15" s="108"/>
-      <c r="C15" s="108" t="s">
+      <c r="B15" s="120"/>
+      <c r="C15" s="120" t="s">
         <v>102</v>
       </c>
-      <c r="D15" s="113" t="s">
+      <c r="D15" s="119" t="s">
         <v>37</v>
       </c>
       <c r="E15" s="25">
@@ -7702,22 +7702,22 @@
       <c r="T15" s="25">
         <v>16</v>
       </c>
-      <c r="U15" s="137"/>
-      <c r="V15" s="137"/>
-      <c r="W15" s="137"/>
-      <c r="X15" s="137"/>
-      <c r="Y15" s="102">
+      <c r="U15" s="134"/>
+      <c r="V15" s="134"/>
+      <c r="W15" s="134"/>
+      <c r="X15" s="134"/>
+      <c r="Y15" s="123">
         <v>22</v>
       </c>
-      <c r="Z15" s="131">
+      <c r="Z15" s="137">
         <v>6060</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="135"/>
-      <c r="B16" s="109"/>
-      <c r="C16" s="109"/>
-      <c r="D16" s="113"/>
+      <c r="A16" s="132"/>
+      <c r="B16" s="121"/>
+      <c r="C16" s="121"/>
+      <c r="D16" s="119"/>
       <c r="E16" s="26">
         <v>4</v>
       </c>
@@ -7766,18 +7766,18 @@
       <c r="T16" s="26">
         <v>4</v>
       </c>
-      <c r="U16" s="138"/>
-      <c r="V16" s="138"/>
-      <c r="W16" s="138"/>
-      <c r="X16" s="138"/>
-      <c r="Y16" s="104"/>
-      <c r="Z16" s="132"/>
+      <c r="U16" s="135"/>
+      <c r="V16" s="135"/>
+      <c r="W16" s="135"/>
+      <c r="X16" s="135"/>
+      <c r="Y16" s="125"/>
+      <c r="Z16" s="138"/>
     </row>
     <row r="17" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="135"/>
-      <c r="B17" s="109"/>
-      <c r="C17" s="109"/>
-      <c r="D17" s="113"/>
+      <c r="A17" s="132"/>
+      <c r="B17" s="121"/>
+      <c r="C17" s="121"/>
+      <c r="D17" s="119"/>
       <c r="E17" s="27">
         <v>17</v>
       </c>
@@ -7826,20 +7826,20 @@
       <c r="T17" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U17" s="138"/>
-      <c r="V17" s="138"/>
-      <c r="W17" s="138"/>
-      <c r="X17" s="138"/>
-      <c r="Y17" s="102">
-        <v>88</v>
-      </c>
-      <c r="Z17" s="132"/>
+      <c r="U17" s="135"/>
+      <c r="V17" s="135"/>
+      <c r="W17" s="135"/>
+      <c r="X17" s="135"/>
+      <c r="Y17" s="123">
+        <v>88</v>
+      </c>
+      <c r="Z17" s="138"/>
     </row>
     <row r="18" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="136"/>
-      <c r="B18" s="110"/>
-      <c r="C18" s="110"/>
-      <c r="D18" s="113"/>
+      <c r="A18" s="133"/>
+      <c r="B18" s="122"/>
+      <c r="C18" s="122"/>
+      <c r="D18" s="119"/>
       <c r="E18" s="26">
         <v>4</v>
       </c>
@@ -7888,12 +7888,12 @@
       <c r="T18" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U18" s="139"/>
-      <c r="V18" s="139"/>
-      <c r="W18" s="139"/>
-      <c r="X18" s="139"/>
-      <c r="Y18" s="104"/>
-      <c r="Z18" s="133"/>
+      <c r="U18" s="136"/>
+      <c r="V18" s="136"/>
+      <c r="W18" s="136"/>
+      <c r="X18" s="136"/>
+      <c r="Y18" s="125"/>
+      <c r="Z18" s="139"/>
     </row>
     <row r="19" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
@@ -7924,10 +7924,10 @@
       <c r="Z19" s="88"/>
     </row>
     <row r="20" spans="1:26" s="97" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="B20" s="106" t="s">
+      <c r="B20" s="127" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="106"/>
+      <c r="C20" s="127"/>
       <c r="D20" s="98">
         <f>Мельницький!C36</f>
         <v>44531</v>
@@ -7991,19 +7991,13 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="U11:U14"/>
-    <mergeCell ref="A6:Y6"/>
-    <mergeCell ref="A7:Y7"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:T10"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="Z15:Z18"/>
+    <mergeCell ref="Y17:Y18"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="D15:D18"/>
+    <mergeCell ref="U15:U18"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="Z9:Z10"/>
     <mergeCell ref="X9:X10"/>
@@ -8020,13 +8014,19 @@
     <mergeCell ref="W15:W18"/>
     <mergeCell ref="X15:X18"/>
     <mergeCell ref="Y15:Y16"/>
-    <mergeCell ref="Z15:Z18"/>
-    <mergeCell ref="Y17:Y18"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="D15:D18"/>
-    <mergeCell ref="U15:U18"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="U11:U14"/>
+    <mergeCell ref="A6:Y6"/>
+    <mergeCell ref="A7:Y7"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:T10"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B14"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -8055,12 +8055,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
       <c r="R1" s="15" t="s">
         <v>40</v>
       </c>
@@ -8205,147 +8205,147 @@
       <c r="X6" s="17"/>
     </row>
     <row r="7" spans="1:26" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A7" s="118" t="s">
+      <c r="A7" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="118"/>
-      <c r="C7" s="118"/>
-      <c r="D7" s="118"/>
-      <c r="E7" s="118"/>
-      <c r="F7" s="118"/>
-      <c r="G7" s="118"/>
-      <c r="H7" s="118"/>
-      <c r="I7" s="118"/>
-      <c r="J7" s="118"/>
-      <c r="K7" s="118"/>
-      <c r="L7" s="118"/>
-      <c r="M7" s="118"/>
-      <c r="N7" s="118"/>
-      <c r="O7" s="118"/>
-      <c r="P7" s="118"/>
-      <c r="Q7" s="118"/>
-      <c r="R7" s="118"/>
-      <c r="S7" s="118"/>
-      <c r="T7" s="118"/>
-      <c r="U7" s="118"/>
-      <c r="V7" s="118"/>
-      <c r="W7" s="118"/>
-      <c r="X7" s="118"/>
+      <c r="B7" s="106"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="106"/>
+      <c r="E7" s="106"/>
+      <c r="F7" s="106"/>
+      <c r="G7" s="106"/>
+      <c r="H7" s="106"/>
+      <c r="I7" s="106"/>
+      <c r="J7" s="106"/>
+      <c r="K7" s="106"/>
+      <c r="L7" s="106"/>
+      <c r="M7" s="106"/>
+      <c r="N7" s="106"/>
+      <c r="O7" s="106"/>
+      <c r="P7" s="106"/>
+      <c r="Q7" s="106"/>
+      <c r="R7" s="106"/>
+      <c r="S7" s="106"/>
+      <c r="T7" s="106"/>
+      <c r="U7" s="106"/>
+      <c r="V7" s="106"/>
+      <c r="W7" s="106"/>
+      <c r="X7" s="106"/>
     </row>
     <row r="8" spans="1:26" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A8" s="118" t="str">
+      <c r="A8" s="106" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ЛИСТОПАД 2021р.</v>
       </c>
-      <c r="B8" s="118"/>
-      <c r="C8" s="118"/>
-      <c r="D8" s="118"/>
-      <c r="E8" s="118"/>
-      <c r="F8" s="118"/>
-      <c r="G8" s="118"/>
-      <c r="H8" s="118"/>
-      <c r="I8" s="118"/>
-      <c r="J8" s="118"/>
-      <c r="K8" s="118"/>
-      <c r="L8" s="118"/>
-      <c r="M8" s="118"/>
-      <c r="N8" s="118"/>
-      <c r="O8" s="118"/>
-      <c r="P8" s="118"/>
-      <c r="Q8" s="118"/>
-      <c r="R8" s="118"/>
-      <c r="S8" s="118"/>
-      <c r="T8" s="118"/>
-      <c r="U8" s="118"/>
-      <c r="V8" s="118"/>
-      <c r="W8" s="118"/>
-      <c r="X8" s="118"/>
+      <c r="B8" s="106"/>
+      <c r="C8" s="106"/>
+      <c r="D8" s="106"/>
+      <c r="E8" s="106"/>
+      <c r="F8" s="106"/>
+      <c r="G8" s="106"/>
+      <c r="H8" s="106"/>
+      <c r="I8" s="106"/>
+      <c r="J8" s="106"/>
+      <c r="K8" s="106"/>
+      <c r="L8" s="106"/>
+      <c r="M8" s="106"/>
+      <c r="N8" s="106"/>
+      <c r="O8" s="106"/>
+      <c r="P8" s="106"/>
+      <c r="Q8" s="106"/>
+      <c r="R8" s="106"/>
+      <c r="S8" s="106"/>
+      <c r="T8" s="106"/>
+      <c r="U8" s="106"/>
+      <c r="V8" s="106"/>
+      <c r="W8" s="106"/>
+      <c r="X8" s="106"/>
     </row>
     <row r="9" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="120" t="s">
+      <c r="A9" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="121" t="s">
+      <c r="B9" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="120" t="s">
+      <c r="C9" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="120" t="s">
+      <c r="D9" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="120" t="s">
+      <c r="E9" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="120"/>
-      <c r="G9" s="120"/>
-      <c r="H9" s="120"/>
-      <c r="I9" s="120"/>
-      <c r="J9" s="120"/>
-      <c r="K9" s="120"/>
-      <c r="L9" s="120"/>
-      <c r="M9" s="120"/>
-      <c r="N9" s="120"/>
-      <c r="O9" s="120"/>
-      <c r="P9" s="120"/>
-      <c r="Q9" s="120"/>
-      <c r="R9" s="120"/>
-      <c r="S9" s="120"/>
-      <c r="T9" s="120"/>
-      <c r="U9" s="128" t="s">
+      <c r="F9" s="108"/>
+      <c r="G9" s="108"/>
+      <c r="H9" s="108"/>
+      <c r="I9" s="108"/>
+      <c r="J9" s="108"/>
+      <c r="K9" s="108"/>
+      <c r="L9" s="108"/>
+      <c r="M9" s="108"/>
+      <c r="N9" s="108"/>
+      <c r="O9" s="108"/>
+      <c r="P9" s="108"/>
+      <c r="Q9" s="108"/>
+      <c r="R9" s="108"/>
+      <c r="S9" s="108"/>
+      <c r="T9" s="108"/>
+      <c r="U9" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="V9" s="128" t="s">
+      <c r="V9" s="116" t="s">
         <v>6</v>
       </c>
-      <c r="W9" s="128" t="s">
+      <c r="W9" s="116" t="s">
         <v>14</v>
       </c>
-      <c r="X9" s="128" t="s">
+      <c r="X9" s="116" t="s">
         <v>7</v>
       </c>
-      <c r="Y9" s="114" t="s">
+      <c r="Y9" s="102" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="120"/>
-      <c r="B10" s="121"/>
-      <c r="C10" s="120"/>
-      <c r="D10" s="120"/>
-      <c r="E10" s="120"/>
-      <c r="F10" s="120"/>
-      <c r="G10" s="120"/>
-      <c r="H10" s="120"/>
-      <c r="I10" s="120"/>
-      <c r="J10" s="120"/>
-      <c r="K10" s="120"/>
-      <c r="L10" s="120"/>
-      <c r="M10" s="120"/>
-      <c r="N10" s="120"/>
-      <c r="O10" s="120"/>
-      <c r="P10" s="120"/>
-      <c r="Q10" s="120"/>
-      <c r="R10" s="120"/>
-      <c r="S10" s="120"/>
-      <c r="T10" s="120"/>
-      <c r="U10" s="128"/>
-      <c r="V10" s="128"/>
-      <c r="W10" s="128"/>
-      <c r="X10" s="128"/>
-      <c r="Y10" s="114"/>
+      <c r="A10" s="108"/>
+      <c r="B10" s="109"/>
+      <c r="C10" s="108"/>
+      <c r="D10" s="108"/>
+      <c r="E10" s="108"/>
+      <c r="F10" s="108"/>
+      <c r="G10" s="108"/>
+      <c r="H10" s="108"/>
+      <c r="I10" s="108"/>
+      <c r="J10" s="108"/>
+      <c r="K10" s="108"/>
+      <c r="L10" s="108"/>
+      <c r="M10" s="108"/>
+      <c r="N10" s="108"/>
+      <c r="O10" s="108"/>
+      <c r="P10" s="108"/>
+      <c r="Q10" s="108"/>
+      <c r="R10" s="108"/>
+      <c r="S10" s="108"/>
+      <c r="T10" s="108"/>
+      <c r="U10" s="116"/>
+      <c r="V10" s="116"/>
+      <c r="W10" s="116"/>
+      <c r="X10" s="116"/>
+      <c r="Y10" s="102"/>
     </row>
     <row r="11" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="111">
+      <c r="A11" s="117">
         <v>1</v>
       </c>
-      <c r="B11" s="134">
+      <c r="B11" s="131">
         <v>1</v>
       </c>
-      <c r="C11" s="147" t="s">
+      <c r="C11" s="144" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="140" t="s">
+      <c r="D11" s="147" t="s">
         <v>74</v>
       </c>
       <c r="E11" s="25">
@@ -8396,19 +8396,19 @@
       <c r="T11" s="25">
         <v>16</v>
       </c>
-      <c r="U11" s="108" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="108" t="s">
-        <v>8</v>
-      </c>
-      <c r="W11" s="102" t="s">
-        <v>8</v>
-      </c>
-      <c r="X11" s="102">
+      <c r="U11" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11" s="123" t="s">
+        <v>8</v>
+      </c>
+      <c r="X11" s="123">
         <v>22</v>
       </c>
-      <c r="Y11" s="143">
+      <c r="Y11" s="140">
         <v>6060</v>
       </c>
       <c r="Z11" s="3">
@@ -8417,10 +8417,10 @@
       </c>
     </row>
     <row r="12" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="111"/>
-      <c r="B12" s="135"/>
-      <c r="C12" s="148"/>
-      <c r="D12" s="141"/>
+      <c r="A12" s="117"/>
+      <c r="B12" s="132"/>
+      <c r="C12" s="145"/>
+      <c r="D12" s="148"/>
       <c r="E12" s="26">
         <v>8</v>
       </c>
@@ -8469,17 +8469,17 @@
       <c r="T12" s="26">
         <v>8</v>
       </c>
-      <c r="U12" s="109"/>
-      <c r="V12" s="109"/>
-      <c r="W12" s="103"/>
-      <c r="X12" s="104"/>
-      <c r="Y12" s="144"/>
+      <c r="U12" s="121"/>
+      <c r="V12" s="121"/>
+      <c r="W12" s="124"/>
+      <c r="X12" s="125"/>
+      <c r="Y12" s="141"/>
     </row>
     <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="111"/>
-      <c r="B13" s="135"/>
-      <c r="C13" s="148"/>
-      <c r="D13" s="141"/>
+      <c r="A13" s="117"/>
+      <c r="B13" s="132"/>
+      <c r="C13" s="145"/>
+      <c r="D13" s="148"/>
       <c r="E13" s="27">
         <v>17</v>
       </c>
@@ -8528,20 +8528,20 @@
       <c r="T13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U13" s="109"/>
-      <c r="V13" s="109"/>
-      <c r="W13" s="103"/>
-      <c r="X13" s="102">
+      <c r="U13" s="121"/>
+      <c r="V13" s="121"/>
+      <c r="W13" s="124"/>
+      <c r="X13" s="123">
         <f>Z11+Z14</f>
         <v>176</v>
       </c>
-      <c r="Y13" s="144"/>
+      <c r="Y13" s="141"/>
     </row>
     <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="111"/>
-      <c r="B14" s="136"/>
-      <c r="C14" s="149"/>
-      <c r="D14" s="142"/>
+      <c r="A14" s="117"/>
+      <c r="B14" s="133"/>
+      <c r="C14" s="146"/>
+      <c r="D14" s="149"/>
       <c r="E14" s="26">
         <v>8</v>
       </c>
@@ -8590,11 +8590,11 @@
       <c r="T14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="110"/>
-      <c r="V14" s="110"/>
-      <c r="W14" s="104"/>
-      <c r="X14" s="104"/>
-      <c r="Y14" s="145"/>
+      <c r="U14" s="122"/>
+      <c r="V14" s="122"/>
+      <c r="W14" s="125"/>
+      <c r="X14" s="125"/>
+      <c r="Y14" s="142"/>
       <c r="Z14" s="3">
         <f>SUM(E14:T14)</f>
         <v>80</v>
@@ -8628,10 +8628,10 @@
     </row>
     <row r="16" spans="1:26" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="14"/>
-      <c r="B16" s="146" t="s">
+      <c r="B16" s="143" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="146"/>
+      <c r="C16" s="143"/>
       <c r="D16" s="5">
         <f>Мельницький!C36</f>
         <v>44531</v>
@@ -8710,14 +8710,12 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="Y11:Y14"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="X11:X12"/>
-    <mergeCell ref="X13:X14"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="V11:V14"/>
+    <mergeCell ref="W11:W14"/>
+    <mergeCell ref="U11:U14"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A7:X7"/>
     <mergeCell ref="A8:X8"/>
@@ -8728,12 +8726,14 @@
     <mergeCell ref="W9:W10"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="V11:V14"/>
-    <mergeCell ref="W11:W14"/>
-    <mergeCell ref="U11:U14"/>
+    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="Y11:Y14"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="X11:X12"/>
+    <mergeCell ref="X13:X14"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -8765,11 +8765,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
       <c r="N1" s="15" t="s">
         <v>40</v>
       </c>
@@ -8919,145 +8919,145 @@
       <c r="Z6" s="99"/>
     </row>
     <row r="7" spans="1:26" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A7" s="118" t="s">
+      <c r="A7" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="118"/>
-      <c r="C7" s="118"/>
-      <c r="D7" s="118"/>
-      <c r="E7" s="118"/>
-      <c r="F7" s="118"/>
-      <c r="G7" s="118"/>
-      <c r="H7" s="118"/>
-      <c r="I7" s="118"/>
-      <c r="J7" s="118"/>
-      <c r="K7" s="118"/>
-      <c r="L7" s="118"/>
-      <c r="M7" s="118"/>
-      <c r="N7" s="118"/>
-      <c r="O7" s="118"/>
-      <c r="P7" s="118"/>
-      <c r="Q7" s="118"/>
-      <c r="R7" s="118"/>
-      <c r="S7" s="118"/>
-      <c r="T7" s="118"/>
-      <c r="U7" s="118"/>
-      <c r="V7" s="118"/>
-      <c r="W7" s="118"/>
+      <c r="B7" s="106"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="106"/>
+      <c r="E7" s="106"/>
+      <c r="F7" s="106"/>
+      <c r="G7" s="106"/>
+      <c r="H7" s="106"/>
+      <c r="I7" s="106"/>
+      <c r="J7" s="106"/>
+      <c r="K7" s="106"/>
+      <c r="L7" s="106"/>
+      <c r="M7" s="106"/>
+      <c r="N7" s="106"/>
+      <c r="O7" s="106"/>
+      <c r="P7" s="106"/>
+      <c r="Q7" s="106"/>
+      <c r="R7" s="106"/>
+      <c r="S7" s="106"/>
+      <c r="T7" s="106"/>
+      <c r="U7" s="106"/>
+      <c r="V7" s="106"/>
+      <c r="W7" s="106"/>
       <c r="X7" s="79"/>
     </row>
     <row r="8" spans="1:26" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A8" s="119" t="str">
+      <c r="A8" s="107" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ЛИСТОПАД 2021р.</v>
       </c>
-      <c r="B8" s="119"/>
-      <c r="C8" s="119"/>
-      <c r="D8" s="119"/>
-      <c r="E8" s="119"/>
-      <c r="F8" s="119"/>
-      <c r="G8" s="119"/>
-      <c r="H8" s="119"/>
-      <c r="I8" s="119"/>
-      <c r="J8" s="119"/>
-      <c r="K8" s="119"/>
-      <c r="L8" s="119"/>
-      <c r="M8" s="119"/>
-      <c r="N8" s="119"/>
-      <c r="O8" s="119"/>
-      <c r="P8" s="119"/>
-      <c r="Q8" s="119"/>
-      <c r="R8" s="119"/>
-      <c r="S8" s="119"/>
-      <c r="T8" s="119"/>
-      <c r="U8" s="119"/>
-      <c r="V8" s="119"/>
-      <c r="W8" s="119"/>
-      <c r="X8" s="119"/>
-      <c r="Y8" s="119"/>
+      <c r="B8" s="107"/>
+      <c r="C8" s="107"/>
+      <c r="D8" s="107"/>
+      <c r="E8" s="107"/>
+      <c r="F8" s="107"/>
+      <c r="G8" s="107"/>
+      <c r="H8" s="107"/>
+      <c r="I8" s="107"/>
+      <c r="J8" s="107"/>
+      <c r="K8" s="107"/>
+      <c r="L8" s="107"/>
+      <c r="M8" s="107"/>
+      <c r="N8" s="107"/>
+      <c r="O8" s="107"/>
+      <c r="P8" s="107"/>
+      <c r="Q8" s="107"/>
+      <c r="R8" s="107"/>
+      <c r="S8" s="107"/>
+      <c r="T8" s="107"/>
+      <c r="U8" s="107"/>
+      <c r="V8" s="107"/>
+      <c r="W8" s="107"/>
+      <c r="X8" s="107"/>
+      <c r="Y8" s="107"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A9" s="120" t="s">
+      <c r="A9" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="120" t="s">
+      <c r="B9" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="120" t="s">
+      <c r="C9" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="120" t="s">
+      <c r="D9" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="120"/>
-      <c r="F9" s="120"/>
-      <c r="G9" s="120"/>
-      <c r="H9" s="120"/>
-      <c r="I9" s="120"/>
-      <c r="J9" s="120"/>
-      <c r="K9" s="120"/>
-      <c r="L9" s="120"/>
-      <c r="M9" s="120"/>
-      <c r="N9" s="120"/>
-      <c r="O9" s="120"/>
-      <c r="P9" s="120"/>
-      <c r="Q9" s="120"/>
-      <c r="R9" s="120"/>
-      <c r="S9" s="120"/>
-      <c r="T9" s="128" t="s">
+      <c r="E9" s="108"/>
+      <c r="F9" s="108"/>
+      <c r="G9" s="108"/>
+      <c r="H9" s="108"/>
+      <c r="I9" s="108"/>
+      <c r="J9" s="108"/>
+      <c r="K9" s="108"/>
+      <c r="L9" s="108"/>
+      <c r="M9" s="108"/>
+      <c r="N9" s="108"/>
+      <c r="O9" s="108"/>
+      <c r="P9" s="108"/>
+      <c r="Q9" s="108"/>
+      <c r="R9" s="108"/>
+      <c r="S9" s="108"/>
+      <c r="T9" s="116" t="s">
         <v>48</v>
       </c>
-      <c r="U9" s="128" t="s">
+      <c r="U9" s="116" t="s">
         <v>49</v>
       </c>
-      <c r="V9" s="128" t="s">
+      <c r="V9" s="116" t="s">
         <v>50</v>
       </c>
-      <c r="W9" s="128" t="s">
+      <c r="W9" s="116" t="s">
         <v>47</v>
       </c>
-      <c r="X9" s="128" t="s">
+      <c r="X9" s="116" t="s">
         <v>46</v>
       </c>
-      <c r="Y9" s="114" t="s">
+      <c r="Y9" s="102" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="120"/>
-      <c r="B10" s="120"/>
-      <c r="C10" s="120"/>
-      <c r="D10" s="120"/>
-      <c r="E10" s="120"/>
-      <c r="F10" s="120"/>
-      <c r="G10" s="120"/>
-      <c r="H10" s="120"/>
-      <c r="I10" s="120"/>
-      <c r="J10" s="120"/>
-      <c r="K10" s="120"/>
-      <c r="L10" s="120"/>
-      <c r="M10" s="120"/>
-      <c r="N10" s="120"/>
-      <c r="O10" s="120"/>
-      <c r="P10" s="120"/>
-      <c r="Q10" s="120"/>
-      <c r="R10" s="120"/>
-      <c r="S10" s="120"/>
-      <c r="T10" s="128"/>
-      <c r="U10" s="128"/>
-      <c r="V10" s="128"/>
-      <c r="W10" s="128"/>
-      <c r="X10" s="128"/>
-      <c r="Y10" s="114"/>
+      <c r="A10" s="108"/>
+      <c r="B10" s="108"/>
+      <c r="C10" s="108"/>
+      <c r="D10" s="108"/>
+      <c r="E10" s="108"/>
+      <c r="F10" s="108"/>
+      <c r="G10" s="108"/>
+      <c r="H10" s="108"/>
+      <c r="I10" s="108"/>
+      <c r="J10" s="108"/>
+      <c r="K10" s="108"/>
+      <c r="L10" s="108"/>
+      <c r="M10" s="108"/>
+      <c r="N10" s="108"/>
+      <c r="O10" s="108"/>
+      <c r="P10" s="108"/>
+      <c r="Q10" s="108"/>
+      <c r="R10" s="108"/>
+      <c r="S10" s="108"/>
+      <c r="T10" s="116"/>
+      <c r="U10" s="116"/>
+      <c r="V10" s="116"/>
+      <c r="W10" s="116"/>
+      <c r="X10" s="116"/>
+      <c r="Y10" s="102"/>
     </row>
     <row r="11" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="111">
+      <c r="A11" s="117">
         <v>1</v>
       </c>
-      <c r="B11" s="112" t="s">
+      <c r="B11" s="118" t="s">
         <v>93</v>
       </c>
-      <c r="C11" s="113" t="s">
+      <c r="C11" s="119" t="s">
         <v>94</v>
       </c>
       <c r="D11" s="25">
@@ -9108,28 +9108,28 @@
       <c r="S11" s="25">
         <v>16</v>
       </c>
-      <c r="T11" s="108" t="s">
-        <v>8</v>
-      </c>
-      <c r="U11" s="108" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="102" t="s">
+      <c r="T11" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="U11" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="123" t="s">
         <v>8</v>
       </c>
       <c r="W11" s="150"/>
-      <c r="X11" s="102">
+      <c r="X11" s="123">
         <v>4</v>
       </c>
-      <c r="Y11" s="105">
+      <c r="Y11" s="126">
         <v>6000</v>
       </c>
       <c r="Z11" s="101"/>
     </row>
     <row r="12" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="111"/>
-      <c r="B12" s="112"/>
-      <c r="C12" s="113"/>
+      <c r="A12" s="117"/>
+      <c r="B12" s="118"/>
+      <c r="C12" s="119"/>
       <c r="D12" s="26" t="s">
         <v>104</v>
       </c>
@@ -9178,21 +9178,21 @@
       <c r="S12" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="T12" s="109"/>
-      <c r="U12" s="109"/>
-      <c r="V12" s="103"/>
+      <c r="T12" s="121"/>
+      <c r="U12" s="121"/>
+      <c r="V12" s="124"/>
       <c r="W12" s="151"/>
-      <c r="X12" s="104"/>
-      <c r="Y12" s="105"/>
+      <c r="X12" s="125"/>
+      <c r="Y12" s="126"/>
       <c r="Z12" s="101">
         <f>SUM(D12:S12)</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A13" s="111"/>
-      <c r="B13" s="112"/>
-      <c r="C13" s="113"/>
+      <c r="A13" s="117"/>
+      <c r="B13" s="118"/>
+      <c r="C13" s="119"/>
       <c r="D13" s="27">
         <v>17</v>
       </c>
@@ -9241,20 +9241,20 @@
       <c r="S13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T13" s="109"/>
-      <c r="U13" s="109"/>
-      <c r="V13" s="103"/>
+      <c r="T13" s="121"/>
+      <c r="U13" s="121"/>
+      <c r="V13" s="124"/>
       <c r="W13" s="151"/>
-      <c r="X13" s="102">
+      <c r="X13" s="123">
         <f>Z12+Z14</f>
         <v>8</v>
       </c>
-      <c r="Y13" s="105"/>
+      <c r="Y13" s="126"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A14" s="111"/>
-      <c r="B14" s="112"/>
-      <c r="C14" s="113"/>
+      <c r="A14" s="117"/>
+      <c r="B14" s="118"/>
+      <c r="C14" s="119"/>
       <c r="D14" s="26" t="s">
         <v>104</v>
       </c>
@@ -9303,25 +9303,25 @@
       <c r="S14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T14" s="110"/>
-      <c r="U14" s="110"/>
-      <c r="V14" s="104"/>
+      <c r="T14" s="122"/>
+      <c r="U14" s="122"/>
+      <c r="V14" s="125"/>
       <c r="W14" s="152"/>
-      <c r="X14" s="104"/>
-      <c r="Y14" s="105"/>
+      <c r="X14" s="125"/>
+      <c r="Y14" s="126"/>
       <c r="Z14" s="100">
         <f>SUM(D14:S14)</f>
         <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="111">
+      <c r="A15" s="117">
         <v>2</v>
       </c>
-      <c r="B15" s="112" t="s">
+      <c r="B15" s="118" t="s">
         <v>95</v>
       </c>
-      <c r="C15" s="113" t="s">
+      <c r="C15" s="119" t="s">
         <v>96</v>
       </c>
       <c r="D15" s="25">
@@ -9372,28 +9372,28 @@
       <c r="S15" s="25">
         <v>16</v>
       </c>
-      <c r="T15" s="108" t="s">
-        <v>8</v>
-      </c>
-      <c r="U15" s="108" t="s">
-        <v>8</v>
-      </c>
-      <c r="V15" s="102" t="s">
+      <c r="T15" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="U15" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="V15" s="123" t="s">
         <v>8</v>
       </c>
       <c r="W15" s="150"/>
-      <c r="X15" s="102">
+      <c r="X15" s="123">
         <v>22</v>
       </c>
-      <c r="Y15" s="105">
+      <c r="Y15" s="126">
         <v>6000</v>
       </c>
       <c r="Z15" s="101"/>
     </row>
     <row r="16" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="111"/>
-      <c r="B16" s="112"/>
-      <c r="C16" s="113"/>
+      <c r="A16" s="117"/>
+      <c r="B16" s="118"/>
+      <c r="C16" s="119"/>
       <c r="D16" s="26">
         <v>8</v>
       </c>
@@ -9442,21 +9442,21 @@
       <c r="S16" s="26">
         <v>8</v>
       </c>
-      <c r="T16" s="109"/>
-      <c r="U16" s="109"/>
-      <c r="V16" s="103"/>
+      <c r="T16" s="121"/>
+      <c r="U16" s="121"/>
+      <c r="V16" s="124"/>
       <c r="W16" s="151"/>
-      <c r="X16" s="104"/>
-      <c r="Y16" s="105"/>
+      <c r="X16" s="125"/>
+      <c r="Y16" s="126"/>
       <c r="Z16" s="101">
         <f>SUM(D16:S16)</f>
         <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A17" s="111"/>
-      <c r="B17" s="112"/>
-      <c r="C17" s="113"/>
+      <c r="A17" s="117"/>
+      <c r="B17" s="118"/>
+      <c r="C17" s="119"/>
       <c r="D17" s="27">
         <v>17</v>
       </c>
@@ -9505,20 +9505,20 @@
       <c r="S17" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T17" s="109"/>
-      <c r="U17" s="109"/>
-      <c r="V17" s="103"/>
+      <c r="T17" s="121"/>
+      <c r="U17" s="121"/>
+      <c r="V17" s="124"/>
       <c r="W17" s="151"/>
-      <c r="X17" s="102">
+      <c r="X17" s="123">
         <f>Z16+Z18</f>
         <v>176</v>
       </c>
-      <c r="Y17" s="105"/>
+      <c r="Y17" s="126"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A18" s="111"/>
-      <c r="B18" s="112"/>
-      <c r="C18" s="113"/>
+      <c r="A18" s="117"/>
+      <c r="B18" s="118"/>
+      <c r="C18" s="119"/>
       <c r="D18" s="26">
         <v>8</v>
       </c>
@@ -9567,12 +9567,12 @@
       <c r="S18" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T18" s="110"/>
-      <c r="U18" s="110"/>
-      <c r="V18" s="104"/>
+      <c r="T18" s="122"/>
+      <c r="U18" s="122"/>
+      <c r="V18" s="125"/>
       <c r="W18" s="152"/>
-      <c r="X18" s="104"/>
-      <c r="Y18" s="105"/>
+      <c r="X18" s="125"/>
+      <c r="Y18" s="126"/>
       <c r="Z18" s="100">
         <f>SUM(D18:S18)</f>
         <v>80</v>
@@ -9682,6 +9682,26 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="T15:T18"/>
+    <mergeCell ref="U15:U18"/>
+    <mergeCell ref="V15:V18"/>
+    <mergeCell ref="W15:W18"/>
+    <mergeCell ref="X15:X16"/>
+    <mergeCell ref="Y15:Y18"/>
+    <mergeCell ref="X17:X18"/>
+    <mergeCell ref="V11:V14"/>
+    <mergeCell ref="W11:W14"/>
+    <mergeCell ref="X11:X12"/>
+    <mergeCell ref="Y11:Y14"/>
+    <mergeCell ref="X13:X14"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="T11:T14"/>
+    <mergeCell ref="U11:U14"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A7:W7"/>
     <mergeCell ref="A8:Y8"/>
@@ -9695,26 +9715,6 @@
     <mergeCell ref="W9:W10"/>
     <mergeCell ref="X9:X10"/>
     <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="T11:T14"/>
-    <mergeCell ref="U11:U14"/>
-    <mergeCell ref="V11:V14"/>
-    <mergeCell ref="W11:W14"/>
-    <mergeCell ref="X11:X12"/>
-    <mergeCell ref="Y11:Y14"/>
-    <mergeCell ref="X13:X14"/>
-    <mergeCell ref="V15:V18"/>
-    <mergeCell ref="W15:W18"/>
-    <mergeCell ref="X15:X16"/>
-    <mergeCell ref="Y15:Y18"/>
-    <mergeCell ref="X17:X18"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="T15:T18"/>
-    <mergeCell ref="U15:U18"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -9742,49 +9742,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="P1" s="116"/>
-      <c r="Q1" s="116"/>
-      <c r="R1" s="116"/>
-      <c r="S1" s="116"/>
-      <c r="T1" s="116"/>
-      <c r="U1" s="116"/>
-      <c r="V1" s="116"/>
-      <c r="W1" s="116"/>
-      <c r="X1" s="116"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="P1" s="104"/>
+      <c r="Q1" s="104"/>
+      <c r="R1" s="104"/>
+      <c r="S1" s="104"/>
+      <c r="T1" s="104"/>
+      <c r="U1" s="104"/>
+      <c r="V1" s="104"/>
+      <c r="W1" s="104"/>
+      <c r="X1" s="104"/>
     </row>
     <row r="2" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A2" s="117" t="s">
+      <c r="A2" s="105" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="117"/>
-      <c r="C2" s="117"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="117"/>
-      <c r="H2" s="117"/>
-      <c r="I2" s="117"/>
-      <c r="J2" s="117"/>
-      <c r="K2" s="117"/>
-      <c r="L2" s="117"/>
-      <c r="M2" s="117"/>
-      <c r="N2" s="117"/>
-      <c r="O2" s="117"/>
-      <c r="P2" s="117"/>
-      <c r="Q2" s="117"/>
-      <c r="R2" s="117"/>
-      <c r="S2" s="117"/>
-      <c r="T2" s="117"/>
-      <c r="U2" s="117"/>
-      <c r="V2" s="117"/>
-      <c r="W2" s="117"/>
-      <c r="X2" s="117"/>
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="105"/>
+      <c r="J2" s="105"/>
+      <c r="K2" s="105"/>
+      <c r="L2" s="105"/>
+      <c r="M2" s="105"/>
+      <c r="N2" s="105"/>
+      <c r="O2" s="105"/>
+      <c r="P2" s="105"/>
+      <c r="Q2" s="105"/>
+      <c r="R2" s="105"/>
+      <c r="S2" s="105"/>
+      <c r="T2" s="105"/>
+      <c r="U2" s="105"/>
+      <c r="V2" s="105"/>
+      <c r="W2" s="105"/>
+      <c r="X2" s="105"/>
     </row>
     <row r="3" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A3" s="19"/>
@@ -9894,147 +9894,147 @@
       <c r="X6" s="2"/>
     </row>
     <row r="7" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A7" s="118" t="s">
+      <c r="A7" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="118"/>
-      <c r="C7" s="118"/>
-      <c r="D7" s="118"/>
-      <c r="E7" s="118"/>
-      <c r="F7" s="118"/>
-      <c r="G7" s="118"/>
-      <c r="H7" s="118"/>
-      <c r="I7" s="118"/>
-      <c r="J7" s="118"/>
-      <c r="K7" s="118"/>
-      <c r="L7" s="118"/>
-      <c r="M7" s="118"/>
-      <c r="N7" s="118"/>
-      <c r="O7" s="118"/>
-      <c r="P7" s="118"/>
-      <c r="Q7" s="118"/>
-      <c r="R7" s="118"/>
-      <c r="S7" s="118"/>
-      <c r="T7" s="118"/>
-      <c r="U7" s="118"/>
-      <c r="V7" s="118"/>
-      <c r="W7" s="118"/>
-      <c r="X7" s="118"/>
+      <c r="B7" s="106"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="106"/>
+      <c r="E7" s="106"/>
+      <c r="F7" s="106"/>
+      <c r="G7" s="106"/>
+      <c r="H7" s="106"/>
+      <c r="I7" s="106"/>
+      <c r="J7" s="106"/>
+      <c r="K7" s="106"/>
+      <c r="L7" s="106"/>
+      <c r="M7" s="106"/>
+      <c r="N7" s="106"/>
+      <c r="O7" s="106"/>
+      <c r="P7" s="106"/>
+      <c r="Q7" s="106"/>
+      <c r="R7" s="106"/>
+      <c r="S7" s="106"/>
+      <c r="T7" s="106"/>
+      <c r="U7" s="106"/>
+      <c r="V7" s="106"/>
+      <c r="W7" s="106"/>
+      <c r="X7" s="106"/>
     </row>
     <row r="8" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A8" s="119" t="str">
+      <c r="A8" s="107" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ЛИСТОПАД 2021р.</v>
       </c>
-      <c r="B8" s="119"/>
-      <c r="C8" s="119"/>
-      <c r="D8" s="119"/>
-      <c r="E8" s="119"/>
-      <c r="F8" s="119"/>
-      <c r="G8" s="119"/>
-      <c r="H8" s="119"/>
-      <c r="I8" s="119"/>
-      <c r="J8" s="119"/>
-      <c r="K8" s="119"/>
-      <c r="L8" s="119"/>
-      <c r="M8" s="119"/>
-      <c r="N8" s="119"/>
-      <c r="O8" s="119"/>
-      <c r="P8" s="119"/>
-      <c r="Q8" s="119"/>
-      <c r="R8" s="119"/>
-      <c r="S8" s="119"/>
-      <c r="T8" s="119"/>
-      <c r="U8" s="119"/>
-      <c r="V8" s="119"/>
-      <c r="W8" s="119"/>
-      <c r="X8" s="119"/>
+      <c r="B8" s="107"/>
+      <c r="C8" s="107"/>
+      <c r="D8" s="107"/>
+      <c r="E8" s="107"/>
+      <c r="F8" s="107"/>
+      <c r="G8" s="107"/>
+      <c r="H8" s="107"/>
+      <c r="I8" s="107"/>
+      <c r="J8" s="107"/>
+      <c r="K8" s="107"/>
+      <c r="L8" s="107"/>
+      <c r="M8" s="107"/>
+      <c r="N8" s="107"/>
+      <c r="O8" s="107"/>
+      <c r="P8" s="107"/>
+      <c r="Q8" s="107"/>
+      <c r="R8" s="107"/>
+      <c r="S8" s="107"/>
+      <c r="T8" s="107"/>
+      <c r="U8" s="107"/>
+      <c r="V8" s="107"/>
+      <c r="W8" s="107"/>
+      <c r="X8" s="107"/>
     </row>
     <row r="9" spans="1:28" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="120" t="s">
+      <c r="A9" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="121"/>
-      <c r="C9" s="120" t="s">
+      <c r="B9" s="109"/>
+      <c r="C9" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="120" t="s">
+      <c r="D9" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="122" t="s">
+      <c r="E9" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="123"/>
-      <c r="G9" s="123"/>
-      <c r="H9" s="123"/>
-      <c r="I9" s="123"/>
-      <c r="J9" s="123"/>
-      <c r="K9" s="123"/>
-      <c r="L9" s="123"/>
-      <c r="M9" s="123"/>
-      <c r="N9" s="123"/>
-      <c r="O9" s="123"/>
-      <c r="P9" s="123"/>
-      <c r="Q9" s="123"/>
-      <c r="R9" s="123"/>
-      <c r="S9" s="123"/>
-      <c r="T9" s="124"/>
-      <c r="U9" s="128" t="s">
+      <c r="F9" s="111"/>
+      <c r="G9" s="111"/>
+      <c r="H9" s="111"/>
+      <c r="I9" s="111"/>
+      <c r="J9" s="111"/>
+      <c r="K9" s="111"/>
+      <c r="L9" s="111"/>
+      <c r="M9" s="111"/>
+      <c r="N9" s="111"/>
+      <c r="O9" s="111"/>
+      <c r="P9" s="111"/>
+      <c r="Q9" s="111"/>
+      <c r="R9" s="111"/>
+      <c r="S9" s="111"/>
+      <c r="T9" s="112"/>
+      <c r="U9" s="116" t="s">
         <v>48</v>
       </c>
-      <c r="V9" s="128" t="s">
+      <c r="V9" s="116" t="s">
         <v>49</v>
       </c>
-      <c r="W9" s="128" t="s">
+      <c r="W9" s="116" t="s">
         <v>50</v>
       </c>
-      <c r="X9" s="128" t="s">
+      <c r="X9" s="116" t="s">
         <v>47</v>
       </c>
-      <c r="Y9" s="128" t="s">
+      <c r="Y9" s="116" t="s">
         <v>46</v>
       </c>
-      <c r="Z9" s="114" t="s">
+      <c r="Z9" s="102" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:28" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="120"/>
-      <c r="B10" s="121"/>
-      <c r="C10" s="120"/>
-      <c r="D10" s="120"/>
-      <c r="E10" s="125"/>
-      <c r="F10" s="126"/>
-      <c r="G10" s="126"/>
-      <c r="H10" s="126"/>
-      <c r="I10" s="126"/>
-      <c r="J10" s="126"/>
-      <c r="K10" s="126"/>
-      <c r="L10" s="126"/>
-      <c r="M10" s="126"/>
-      <c r="N10" s="126"/>
-      <c r="O10" s="126"/>
-      <c r="P10" s="126"/>
-      <c r="Q10" s="126"/>
-      <c r="R10" s="126"/>
-      <c r="S10" s="126"/>
-      <c r="T10" s="127"/>
-      <c r="U10" s="128"/>
-      <c r="V10" s="128"/>
-      <c r="W10" s="128"/>
-      <c r="X10" s="128"/>
-      <c r="Y10" s="128"/>
-      <c r="Z10" s="114"/>
+      <c r="A10" s="108"/>
+      <c r="B10" s="109"/>
+      <c r="C10" s="108"/>
+      <c r="D10" s="108"/>
+      <c r="E10" s="113"/>
+      <c r="F10" s="114"/>
+      <c r="G10" s="114"/>
+      <c r="H10" s="114"/>
+      <c r="I10" s="114"/>
+      <c r="J10" s="114"/>
+      <c r="K10" s="114"/>
+      <c r="L10" s="114"/>
+      <c r="M10" s="114"/>
+      <c r="N10" s="114"/>
+      <c r="O10" s="114"/>
+      <c r="P10" s="114"/>
+      <c r="Q10" s="114"/>
+      <c r="R10" s="114"/>
+      <c r="S10" s="114"/>
+      <c r="T10" s="115"/>
+      <c r="U10" s="116"/>
+      <c r="V10" s="116"/>
+      <c r="W10" s="116"/>
+      <c r="X10" s="116"/>
+      <c r="Y10" s="116"/>
+      <c r="Z10" s="102"/>
     </row>
     <row r="11" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="111">
+      <c r="A11" s="117">
         <v>1</v>
       </c>
-      <c r="B11" s="111"/>
-      <c r="C11" s="112" t="s">
+      <c r="B11" s="117"/>
+      <c r="C11" s="118" t="s">
         <v>59</v>
       </c>
-      <c r="D11" s="113" t="s">
+      <c r="D11" s="119" t="s">
         <v>56</v>
       </c>
       <c r="E11" s="25">
@@ -10085,20 +10085,20 @@
       <c r="T11" s="25">
         <v>16</v>
       </c>
-      <c r="U11" s="108" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="108" t="s">
-        <v>8</v>
-      </c>
-      <c r="W11" s="102" t="s">
+      <c r="U11" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11" s="123" t="s">
         <v>8</v>
       </c>
       <c r="X11" s="48"/>
-      <c r="Y11" s="102">
+      <c r="Y11" s="123">
         <v>22</v>
       </c>
-      <c r="Z11" s="105">
+      <c r="Z11" s="126">
         <v>6060</v>
       </c>
       <c r="AA11" s="2">
@@ -10107,10 +10107,10 @@
       </c>
     </row>
     <row r="12" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="111"/>
-      <c r="B12" s="111"/>
-      <c r="C12" s="112"/>
-      <c r="D12" s="113"/>
+      <c r="A12" s="117"/>
+      <c r="B12" s="117"/>
+      <c r="C12" s="118"/>
+      <c r="D12" s="119"/>
       <c r="E12" s="26">
         <v>2</v>
       </c>
@@ -10159,18 +10159,18 @@
       <c r="T12" s="26">
         <v>2</v>
       </c>
-      <c r="U12" s="109"/>
-      <c r="V12" s="109"/>
-      <c r="W12" s="103"/>
+      <c r="U12" s="121"/>
+      <c r="V12" s="121"/>
+      <c r="W12" s="124"/>
       <c r="X12" s="50"/>
-      <c r="Y12" s="104"/>
-      <c r="Z12" s="105"/>
+      <c r="Y12" s="125"/>
+      <c r="Z12" s="126"/>
     </row>
     <row r="13" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="111"/>
-      <c r="B13" s="111"/>
-      <c r="C13" s="112"/>
-      <c r="D13" s="113"/>
+      <c r="A13" s="117"/>
+      <c r="B13" s="117"/>
+      <c r="C13" s="118"/>
+      <c r="D13" s="119"/>
       <c r="E13" s="27">
         <v>17</v>
       </c>
@@ -10219,24 +10219,24 @@
       <c r="T13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U13" s="109"/>
-      <c r="V13" s="109"/>
-      <c r="W13" s="103"/>
+      <c r="U13" s="121"/>
+      <c r="V13" s="121"/>
+      <c r="W13" s="124"/>
       <c r="X13" s="50"/>
-      <c r="Y13" s="102">
+      <c r="Y13" s="123">
         <v>44</v>
       </c>
-      <c r="Z13" s="105"/>
+      <c r="Z13" s="126"/>
       <c r="AB13" s="2">
         <f>AA11+AA14</f>
         <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="111"/>
-      <c r="B14" s="111"/>
-      <c r="C14" s="112"/>
-      <c r="D14" s="113"/>
+      <c r="A14" s="117"/>
+      <c r="B14" s="117"/>
+      <c r="C14" s="118"/>
+      <c r="D14" s="119"/>
       <c r="E14" s="26">
         <v>2</v>
       </c>
@@ -10285,12 +10285,12 @@
       <c r="T14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="110"/>
-      <c r="V14" s="110"/>
-      <c r="W14" s="104"/>
+      <c r="U14" s="122"/>
+      <c r="V14" s="122"/>
+      <c r="W14" s="125"/>
       <c r="X14" s="49"/>
-      <c r="Y14" s="104"/>
-      <c r="Z14" s="105"/>
+      <c r="Y14" s="125"/>
+      <c r="Z14" s="126"/>
       <c r="AA14" s="2">
         <f>SUM(E14:T14)</f>
         <v>20</v>
@@ -10375,10 +10375,10 @@
       <c r="X17" s="9"/>
     </row>
     <row r="18" spans="1:24" s="39" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="B18" s="106" t="s">
+      <c r="B18" s="127" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="106"/>
+      <c r="C18" s="127"/>
       <c r="D18" s="153">
         <f>Мельницький!C36</f>
         <v>44531</v>
@@ -10393,11 +10393,14 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="U11:U14"/>
+    <mergeCell ref="Z9:Z10"/>
+    <mergeCell ref="Y11:Y12"/>
+    <mergeCell ref="Z11:Z14"/>
+    <mergeCell ref="Y13:Y14"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:H18"/>
+    <mergeCell ref="V11:V14"/>
+    <mergeCell ref="W11:W14"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="P1:X1"/>
     <mergeCell ref="A2:X2"/>
@@ -10413,14 +10416,11 @@
     <mergeCell ref="U9:U10"/>
     <mergeCell ref="V9:V10"/>
     <mergeCell ref="W9:W10"/>
-    <mergeCell ref="Z9:Z10"/>
-    <mergeCell ref="Y11:Y12"/>
-    <mergeCell ref="Z11:Z14"/>
-    <mergeCell ref="Y13:Y14"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:H18"/>
-    <mergeCell ref="V11:V14"/>
-    <mergeCell ref="W11:W14"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="U11:U14"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="99" orientation="landscape" r:id="rId1"/>
@@ -10433,7 +10433,7 @@
   <sheetPr codeName="Лист2"/>
   <dimension ref="A1:AD46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
@@ -10454,11 +10454,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
       <c r="Q1" s="15" t="s">
         <v>40</v>
       </c>
@@ -10548,142 +10548,142 @@
       <c r="W4" s="95"/>
     </row>
     <row r="5" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A5" s="118" t="s">
+      <c r="A5" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="118"/>
-      <c r="C5" s="118"/>
-      <c r="D5" s="118"/>
-      <c r="E5" s="118"/>
-      <c r="F5" s="118"/>
-      <c r="G5" s="118"/>
-      <c r="H5" s="118"/>
-      <c r="I5" s="118"/>
-      <c r="J5" s="118"/>
-      <c r="K5" s="118"/>
-      <c r="L5" s="118"/>
-      <c r="M5" s="118"/>
-      <c r="N5" s="118"/>
-      <c r="O5" s="118"/>
-      <c r="P5" s="118"/>
-      <c r="Q5" s="118"/>
-      <c r="R5" s="118"/>
-      <c r="S5" s="118"/>
-      <c r="T5" s="118"/>
-      <c r="U5" s="118"/>
-      <c r="V5" s="118"/>
-      <c r="W5" s="118"/>
+      <c r="B5" s="106"/>
+      <c r="C5" s="106"/>
+      <c r="D5" s="106"/>
+      <c r="E5" s="106"/>
+      <c r="F5" s="106"/>
+      <c r="G5" s="106"/>
+      <c r="H5" s="106"/>
+      <c r="I5" s="106"/>
+      <c r="J5" s="106"/>
+      <c r="K5" s="106"/>
+      <c r="L5" s="106"/>
+      <c r="M5" s="106"/>
+      <c r="N5" s="106"/>
+      <c r="O5" s="106"/>
+      <c r="P5" s="106"/>
+      <c r="Q5" s="106"/>
+      <c r="R5" s="106"/>
+      <c r="S5" s="106"/>
+      <c r="T5" s="106"/>
+      <c r="U5" s="106"/>
+      <c r="V5" s="106"/>
+      <c r="W5" s="106"/>
     </row>
     <row r="6" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A6" s="118" t="str">
+      <c r="A6" s="106" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ЛИСТОПАД 2021р.</v>
       </c>
-      <c r="B6" s="118"/>
-      <c r="C6" s="118"/>
-      <c r="D6" s="118"/>
-      <c r="E6" s="118"/>
-      <c r="F6" s="118"/>
-      <c r="G6" s="118"/>
-      <c r="H6" s="118"/>
-      <c r="I6" s="118"/>
-      <c r="J6" s="118"/>
-      <c r="K6" s="118"/>
-      <c r="L6" s="118"/>
-      <c r="M6" s="118"/>
-      <c r="N6" s="118"/>
-      <c r="O6" s="118"/>
-      <c r="P6" s="118"/>
-      <c r="Q6" s="118"/>
-      <c r="R6" s="118"/>
-      <c r="S6" s="118"/>
-      <c r="T6" s="118"/>
-      <c r="U6" s="118"/>
-      <c r="V6" s="118"/>
-      <c r="W6" s="118"/>
+      <c r="B6" s="106"/>
+      <c r="C6" s="106"/>
+      <c r="D6" s="106"/>
+      <c r="E6" s="106"/>
+      <c r="F6" s="106"/>
+      <c r="G6" s="106"/>
+      <c r="H6" s="106"/>
+      <c r="I6" s="106"/>
+      <c r="J6" s="106"/>
+      <c r="K6" s="106"/>
+      <c r="L6" s="106"/>
+      <c r="M6" s="106"/>
+      <c r="N6" s="106"/>
+      <c r="O6" s="106"/>
+      <c r="P6" s="106"/>
+      <c r="Q6" s="106"/>
+      <c r="R6" s="106"/>
+      <c r="S6" s="106"/>
+      <c r="T6" s="106"/>
+      <c r="U6" s="106"/>
+      <c r="V6" s="106"/>
+      <c r="W6" s="106"/>
     </row>
     <row r="7" spans="1:28" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="120" t="s">
+      <c r="A7" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="120" t="s">
+      <c r="B7" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="120" t="s">
+      <c r="C7" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="122" t="s">
+      <c r="D7" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="123"/>
-      <c r="F7" s="123"/>
-      <c r="G7" s="123"/>
-      <c r="H7" s="123"/>
-      <c r="I7" s="123"/>
-      <c r="J7" s="123"/>
-      <c r="K7" s="123"/>
-      <c r="L7" s="123"/>
-      <c r="M7" s="123"/>
-      <c r="N7" s="123"/>
-      <c r="O7" s="123"/>
-      <c r="P7" s="123"/>
-      <c r="Q7" s="123"/>
-      <c r="R7" s="123"/>
-      <c r="S7" s="124"/>
-      <c r="T7" s="128" t="s">
+      <c r="E7" s="111"/>
+      <c r="F7" s="111"/>
+      <c r="G7" s="111"/>
+      <c r="H7" s="111"/>
+      <c r="I7" s="111"/>
+      <c r="J7" s="111"/>
+      <c r="K7" s="111"/>
+      <c r="L7" s="111"/>
+      <c r="M7" s="111"/>
+      <c r="N7" s="111"/>
+      <c r="O7" s="111"/>
+      <c r="P7" s="111"/>
+      <c r="Q7" s="111"/>
+      <c r="R7" s="111"/>
+      <c r="S7" s="112"/>
+      <c r="T7" s="116" t="s">
         <v>48</v>
       </c>
-      <c r="U7" s="128" t="s">
+      <c r="U7" s="116" t="s">
         <v>49</v>
       </c>
-      <c r="V7" s="128" t="s">
+      <c r="V7" s="116" t="s">
         <v>50</v>
       </c>
-      <c r="W7" s="128" t="s">
+      <c r="W7" s="116" t="s">
         <v>77</v>
       </c>
-      <c r="X7" s="128" t="s">
+      <c r="X7" s="116" t="s">
         <v>46</v>
       </c>
-      <c r="Y7" s="114" t="s">
+      <c r="Y7" s="102" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:28" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="120"/>
-      <c r="B8" s="120"/>
-      <c r="C8" s="120"/>
-      <c r="D8" s="125"/>
-      <c r="E8" s="126"/>
-      <c r="F8" s="126"/>
-      <c r="G8" s="126"/>
-      <c r="H8" s="126"/>
-      <c r="I8" s="126"/>
-      <c r="J8" s="126"/>
-      <c r="K8" s="126"/>
-      <c r="L8" s="126"/>
-      <c r="M8" s="126"/>
-      <c r="N8" s="126"/>
-      <c r="O8" s="126"/>
-      <c r="P8" s="126"/>
-      <c r="Q8" s="126"/>
-      <c r="R8" s="126"/>
-      <c r="S8" s="127"/>
-      <c r="T8" s="128"/>
-      <c r="U8" s="128"/>
-      <c r="V8" s="128"/>
-      <c r="W8" s="128"/>
-      <c r="X8" s="128"/>
-      <c r="Y8" s="114"/>
+      <c r="A8" s="108"/>
+      <c r="B8" s="108"/>
+      <c r="C8" s="108"/>
+      <c r="D8" s="113"/>
+      <c r="E8" s="114"/>
+      <c r="F8" s="114"/>
+      <c r="G8" s="114"/>
+      <c r="H8" s="114"/>
+      <c r="I8" s="114"/>
+      <c r="J8" s="114"/>
+      <c r="K8" s="114"/>
+      <c r="L8" s="114"/>
+      <c r="M8" s="114"/>
+      <c r="N8" s="114"/>
+      <c r="O8" s="114"/>
+      <c r="P8" s="114"/>
+      <c r="Q8" s="114"/>
+      <c r="R8" s="114"/>
+      <c r="S8" s="115"/>
+      <c r="T8" s="116"/>
+      <c r="U8" s="116"/>
+      <c r="V8" s="116"/>
+      <c r="W8" s="116"/>
+      <c r="X8" s="116"/>
+      <c r="Y8" s="102"/>
     </row>
     <row r="9" spans="1:28" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="111">
+      <c r="A9" s="117">
         <v>1</v>
       </c>
-      <c r="B9" s="112" t="s">
+      <c r="B9" s="118" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="140" t="s">
+      <c r="C9" s="147" t="s">
         <v>26</v>
       </c>
       <c r="D9" s="25">
@@ -10734,29 +10734,29 @@
       <c r="S9" s="25">
         <v>16</v>
       </c>
-      <c r="T9" s="108" t="s">
-        <v>8</v>
-      </c>
-      <c r="U9" s="108" t="s">
-        <v>8</v>
-      </c>
-      <c r="V9" s="102" t="s">
-        <v>8</v>
-      </c>
-      <c r="W9" s="102" t="s">
-        <v>8</v>
-      </c>
-      <c r="X9" s="102">
+      <c r="T9" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="U9" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="V9" s="123" t="s">
+        <v>8</v>
+      </c>
+      <c r="W9" s="123" t="s">
+        <v>8</v>
+      </c>
+      <c r="X9" s="123">
         <v>22</v>
       </c>
-      <c r="Y9" s="105">
+      <c r="Y9" s="126">
         <v>6300</v>
       </c>
     </row>
     <row r="10" spans="1:28" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="111"/>
-      <c r="B10" s="112"/>
-      <c r="C10" s="141"/>
+      <c r="A10" s="117"/>
+      <c r="B10" s="118"/>
+      <c r="C10" s="148"/>
       <c r="D10" s="26">
         <v>8</v>
       </c>
@@ -10805,21 +10805,21 @@
       <c r="S10" s="26">
         <v>8</v>
       </c>
-      <c r="T10" s="109"/>
-      <c r="U10" s="109"/>
-      <c r="V10" s="103"/>
-      <c r="W10" s="103"/>
-      <c r="X10" s="104"/>
-      <c r="Y10" s="105"/>
+      <c r="T10" s="121"/>
+      <c r="U10" s="121"/>
+      <c r="V10" s="124"/>
+      <c r="W10" s="124"/>
+      <c r="X10" s="125"/>
+      <c r="Y10" s="126"/>
       <c r="Z10" s="3">
         <f>SUM(D10:S10)</f>
         <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="111"/>
-      <c r="B11" s="112"/>
-      <c r="C11" s="141"/>
+      <c r="A11" s="117"/>
+      <c r="B11" s="118"/>
+      <c r="C11" s="148"/>
       <c r="D11" s="27">
         <v>17</v>
       </c>
@@ -10868,20 +10868,20 @@
       <c r="S11" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T11" s="109"/>
-      <c r="U11" s="109"/>
-      <c r="V11" s="103"/>
-      <c r="W11" s="103"/>
-      <c r="X11" s="102">
+      <c r="T11" s="121"/>
+      <c r="U11" s="121"/>
+      <c r="V11" s="124"/>
+      <c r="W11" s="124"/>
+      <c r="X11" s="123">
         <f>Z10+Z12</f>
         <v>176</v>
       </c>
-      <c r="Y11" s="105"/>
+      <c r="Y11" s="126"/>
     </row>
     <row r="12" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="111"/>
-      <c r="B12" s="112"/>
-      <c r="C12" s="142"/>
+      <c r="A12" s="117"/>
+      <c r="B12" s="118"/>
+      <c r="C12" s="149"/>
       <c r="D12" s="26">
         <v>8</v>
       </c>
@@ -10930,25 +10930,25 @@
       <c r="S12" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T12" s="110"/>
-      <c r="U12" s="110"/>
-      <c r="V12" s="104"/>
-      <c r="W12" s="104"/>
-      <c r="X12" s="104"/>
-      <c r="Y12" s="105"/>
+      <c r="T12" s="122"/>
+      <c r="U12" s="122"/>
+      <c r="V12" s="125"/>
+      <c r="W12" s="125"/>
+      <c r="X12" s="125"/>
+      <c r="Y12" s="126"/>
       <c r="Z12" s="2">
         <f>SUM(D12:S12)</f>
         <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="111">
+      <c r="A13" s="117">
         <v>2</v>
       </c>
-      <c r="B13" s="112" t="s">
+      <c r="B13" s="118" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="113" t="str">
+      <c r="C13" s="119" t="str">
         <f>C9</f>
         <v>лікар-стоматолог</v>
       </c>
@@ -11000,22 +11000,22 @@
       <c r="S13" s="25">
         <v>16</v>
       </c>
-      <c r="T13" s="108" t="s">
-        <v>8</v>
-      </c>
-      <c r="U13" s="108" t="s">
-        <v>8</v>
-      </c>
-      <c r="V13" s="102" t="s">
-        <v>8</v>
-      </c>
-      <c r="W13" s="102" t="s">
-        <v>8</v>
-      </c>
-      <c r="X13" s="102">
+      <c r="T13" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="U13" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="V13" s="123" t="s">
+        <v>8</v>
+      </c>
+      <c r="W13" s="123" t="s">
+        <v>8</v>
+      </c>
+      <c r="X13" s="123">
         <v>22</v>
       </c>
-      <c r="Y13" s="105">
+      <c r="Y13" s="126">
         <v>6300</v>
       </c>
       <c r="Z13" s="2" t="s">
@@ -11027,9 +11027,9 @@
       </c>
     </row>
     <row r="14" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="111"/>
-      <c r="B14" s="112"/>
-      <c r="C14" s="113"/>
+      <c r="A14" s="117"/>
+      <c r="B14" s="118"/>
+      <c r="C14" s="119"/>
       <c r="D14" s="26">
         <v>8</v>
       </c>
@@ -11078,12 +11078,12 @@
       <c r="S14" s="26">
         <v>8</v>
       </c>
-      <c r="T14" s="109"/>
-      <c r="U14" s="109"/>
-      <c r="V14" s="103"/>
-      <c r="W14" s="103"/>
-      <c r="X14" s="104"/>
-      <c r="Y14" s="105"/>
+      <c r="T14" s="121"/>
+      <c r="U14" s="121"/>
+      <c r="V14" s="124"/>
+      <c r="W14" s="124"/>
+      <c r="X14" s="125"/>
+      <c r="Y14" s="126"/>
       <c r="Z14" s="2">
         <f>SUM(D14:S14)</f>
         <v>96</v>
@@ -11094,9 +11094,9 @@
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="111"/>
-      <c r="B15" s="112"/>
-      <c r="C15" s="113"/>
+      <c r="A15" s="117"/>
+      <c r="B15" s="118"/>
+      <c r="C15" s="119"/>
       <c r="D15" s="27">
         <v>17</v>
       </c>
@@ -11145,20 +11145,20 @@
       <c r="S15" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T15" s="109"/>
-      <c r="U15" s="109"/>
-      <c r="V15" s="103"/>
-      <c r="W15" s="103"/>
-      <c r="X15" s="102">
+      <c r="T15" s="121"/>
+      <c r="U15" s="121"/>
+      <c r="V15" s="124"/>
+      <c r="W15" s="124"/>
+      <c r="X15" s="123">
         <f>Z14+Z16</f>
         <v>176</v>
       </c>
-      <c r="Y15" s="105"/>
+      <c r="Y15" s="126"/>
     </row>
     <row r="16" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="111"/>
-      <c r="B16" s="112"/>
-      <c r="C16" s="113"/>
+      <c r="A16" s="117"/>
+      <c r="B16" s="118"/>
+      <c r="C16" s="119"/>
       <c r="D16" s="26">
         <v>8</v>
       </c>
@@ -11207,12 +11207,12 @@
       <c r="S16" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T16" s="110"/>
-      <c r="U16" s="110"/>
-      <c r="V16" s="104"/>
-      <c r="W16" s="104"/>
-      <c r="X16" s="104"/>
-      <c r="Y16" s="105"/>
+      <c r="T16" s="122"/>
+      <c r="U16" s="122"/>
+      <c r="V16" s="125"/>
+      <c r="W16" s="125"/>
+      <c r="X16" s="125"/>
+      <c r="Y16" s="126"/>
       <c r="Z16" s="2">
         <f>SUM(D16:S16)</f>
         <v>80</v>
@@ -11223,13 +11223,13 @@
       </c>
     </row>
     <row r="17" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="164">
+      <c r="A17" s="160">
         <v>3</v>
       </c>
-      <c r="B17" s="165" t="s">
+      <c r="B17" s="161" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="157" t="s">
+      <c r="C17" s="162" t="s">
         <v>73</v>
       </c>
       <c r="D17" s="25">
@@ -11280,29 +11280,29 @@
       <c r="S17" s="25">
         <v>16</v>
       </c>
-      <c r="T17" s="108" t="s">
-        <v>8</v>
-      </c>
-      <c r="U17" s="161" t="s">
-        <v>8</v>
-      </c>
-      <c r="V17" s="158" t="s">
-        <v>8</v>
-      </c>
-      <c r="W17" s="158" t="s">
-        <v>8</v>
-      </c>
-      <c r="X17" s="158">
+      <c r="T17" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="U17" s="157" t="s">
+        <v>8</v>
+      </c>
+      <c r="V17" s="154" t="s">
+        <v>8</v>
+      </c>
+      <c r="W17" s="154" t="s">
+        <v>8</v>
+      </c>
+      <c r="X17" s="154">
         <v>22</v>
       </c>
-      <c r="Y17" s="105">
+      <c r="Y17" s="126">
         <v>6060</v>
       </c>
     </row>
     <row r="18" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="164"/>
-      <c r="B18" s="165"/>
-      <c r="C18" s="157"/>
+      <c r="A18" s="160"/>
+      <c r="B18" s="161"/>
+      <c r="C18" s="162"/>
       <c r="D18" s="26">
         <v>4</v>
       </c>
@@ -11351,21 +11351,21 @@
       <c r="S18" s="26">
         <v>4</v>
       </c>
-      <c r="T18" s="109"/>
-      <c r="U18" s="162"/>
-      <c r="V18" s="160"/>
-      <c r="W18" s="160"/>
-      <c r="X18" s="159"/>
-      <c r="Y18" s="105"/>
+      <c r="T18" s="121"/>
+      <c r="U18" s="158"/>
+      <c r="V18" s="155"/>
+      <c r="W18" s="155"/>
+      <c r="X18" s="156"/>
+      <c r="Y18" s="126"/>
       <c r="Z18" s="2">
         <f>SUM(D18:S18)</f>
         <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="164"/>
-      <c r="B19" s="165"/>
-      <c r="C19" s="157"/>
+      <c r="A19" s="160"/>
+      <c r="B19" s="161"/>
+      <c r="C19" s="162"/>
       <c r="D19" s="27">
         <v>17</v>
       </c>
@@ -11414,20 +11414,20 @@
       <c r="S19" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T19" s="109"/>
-      <c r="U19" s="162"/>
-      <c r="V19" s="160"/>
-      <c r="W19" s="160"/>
-      <c r="X19" s="102">
+      <c r="T19" s="121"/>
+      <c r="U19" s="158"/>
+      <c r="V19" s="155"/>
+      <c r="W19" s="155"/>
+      <c r="X19" s="123">
         <f>Z18+Z20</f>
         <v>88</v>
       </c>
-      <c r="Y19" s="105"/>
+      <c r="Y19" s="126"/>
     </row>
     <row r="20" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="164"/>
-      <c r="B20" s="165"/>
-      <c r="C20" s="157"/>
+      <c r="A20" s="160"/>
+      <c r="B20" s="161"/>
+      <c r="C20" s="162"/>
       <c r="D20" s="26">
         <v>4</v>
       </c>
@@ -11476,25 +11476,25 @@
       <c r="S20" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T20" s="110"/>
-      <c r="U20" s="163"/>
-      <c r="V20" s="159"/>
-      <c r="W20" s="159"/>
-      <c r="X20" s="104"/>
-      <c r="Y20" s="105"/>
+      <c r="T20" s="122"/>
+      <c r="U20" s="159"/>
+      <c r="V20" s="156"/>
+      <c r="W20" s="156"/>
+      <c r="X20" s="125"/>
+      <c r="Y20" s="126"/>
       <c r="Z20" s="2">
         <f>SUM(D20:S20)</f>
         <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="134">
+      <c r="A21" s="131">
         <v>4</v>
       </c>
-      <c r="B21" s="154" t="s">
+      <c r="B21" s="163" t="s">
         <v>87</v>
       </c>
-      <c r="C21" s="157" t="s">
+      <c r="C21" s="162" t="s">
         <v>26</v>
       </c>
       <c r="D21" s="25">
@@ -11545,29 +11545,29 @@
       <c r="S21" s="25">
         <v>16</v>
       </c>
-      <c r="T21" s="108" t="s">
-        <v>8</v>
-      </c>
-      <c r="U21" s="108" t="s">
-        <v>8</v>
-      </c>
-      <c r="V21" s="102" t="s">
-        <v>8</v>
-      </c>
-      <c r="W21" s="102" t="s">
-        <v>8</v>
-      </c>
-      <c r="X21" s="102">
+      <c r="T21" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="U21" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="V21" s="123" t="s">
+        <v>8</v>
+      </c>
+      <c r="W21" s="123" t="s">
+        <v>8</v>
+      </c>
+      <c r="X21" s="123">
         <v>22</v>
       </c>
-      <c r="Y21" s="105">
+      <c r="Y21" s="126">
         <v>6060</v>
       </c>
     </row>
     <row r="22" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="135"/>
-      <c r="B22" s="155"/>
-      <c r="C22" s="157"/>
+      <c r="A22" s="132"/>
+      <c r="B22" s="164"/>
+      <c r="C22" s="162"/>
       <c r="D22" s="26" t="s">
         <v>88</v>
       </c>
@@ -11616,21 +11616,21 @@
       <c r="S22" s="26">
         <v>8</v>
       </c>
-      <c r="T22" s="109"/>
-      <c r="U22" s="109"/>
-      <c r="V22" s="103"/>
-      <c r="W22" s="103"/>
-      <c r="X22" s="103"/>
-      <c r="Y22" s="105"/>
+      <c r="T22" s="121"/>
+      <c r="U22" s="121"/>
+      <c r="V22" s="124"/>
+      <c r="W22" s="124"/>
+      <c r="X22" s="124"/>
+      <c r="Y22" s="126"/>
       <c r="Z22" s="2">
         <f>SUM(D22:S22)</f>
         <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="135"/>
-      <c r="B23" s="155"/>
-      <c r="C23" s="157"/>
+      <c r="A23" s="132"/>
+      <c r="B23" s="164"/>
+      <c r="C23" s="162"/>
       <c r="D23" s="27">
         <v>17</v>
       </c>
@@ -11679,20 +11679,20 @@
       <c r="S23" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T23" s="109"/>
-      <c r="U23" s="109"/>
-      <c r="V23" s="103"/>
-      <c r="W23" s="103"/>
-      <c r="X23" s="102">
+      <c r="T23" s="121"/>
+      <c r="U23" s="121"/>
+      <c r="V23" s="124"/>
+      <c r="W23" s="124"/>
+      <c r="X23" s="123">
         <f>Z22+Z24</f>
         <v>88</v>
       </c>
-      <c r="Y23" s="105"/>
+      <c r="Y23" s="126"/>
     </row>
     <row r="24" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="136"/>
-      <c r="B24" s="156"/>
-      <c r="C24" s="157"/>
+      <c r="A24" s="133"/>
+      <c r="B24" s="165"/>
+      <c r="C24" s="162"/>
       <c r="D24" s="26">
         <v>8</v>
       </c>
@@ -11741,25 +11741,25 @@
       <c r="S24" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T24" s="110"/>
-      <c r="U24" s="110"/>
-      <c r="V24" s="104"/>
-      <c r="W24" s="104"/>
-      <c r="X24" s="104"/>
-      <c r="Y24" s="105"/>
+      <c r="T24" s="122"/>
+      <c r="U24" s="122"/>
+      <c r="V24" s="125"/>
+      <c r="W24" s="125"/>
+      <c r="X24" s="125"/>
+      <c r="Y24" s="126"/>
       <c r="Z24" s="2">
         <f>SUM(D24:S24)</f>
         <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="134">
+      <c r="A25" s="131">
         <v>4</v>
       </c>
-      <c r="B25" s="154" t="s">
+      <c r="B25" s="163" t="s">
         <v>101</v>
       </c>
-      <c r="C25" s="157" t="s">
+      <c r="C25" s="162" t="s">
         <v>26</v>
       </c>
       <c r="D25" s="25">
@@ -11810,29 +11810,29 @@
       <c r="S25" s="25">
         <v>16</v>
       </c>
-      <c r="T25" s="108" t="s">
-        <v>8</v>
-      </c>
-      <c r="U25" s="108" t="s">
-        <v>8</v>
-      </c>
-      <c r="V25" s="102" t="s">
-        <v>8</v>
-      </c>
-      <c r="W25" s="102" t="s">
-        <v>8</v>
-      </c>
-      <c r="X25" s="102">
+      <c r="T25" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="U25" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="V25" s="123" t="s">
+        <v>8</v>
+      </c>
+      <c r="W25" s="123" t="s">
+        <v>8</v>
+      </c>
+      <c r="X25" s="123">
         <v>22</v>
       </c>
-      <c r="Y25" s="105">
+      <c r="Y25" s="126">
         <v>6060</v>
       </c>
     </row>
     <row r="26" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="135"/>
-      <c r="B26" s="155"/>
-      <c r="C26" s="157"/>
+      <c r="A26" s="132"/>
+      <c r="B26" s="164"/>
+      <c r="C26" s="162"/>
       <c r="D26" s="26" t="s">
         <v>88</v>
       </c>
@@ -11881,21 +11881,21 @@
       <c r="S26" s="26">
         <v>8</v>
       </c>
-      <c r="T26" s="109"/>
-      <c r="U26" s="109"/>
-      <c r="V26" s="103"/>
-      <c r="W26" s="103"/>
-      <c r="X26" s="103"/>
-      <c r="Y26" s="105"/>
+      <c r="T26" s="121"/>
+      <c r="U26" s="121"/>
+      <c r="V26" s="124"/>
+      <c r="W26" s="124"/>
+      <c r="X26" s="124"/>
+      <c r="Y26" s="126"/>
       <c r="Z26" s="2">
         <f>SUM(D26:S26)</f>
         <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="135"/>
-      <c r="B27" s="155"/>
-      <c r="C27" s="157"/>
+      <c r="A27" s="132"/>
+      <c r="B27" s="164"/>
+      <c r="C27" s="162"/>
       <c r="D27" s="27">
         <v>17</v>
       </c>
@@ -11944,20 +11944,20 @@
       <c r="S27" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T27" s="109"/>
-      <c r="U27" s="109"/>
-      <c r="V27" s="103"/>
-      <c r="W27" s="103"/>
-      <c r="X27" s="102">
+      <c r="T27" s="121"/>
+      <c r="U27" s="121"/>
+      <c r="V27" s="124"/>
+      <c r="W27" s="124"/>
+      <c r="X27" s="123">
         <f>Z26+Z28</f>
         <v>88</v>
       </c>
-      <c r="Y27" s="105"/>
+      <c r="Y27" s="126"/>
     </row>
     <row r="28" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="136"/>
-      <c r="B28" s="156"/>
-      <c r="C28" s="157"/>
+      <c r="A28" s="133"/>
+      <c r="B28" s="165"/>
+      <c r="C28" s="162"/>
       <c r="D28" s="26">
         <v>8</v>
       </c>
@@ -12006,12 +12006,12 @@
       <c r="S28" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T28" s="110"/>
-      <c r="U28" s="110"/>
-      <c r="V28" s="104"/>
-      <c r="W28" s="104"/>
-      <c r="X28" s="104"/>
-      <c r="Y28" s="105"/>
+      <c r="T28" s="122"/>
+      <c r="U28" s="122"/>
+      <c r="V28" s="125"/>
+      <c r="W28" s="125"/>
+      <c r="X28" s="125"/>
+      <c r="Y28" s="126"/>
       <c r="Z28" s="2">
         <f>SUM(D28:S28)</f>
         <v>80</v>
@@ -12051,10 +12051,10 @@
       </c>
     </row>
     <row r="30" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="106" t="s">
+      <c r="A30" s="127" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="106"/>
+      <c r="B30" s="127"/>
       <c r="C30" s="96">
         <f>Мельницький!C36</f>
         <v>44531</v>
@@ -12215,6 +12215,54 @@
     </row>
   </sheetData>
   <mergeCells count="64">
+    <mergeCell ref="V25:V28"/>
+    <mergeCell ref="W25:W28"/>
+    <mergeCell ref="X25:X26"/>
+    <mergeCell ref="Y25:Y28"/>
+    <mergeCell ref="X27:X28"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="C25:C28"/>
+    <mergeCell ref="T25:T28"/>
+    <mergeCell ref="U25:U28"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="T13:T16"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="T9:T12"/>
+    <mergeCell ref="T21:T24"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A5:W5"/>
+    <mergeCell ref="A6:W6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:S8"/>
+    <mergeCell ref="T7:T8"/>
+    <mergeCell ref="U7:U8"/>
+    <mergeCell ref="V7:V8"/>
+    <mergeCell ref="W7:W8"/>
+    <mergeCell ref="X21:X22"/>
+    <mergeCell ref="Y21:Y24"/>
+    <mergeCell ref="V21:V24"/>
+    <mergeCell ref="U21:U24"/>
+    <mergeCell ref="X23:X24"/>
+    <mergeCell ref="X7:X8"/>
+    <mergeCell ref="Y7:Y8"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="Y9:Y12"/>
+    <mergeCell ref="X11:X12"/>
+    <mergeCell ref="X13:X14"/>
+    <mergeCell ref="Y13:Y16"/>
+    <mergeCell ref="X15:X16"/>
+    <mergeCell ref="X17:X18"/>
+    <mergeCell ref="Y17:Y20"/>
+    <mergeCell ref="X19:X20"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="W9:W12"/>
     <mergeCell ref="W17:W20"/>
@@ -12231,54 +12279,6 @@
     <mergeCell ref="V13:V16"/>
     <mergeCell ref="V17:V20"/>
     <mergeCell ref="A9:A12"/>
-    <mergeCell ref="X13:X14"/>
-    <mergeCell ref="Y13:Y16"/>
-    <mergeCell ref="X15:X16"/>
-    <mergeCell ref="X17:X18"/>
-    <mergeCell ref="Y17:Y20"/>
-    <mergeCell ref="X19:X20"/>
-    <mergeCell ref="X7:X8"/>
-    <mergeCell ref="Y7:Y8"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="Y9:Y12"/>
-    <mergeCell ref="X11:X12"/>
-    <mergeCell ref="X21:X22"/>
-    <mergeCell ref="Y21:Y24"/>
-    <mergeCell ref="V21:V24"/>
-    <mergeCell ref="U21:U24"/>
-    <mergeCell ref="X23:X24"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A5:W5"/>
-    <mergeCell ref="A6:W6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:S8"/>
-    <mergeCell ref="T7:T8"/>
-    <mergeCell ref="U7:U8"/>
-    <mergeCell ref="V7:V8"/>
-    <mergeCell ref="W7:W8"/>
-    <mergeCell ref="C9:C12"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="T9:T12"/>
-    <mergeCell ref="T21:T24"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="C21:C24"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="C13:C16"/>
-    <mergeCell ref="T13:T16"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="C25:C28"/>
-    <mergeCell ref="T25:T28"/>
-    <mergeCell ref="U25:U28"/>
-    <mergeCell ref="V25:V28"/>
-    <mergeCell ref="W25:W28"/>
-    <mergeCell ref="X25:X26"/>
-    <mergeCell ref="Y25:Y28"/>
-    <mergeCell ref="X27:X28"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -12312,11 +12312,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
       <c r="Q1" s="15" t="s">
         <v>40</v>
       </c>
@@ -12430,141 +12430,141 @@
       <c r="W5" s="70"/>
     </row>
     <row r="6" spans="1:25" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A6" s="118" t="s">
+      <c r="A6" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="118"/>
-      <c r="C6" s="118"/>
-      <c r="D6" s="118"/>
-      <c r="E6" s="118"/>
-      <c r="F6" s="118"/>
-      <c r="G6" s="118"/>
-      <c r="H6" s="118"/>
-      <c r="I6" s="118"/>
-      <c r="J6" s="118"/>
-      <c r="K6" s="118"/>
-      <c r="L6" s="118"/>
-      <c r="M6" s="118"/>
-      <c r="N6" s="118"/>
-      <c r="O6" s="118"/>
-      <c r="P6" s="118"/>
-      <c r="Q6" s="118"/>
-      <c r="R6" s="118"/>
-      <c r="S6" s="118"/>
-      <c r="T6" s="118"/>
-      <c r="U6" s="118"/>
-      <c r="V6" s="118"/>
-      <c r="W6" s="118"/>
+      <c r="B6" s="106"/>
+      <c r="C6" s="106"/>
+      <c r="D6" s="106"/>
+      <c r="E6" s="106"/>
+      <c r="F6" s="106"/>
+      <c r="G6" s="106"/>
+      <c r="H6" s="106"/>
+      <c r="I6" s="106"/>
+      <c r="J6" s="106"/>
+      <c r="K6" s="106"/>
+      <c r="L6" s="106"/>
+      <c r="M6" s="106"/>
+      <c r="N6" s="106"/>
+      <c r="O6" s="106"/>
+      <c r="P6" s="106"/>
+      <c r="Q6" s="106"/>
+      <c r="R6" s="106"/>
+      <c r="S6" s="106"/>
+      <c r="T6" s="106"/>
+      <c r="U6" s="106"/>
+      <c r="V6" s="106"/>
+      <c r="W6" s="106"/>
     </row>
     <row r="7" spans="1:25" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A7" s="118" t="s">
+      <c r="A7" s="106" t="s">
         <v>89</v>
       </c>
-      <c r="B7" s="118"/>
-      <c r="C7" s="118"/>
-      <c r="D7" s="118"/>
-      <c r="E7" s="118"/>
-      <c r="F7" s="118"/>
-      <c r="G7" s="118"/>
-      <c r="H7" s="118"/>
-      <c r="I7" s="118"/>
-      <c r="J7" s="118"/>
-      <c r="K7" s="118"/>
-      <c r="L7" s="118"/>
-      <c r="M7" s="118"/>
-      <c r="N7" s="118"/>
-      <c r="O7" s="118"/>
-      <c r="P7" s="118"/>
-      <c r="Q7" s="118"/>
-      <c r="R7" s="118"/>
-      <c r="S7" s="118"/>
-      <c r="T7" s="118"/>
-      <c r="U7" s="118"/>
-      <c r="V7" s="118"/>
-      <c r="W7" s="118"/>
+      <c r="B7" s="106"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="106"/>
+      <c r="E7" s="106"/>
+      <c r="F7" s="106"/>
+      <c r="G7" s="106"/>
+      <c r="H7" s="106"/>
+      <c r="I7" s="106"/>
+      <c r="J7" s="106"/>
+      <c r="K7" s="106"/>
+      <c r="L7" s="106"/>
+      <c r="M7" s="106"/>
+      <c r="N7" s="106"/>
+      <c r="O7" s="106"/>
+      <c r="P7" s="106"/>
+      <c r="Q7" s="106"/>
+      <c r="R7" s="106"/>
+      <c r="S7" s="106"/>
+      <c r="T7" s="106"/>
+      <c r="U7" s="106"/>
+      <c r="V7" s="106"/>
+      <c r="W7" s="106"/>
     </row>
     <row r="8" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="120" t="s">
+      <c r="A8" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="120" t="s">
+      <c r="B8" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="120" t="s">
+      <c r="C8" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="120" t="s">
+      <c r="D8" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="120"/>
-      <c r="F8" s="120"/>
-      <c r="G8" s="120"/>
-      <c r="H8" s="120"/>
-      <c r="I8" s="120"/>
-      <c r="J8" s="120"/>
-      <c r="K8" s="120"/>
-      <c r="L8" s="120"/>
-      <c r="M8" s="120"/>
-      <c r="N8" s="120"/>
-      <c r="O8" s="120"/>
-      <c r="P8" s="120"/>
-      <c r="Q8" s="120"/>
-      <c r="R8" s="120"/>
-      <c r="S8" s="120"/>
-      <c r="T8" s="128" t="s">
+      <c r="E8" s="108"/>
+      <c r="F8" s="108"/>
+      <c r="G8" s="108"/>
+      <c r="H8" s="108"/>
+      <c r="I8" s="108"/>
+      <c r="J8" s="108"/>
+      <c r="K8" s="108"/>
+      <c r="L8" s="108"/>
+      <c r="M8" s="108"/>
+      <c r="N8" s="108"/>
+      <c r="O8" s="108"/>
+      <c r="P8" s="108"/>
+      <c r="Q8" s="108"/>
+      <c r="R8" s="108"/>
+      <c r="S8" s="108"/>
+      <c r="T8" s="116" t="s">
         <v>48</v>
       </c>
-      <c r="U8" s="128" t="s">
+      <c r="U8" s="116" t="s">
         <v>49</v>
       </c>
-      <c r="V8" s="128" t="s">
+      <c r="V8" s="116" t="s">
         <v>50</v>
       </c>
-      <c r="W8" s="128" t="s">
+      <c r="W8" s="116" t="s">
         <v>47</v>
       </c>
-      <c r="X8" s="128" t="s">
+      <c r="X8" s="116" t="s">
         <v>46</v>
       </c>
-      <c r="Y8" s="114" t="s">
+      <c r="Y8" s="102" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="120"/>
-      <c r="B9" s="120"/>
-      <c r="C9" s="120"/>
-      <c r="D9" s="120"/>
-      <c r="E9" s="120"/>
-      <c r="F9" s="120"/>
-      <c r="G9" s="120"/>
-      <c r="H9" s="120"/>
-      <c r="I9" s="120"/>
-      <c r="J9" s="120"/>
-      <c r="K9" s="120"/>
-      <c r="L9" s="120"/>
-      <c r="M9" s="120"/>
-      <c r="N9" s="120"/>
-      <c r="O9" s="120"/>
-      <c r="P9" s="120"/>
-      <c r="Q9" s="120"/>
-      <c r="R9" s="120"/>
-      <c r="S9" s="120"/>
-      <c r="T9" s="128"/>
-      <c r="U9" s="128"/>
-      <c r="V9" s="128"/>
-      <c r="W9" s="128"/>
-      <c r="X9" s="128"/>
-      <c r="Y9" s="114"/>
+      <c r="A9" s="108"/>
+      <c r="B9" s="108"/>
+      <c r="C9" s="108"/>
+      <c r="D9" s="108"/>
+      <c r="E9" s="108"/>
+      <c r="F9" s="108"/>
+      <c r="G9" s="108"/>
+      <c r="H9" s="108"/>
+      <c r="I9" s="108"/>
+      <c r="J9" s="108"/>
+      <c r="K9" s="108"/>
+      <c r="L9" s="108"/>
+      <c r="M9" s="108"/>
+      <c r="N9" s="108"/>
+      <c r="O9" s="108"/>
+      <c r="P9" s="108"/>
+      <c r="Q9" s="108"/>
+      <c r="R9" s="108"/>
+      <c r="S9" s="108"/>
+      <c r="T9" s="116"/>
+      <c r="U9" s="116"/>
+      <c r="V9" s="116"/>
+      <c r="W9" s="116"/>
+      <c r="X9" s="116"/>
+      <c r="Y9" s="102"/>
     </row>
     <row r="10" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="111">
+      <c r="A10" s="117">
         <v>1</v>
       </c>
-      <c r="B10" s="112" t="s">
+      <c r="B10" s="118" t="s">
         <v>85</v>
       </c>
-      <c r="C10" s="113" t="s">
+      <c r="C10" s="119" t="s">
         <v>84</v>
       </c>
       <c r="D10" s="25">
@@ -12615,29 +12615,29 @@
       <c r="S10" s="25">
         <v>16</v>
       </c>
-      <c r="T10" s="108" t="s">
-        <v>8</v>
-      </c>
-      <c r="U10" s="108" t="s">
-        <v>8</v>
-      </c>
-      <c r="V10" s="102" t="s">
-        <v>8</v>
-      </c>
-      <c r="W10" s="102" t="s">
-        <v>8</v>
-      </c>
-      <c r="X10" s="102" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y10" s="105">
+      <c r="T10" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="U10" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="V10" s="123" t="s">
+        <v>8</v>
+      </c>
+      <c r="W10" s="123" t="s">
+        <v>8</v>
+      </c>
+      <c r="X10" s="123" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y10" s="126">
         <v>4770</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="111"/>
-      <c r="B11" s="112"/>
-      <c r="C11" s="113"/>
+      <c r="A11" s="117"/>
+      <c r="B11" s="118"/>
+      <c r="C11" s="119"/>
       <c r="D11" s="26" t="s">
         <v>88</v>
       </c>
@@ -12686,17 +12686,17 @@
       <c r="S11" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="T11" s="109"/>
-      <c r="U11" s="109"/>
-      <c r="V11" s="103"/>
-      <c r="W11" s="103"/>
-      <c r="X11" s="104"/>
-      <c r="Y11" s="105"/>
+      <c r="T11" s="121"/>
+      <c r="U11" s="121"/>
+      <c r="V11" s="124"/>
+      <c r="W11" s="124"/>
+      <c r="X11" s="125"/>
+      <c r="Y11" s="126"/>
     </row>
     <row r="12" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="111"/>
-      <c r="B12" s="112"/>
-      <c r="C12" s="113"/>
+      <c r="A12" s="117"/>
+      <c r="B12" s="118"/>
+      <c r="C12" s="119"/>
       <c r="D12" s="27">
         <v>17</v>
       </c>
@@ -12745,19 +12745,19 @@
       <c r="S12" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T12" s="109"/>
-      <c r="U12" s="109"/>
-      <c r="V12" s="103"/>
-      <c r="W12" s="103"/>
-      <c r="X12" s="102" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y12" s="105"/>
+      <c r="T12" s="121"/>
+      <c r="U12" s="121"/>
+      <c r="V12" s="124"/>
+      <c r="W12" s="124"/>
+      <c r="X12" s="123" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y12" s="126"/>
     </row>
     <row r="13" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="111"/>
-      <c r="B13" s="112"/>
-      <c r="C13" s="113"/>
+      <c r="A13" s="117"/>
+      <c r="B13" s="118"/>
+      <c r="C13" s="119"/>
       <c r="D13" s="26" t="s">
         <v>88</v>
       </c>
@@ -12806,12 +12806,12 @@
       <c r="S13" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T13" s="110"/>
-      <c r="U13" s="110"/>
-      <c r="V13" s="104"/>
-      <c r="W13" s="104"/>
-      <c r="X13" s="104"/>
-      <c r="Y13" s="105"/>
+      <c r="T13" s="122"/>
+      <c r="U13" s="122"/>
+      <c r="V13" s="125"/>
+      <c r="W13" s="125"/>
+      <c r="X13" s="125"/>
+      <c r="Y13" s="126"/>
     </row>
     <row r="14" spans="1:25" s="69" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="68"/>
@@ -12826,10 +12826,10 @@
       </c>
     </row>
     <row r="15" spans="1:25" ht="18" x14ac:dyDescent="0.3">
-      <c r="A15" s="106" t="s">
+      <c r="A15" s="127" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="106"/>
+      <c r="B15" s="127"/>
       <c r="C15" s="71">
         <f>Мельницький!C36</f>
         <v>44531</v>
@@ -12896,16 +12896,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="W10:W13"/>
-    <mergeCell ref="X12:X13"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="T10:T13"/>
-    <mergeCell ref="U10:U13"/>
-    <mergeCell ref="V10:V13"/>
-    <mergeCell ref="X10:X11"/>
     <mergeCell ref="Y10:Y13"/>
     <mergeCell ref="X8:X9"/>
     <mergeCell ref="Y8:Y9"/>
@@ -12920,6 +12910,16 @@
     <mergeCell ref="U8:U9"/>
     <mergeCell ref="V8:V9"/>
     <mergeCell ref="W8:W9"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="W10:W13"/>
+    <mergeCell ref="X12:X13"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="T10:T13"/>
+    <mergeCell ref="U10:U13"/>
+    <mergeCell ref="V10:V13"/>
+    <mergeCell ref="X10:X11"/>
   </mergeCells>
   <pageMargins left="0.31496062992125984" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -13084,63 +13084,63 @@
       <c r="Y5" s="60"/>
     </row>
     <row r="6" spans="1:26" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A6" s="118" t="s">
+      <c r="A6" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="118"/>
-      <c r="C6" s="118"/>
-      <c r="D6" s="118"/>
-      <c r="E6" s="118"/>
-      <c r="F6" s="118"/>
-      <c r="G6" s="118"/>
-      <c r="H6" s="118"/>
-      <c r="I6" s="118"/>
-      <c r="J6" s="118"/>
-      <c r="K6" s="118"/>
-      <c r="L6" s="118"/>
-      <c r="M6" s="118"/>
-      <c r="N6" s="118"/>
-      <c r="O6" s="118"/>
-      <c r="P6" s="118"/>
-      <c r="Q6" s="118"/>
-      <c r="R6" s="118"/>
-      <c r="S6" s="118"/>
-      <c r="T6" s="118"/>
-      <c r="U6" s="118"/>
-      <c r="V6" s="118"/>
-      <c r="W6" s="118"/>
-      <c r="X6" s="118"/>
-      <c r="Y6" s="118"/>
+      <c r="B6" s="106"/>
+      <c r="C6" s="106"/>
+      <c r="D6" s="106"/>
+      <c r="E6" s="106"/>
+      <c r="F6" s="106"/>
+      <c r="G6" s="106"/>
+      <c r="H6" s="106"/>
+      <c r="I6" s="106"/>
+      <c r="J6" s="106"/>
+      <c r="K6" s="106"/>
+      <c r="L6" s="106"/>
+      <c r="M6" s="106"/>
+      <c r="N6" s="106"/>
+      <c r="O6" s="106"/>
+      <c r="P6" s="106"/>
+      <c r="Q6" s="106"/>
+      <c r="R6" s="106"/>
+      <c r="S6" s="106"/>
+      <c r="T6" s="106"/>
+      <c r="U6" s="106"/>
+      <c r="V6" s="106"/>
+      <c r="W6" s="106"/>
+      <c r="X6" s="106"/>
+      <c r="Y6" s="106"/>
     </row>
     <row r="7" spans="1:26" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A7" s="118" t="str">
+      <c r="A7" s="106" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ЛИСТОПАД 2021р.</v>
       </c>
-      <c r="B7" s="118"/>
-      <c r="C7" s="118"/>
-      <c r="D7" s="118"/>
-      <c r="E7" s="118"/>
-      <c r="F7" s="118"/>
-      <c r="G7" s="118"/>
-      <c r="H7" s="118"/>
-      <c r="I7" s="118"/>
-      <c r="J7" s="118"/>
-      <c r="K7" s="118"/>
-      <c r="L7" s="118"/>
-      <c r="M7" s="118"/>
-      <c r="N7" s="118"/>
-      <c r="O7" s="118"/>
-      <c r="P7" s="118"/>
-      <c r="Q7" s="118"/>
-      <c r="R7" s="118"/>
-      <c r="S7" s="118"/>
-      <c r="T7" s="118"/>
-      <c r="U7" s="118"/>
-      <c r="V7" s="118"/>
-      <c r="W7" s="118"/>
-      <c r="X7" s="118"/>
-      <c r="Y7" s="118"/>
+      <c r="B7" s="106"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="106"/>
+      <c r="E7" s="106"/>
+      <c r="F7" s="106"/>
+      <c r="G7" s="106"/>
+      <c r="H7" s="106"/>
+      <c r="I7" s="106"/>
+      <c r="J7" s="106"/>
+      <c r="K7" s="106"/>
+      <c r="L7" s="106"/>
+      <c r="M7" s="106"/>
+      <c r="N7" s="106"/>
+      <c r="O7" s="106"/>
+      <c r="P7" s="106"/>
+      <c r="Q7" s="106"/>
+      <c r="R7" s="106"/>
+      <c r="S7" s="106"/>
+      <c r="T7" s="106"/>
+      <c r="U7" s="106"/>
+      <c r="V7" s="106"/>
+      <c r="W7" s="106"/>
+      <c r="X7" s="106"/>
+      <c r="Y7" s="106"/>
     </row>
     <row r="8" spans="1:26" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A8" s="61"/>
@@ -13170,94 +13170,94 @@
       <c r="Y8" s="61"/>
     </row>
     <row r="9" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="120" t="s">
+      <c r="A9" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="121" t="s">
+      <c r="B9" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="120" t="s">
+      <c r="C9" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="120" t="s">
+      <c r="D9" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="120" t="s">
+      <c r="E9" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="120"/>
-      <c r="G9" s="120"/>
-      <c r="H9" s="120"/>
-      <c r="I9" s="120"/>
-      <c r="J9" s="120"/>
-      <c r="K9" s="120"/>
-      <c r="L9" s="120"/>
-      <c r="M9" s="120"/>
-      <c r="N9" s="120"/>
-      <c r="O9" s="120"/>
-      <c r="P9" s="120"/>
-      <c r="Q9" s="120"/>
-      <c r="R9" s="120"/>
-      <c r="S9" s="120"/>
-      <c r="T9" s="120"/>
-      <c r="U9" s="128" t="s">
+      <c r="F9" s="108"/>
+      <c r="G9" s="108"/>
+      <c r="H9" s="108"/>
+      <c r="I9" s="108"/>
+      <c r="J9" s="108"/>
+      <c r="K9" s="108"/>
+      <c r="L9" s="108"/>
+      <c r="M9" s="108"/>
+      <c r="N9" s="108"/>
+      <c r="O9" s="108"/>
+      <c r="P9" s="108"/>
+      <c r="Q9" s="108"/>
+      <c r="R9" s="108"/>
+      <c r="S9" s="108"/>
+      <c r="T9" s="108"/>
+      <c r="U9" s="116" t="s">
         <v>48</v>
       </c>
-      <c r="V9" s="128" t="s">
+      <c r="V9" s="116" t="s">
         <v>49</v>
       </c>
-      <c r="W9" s="128" t="s">
+      <c r="W9" s="116" t="s">
         <v>50</v>
       </c>
-      <c r="X9" s="128" t="s">
+      <c r="X9" s="116" t="s">
         <v>47</v>
       </c>
-      <c r="Y9" s="128" t="s">
+      <c r="Y9" s="116" t="s">
         <v>46</v>
       </c>
-      <c r="Z9" s="114" t="s">
+      <c r="Z9" s="102" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="120"/>
-      <c r="B10" s="121"/>
-      <c r="C10" s="120"/>
-      <c r="D10" s="120"/>
-      <c r="E10" s="120"/>
-      <c r="F10" s="120"/>
-      <c r="G10" s="120"/>
-      <c r="H10" s="120"/>
-      <c r="I10" s="120"/>
-      <c r="J10" s="120"/>
-      <c r="K10" s="120"/>
-      <c r="L10" s="120"/>
-      <c r="M10" s="120"/>
-      <c r="N10" s="120"/>
-      <c r="O10" s="120"/>
-      <c r="P10" s="120"/>
-      <c r="Q10" s="120"/>
-      <c r="R10" s="120"/>
-      <c r="S10" s="120"/>
-      <c r="T10" s="120"/>
-      <c r="U10" s="128"/>
-      <c r="V10" s="128"/>
-      <c r="W10" s="128"/>
-      <c r="X10" s="128"/>
-      <c r="Y10" s="128"/>
-      <c r="Z10" s="114"/>
+      <c r="A10" s="108"/>
+      <c r="B10" s="109"/>
+      <c r="C10" s="108"/>
+      <c r="D10" s="108"/>
+      <c r="E10" s="108"/>
+      <c r="F10" s="108"/>
+      <c r="G10" s="108"/>
+      <c r="H10" s="108"/>
+      <c r="I10" s="108"/>
+      <c r="J10" s="108"/>
+      <c r="K10" s="108"/>
+      <c r="L10" s="108"/>
+      <c r="M10" s="108"/>
+      <c r="N10" s="108"/>
+      <c r="O10" s="108"/>
+      <c r="P10" s="108"/>
+      <c r="Q10" s="108"/>
+      <c r="R10" s="108"/>
+      <c r="S10" s="108"/>
+      <c r="T10" s="108"/>
+      <c r="U10" s="116"/>
+      <c r="V10" s="116"/>
+      <c r="W10" s="116"/>
+      <c r="X10" s="116"/>
+      <c r="Y10" s="116"/>
+      <c r="Z10" s="102"/>
     </row>
     <row r="11" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="111">
+      <c r="A11" s="117">
         <v>1</v>
       </c>
-      <c r="B11" s="111">
+      <c r="B11" s="117">
         <v>1</v>
       </c>
-      <c r="C11" s="112" t="s">
+      <c r="C11" s="118" t="s">
         <v>80</v>
       </c>
-      <c r="D11" s="113" t="s">
+      <c r="D11" s="119" t="s">
         <v>16</v>
       </c>
       <c r="E11" s="25">
@@ -13308,17 +13308,17 @@
       <c r="T11" s="25">
         <v>16</v>
       </c>
-      <c r="U11" s="108" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="108" t="s">
-        <v>8</v>
-      </c>
-      <c r="W11" s="102" t="s">
+      <c r="U11" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11" s="123" t="s">
         <v>8</v>
       </c>
       <c r="X11" s="150"/>
-      <c r="Y11" s="102">
+      <c r="Y11" s="123">
         <v>20</v>
       </c>
       <c r="Z11" s="166">
@@ -13326,10 +13326,10 @@
       </c>
     </row>
     <row r="12" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="111"/>
-      <c r="B12" s="111"/>
-      <c r="C12" s="112"/>
-      <c r="D12" s="113"/>
+      <c r="A12" s="117"/>
+      <c r="B12" s="117"/>
+      <c r="C12" s="118"/>
+      <c r="D12" s="119"/>
       <c r="E12" s="26" t="s">
         <v>88</v>
       </c>
@@ -13378,18 +13378,18 @@
       <c r="T12" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="U12" s="109"/>
-      <c r="V12" s="109"/>
-      <c r="W12" s="103"/>
+      <c r="U12" s="121"/>
+      <c r="V12" s="121"/>
+      <c r="W12" s="124"/>
       <c r="X12" s="151"/>
-      <c r="Y12" s="104"/>
+      <c r="Y12" s="125"/>
       <c r="Z12" s="166"/>
     </row>
     <row r="13" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="111"/>
-      <c r="B13" s="111"/>
-      <c r="C13" s="112"/>
-      <c r="D13" s="113"/>
+      <c r="A13" s="117"/>
+      <c r="B13" s="117"/>
+      <c r="C13" s="118"/>
+      <c r="D13" s="119"/>
       <c r="E13" s="27">
         <v>17</v>
       </c>
@@ -13438,20 +13438,20 @@
       <c r="T13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U13" s="109"/>
-      <c r="V13" s="109"/>
-      <c r="W13" s="103"/>
+      <c r="U13" s="121"/>
+      <c r="V13" s="121"/>
+      <c r="W13" s="124"/>
       <c r="X13" s="151"/>
-      <c r="Y13" s="102">
+      <c r="Y13" s="123">
         <v>160</v>
       </c>
       <c r="Z13" s="166"/>
     </row>
     <row r="14" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="111"/>
-      <c r="B14" s="111"/>
-      <c r="C14" s="112"/>
-      <c r="D14" s="113"/>
+      <c r="A14" s="117"/>
+      <c r="B14" s="117"/>
+      <c r="C14" s="118"/>
+      <c r="D14" s="119"/>
       <c r="E14" s="26" t="s">
         <v>88</v>
       </c>
@@ -13500,18 +13500,18 @@
       <c r="T14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="110"/>
-      <c r="V14" s="110"/>
-      <c r="W14" s="104"/>
+      <c r="U14" s="122"/>
+      <c r="V14" s="122"/>
+      <c r="W14" s="125"/>
       <c r="X14" s="152"/>
-      <c r="Y14" s="104"/>
+      <c r="Y14" s="125"/>
       <c r="Z14" s="166"/>
     </row>
     <row r="15" spans="1:26" s="59" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="106" t="s">
+      <c r="B15" s="127" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="106"/>
+      <c r="C15" s="127"/>
       <c r="D15" s="58">
         <f>Мельницький!C36</f>
         <v>44531</v>
@@ -13575,18 +13575,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A6:Y6"/>
-    <mergeCell ref="A7:Y7"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:T10"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="Y9:Y10"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="Z9:Z10"/>
     <mergeCell ref="A11:A14"/>
@@ -13600,6 +13588,18 @@
     <mergeCell ref="Y11:Y12"/>
     <mergeCell ref="Z11:Z14"/>
     <mergeCell ref="Y13:Y14"/>
+    <mergeCell ref="A6:Y6"/>
+    <mergeCell ref="A7:Y7"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:T10"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="Y9:Y10"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
